--- a/Test_Data/TestData.xlsx
+++ b/Test_Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="990" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="990" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="CampAssign" sheetId="16" r:id="rId16"/>
     <sheet name="PersonalSettings" sheetId="17" r:id="rId17"/>
     <sheet name="My calendar" sheetId="18" r:id="rId18"/>
+    <sheet name="BambooHR" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6154" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="2113">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -6315,13 +6316,70 @@
   </si>
   <si>
     <t>/Users/automation/Desktop/Grovo_Automation/Test_Data/Appiz.pptx</t>
+  </si>
+  <si>
+    <t>subdomain name</t>
+  </si>
+  <si>
+    <t>API key</t>
+  </si>
+  <si>
+    <t>User_First name</t>
+  </si>
+  <si>
+    <t>sandbox_account_url</t>
+  </si>
+  <si>
+    <t>sandbox_username</t>
+  </si>
+  <si>
+    <t>sandbox_password</t>
+  </si>
+  <si>
+    <t>API_key_name</t>
+  </si>
+  <si>
+    <t>Employee_Id</t>
+  </si>
+  <si>
+    <t>Employee_first name</t>
+  </si>
+  <si>
+    <t>Employee_lastname</t>
+  </si>
+  <si>
+    <t>Work_Email</t>
+  </si>
+  <si>
+    <t>sandboxsubbs</t>
+  </si>
+  <si>
+    <t>5ced6ca19d95f4d9113c7f8e2f15f2c398b7722e</t>
+  </si>
+  <si>
+    <t>shavinbamboohr25</t>
+  </si>
+  <si>
+    <t>https://sandboxsubbs.bamboohr.com/</t>
+  </si>
+  <si>
+    <t>cnsubbuk143@gmail.com</t>
+  </si>
+  <si>
+    <t>testAPI</t>
+  </si>
+  <si>
+    <t>shavinbamboohr_104</t>
+  </si>
+  <si>
+    <t>shavinbamboohr_104_@grovo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6528,6 +6586,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -6775,7 +6839,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6962,6 +7026,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6974,25 +7048,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7001,11 +7072,14 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7015,31 +7089,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8209,10 +8279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="117"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
@@ -8243,10 +8313,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="117"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="28" t="s">
@@ -8296,10 +8366,10 @@
       <c r="B12" s="29"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="111"/>
+      <c r="B14" s="117"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="28" t="s">
@@ -8326,10 +8396,10 @@
       <c r="B18" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="117"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="28" t="s">
@@ -8360,10 +8430,10 @@
       <c r="B24" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="111"/>
+      <c r="B26" s="117"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="28" t="s">
@@ -9070,10 +9140,10 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="113" t="s">
+      <c r="A325" s="119" t="s">
         <v>970</v>
       </c>
-      <c r="B325" s="117"/>
+      <c r="B325" s="124"/>
     </row>
     <row r="326" spans="1:2" ht="30.95" customHeight="1">
       <c r="A326" s="28" t="s">
@@ -9124,10 +9194,10 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="113" t="s">
+      <c r="A332" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B332" s="117"/>
+      <c r="B332" s="124"/>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="28" t="s">
@@ -9194,10 +9264,10 @@
       <c r="B341" s="100"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="113" t="s">
+      <c r="A342" s="119" t="s">
         <v>987</v>
       </c>
-      <c r="B342" s="117"/>
+      <c r="B342" s="124"/>
     </row>
     <row r="343" spans="1:2" ht="30.95" customHeight="1">
       <c r="A343" s="28" t="s">
@@ -9264,10 +9334,10 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="113" t="s">
+      <c r="A351" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B351" s="117"/>
+      <c r="B351" s="124"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="28" t="s">
@@ -9302,10 +9372,10 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="118" t="s">
+      <c r="A356" s="125" t="s">
         <v>997</v>
       </c>
-      <c r="B356" s="117"/>
+      <c r="B356" s="124"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="28" t="s">
@@ -9362,10 +9432,10 @@
       <c r="B363" s="28"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="118" t="s">
+      <c r="A364" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B364" s="117"/>
+      <c r="B364" s="124"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="28" t="s">
@@ -9384,10 +9454,10 @@
       <c r="B367" s="100"/>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="113" t="s">
+      <c r="A368" s="119" t="s">
         <v>1005</v>
       </c>
-      <c r="B368" s="117"/>
+      <c r="B368" s="124"/>
     </row>
     <row r="369" spans="1:2" ht="30.95" customHeight="1">
       <c r="A369" s="28" t="s">
@@ -9454,10 +9524,10 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="113" t="s">
+      <c r="A377" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B377" s="117"/>
+      <c r="B377" s="124"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="28" t="s">
@@ -9520,10 +9590,10 @@
       <c r="B385" s="100"/>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="113" t="s">
+      <c r="A386" s="119" t="s">
         <v>1015</v>
       </c>
-      <c r="B386" s="117"/>
+      <c r="B386" s="124"/>
     </row>
     <row r="387" spans="1:2" ht="30.95" customHeight="1">
       <c r="A387" s="28" t="s">
@@ -9590,10 +9660,10 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="113" t="s">
+      <c r="A395" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B395" s="117"/>
+      <c r="B395" s="124"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="28" t="s">
@@ -9660,10 +9730,10 @@
       <c r="B404" s="100"/>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="113" t="s">
+      <c r="A405" s="119" t="s">
         <v>1023</v>
       </c>
-      <c r="B405" s="117"/>
+      <c r="B405" s="124"/>
     </row>
     <row r="406" spans="1:2" ht="30.95" customHeight="1">
       <c r="A406" s="28" t="s">
@@ -9738,10 +9808,10 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="119" t="s">
+      <c r="A415" s="123" t="s">
         <v>1030</v>
       </c>
-      <c r="B415" s="117"/>
+      <c r="B415" s="124"/>
     </row>
     <row r="416" spans="1:2" ht="30.95" customHeight="1">
       <c r="A416" s="28" t="s">
@@ -9784,10 +9854,10 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="113" t="s">
+      <c r="A421" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B421" s="117"/>
+      <c r="B421" s="124"/>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="28" t="s">
@@ -9854,10 +9924,10 @@
       <c r="B430" s="100"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="113" t="s">
+      <c r="A431" s="119" t="s">
         <v>1036</v>
       </c>
-      <c r="B431" s="117"/>
+      <c r="B431" s="124"/>
     </row>
     <row r="432" spans="1:2" ht="30.95" customHeight="1">
       <c r="A432" s="28" t="s">
@@ -9924,10 +9994,10 @@
       <c r="B440" s="100"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="113" t="s">
+      <c r="A441" s="119" t="s">
         <v>1041</v>
       </c>
-      <c r="B441" s="117"/>
+      <c r="B441" s="124"/>
     </row>
     <row r="442" spans="1:2" ht="30.95" customHeight="1">
       <c r="A442" s="28" t="s">
@@ -9994,10 +10064,10 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="113" t="s">
+      <c r="A450" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B450" s="117"/>
+      <c r="B450" s="124"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="28" t="s">
@@ -10056,10 +10126,10 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="118" t="s">
+      <c r="A458" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B458" s="117"/>
+      <c r="B458" s="124"/>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="28" t="s">
@@ -10078,10 +10148,10 @@
       <c r="B461" s="100"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="113" t="s">
+      <c r="A462" s="119" t="s">
         <v>1051</v>
       </c>
-      <c r="B462" s="117"/>
+      <c r="B462" s="124"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="28" t="s">
@@ -10148,10 +10218,10 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="113" t="s">
+      <c r="A471" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B471" s="117"/>
+      <c r="B471" s="124"/>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="28" t="s">
@@ -10210,10 +10280,10 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="118" t="s">
+      <c r="A479" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B479" s="117"/>
+      <c r="B479" s="124"/>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="28" t="s">
@@ -10224,10 +10294,10 @@
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="113" t="s">
+      <c r="A483" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="B483" s="117"/>
+      <c r="B483" s="124"/>
     </row>
     <row r="484" spans="1:2" ht="30.95" customHeight="1">
       <c r="A484" s="28" t="s">
@@ -10294,10 +10364,10 @@
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="113" t="s">
+      <c r="A492" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B492" s="117"/>
+      <c r="B492" s="124"/>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="28" t="s">
@@ -10356,10 +10426,10 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="118" t="s">
+      <c r="A500" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B500" s="117"/>
+      <c r="B500" s="124"/>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="28" t="s">
@@ -10378,10 +10448,10 @@
       <c r="B503" s="100"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="113" t="s">
+      <c r="A504" s="119" t="s">
         <v>1069</v>
       </c>
-      <c r="B504" s="117"/>
+      <c r="B504" s="124"/>
     </row>
     <row r="505" spans="1:2" ht="30.95" customHeight="1">
       <c r="A505" s="28" t="s">
@@ -10448,10 +10518,10 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="113" t="s">
+      <c r="A513" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B513" s="117"/>
+      <c r="B513" s="124"/>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="28" t="s">
@@ -10502,10 +10572,10 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="118" t="s">
+      <c r="A520" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B520" s="117"/>
+      <c r="B520" s="124"/>
     </row>
     <row r="521" spans="1:2" ht="30.75" customHeight="1">
       <c r="A521" s="28" t="s">
@@ -10516,10 +10586,10 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="113" t="s">
+      <c r="A522" s="119" t="s">
         <v>1078</v>
       </c>
-      <c r="B522" s="117"/>
+      <c r="B522" s="124"/>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="28" t="s">
@@ -10652,10 +10722,10 @@
       <c r="B543" s="100"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="113" t="s">
+      <c r="A544" s="119" t="s">
         <v>1069</v>
       </c>
-      <c r="B544" s="117"/>
+      <c r="B544" s="124"/>
     </row>
     <row r="545" spans="1:2" ht="30.95" customHeight="1">
       <c r="A545" s="28" t="s">
@@ -10714,10 +10784,10 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="113" t="s">
+      <c r="A552" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B552" s="117"/>
+      <c r="B552" s="124"/>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="28" t="s">
@@ -10768,10 +10838,10 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="118" t="s">
+      <c r="A561" s="125" t="s">
         <v>1109</v>
       </c>
-      <c r="B561" s="117"/>
+      <c r="B561" s="124"/>
     </row>
     <row r="562" spans="1:2" ht="30.95" customHeight="1">
       <c r="A562" s="28" t="s">
@@ -10838,10 +10908,10 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="113" t="s">
+      <c r="A570" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B570" s="117"/>
+      <c r="B570" s="124"/>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="28" t="s">
@@ -10892,10 +10962,10 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="118" t="s">
+      <c r="A577" s="125" t="s">
         <v>1117</v>
       </c>
-      <c r="B577" s="117"/>
+      <c r="B577" s="124"/>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="28" t="s">
@@ -11002,10 +11072,10 @@
       <c r="B595" s="100"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="113" t="s">
+      <c r="A596" s="119" t="s">
         <v>1132</v>
       </c>
-      <c r="B596" s="117"/>
+      <c r="B596" s="124"/>
     </row>
     <row r="597" spans="1:2" ht="30.95" customHeight="1">
       <c r="A597" s="28" t="s">
@@ -11072,10 +11142,10 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="113" t="s">
+      <c r="A605" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B605" s="117"/>
+      <c r="B605" s="124"/>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="28" t="s">
@@ -11126,10 +11196,10 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="118" t="s">
+      <c r="A612" s="125" t="s">
         <v>1140</v>
       </c>
-      <c r="B612" s="117"/>
+      <c r="B612" s="124"/>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="28" t="s">
@@ -11278,10 +11348,10 @@
       <c r="B637" s="100"/>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="113" t="s">
+      <c r="A638" s="119" t="s">
         <v>1162</v>
       </c>
-      <c r="B638" s="117"/>
+      <c r="B638" s="124"/>
     </row>
     <row r="639" spans="1:2" ht="30.95" customHeight="1">
       <c r="A639" s="28" t="s">
@@ -11348,10 +11418,10 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="113" t="s">
+      <c r="A647" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B647" s="117"/>
+      <c r="B647" s="124"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="28" t="s">
@@ -11424,10 +11494,10 @@
       <c r="B657" s="100"/>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="113" t="s">
+      <c r="A658" s="119" t="s">
         <v>1172</v>
       </c>
-      <c r="B658" s="117"/>
+      <c r="B658" s="124"/>
     </row>
     <row r="659" spans="1:2" ht="30.95" customHeight="1">
       <c r="A659" s="28" t="s">
@@ -11494,10 +11564,10 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="113" t="s">
+      <c r="A667" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B667" s="117"/>
+      <c r="B667" s="124"/>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="28" t="s">
@@ -11570,10 +11640,10 @@
       <c r="B677" s="100"/>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="113" t="s">
+      <c r="A678" s="119" t="s">
         <v>1181</v>
       </c>
-      <c r="B678" s="117"/>
+      <c r="B678" s="124"/>
     </row>
     <row r="679" spans="1:2" ht="30.95" customHeight="1">
       <c r="A679" s="28" t="s">
@@ -11640,10 +11710,10 @@
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="113" t="s">
+      <c r="A687" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B687" s="117"/>
+      <c r="B687" s="124"/>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="28" t="s">
@@ -11705,6 +11775,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A647:B647"/>
+    <mergeCell ref="A658:B658"/>
+    <mergeCell ref="A667:B667"/>
+    <mergeCell ref="A678:B678"/>
+    <mergeCell ref="A687:B687"/>
+    <mergeCell ref="A638:B638"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="A596:B596"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="A612:B612"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A500:B500"/>
     <mergeCell ref="A415:B415"/>
     <mergeCell ref="A325:B325"/>
     <mergeCell ref="A332:B332"/>
@@ -11717,35 +11816,6 @@
     <mergeCell ref="A386:B386"/>
     <mergeCell ref="A395:B395"/>
     <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A638:B638"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A605:B605"/>
-    <mergeCell ref="A612:B612"/>
-    <mergeCell ref="A647:B647"/>
-    <mergeCell ref="A658:B658"/>
-    <mergeCell ref="A667:B667"/>
-    <mergeCell ref="A678:B678"/>
-    <mergeCell ref="A687:B687"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -14385,16 +14455,16 @@
       <c r="B164" s="91"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="122" t="s">
+      <c r="A166" s="128" t="s">
         <v>1213</v>
       </c>
-      <c r="B166" s="121"/>
-      <c r="C166" s="121"/>
-      <c r="E166" s="120" t="s">
+      <c r="B166" s="127"/>
+      <c r="C166" s="127"/>
+      <c r="E166" s="126" t="s">
         <v>1214</v>
       </c>
-      <c r="F166" s="121"/>
-      <c r="G166" s="121"/>
+      <c r="F166" s="127"/>
+      <c r="G166" s="127"/>
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1">
       <c r="A167" s="91" t="s">
@@ -14437,18 +14507,18 @@
       <c r="A170" s="91"/>
       <c r="B170" s="91"/>
       <c r="C170" s="91"/>
-      <c r="E170" s="120" t="s">
+      <c r="E170" s="126" t="s">
         <v>1220</v>
       </c>
-      <c r="F170" s="121"/>
-      <c r="G170" s="121"/>
+      <c r="F170" s="127"/>
+      <c r="G170" s="127"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1">
-      <c r="A171" s="122" t="s">
+      <c r="A171" s="128" t="s">
         <v>1221</v>
       </c>
-      <c r="B171" s="121"/>
-      <c r="C171" s="121"/>
+      <c r="B171" s="127"/>
+      <c r="C171" s="127"/>
       <c r="E171" s="91" t="s">
         <v>1215</v>
       </c>
@@ -14488,16 +14558,16 @@
       <c r="C174" s="91"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="120" t="s">
+      <c r="A175" s="126" t="s">
         <v>1225</v>
       </c>
-      <c r="B175" s="121"/>
-      <c r="C175" s="121"/>
-      <c r="E175" s="120" t="s">
+      <c r="B175" s="127"/>
+      <c r="C175" s="127"/>
+      <c r="E175" s="126" t="s">
         <v>1226</v>
       </c>
-      <c r="F175" s="121"/>
-      <c r="G175" s="121"/>
+      <c r="F175" s="127"/>
+      <c r="G175" s="127"/>
     </row>
     <row r="176" spans="1:8" ht="30">
       <c r="A176" s="91" t="s">
@@ -14532,16 +14602,16 @@
       <c r="G177" s="91"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="120" t="s">
+      <c r="A179" s="126" t="s">
         <v>1230</v>
       </c>
-      <c r="B179" s="121"/>
-      <c r="C179" s="121"/>
-      <c r="E179" s="120" t="s">
+      <c r="B179" s="127"/>
+      <c r="C179" s="127"/>
+      <c r="E179" s="126" t="s">
         <v>1231</v>
       </c>
-      <c r="F179" s="121"/>
-      <c r="G179" s="121"/>
+      <c r="F179" s="127"/>
+      <c r="G179" s="127"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="91" t="s">
@@ -14576,16 +14646,16 @@
       <c r="G181" s="91"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="120" t="s">
+      <c r="A183" s="126" t="s">
         <v>1236</v>
       </c>
-      <c r="B183" s="121"/>
-      <c r="C183" s="121"/>
-      <c r="E183" s="120" t="s">
+      <c r="B183" s="127"/>
+      <c r="C183" s="127"/>
+      <c r="E183" s="126" t="s">
         <v>1237</v>
       </c>
-      <c r="F183" s="121"/>
-      <c r="G183" s="121"/>
+      <c r="F183" s="127"/>
+      <c r="G183" s="127"/>
     </row>
     <row r="184" spans="1:7" ht="30" customHeight="1">
       <c r="A184" s="91" t="s">
@@ -14620,16 +14690,16 @@
       <c r="G185" s="91"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="122" t="s">
+      <c r="A187" s="128" t="s">
         <v>1241</v>
       </c>
-      <c r="B187" s="121"/>
-      <c r="C187" s="121"/>
-      <c r="E187" s="120" t="s">
+      <c r="B187" s="127"/>
+      <c r="C187" s="127"/>
+      <c r="E187" s="126" t="s">
         <v>1242</v>
       </c>
-      <c r="F187" s="121"/>
-      <c r="G187" s="121"/>
+      <c r="F187" s="127"/>
+      <c r="G187" s="127"/>
     </row>
     <row r="188" spans="1:7" ht="30" customHeight="1">
       <c r="A188" s="91" t="s">
@@ -14664,16 +14734,16 @@
       <c r="G189" s="91"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="122" t="s">
+      <c r="A191" s="128" t="s">
         <v>1206</v>
       </c>
-      <c r="B191" s="121"/>
-      <c r="C191" s="121"/>
-      <c r="E191" s="120" t="s">
+      <c r="B191" s="127"/>
+      <c r="C191" s="127"/>
+      <c r="E191" s="126" t="s">
         <v>1246</v>
       </c>
-      <c r="F191" s="121"/>
-      <c r="G191" s="121"/>
+      <c r="F191" s="127"/>
+      <c r="G191" s="127"/>
     </row>
     <row r="192" spans="1:7" ht="30" customHeight="1">
       <c r="A192" s="91" t="s">
@@ -14708,16 +14778,16 @@
       <c r="G193" s="91"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="122" t="s">
+      <c r="A196" s="128" t="s">
         <v>1207</v>
       </c>
-      <c r="B196" s="121"/>
-      <c r="C196" s="121"/>
-      <c r="E196" s="120" t="s">
+      <c r="B196" s="127"/>
+      <c r="C196" s="127"/>
+      <c r="E196" s="126" t="s">
         <v>1249</v>
       </c>
-      <c r="F196" s="121"/>
-      <c r="G196" s="121"/>
+      <c r="F196" s="127"/>
+      <c r="G196" s="127"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="91" t="s">
@@ -14752,18 +14822,18 @@
       <c r="G198" s="91"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="E200" s="120" t="s">
+      <c r="E200" s="126" t="s">
         <v>1253</v>
       </c>
-      <c r="F200" s="121"/>
-      <c r="G200" s="121"/>
+      <c r="F200" s="127"/>
+      <c r="G200" s="127"/>
     </row>
     <row r="201" spans="1:7" ht="30" customHeight="1">
-      <c r="A201" s="122" t="s">
+      <c r="A201" s="128" t="s">
         <v>1208</v>
       </c>
-      <c r="B201" s="121"/>
-      <c r="C201" s="121"/>
+      <c r="B201" s="127"/>
+      <c r="C201" s="127"/>
       <c r="E201" s="91" t="s">
         <v>1215</v>
       </c>
@@ -14798,11 +14868,11 @@
       <c r="C203" s="91"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="E204" s="120" t="s">
+      <c r="E204" s="126" t="s">
         <v>1256</v>
       </c>
-      <c r="F204" s="121"/>
-      <c r="G204" s="121"/>
+      <c r="F204" s="127"/>
+      <c r="G204" s="127"/>
     </row>
     <row r="205" spans="1:7">
       <c r="E205" s="91" t="s">
@@ -14814,11 +14884,11 @@
       <c r="G205" s="91"/>
     </row>
     <row r="206" spans="1:7" ht="30" customHeight="1">
-      <c r="A206" s="120" t="s">
+      <c r="A206" s="126" t="s">
         <v>1209</v>
       </c>
-      <c r="B206" s="121"/>
-      <c r="C206" s="121"/>
+      <c r="B206" s="127"/>
+      <c r="C206" s="127"/>
       <c r="E206" s="91" t="s">
         <v>80</v>
       </c>
@@ -14844,11 +14914,11 @@
         <v>1259</v>
       </c>
       <c r="C208" s="91"/>
-      <c r="E208" s="120" t="s">
+      <c r="E208" s="126" t="s">
         <v>1260</v>
       </c>
-      <c r="F208" s="121"/>
-      <c r="G208" s="121"/>
+      <c r="F208" s="127"/>
+      <c r="G208" s="127"/>
     </row>
     <row r="209" spans="1:7">
       <c r="E209" s="91" t="s">
@@ -14860,11 +14930,11 @@
       <c r="G209" s="91"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1">
-      <c r="A210" s="120" t="s">
+      <c r="A210" s="126" t="s">
         <v>1261</v>
       </c>
-      <c r="B210" s="121"/>
-      <c r="C210" s="121"/>
+      <c r="B210" s="127"/>
+      <c r="C210" s="127"/>
       <c r="E210" s="91" t="s">
         <v>80</v>
       </c>
@@ -14890,11 +14960,11 @@
         <v>1264</v>
       </c>
       <c r="C212" s="91"/>
-      <c r="E212" s="120" t="s">
+      <c r="E212" s="126" t="s">
         <v>1265</v>
       </c>
-      <c r="F212" s="121"/>
-      <c r="G212" s="121"/>
+      <c r="F212" s="127"/>
+      <c r="G212" s="127"/>
     </row>
     <row r="213" spans="1:7" ht="30">
       <c r="E213" s="91" t="s">
@@ -14906,11 +14976,11 @@
       <c r="G213" s="91"/>
     </row>
     <row r="214" spans="1:7" ht="45" customHeight="1">
-      <c r="A214" s="120" t="s">
+      <c r="A214" s="126" t="s">
         <v>1266</v>
       </c>
-      <c r="B214" s="121"/>
-      <c r="C214" s="121"/>
+      <c r="B214" s="127"/>
+      <c r="C214" s="127"/>
       <c r="E214" s="91" t="s">
         <v>80</v>
       </c>
@@ -14936,11 +15006,11 @@
         <v>1269</v>
       </c>
       <c r="C216" s="91"/>
-      <c r="E216" s="120" t="s">
+      <c r="E216" s="126" t="s">
         <v>1270</v>
       </c>
-      <c r="F216" s="121"/>
-      <c r="G216" s="121"/>
+      <c r="F216" s="127"/>
+      <c r="G216" s="127"/>
     </row>
     <row r="217" spans="1:7" ht="30" customHeight="1">
       <c r="E217" s="91" t="s">
@@ -14961,11 +15031,11 @@
       <c r="G218" s="91"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="120" t="s">
+      <c r="A219" s="126" t="s">
         <v>1272</v>
       </c>
-      <c r="B219" s="121"/>
-      <c r="C219" s="121"/>
+      <c r="B219" s="127"/>
+      <c r="C219" s="127"/>
     </row>
     <row r="220" spans="1:7" ht="30" customHeight="1">
       <c r="A220" s="91" t="s">
@@ -14975,11 +15045,11 @@
         <v>1273</v>
       </c>
       <c r="C220" s="91"/>
-      <c r="E220" s="120" t="s">
+      <c r="E220" s="126" t="s">
         <v>1274</v>
       </c>
-      <c r="F220" s="121"/>
-      <c r="G220" s="121"/>
+      <c r="F220" s="127"/>
+      <c r="G220" s="127"/>
     </row>
     <row r="221" spans="1:7" ht="45" customHeight="1">
       <c r="A221" s="91" t="s">
@@ -15007,11 +15077,11 @@
       <c r="G222" s="91"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="120" t="s">
+      <c r="A223" s="126" t="s">
         <v>1277</v>
       </c>
-      <c r="B223" s="121"/>
-      <c r="C223" s="121"/>
+      <c r="B223" s="127"/>
+      <c r="C223" s="127"/>
     </row>
     <row r="224" spans="1:7" ht="30" customHeight="1">
       <c r="A224" s="91" t="s">
@@ -15021,11 +15091,11 @@
         <v>1277</v>
       </c>
       <c r="C224" s="91"/>
-      <c r="E224" s="120" t="s">
+      <c r="E224" s="126" t="s">
         <v>1278</v>
       </c>
-      <c r="F224" s="121"/>
-      <c r="G224" s="121"/>
+      <c r="F224" s="127"/>
+      <c r="G224" s="127"/>
     </row>
     <row r="225" spans="1:7" ht="45" customHeight="1">
       <c r="A225" s="91" t="s">
@@ -15053,11 +15123,11 @@
       <c r="G226" s="91"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="120" t="s">
+      <c r="A227" s="126" t="s">
         <v>1281</v>
       </c>
-      <c r="B227" s="121"/>
-      <c r="C227" s="121"/>
+      <c r="B227" s="127"/>
+      <c r="C227" s="127"/>
     </row>
     <row r="228" spans="1:7" ht="30">
       <c r="A228" s="91" t="s">
@@ -15067,11 +15137,11 @@
         <v>1281</v>
       </c>
       <c r="C228" s="91"/>
-      <c r="E228" s="120" t="s">
+      <c r="E228" s="126" t="s">
         <v>1282</v>
       </c>
-      <c r="F228" s="121"/>
-      <c r="G228" s="121"/>
+      <c r="F228" s="127"/>
+      <c r="G228" s="127"/>
     </row>
     <row r="229" spans="1:7" ht="30" customHeight="1">
       <c r="A229" s="91" t="s">
@@ -15099,11 +15169,11 @@
       <c r="G230" s="91"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="120" t="s">
+      <c r="A231" s="126" t="s">
         <v>1285</v>
       </c>
-      <c r="B231" s="121"/>
-      <c r="C231" s="121"/>
+      <c r="B231" s="127"/>
+      <c r="C231" s="127"/>
     </row>
     <row r="232" spans="1:7" ht="30" customHeight="1">
       <c r="A232" s="91" t="s">
@@ -15113,11 +15183,11 @@
         <v>1285</v>
       </c>
       <c r="C232" s="91"/>
-      <c r="E232" s="120" t="s">
+      <c r="E232" s="126" t="s">
         <v>1286</v>
       </c>
-      <c r="F232" s="121"/>
-      <c r="G232" s="121"/>
+      <c r="F232" s="127"/>
+      <c r="G232" s="127"/>
     </row>
     <row r="233" spans="1:7" ht="45" customHeight="1">
       <c r="A233" s="91" t="s">
@@ -15145,11 +15215,11 @@
       <c r="G234" s="91"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="120" t="s">
+      <c r="A235" s="126" t="s">
         <v>1289</v>
       </c>
-      <c r="B235" s="121"/>
-      <c r="C235" s="121"/>
+      <c r="B235" s="127"/>
+      <c r="C235" s="127"/>
     </row>
     <row r="236" spans="1:7" ht="30" customHeight="1">
       <c r="A236" s="91" t="s">
@@ -15159,11 +15229,11 @@
         <v>1289</v>
       </c>
       <c r="C236" s="91"/>
-      <c r="E236" s="120" t="s">
+      <c r="E236" s="126" t="s">
         <v>1290</v>
       </c>
-      <c r="F236" s="121"/>
-      <c r="G236" s="121"/>
+      <c r="F236" s="127"/>
+      <c r="G236" s="127"/>
     </row>
     <row r="237" spans="1:7" ht="45" customHeight="1">
       <c r="A237" s="91" t="s">
@@ -15191,11 +15261,11 @@
       <c r="G238" s="91"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="120" t="s">
+      <c r="A239" s="126" t="s">
         <v>1293</v>
       </c>
-      <c r="B239" s="121"/>
-      <c r="C239" s="121"/>
+      <c r="B239" s="127"/>
+      <c r="C239" s="127"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="91" t="s">
@@ -15205,11 +15275,11 @@
         <v>1293</v>
       </c>
       <c r="C240" s="91"/>
-      <c r="E240" s="120" t="s">
+      <c r="E240" s="126" t="s">
         <v>1294</v>
       </c>
-      <c r="F240" s="121"/>
-      <c r="G240" s="121"/>
+      <c r="F240" s="127"/>
+      <c r="G240" s="127"/>
     </row>
     <row r="241" spans="1:7" ht="30" customHeight="1">
       <c r="A241" s="91" t="s">
@@ -15237,11 +15307,11 @@
       <c r="G242" s="91"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="120" t="s">
+      <c r="A243" s="126" t="s">
         <v>1297</v>
       </c>
-      <c r="B243" s="121"/>
-      <c r="C243" s="121"/>
+      <c r="B243" s="127"/>
+      <c r="C243" s="127"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="91" t="s">
@@ -15251,11 +15321,11 @@
         <v>1297</v>
       </c>
       <c r="C244" s="91"/>
-      <c r="E244" s="120" t="s">
+      <c r="E244" s="126" t="s">
         <v>1298</v>
       </c>
-      <c r="F244" s="121"/>
-      <c r="G244" s="121"/>
+      <c r="F244" s="127"/>
+      <c r="G244" s="127"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1">
       <c r="A245" s="91" t="s">
@@ -15283,11 +15353,11 @@
       <c r="G246" s="91"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="120" t="s">
+      <c r="A247" s="126" t="s">
         <v>1301</v>
       </c>
-      <c r="B247" s="121"/>
-      <c r="C247" s="121"/>
+      <c r="B247" s="127"/>
+      <c r="C247" s="127"/>
     </row>
     <row r="248" spans="1:7" ht="30" customHeight="1">
       <c r="A248" s="91" t="s">
@@ -15297,11 +15367,11 @@
         <v>1301</v>
       </c>
       <c r="C248" s="91"/>
-      <c r="E248" s="120" t="s">
+      <c r="E248" s="126" t="s">
         <v>1302</v>
       </c>
-      <c r="F248" s="121"/>
-      <c r="G248" s="121"/>
+      <c r="F248" s="127"/>
+      <c r="G248" s="127"/>
     </row>
     <row r="249" spans="1:7" ht="45" customHeight="1">
       <c r="A249" s="91" t="s">
@@ -15329,11 +15399,11 @@
       <c r="G250" s="91"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="120" t="s">
+      <c r="A251" s="126" t="s">
         <v>1305</v>
       </c>
-      <c r="B251" s="121"/>
-      <c r="C251" s="121"/>
+      <c r="B251" s="127"/>
+      <c r="C251" s="127"/>
     </row>
     <row r="252" spans="1:7" ht="30" customHeight="1">
       <c r="A252" s="91" t="s">
@@ -15343,11 +15413,11 @@
         <v>1305</v>
       </c>
       <c r="C252" s="91"/>
-      <c r="E252" s="120" t="s">
+      <c r="E252" s="126" t="s">
         <v>1306</v>
       </c>
-      <c r="F252" s="121"/>
-      <c r="G252" s="121"/>
+      <c r="F252" s="127"/>
+      <c r="G252" s="127"/>
     </row>
     <row r="253" spans="1:7" ht="45" customHeight="1">
       <c r="A253" s="91" t="s">
@@ -15375,11 +15445,11 @@
       <c r="G254" s="91"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="120" t="s">
+      <c r="A255" s="126" t="s">
         <v>1309</v>
       </c>
-      <c r="B255" s="121"/>
-      <c r="C255" s="121"/>
+      <c r="B255" s="127"/>
+      <c r="C255" s="127"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="91" t="s">
@@ -15389,11 +15459,11 @@
         <v>1309</v>
       </c>
       <c r="C256" s="91"/>
-      <c r="E256" s="120" t="s">
+      <c r="E256" s="126" t="s">
         <v>1310</v>
       </c>
-      <c r="F256" s="121"/>
-      <c r="G256" s="121"/>
+      <c r="F256" s="127"/>
+      <c r="G256" s="127"/>
     </row>
     <row r="257" spans="1:7" ht="30" customHeight="1">
       <c r="A257" s="91" t="s">
@@ -15421,11 +15491,11 @@
       <c r="G258" s="91"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="120" t="s">
+      <c r="A259" s="126" t="s">
         <v>1313</v>
       </c>
-      <c r="B259" s="121"/>
-      <c r="C259" s="121"/>
+      <c r="B259" s="127"/>
+      <c r="C259" s="127"/>
     </row>
     <row r="260" spans="1:7" ht="30" customHeight="1">
       <c r="A260" s="91" t="s">
@@ -15435,11 +15505,11 @@
         <v>1313</v>
       </c>
       <c r="C260" s="91"/>
-      <c r="E260" s="120" t="s">
+      <c r="E260" s="126" t="s">
         <v>1314</v>
       </c>
-      <c r="F260" s="121"/>
-      <c r="G260" s="121"/>
+      <c r="F260" s="127"/>
+      <c r="G260" s="127"/>
     </row>
     <row r="261" spans="1:7" ht="45" customHeight="1">
       <c r="A261" s="91" t="s">
@@ -15467,11 +15537,11 @@
       <c r="G262" s="91"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="120" t="s">
+      <c r="A263" s="126" t="s">
         <v>1317</v>
       </c>
-      <c r="B263" s="121"/>
-      <c r="C263" s="121"/>
+      <c r="B263" s="127"/>
+      <c r="C263" s="127"/>
     </row>
     <row r="264" spans="1:7" ht="30">
       <c r="A264" s="91" t="s">
@@ -15481,11 +15551,11 @@
         <v>1317</v>
       </c>
       <c r="C264" s="91"/>
-      <c r="E264" s="120" t="s">
+      <c r="E264" s="126" t="s">
         <v>1318</v>
       </c>
-      <c r="F264" s="121"/>
-      <c r="G264" s="121"/>
+      <c r="F264" s="127"/>
+      <c r="G264" s="127"/>
     </row>
     <row r="265" spans="1:7" ht="45" customHeight="1">
       <c r="A265" s="91" t="s">
@@ -15513,11 +15583,11 @@
       <c r="G266" s="91"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="120" t="s">
+      <c r="A267" s="126" t="s">
         <v>1321</v>
       </c>
-      <c r="B267" s="121"/>
-      <c r="C267" s="121"/>
+      <c r="B267" s="127"/>
+      <c r="C267" s="127"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="91" t="s">
@@ -15527,11 +15597,11 @@
         <v>1321</v>
       </c>
       <c r="C268" s="91"/>
-      <c r="E268" s="120" t="s">
+      <c r="E268" s="126" t="s">
         <v>1322</v>
       </c>
-      <c r="F268" s="121"/>
-      <c r="G268" s="121"/>
+      <c r="F268" s="127"/>
+      <c r="G268" s="127"/>
     </row>
     <row r="269" spans="1:7" ht="30" customHeight="1">
       <c r="A269" s="91" t="s">
@@ -15559,11 +15629,11 @@
       <c r="G270" s="91"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="120" t="s">
+      <c r="A271" s="126" t="s">
         <v>1325</v>
       </c>
-      <c r="B271" s="121"/>
-      <c r="C271" s="121"/>
+      <c r="B271" s="127"/>
+      <c r="C271" s="127"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="91" t="s">
@@ -15573,11 +15643,11 @@
         <v>1325</v>
       </c>
       <c r="C272" s="91"/>
-      <c r="E272" s="120" t="s">
+      <c r="E272" s="126" t="s">
         <v>1326</v>
       </c>
-      <c r="F272" s="121"/>
-      <c r="G272" s="121"/>
+      <c r="F272" s="127"/>
+      <c r="G272" s="127"/>
     </row>
     <row r="273" spans="1:7" ht="30" customHeight="1">
       <c r="A273" s="91" t="s">
@@ -15605,11 +15675,11 @@
       <c r="G274" s="91"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="120" t="s">
+      <c r="A275" s="126" t="s">
         <v>1330</v>
       </c>
-      <c r="B275" s="121"/>
-      <c r="C275" s="121"/>
+      <c r="B275" s="127"/>
+      <c r="C275" s="127"/>
     </row>
     <row r="276" spans="1:7" ht="30">
       <c r="A276" s="91" t="s">
@@ -15619,11 +15689,11 @@
         <v>1330</v>
       </c>
       <c r="C276" s="91"/>
-      <c r="E276" s="120" t="s">
+      <c r="E276" s="126" t="s">
         <v>1331</v>
       </c>
-      <c r="F276" s="121"/>
-      <c r="G276" s="121"/>
+      <c r="F276" s="127"/>
+      <c r="G276" s="127"/>
     </row>
     <row r="277" spans="1:7" ht="30" customHeight="1">
       <c r="A277" s="91" t="s">
@@ -15651,11 +15721,11 @@
       <c r="G278" s="91"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="120" t="s">
+      <c r="A279" s="126" t="s">
         <v>1334</v>
       </c>
-      <c r="B279" s="121"/>
-      <c r="C279" s="121"/>
+      <c r="B279" s="127"/>
+      <c r="C279" s="127"/>
     </row>
     <row r="280" spans="1:7" ht="30" customHeight="1">
       <c r="A280" s="91" t="s">
@@ -15665,11 +15735,11 @@
         <v>1334</v>
       </c>
       <c r="C280" s="91"/>
-      <c r="E280" s="120" t="s">
+      <c r="E280" s="126" t="s">
         <v>1335</v>
       </c>
-      <c r="F280" s="121"/>
-      <c r="G280" s="121"/>
+      <c r="F280" s="127"/>
+      <c r="G280" s="127"/>
     </row>
     <row r="281" spans="1:7" ht="45" customHeight="1">
       <c r="A281" s="91" t="s">
@@ -15697,11 +15767,11 @@
       <c r="G282" s="91"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="120" t="s">
+      <c r="A283" s="126" t="s">
         <v>1338</v>
       </c>
-      <c r="B283" s="121"/>
-      <c r="C283" s="121"/>
+      <c r="B283" s="127"/>
+      <c r="C283" s="127"/>
     </row>
     <row r="284" spans="1:7" ht="30">
       <c r="A284" s="91" t="s">
@@ -15711,11 +15781,11 @@
         <v>1338</v>
       </c>
       <c r="C284" s="91"/>
-      <c r="E284" s="120" t="s">
+      <c r="E284" s="126" t="s">
         <v>1339</v>
       </c>
-      <c r="F284" s="121"/>
-      <c r="G284" s="121"/>
+      <c r="F284" s="127"/>
+      <c r="G284" s="127"/>
     </row>
     <row r="285" spans="1:7" ht="45" customHeight="1">
       <c r="A285" s="91" t="s">
@@ -15743,11 +15813,11 @@
       <c r="G286" s="91"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="120" t="s">
+      <c r="A287" s="126" t="s">
         <v>1342</v>
       </c>
-      <c r="B287" s="121"/>
-      <c r="C287" s="121"/>
+      <c r="B287" s="127"/>
+      <c r="C287" s="127"/>
     </row>
     <row r="288" spans="1:7" ht="30" customHeight="1">
       <c r="A288" s="91" t="s">
@@ -15757,11 +15827,11 @@
         <v>1342</v>
       </c>
       <c r="C288" s="91"/>
-      <c r="E288" s="120" t="s">
+      <c r="E288" s="126" t="s">
         <v>1343</v>
       </c>
-      <c r="F288" s="121"/>
-      <c r="G288" s="121"/>
+      <c r="F288" s="127"/>
+      <c r="G288" s="127"/>
     </row>
     <row r="289" spans="1:7" ht="45" customHeight="1">
       <c r="A289" s="91" t="s">
@@ -15789,11 +15859,11 @@
       <c r="G290" s="91"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="120" t="s">
+      <c r="A291" s="126" t="s">
         <v>1346</v>
       </c>
-      <c r="B291" s="121"/>
-      <c r="C291" s="121"/>
+      <c r="B291" s="127"/>
+      <c r="C291" s="127"/>
     </row>
     <row r="292" spans="1:7" ht="30" customHeight="1">
       <c r="A292" s="91" t="s">
@@ -15803,11 +15873,11 @@
         <v>1346</v>
       </c>
       <c r="C292" s="91"/>
-      <c r="E292" s="120" t="s">
+      <c r="E292" s="126" t="s">
         <v>1347</v>
       </c>
-      <c r="F292" s="121"/>
-      <c r="G292" s="121"/>
+      <c r="F292" s="127"/>
+      <c r="G292" s="127"/>
     </row>
     <row r="293" spans="1:7" ht="45" customHeight="1">
       <c r="A293" s="91" t="s">
@@ -15835,11 +15905,11 @@
       <c r="G294" s="91"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="120" t="s">
+      <c r="A295" s="126" t="s">
         <v>1350</v>
       </c>
-      <c r="B295" s="121"/>
-      <c r="C295" s="121"/>
+      <c r="B295" s="127"/>
+      <c r="C295" s="127"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="91" t="s">
@@ -15849,11 +15919,11 @@
         <v>1350</v>
       </c>
       <c r="C296" s="91"/>
-      <c r="E296" s="120" t="s">
+      <c r="E296" s="126" t="s">
         <v>1351</v>
       </c>
-      <c r="F296" s="121"/>
-      <c r="G296" s="121"/>
+      <c r="F296" s="127"/>
+      <c r="G296" s="127"/>
     </row>
     <row r="297" spans="1:7" ht="30" customHeight="1">
       <c r="A297" s="91" t="s">
@@ -15881,11 +15951,11 @@
       <c r="G298" s="91"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="120" t="s">
+      <c r="A299" s="126" t="s">
         <v>1354</v>
       </c>
-      <c r="B299" s="121"/>
-      <c r="C299" s="121"/>
+      <c r="B299" s="127"/>
+      <c r="C299" s="127"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="91" t="s">
@@ -15895,11 +15965,11 @@
         <v>1354</v>
       </c>
       <c r="C300" s="91"/>
-      <c r="E300" s="122" t="s">
+      <c r="E300" s="128" t="s">
         <v>1355</v>
       </c>
-      <c r="F300" s="121"/>
-      <c r="G300" s="121"/>
+      <c r="F300" s="127"/>
+      <c r="G300" s="127"/>
     </row>
     <row r="301" spans="1:7" ht="30" customHeight="1">
       <c r="A301" s="91" t="s">
@@ -15927,11 +15997,11 @@
       <c r="G302" s="91"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="122" t="s">
+      <c r="A303" s="128" t="s">
         <v>1358</v>
       </c>
-      <c r="B303" s="121"/>
-      <c r="C303" s="121"/>
+      <c r="B303" s="127"/>
+      <c r="C303" s="127"/>
     </row>
     <row r="304" spans="1:7" ht="30" customHeight="1">
       <c r="A304" s="91" t="s">
@@ -15941,11 +16011,11 @@
         <v>1358</v>
       </c>
       <c r="C304" s="91"/>
-      <c r="E304" s="122" t="s">
+      <c r="E304" s="128" t="s">
         <v>1359</v>
       </c>
-      <c r="F304" s="121"/>
-      <c r="G304" s="121"/>
+      <c r="F304" s="127"/>
+      <c r="G304" s="127"/>
     </row>
     <row r="305" spans="1:7" ht="45" customHeight="1">
       <c r="A305" s="91" t="s">
@@ -15973,16 +16043,16 @@
       <c r="G306" s="91"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="122" t="s">
+      <c r="A308" s="128" t="s">
         <v>1362</v>
       </c>
-      <c r="B308" s="121"/>
-      <c r="C308" s="121"/>
-      <c r="E308" s="122" t="s">
+      <c r="B308" s="127"/>
+      <c r="C308" s="127"/>
+      <c r="E308" s="128" t="s">
         <v>1363</v>
       </c>
-      <c r="F308" s="121"/>
-      <c r="G308" s="121"/>
+      <c r="F308" s="127"/>
+      <c r="G308" s="127"/>
     </row>
     <row r="309" spans="1:7" ht="30" customHeight="1">
       <c r="A309" s="91" t="s">
@@ -16017,16 +16087,16 @@
       <c r="G310" s="91"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="122" t="s">
+      <c r="A312" s="128" t="s">
         <v>1366</v>
       </c>
-      <c r="B312" s="121"/>
-      <c r="C312" s="121"/>
-      <c r="E312" s="122" t="s">
+      <c r="B312" s="127"/>
+      <c r="C312" s="127"/>
+      <c r="E312" s="128" t="s">
         <v>1367</v>
       </c>
-      <c r="F312" s="121"/>
-      <c r="G312" s="121"/>
+      <c r="F312" s="127"/>
+      <c r="G312" s="127"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="91" t="s">
@@ -16061,16 +16131,16 @@
       <c r="G314" s="91"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="122" t="s">
+      <c r="A316" s="128" t="s">
         <v>1370</v>
       </c>
-      <c r="B316" s="121"/>
-      <c r="C316" s="121"/>
-      <c r="E316" s="122" t="s">
+      <c r="B316" s="127"/>
+      <c r="C316" s="127"/>
+      <c r="E316" s="128" t="s">
         <v>1371</v>
       </c>
-      <c r="F316" s="121"/>
-      <c r="G316" s="121"/>
+      <c r="F316" s="127"/>
+      <c r="G316" s="127"/>
     </row>
     <row r="317" spans="1:7" ht="30" customHeight="1">
       <c r="A317" s="91" t="s">
@@ -16105,16 +16175,16 @@
       <c r="G318" s="91"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="122" t="s">
+      <c r="A320" s="128" t="s">
         <v>1374</v>
       </c>
-      <c r="B320" s="121"/>
-      <c r="C320" s="121"/>
-      <c r="E320" s="122" t="s">
+      <c r="B320" s="127"/>
+      <c r="C320" s="127"/>
+      <c r="E320" s="128" t="s">
         <v>1374</v>
       </c>
-      <c r="F320" s="121"/>
-      <c r="G320" s="121"/>
+      <c r="F320" s="127"/>
+      <c r="G320" s="127"/>
     </row>
     <row r="321" spans="1:7" ht="30" customHeight="1">
       <c r="A321" s="91" t="s">
@@ -16149,16 +16219,16 @@
       <c r="G322" s="91"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="122" t="s">
+      <c r="A324" s="128" t="s">
         <v>1376</v>
       </c>
-      <c r="B324" s="121"/>
-      <c r="C324" s="121"/>
-      <c r="E324" s="122" t="s">
+      <c r="B324" s="127"/>
+      <c r="C324" s="127"/>
+      <c r="E324" s="128" t="s">
         <v>1377</v>
       </c>
-      <c r="F324" s="121"/>
-      <c r="G324" s="121"/>
+      <c r="F324" s="127"/>
+      <c r="G324" s="127"/>
     </row>
     <row r="325" spans="1:7" ht="30">
       <c r="A325" s="91" t="s">
@@ -16193,16 +16263,16 @@
       <c r="G326" s="91"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="122" t="s">
+      <c r="A328" s="128" t="s">
         <v>1380</v>
       </c>
-      <c r="B328" s="121"/>
-      <c r="C328" s="121"/>
-      <c r="E328" s="122" t="s">
+      <c r="B328" s="127"/>
+      <c r="C328" s="127"/>
+      <c r="E328" s="128" t="s">
         <v>1381</v>
       </c>
-      <c r="F328" s="121"/>
-      <c r="G328" s="121"/>
+      <c r="F328" s="127"/>
+      <c r="G328" s="127"/>
     </row>
     <row r="329" spans="1:7" ht="30" customHeight="1">
       <c r="A329" s="91" t="s">
@@ -16237,16 +16307,16 @@
       <c r="G330" s="91"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="122" t="s">
+      <c r="A332" s="128" t="s">
         <v>1384</v>
       </c>
-      <c r="B332" s="121"/>
-      <c r="C332" s="121"/>
-      <c r="E332" s="122" t="s">
+      <c r="B332" s="127"/>
+      <c r="C332" s="127"/>
+      <c r="E332" s="128" t="s">
         <v>1385</v>
       </c>
-      <c r="F332" s="121"/>
-      <c r="G332" s="121"/>
+      <c r="F332" s="127"/>
+      <c r="G332" s="127"/>
     </row>
     <row r="333" spans="1:7" ht="30" customHeight="1">
       <c r="A333" s="91" t="s">
@@ -16281,16 +16351,16 @@
       <c r="G334" s="91"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="122" t="s">
+      <c r="A336" s="128" t="s">
         <v>1387</v>
       </c>
-      <c r="B336" s="121"/>
-      <c r="C336" s="121"/>
-      <c r="E336" s="122" t="s">
+      <c r="B336" s="127"/>
+      <c r="C336" s="127"/>
+      <c r="E336" s="128" t="s">
         <v>1388</v>
       </c>
-      <c r="F336" s="121"/>
-      <c r="G336" s="121"/>
+      <c r="F336" s="127"/>
+      <c r="G336" s="127"/>
     </row>
     <row r="337" spans="1:7" ht="30" customHeight="1">
       <c r="A337" s="91" t="s">
@@ -16325,16 +16395,16 @@
       <c r="G338" s="91"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="122" t="s">
+      <c r="A340" s="128" t="s">
         <v>1391</v>
       </c>
-      <c r="B340" s="121"/>
-      <c r="C340" s="121"/>
-      <c r="E340" s="122" t="s">
+      <c r="B340" s="127"/>
+      <c r="C340" s="127"/>
+      <c r="E340" s="128" t="s">
         <v>1392</v>
       </c>
-      <c r="F340" s="121"/>
-      <c r="G340" s="121"/>
+      <c r="F340" s="127"/>
+      <c r="G340" s="127"/>
     </row>
     <row r="341" spans="1:7" ht="30" customHeight="1">
       <c r="A341" s="91" t="s">
@@ -16369,16 +16439,16 @@
       <c r="G342" s="91"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="122" t="s">
+      <c r="A344" s="128" t="s">
         <v>1395</v>
       </c>
-      <c r="B344" s="121"/>
-      <c r="C344" s="121"/>
-      <c r="E344" s="122" t="s">
+      <c r="B344" s="127"/>
+      <c r="C344" s="127"/>
+      <c r="E344" s="128" t="s">
         <v>1396</v>
       </c>
-      <c r="F344" s="121"/>
-      <c r="G344" s="121"/>
+      <c r="F344" s="127"/>
+      <c r="G344" s="127"/>
     </row>
     <row r="345" spans="1:7" ht="30" customHeight="1">
       <c r="A345" s="91" t="s">
@@ -16413,16 +16483,16 @@
       <c r="G346" s="91"/>
     </row>
     <row r="348" spans="1:7">
-      <c r="A348" s="120" t="s">
+      <c r="A348" s="126" t="s">
         <v>1399</v>
       </c>
-      <c r="B348" s="121"/>
-      <c r="C348" s="121"/>
-      <c r="E348" s="120" t="s">
+      <c r="B348" s="127"/>
+      <c r="C348" s="127"/>
+      <c r="E348" s="126" t="s">
         <v>1400</v>
       </c>
-      <c r="F348" s="121"/>
-      <c r="G348" s="121"/>
+      <c r="F348" s="127"/>
+      <c r="G348" s="127"/>
     </row>
     <row r="349" spans="1:7" ht="30" customHeight="1">
       <c r="A349" s="91" t="s">
@@ -16457,16 +16527,16 @@
       <c r="G350" s="91"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="120" t="s">
+      <c r="A352" s="126" t="s">
         <v>1384</v>
       </c>
-      <c r="B352" s="121"/>
-      <c r="C352" s="121"/>
-      <c r="E352" s="120" t="s">
+      <c r="B352" s="127"/>
+      <c r="C352" s="127"/>
+      <c r="E352" s="126" t="s">
         <v>1403</v>
       </c>
-      <c r="F352" s="121"/>
-      <c r="G352" s="121"/>
+      <c r="F352" s="127"/>
+      <c r="G352" s="127"/>
     </row>
     <row r="353" spans="1:7" ht="30">
       <c r="A353" s="91" t="s">
@@ -16501,16 +16571,16 @@
       <c r="G354" s="91"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="120" t="s">
+      <c r="A356" s="126" t="s">
         <v>1406</v>
       </c>
-      <c r="B356" s="121"/>
-      <c r="C356" s="121"/>
-      <c r="E356" s="120" t="s">
+      <c r="B356" s="127"/>
+      <c r="C356" s="127"/>
+      <c r="E356" s="126" t="s">
         <v>1407</v>
       </c>
-      <c r="F356" s="121"/>
-      <c r="G356" s="121"/>
+      <c r="F356" s="127"/>
+      <c r="G356" s="127"/>
     </row>
     <row r="357" spans="1:7" ht="30">
       <c r="A357" s="91" t="s">
@@ -16545,16 +16615,16 @@
       <c r="G358" s="91"/>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="120" t="s">
+      <c r="A360" s="126" t="s">
         <v>1410</v>
       </c>
-      <c r="B360" s="121"/>
-      <c r="C360" s="121"/>
-      <c r="E360" s="120" t="s">
+      <c r="B360" s="127"/>
+      <c r="C360" s="127"/>
+      <c r="E360" s="126" t="s">
         <v>1411</v>
       </c>
-      <c r="F360" s="121"/>
-      <c r="G360" s="121"/>
+      <c r="F360" s="127"/>
+      <c r="G360" s="127"/>
     </row>
     <row r="361" spans="1:7" ht="30" customHeight="1">
       <c r="A361" s="91" t="s">
@@ -16589,16 +16659,16 @@
       <c r="G362" s="91"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="120" t="s">
+      <c r="A364" s="126" t="s">
         <v>1414</v>
       </c>
-      <c r="B364" s="121"/>
-      <c r="C364" s="121"/>
-      <c r="E364" s="120" t="s">
+      <c r="B364" s="127"/>
+      <c r="C364" s="127"/>
+      <c r="E364" s="126" t="s">
         <v>1415</v>
       </c>
-      <c r="F364" s="121"/>
-      <c r="G364" s="121"/>
+      <c r="F364" s="127"/>
+      <c r="G364" s="127"/>
     </row>
     <row r="365" spans="1:7" ht="30" customHeight="1">
       <c r="A365" s="91" t="s">
@@ -16633,16 +16703,16 @@
       <c r="G366" s="91"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="120" t="s">
+      <c r="A368" s="126" t="s">
         <v>1418</v>
       </c>
-      <c r="B368" s="121"/>
-      <c r="C368" s="121"/>
-      <c r="E368" s="120" t="s">
+      <c r="B368" s="127"/>
+      <c r="C368" s="127"/>
+      <c r="E368" s="126" t="s">
         <v>1419</v>
       </c>
-      <c r="F368" s="121"/>
-      <c r="G368" s="121"/>
+      <c r="F368" s="127"/>
+      <c r="G368" s="127"/>
     </row>
     <row r="369" spans="1:7" ht="30" customHeight="1">
       <c r="A369" s="91" t="s">
@@ -16677,16 +16747,16 @@
       <c r="G370" s="91"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="120" t="s">
+      <c r="A372" s="126" t="s">
         <v>1422</v>
       </c>
-      <c r="B372" s="121"/>
-      <c r="C372" s="121"/>
-      <c r="E372" s="120" t="s">
+      <c r="B372" s="127"/>
+      <c r="C372" s="127"/>
+      <c r="E372" s="126" t="s">
         <v>1423</v>
       </c>
-      <c r="F372" s="121"/>
-      <c r="G372" s="121"/>
+      <c r="F372" s="127"/>
+      <c r="G372" s="127"/>
     </row>
     <row r="373" spans="1:7" ht="30" customHeight="1">
       <c r="A373" s="91" t="s">
@@ -16721,16 +16791,16 @@
       <c r="G374" s="91"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="120" t="s">
+      <c r="A376" s="126" t="s">
         <v>1426</v>
       </c>
-      <c r="B376" s="121"/>
-      <c r="C376" s="121"/>
-      <c r="E376" s="120" t="s">
+      <c r="B376" s="127"/>
+      <c r="C376" s="127"/>
+      <c r="E376" s="126" t="s">
         <v>1427</v>
       </c>
-      <c r="F376" s="121"/>
-      <c r="G376" s="121"/>
+      <c r="F376" s="127"/>
+      <c r="G376" s="127"/>
     </row>
     <row r="377" spans="1:7" ht="30" customHeight="1">
       <c r="A377" s="91" t="s">
@@ -16765,16 +16835,16 @@
       <c r="G378" s="91"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="120" t="s">
+      <c r="A380" s="126" t="s">
         <v>1430</v>
       </c>
-      <c r="B380" s="121"/>
-      <c r="C380" s="121"/>
-      <c r="E380" s="120" t="s">
+      <c r="B380" s="127"/>
+      <c r="C380" s="127"/>
+      <c r="E380" s="126" t="s">
         <v>1431</v>
       </c>
-      <c r="F380" s="121"/>
-      <c r="G380" s="121"/>
+      <c r="F380" s="127"/>
+      <c r="G380" s="127"/>
     </row>
     <row r="381" spans="1:7" ht="30">
       <c r="A381" s="91" t="s">
@@ -16809,16 +16879,16 @@
       <c r="G382" s="91"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="120" t="s">
+      <c r="A384" s="126" t="s">
         <v>1434</v>
       </c>
-      <c r="B384" s="121"/>
-      <c r="C384" s="121"/>
-      <c r="E384" s="120" t="s">
+      <c r="B384" s="127"/>
+      <c r="C384" s="127"/>
+      <c r="E384" s="126" t="s">
         <v>1435</v>
       </c>
-      <c r="F384" s="121"/>
-      <c r="G384" s="121"/>
+      <c r="F384" s="127"/>
+      <c r="G384" s="127"/>
     </row>
     <row r="385" spans="1:7" ht="30" customHeight="1">
       <c r="A385" s="91" t="s">
@@ -16853,16 +16923,16 @@
       <c r="G386" s="91"/>
     </row>
     <row r="388" spans="1:7">
-      <c r="A388" s="120" t="s">
+      <c r="A388" s="126" t="s">
         <v>1438</v>
       </c>
-      <c r="B388" s="121"/>
-      <c r="C388" s="121"/>
-      <c r="E388" s="120" t="s">
+      <c r="B388" s="127"/>
+      <c r="C388" s="127"/>
+      <c r="E388" s="126" t="s">
         <v>1439</v>
       </c>
-      <c r="F388" s="121"/>
-      <c r="G388" s="121"/>
+      <c r="F388" s="127"/>
+      <c r="G388" s="127"/>
     </row>
     <row r="389" spans="1:7" ht="30" customHeight="1">
       <c r="A389" s="91" t="s">
@@ -16897,16 +16967,16 @@
       <c r="G390" s="91"/>
     </row>
     <row r="392" spans="1:7">
-      <c r="A392" s="120" t="s">
+      <c r="A392" s="126" t="s">
         <v>1442</v>
       </c>
-      <c r="B392" s="121"/>
-      <c r="C392" s="121"/>
-      <c r="E392" s="120" t="s">
+      <c r="B392" s="127"/>
+      <c r="C392" s="127"/>
+      <c r="E392" s="126" t="s">
         <v>1443</v>
       </c>
-      <c r="F392" s="121"/>
-      <c r="G392" s="121"/>
+      <c r="F392" s="127"/>
+      <c r="G392" s="127"/>
     </row>
     <row r="393" spans="1:7" ht="30" customHeight="1">
       <c r="A393" s="91" t="s">
@@ -16941,16 +17011,16 @@
       <c r="G394" s="91"/>
     </row>
     <row r="396" spans="1:7">
-      <c r="A396" s="120" t="s">
+      <c r="A396" s="126" t="s">
         <v>1446</v>
       </c>
-      <c r="B396" s="121"/>
-      <c r="C396" s="121"/>
-      <c r="E396" s="120" t="s">
+      <c r="B396" s="127"/>
+      <c r="C396" s="127"/>
+      <c r="E396" s="126" t="s">
         <v>1447</v>
       </c>
-      <c r="F396" s="121"/>
-      <c r="G396" s="121"/>
+      <c r="F396" s="127"/>
+      <c r="G396" s="127"/>
     </row>
     <row r="397" spans="1:7" ht="30" customHeight="1">
       <c r="A397" s="91" t="s">
@@ -16985,16 +17055,16 @@
       <c r="G398" s="91"/>
     </row>
     <row r="400" spans="1:7">
-      <c r="A400" s="120" t="s">
+      <c r="A400" s="126" t="s">
         <v>1450</v>
       </c>
-      <c r="B400" s="121"/>
-      <c r="C400" s="121"/>
-      <c r="E400" s="120" t="s">
+      <c r="B400" s="127"/>
+      <c r="C400" s="127"/>
+      <c r="E400" s="126" t="s">
         <v>1451</v>
       </c>
-      <c r="F400" s="121"/>
-      <c r="G400" s="121"/>
+      <c r="F400" s="127"/>
+      <c r="G400" s="127"/>
     </row>
     <row r="401" spans="1:7" ht="30" customHeight="1">
       <c r="A401" s="91" t="s">
@@ -17029,16 +17099,16 @@
       <c r="G402" s="91"/>
     </row>
     <row r="404" spans="1:7">
-      <c r="A404" s="120" t="s">
+      <c r="A404" s="126" t="s">
         <v>1454</v>
       </c>
-      <c r="B404" s="121"/>
-      <c r="C404" s="121"/>
-      <c r="E404" s="120" t="s">
+      <c r="B404" s="127"/>
+      <c r="C404" s="127"/>
+      <c r="E404" s="126" t="s">
         <v>1455</v>
       </c>
-      <c r="F404" s="121"/>
-      <c r="G404" s="121"/>
+      <c r="F404" s="127"/>
+      <c r="G404" s="127"/>
     </row>
     <row r="405" spans="1:7" ht="30" customHeight="1">
       <c r="A405" s="91" t="s">
@@ -17073,16 +17143,16 @@
       <c r="G406" s="91"/>
     </row>
     <row r="408" spans="1:7">
-      <c r="A408" s="120" t="s">
+      <c r="A408" s="126" t="s">
         <v>1458</v>
       </c>
-      <c r="B408" s="121"/>
-      <c r="C408" s="121"/>
-      <c r="E408" s="120" t="s">
+      <c r="B408" s="127"/>
+      <c r="C408" s="127"/>
+      <c r="E408" s="126" t="s">
         <v>1459</v>
       </c>
-      <c r="F408" s="121"/>
-      <c r="G408" s="121"/>
+      <c r="F408" s="127"/>
+      <c r="G408" s="127"/>
     </row>
     <row r="409" spans="1:7" ht="30">
       <c r="A409" s="91" t="s">
@@ -17117,16 +17187,16 @@
       <c r="G410" s="91"/>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="120" t="s">
+      <c r="A412" s="126" t="s">
         <v>1462</v>
       </c>
-      <c r="B412" s="121"/>
-      <c r="C412" s="121"/>
-      <c r="E412" s="120" t="s">
+      <c r="B412" s="127"/>
+      <c r="C412" s="127"/>
+      <c r="E412" s="126" t="s">
         <v>1463</v>
       </c>
-      <c r="F412" s="121"/>
-      <c r="G412" s="121"/>
+      <c r="F412" s="127"/>
+      <c r="G412" s="127"/>
     </row>
     <row r="413" spans="1:7" ht="30" customHeight="1">
       <c r="A413" s="91" t="s">
@@ -17161,16 +17231,16 @@
       <c r="G414" s="91"/>
     </row>
     <row r="416" spans="1:7">
-      <c r="A416" s="120" t="s">
+      <c r="A416" s="126" t="s">
         <v>1466</v>
       </c>
-      <c r="B416" s="121"/>
-      <c r="C416" s="121"/>
-      <c r="E416" s="120" t="s">
+      <c r="B416" s="127"/>
+      <c r="C416" s="127"/>
+      <c r="E416" s="126" t="s">
         <v>1467</v>
       </c>
-      <c r="F416" s="121"/>
-      <c r="G416" s="121"/>
+      <c r="F416" s="127"/>
+      <c r="G416" s="127"/>
     </row>
     <row r="417" spans="1:7" ht="30" customHeight="1">
       <c r="A417" s="91" t="s">
@@ -17205,16 +17275,16 @@
       <c r="G418" s="91"/>
     </row>
     <row r="420" spans="1:7">
-      <c r="A420" s="120" t="s">
+      <c r="A420" s="126" t="s">
         <v>1470</v>
       </c>
-      <c r="B420" s="121"/>
-      <c r="C420" s="121"/>
-      <c r="E420" s="120" t="s">
+      <c r="B420" s="127"/>
+      <c r="C420" s="127"/>
+      <c r="E420" s="126" t="s">
         <v>1471</v>
       </c>
-      <c r="F420" s="121"/>
-      <c r="G420" s="121"/>
+      <c r="F420" s="127"/>
+      <c r="G420" s="127"/>
     </row>
     <row r="421" spans="1:7" ht="30" customHeight="1">
       <c r="A421" s="91" t="s">
@@ -17249,16 +17319,16 @@
       <c r="G422" s="91"/>
     </row>
     <row r="424" spans="1:7">
-      <c r="A424" s="120" t="s">
+      <c r="A424" s="126" t="s">
         <v>1474</v>
       </c>
-      <c r="B424" s="121"/>
-      <c r="C424" s="121"/>
-      <c r="E424" s="120" t="s">
+      <c r="B424" s="127"/>
+      <c r="C424" s="127"/>
+      <c r="E424" s="126" t="s">
         <v>1475</v>
       </c>
-      <c r="F424" s="121"/>
-      <c r="G424" s="121"/>
+      <c r="F424" s="127"/>
+      <c r="G424" s="127"/>
     </row>
     <row r="425" spans="1:7" ht="30" customHeight="1">
       <c r="A425" s="91" t="s">
@@ -17293,16 +17363,16 @@
       <c r="G426" s="91"/>
     </row>
     <row r="428" spans="1:7">
-      <c r="A428" s="120" t="s">
+      <c r="A428" s="126" t="s">
         <v>1478</v>
       </c>
-      <c r="B428" s="121"/>
-      <c r="C428" s="121"/>
-      <c r="E428" s="120" t="s">
+      <c r="B428" s="127"/>
+      <c r="C428" s="127"/>
+      <c r="E428" s="126" t="s">
         <v>1479</v>
       </c>
-      <c r="F428" s="121"/>
-      <c r="G428" s="121"/>
+      <c r="F428" s="127"/>
+      <c r="G428" s="127"/>
     </row>
     <row r="429" spans="1:7" ht="30" customHeight="1">
       <c r="A429" s="91" t="s">
@@ -17337,16 +17407,16 @@
       <c r="G430" s="91"/>
     </row>
     <row r="432" spans="1:7">
-      <c r="A432" s="120" t="s">
+      <c r="A432" s="126" t="s">
         <v>1482</v>
       </c>
-      <c r="B432" s="121"/>
-      <c r="C432" s="121"/>
-      <c r="E432" s="120" t="s">
+      <c r="B432" s="127"/>
+      <c r="C432" s="127"/>
+      <c r="E432" s="126" t="s">
         <v>1482</v>
       </c>
-      <c r="F432" s="121"/>
-      <c r="G432" s="121"/>
+      <c r="F432" s="127"/>
+      <c r="G432" s="127"/>
     </row>
     <row r="433" spans="1:7" ht="30" customHeight="1">
       <c r="A433" s="91" t="s">
@@ -17381,16 +17451,16 @@
       <c r="G434" s="91"/>
     </row>
     <row r="436" spans="1:7">
-      <c r="A436" s="120" t="s">
+      <c r="A436" s="126" t="s">
         <v>1486</v>
       </c>
-      <c r="B436" s="121"/>
-      <c r="C436" s="121"/>
-      <c r="E436" s="120" t="s">
+      <c r="B436" s="127"/>
+      <c r="C436" s="127"/>
+      <c r="E436" s="126" t="s">
         <v>1487</v>
       </c>
-      <c r="F436" s="121"/>
-      <c r="G436" s="121"/>
+      <c r="F436" s="127"/>
+      <c r="G436" s="127"/>
     </row>
     <row r="437" spans="1:7" ht="30" customHeight="1">
       <c r="A437" s="91" t="s">
@@ -17425,16 +17495,16 @@
       <c r="G438" s="91"/>
     </row>
     <row r="440" spans="1:7">
-      <c r="A440" s="120" t="s">
+      <c r="A440" s="126" t="s">
         <v>1490</v>
       </c>
-      <c r="B440" s="121"/>
-      <c r="C440" s="121"/>
-      <c r="E440" s="120" t="s">
+      <c r="B440" s="127"/>
+      <c r="C440" s="127"/>
+      <c r="E440" s="126" t="s">
         <v>1491</v>
       </c>
-      <c r="F440" s="121"/>
-      <c r="G440" s="121"/>
+      <c r="F440" s="127"/>
+      <c r="G440" s="127"/>
     </row>
     <row r="441" spans="1:7" ht="30" customHeight="1">
       <c r="A441" s="91" t="s">
@@ -17469,16 +17539,16 @@
       <c r="G442" s="91"/>
     </row>
     <row r="444" spans="1:7">
-      <c r="A444" s="120" t="s">
+      <c r="A444" s="126" t="s">
         <v>1494</v>
       </c>
-      <c r="B444" s="121"/>
-      <c r="C444" s="121"/>
-      <c r="E444" s="120" t="s">
+      <c r="B444" s="127"/>
+      <c r="C444" s="127"/>
+      <c r="E444" s="126" t="s">
         <v>1495</v>
       </c>
-      <c r="F444" s="121"/>
-      <c r="G444" s="121"/>
+      <c r="F444" s="127"/>
+      <c r="G444" s="127"/>
     </row>
     <row r="445" spans="1:7" ht="45" customHeight="1">
       <c r="A445" s="91" t="s">
@@ -17513,16 +17583,16 @@
       <c r="G446" s="91"/>
     </row>
     <row r="448" spans="1:7">
-      <c r="A448" s="120" t="s">
+      <c r="A448" s="126" t="s">
         <v>1498</v>
       </c>
-      <c r="B448" s="121"/>
-      <c r="C448" s="121"/>
-      <c r="E448" s="120" t="s">
+      <c r="B448" s="127"/>
+      <c r="C448" s="127"/>
+      <c r="E448" s="126" t="s">
         <v>1499</v>
       </c>
-      <c r="F448" s="121"/>
-      <c r="G448" s="121"/>
+      <c r="F448" s="127"/>
+      <c r="G448" s="127"/>
     </row>
     <row r="449" spans="1:7" ht="45" customHeight="1">
       <c r="A449" s="91" t="s">
@@ -17557,16 +17627,16 @@
       <c r="G450" s="91"/>
     </row>
     <row r="452" spans="1:7">
-      <c r="A452" s="120" t="s">
+      <c r="A452" s="126" t="s">
         <v>1502</v>
       </c>
-      <c r="B452" s="121"/>
-      <c r="C452" s="121"/>
-      <c r="E452" s="120" t="s">
+      <c r="B452" s="127"/>
+      <c r="C452" s="127"/>
+      <c r="E452" s="126" t="s">
         <v>1503</v>
       </c>
-      <c r="F452" s="121"/>
-      <c r="G452" s="121"/>
+      <c r="F452" s="127"/>
+      <c r="G452" s="127"/>
     </row>
     <row r="453" spans="1:7" ht="30" customHeight="1">
       <c r="A453" s="91" t="s">
@@ -17601,16 +17671,16 @@
       <c r="G454" s="91"/>
     </row>
     <row r="456" spans="1:7">
-      <c r="A456" s="120" t="s">
+      <c r="A456" s="126" t="s">
         <v>1506</v>
       </c>
-      <c r="B456" s="121"/>
-      <c r="C456" s="121"/>
-      <c r="E456" s="120" t="s">
+      <c r="B456" s="127"/>
+      <c r="C456" s="127"/>
+      <c r="E456" s="126" t="s">
         <v>1507</v>
       </c>
-      <c r="F456" s="121"/>
-      <c r="G456" s="121"/>
+      <c r="F456" s="127"/>
+      <c r="G456" s="127"/>
     </row>
     <row r="457" spans="1:7" ht="30" customHeight="1">
       <c r="A457" s="91" t="s">
@@ -17645,16 +17715,16 @@
       <c r="G458" s="91"/>
     </row>
     <row r="460" spans="1:7">
-      <c r="A460" s="120" t="s">
+      <c r="A460" s="126" t="s">
         <v>1510</v>
       </c>
-      <c r="B460" s="121"/>
-      <c r="C460" s="121"/>
-      <c r="E460" s="120" t="s">
+      <c r="B460" s="127"/>
+      <c r="C460" s="127"/>
+      <c r="E460" s="126" t="s">
         <v>1511</v>
       </c>
-      <c r="F460" s="121"/>
-      <c r="G460" s="121"/>
+      <c r="F460" s="127"/>
+      <c r="G460" s="127"/>
     </row>
     <row r="461" spans="1:7" ht="30" customHeight="1">
       <c r="A461" s="91" t="s">
@@ -17689,16 +17759,16 @@
       <c r="G462" s="91"/>
     </row>
     <row r="464" spans="1:7">
-      <c r="A464" s="120" t="s">
+      <c r="A464" s="126" t="s">
         <v>1514</v>
       </c>
-      <c r="B464" s="121"/>
-      <c r="C464" s="121"/>
-      <c r="E464" s="120" t="s">
+      <c r="B464" s="127"/>
+      <c r="C464" s="127"/>
+      <c r="E464" s="126" t="s">
         <v>1515</v>
       </c>
-      <c r="F464" s="121"/>
-      <c r="G464" s="121"/>
+      <c r="F464" s="127"/>
+      <c r="G464" s="127"/>
     </row>
     <row r="465" spans="1:7" ht="30" customHeight="1">
       <c r="A465" s="91" t="s">
@@ -17733,16 +17803,16 @@
       <c r="G466" s="91"/>
     </row>
     <row r="468" spans="1:7">
-      <c r="A468" s="120" t="s">
+      <c r="A468" s="126" t="s">
         <v>1518</v>
       </c>
-      <c r="B468" s="121"/>
-      <c r="C468" s="121"/>
-      <c r="E468" s="120" t="s">
+      <c r="B468" s="127"/>
+      <c r="C468" s="127"/>
+      <c r="E468" s="126" t="s">
         <v>1519</v>
       </c>
-      <c r="F468" s="121"/>
-      <c r="G468" s="121"/>
+      <c r="F468" s="127"/>
+      <c r="G468" s="127"/>
     </row>
     <row r="469" spans="1:7" ht="30" customHeight="1">
       <c r="A469" s="91" t="s">
@@ -17777,11 +17847,11 @@
       <c r="G470" s="91"/>
     </row>
     <row r="472" spans="1:7">
-      <c r="A472" s="120" t="s">
+      <c r="A472" s="126" t="s">
         <v>1522</v>
       </c>
-      <c r="B472" s="121"/>
-      <c r="C472" s="121"/>
+      <c r="B472" s="127"/>
+      <c r="C472" s="127"/>
     </row>
     <row r="473" spans="1:7" ht="30" customHeight="1">
       <c r="A473" s="91" t="s">
@@ -17803,107 +17873,33 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="E412:G412"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="E404:G404"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="E408:G408"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="E388:G388"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="E392:G392"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="E396:G396"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="E384:G384"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="E372:G372"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="E352:G352"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="E356:G356"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="E348:G348"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="E328:G328"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E170:G170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="E196:G196"/>
-    <mergeCell ref="E200:G200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="E204:G204"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="E212:G212"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="E228:G228"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="E232:G232"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="E236:G236"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="E244:G244"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="E248:G248"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="E252:G252"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="E256:G256"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="E264:G264"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="E276:G276"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="E280:G280"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="E468:G468"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="E440:G440"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="E444:G444"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="E448:G448"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="E452:G452"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="E420:G420"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="E424:G424"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="E428:G428"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="E436:G436"/>
     <mergeCell ref="E300:G300"/>
     <mergeCell ref="A303:C303"/>
     <mergeCell ref="E288:G288"/>
@@ -17928,33 +17924,107 @@
     <mergeCell ref="E340:G340"/>
     <mergeCell ref="A344:C344"/>
     <mergeCell ref="E344:G344"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="E420:G420"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="E424:G424"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="E428:G428"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="E436:G436"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="E468:G468"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="E440:G440"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="E444:G444"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="E448:G448"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="E452:G452"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="E264:G264"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="E276:G276"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="E280:G280"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="E244:G244"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="E248:G248"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="E256:G256"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="E228:G228"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="E232:G232"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="E236:G236"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E170:G170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="E348:G348"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="E328:G328"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="E372:G372"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="E352:G352"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="E356:G356"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="E388:G388"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="E392:G392"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="E396:G396"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="E384:G384"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="E412:G412"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="E404:G404"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="E408:G408"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17977,10 +18047,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="129" t="s">
         <v>1524</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="127"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="92" t="s">
@@ -18047,10 +18117,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="129" t="s">
         <v>1535</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="127"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="92" t="s">
@@ -18117,10 +18187,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="129" t="s">
         <v>1544</v>
       </c>
-      <c r="B23" s="121"/>
+      <c r="B23" s="127"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="92" t="s">
@@ -18187,10 +18257,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="129" t="s">
         <v>1552</v>
       </c>
-      <c r="B34" s="121"/>
+      <c r="B34" s="127"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="92" t="s">
@@ -18257,10 +18327,10 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="129" t="s">
         <v>1559</v>
       </c>
-      <c r="B44" s="121"/>
+      <c r="B44" s="127"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="92" t="s">
@@ -18327,10 +18397,10 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="124" t="s">
+      <c r="A55" s="129" t="s">
         <v>1568</v>
       </c>
-      <c r="B55" s="121"/>
+      <c r="B55" s="127"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="92" t="s">
@@ -18397,10 +18467,10 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="124" t="s">
+      <c r="A66" s="129" t="s">
         <v>1576</v>
       </c>
-      <c r="B66" s="121"/>
+      <c r="B66" s="127"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="92" t="s">
@@ -18467,10 +18537,10 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="124" t="s">
+      <c r="A77" s="129" t="s">
         <v>1584</v>
       </c>
-      <c r="B77" s="121"/>
+      <c r="B77" s="127"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="92" t="s">
@@ -18537,10 +18607,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="124" t="s">
+      <c r="A88" s="129" t="s">
         <v>1592</v>
       </c>
-      <c r="B88" s="121"/>
+      <c r="B88" s="127"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="92" t="s">
@@ -18655,10 +18725,10 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="124" t="s">
+      <c r="A105" s="129" t="s">
         <v>1610</v>
       </c>
-      <c r="B105" s="121"/>
+      <c r="B105" s="127"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="92" t="s">
@@ -18709,10 +18779,10 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="125" t="s">
+      <c r="A112" s="130" t="s">
         <v>1616</v>
       </c>
-      <c r="B112" s="121"/>
+      <c r="B112" s="127"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="92" t="s">
@@ -18899,10 +18969,10 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="124" t="s">
+      <c r="A138" s="129" t="s">
         <v>1629</v>
       </c>
-      <c r="B138" s="121"/>
+      <c r="B138" s="127"/>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="92" t="s">
@@ -18969,10 +19039,10 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="123" t="s">
+      <c r="A147" s="131" t="s">
         <v>1636</v>
       </c>
-      <c r="B147" s="121"/>
+      <c r="B147" s="127"/>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="92" t="s">
@@ -19031,10 +19101,10 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="124" t="s">
+      <c r="A157" s="129" t="s">
         <v>1642</v>
       </c>
-      <c r="B157" s="121"/>
+      <c r="B157" s="127"/>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="92" t="s">
@@ -19101,10 +19171,10 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="123" t="s">
+      <c r="A166" s="131" t="s">
         <v>1636</v>
       </c>
-      <c r="B166" s="121"/>
+      <c r="B166" s="127"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="92" t="s">
@@ -19163,10 +19233,10 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="124" t="s">
+      <c r="A176" s="129" t="s">
         <v>1655</v>
       </c>
-      <c r="B176" s="121"/>
+      <c r="B176" s="127"/>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="92" t="s">
@@ -19231,10 +19301,10 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="123" t="s">
+      <c r="A185" s="131" t="s">
         <v>1636</v>
       </c>
-      <c r="B185" s="121"/>
+      <c r="B185" s="127"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="92" t="s">
@@ -19342,6 +19412,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A185:B185"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
@@ -19354,11 +19429,6 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A185:B185"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -19570,10 +19640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>1698</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="117"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
@@ -19638,10 +19708,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="119" t="s">
         <v>1706</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="117"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="28" t="s">
@@ -19740,10 +19810,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="119" t="s">
         <v>1710</v>
       </c>
-      <c r="B27" s="111"/>
+      <c r="B27" s="117"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28" t="s">
@@ -19778,10 +19848,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="119" t="s">
         <v>1714</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="117"/>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="28" t="s">
@@ -19824,10 +19894,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="119" t="s">
         <v>1721</v>
       </c>
-      <c r="B38" s="111"/>
+      <c r="B38" s="117"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="28" t="s">
@@ -19886,10 +19956,10 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="119" t="s">
         <v>1726</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="117"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="28" t="s">
@@ -20108,10 +20178,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="119" t="s">
         <v>1740</v>
       </c>
-      <c r="B78" s="111"/>
+      <c r="B78" s="117"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="28" t="s">
@@ -20318,10 +20388,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="113" t="s">
+      <c r="A108" s="119" t="s">
         <v>1759</v>
       </c>
-      <c r="B108" s="111"/>
+      <c r="B108" s="117"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="28" t="s">
@@ -20546,10 +20616,10 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="113" t="s">
+      <c r="A139" s="119" t="s">
         <v>1782</v>
       </c>
-      <c r="B139" s="111"/>
+      <c r="B139" s="117"/>
     </row>
     <row r="140" spans="1:2" ht="30" customHeight="1">
       <c r="A140" s="28" t="s">
@@ -20638,10 +20708,10 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="113" t="s">
+      <c r="A154" s="119" t="s">
         <v>1788</v>
       </c>
-      <c r="B154" s="111"/>
+      <c r="B154" s="117"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="28" t="s">
@@ -20692,10 +20762,10 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="113" t="s">
+      <c r="A161" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B161" s="111"/>
+      <c r="B161" s="117"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="28" t="s">
@@ -20754,10 +20824,10 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="113" t="s">
+      <c r="A171" s="119" t="s">
         <v>1796</v>
       </c>
-      <c r="B171" s="111"/>
+      <c r="B171" s="117"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="28" t="s">
@@ -20808,10 +20878,10 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="113" t="s">
+      <c r="A178" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B178" s="111"/>
+      <c r="B178" s="117"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="28" t="s">
@@ -20870,10 +20940,10 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="113" t="s">
+      <c r="A189" s="119" t="s">
         <v>1804</v>
       </c>
-      <c r="B189" s="111"/>
+      <c r="B189" s="117"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="28" t="s">
@@ -20924,10 +20994,10 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="113" t="s">
+      <c r="A196" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B196" s="111"/>
+      <c r="B196" s="117"/>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="28" t="s">
@@ -21002,10 +21072,10 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="113" t="s">
+      <c r="A208" s="119" t="s">
         <v>1812</v>
       </c>
-      <c r="B208" s="111"/>
+      <c r="B208" s="117"/>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="28" t="s">
@@ -21072,10 +21142,10 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="113" t="s">
+      <c r="A217" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B217" s="111"/>
+      <c r="B217" s="117"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="28" t="s">
@@ -21132,10 +21202,10 @@
       <c r="B224" s="28"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="118" t="s">
+      <c r="A225" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B225" s="111"/>
+      <c r="B225" s="117"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="28" t="s">
@@ -21146,10 +21216,10 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="113" t="s">
+      <c r="A230" s="119" t="s">
         <v>1821</v>
       </c>
-      <c r="B230" s="111"/>
+      <c r="B230" s="117"/>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="28" t="s">
@@ -21216,10 +21286,10 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="113" t="s">
+      <c r="A239" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B239" s="111"/>
+      <c r="B239" s="117"/>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="28" t="s">
@@ -21254,10 +21324,10 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="118" t="s">
+      <c r="A244" s="125" t="s">
         <v>997</v>
       </c>
-      <c r="B244" s="111"/>
+      <c r="B244" s="117"/>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="28" t="s">
@@ -21316,10 +21386,10 @@
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="118" t="s">
+      <c r="A252" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B252" s="111"/>
+      <c r="B252" s="117"/>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="28" t="s">
@@ -21330,10 +21400,10 @@
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="113" t="s">
+      <c r="A256" s="119" t="s">
         <v>1836</v>
       </c>
-      <c r="B256" s="111"/>
+      <c r="B256" s="117"/>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="28" t="s">
@@ -21400,10 +21470,10 @@
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="113" t="s">
+      <c r="A265" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B265" s="111"/>
+      <c r="B265" s="117"/>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="28" t="s">
@@ -21460,10 +21530,10 @@
       <c r="B272" s="28"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="118" t="s">
+      <c r="A273" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B273" s="111"/>
+      <c r="B273" s="117"/>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="28" t="s">
@@ -21474,10 +21544,10 @@
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="113" t="s">
+      <c r="A277" s="119" t="s">
         <v>1845</v>
       </c>
-      <c r="B277" s="111"/>
+      <c r="B277" s="117"/>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="28" t="s">
@@ -21544,10 +21614,10 @@
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="113" t="s">
+      <c r="A286" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B286" s="111"/>
+      <c r="B286" s="117"/>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="28" t="s">
@@ -21604,10 +21674,10 @@
       <c r="B293" s="28"/>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="118" t="s">
+      <c r="A294" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B294" s="111"/>
+      <c r="B294" s="117"/>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="28" t="s">
@@ -21618,10 +21688,10 @@
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="113" t="s">
+      <c r="A298" s="119" t="s">
         <v>1854</v>
       </c>
-      <c r="B298" s="111"/>
+      <c r="B298" s="117"/>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="28" t="s">
@@ -21688,10 +21758,10 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="113" t="s">
+      <c r="A307" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B307" s="111"/>
+      <c r="B307" s="117"/>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="28" t="s">
@@ -21726,10 +21796,10 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="126" t="s">
+      <c r="A312" s="132" t="s">
         <v>1862</v>
       </c>
-      <c r="B312" s="111"/>
+      <c r="B312" s="117"/>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="28" t="s">
@@ -21786,10 +21856,10 @@
       <c r="B319" s="28"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="118" t="s">
+      <c r="A320" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B320" s="111"/>
+      <c r="B320" s="117"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="28" t="s">
@@ -21808,10 +21878,10 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="113" t="s">
+      <c r="A325" s="119" t="s">
         <v>970</v>
       </c>
-      <c r="B325" s="111"/>
+      <c r="B325" s="117"/>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="28" t="s">
@@ -21862,10 +21932,10 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="113" t="s">
+      <c r="A332" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B332" s="111"/>
+      <c r="B332" s="117"/>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="28" t="s">
@@ -21924,10 +21994,10 @@
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="113" t="s">
+      <c r="A342" s="119" t="s">
         <v>987</v>
       </c>
-      <c r="B342" s="111"/>
+      <c r="B342" s="117"/>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="28" t="s">
@@ -21994,10 +22064,10 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="113" t="s">
+      <c r="A351" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B351" s="111"/>
+      <c r="B351" s="117"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="28" t="s">
@@ -22032,10 +22102,10 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="118" t="s">
+      <c r="A356" s="125" t="s">
         <v>997</v>
       </c>
-      <c r="B356" s="111"/>
+      <c r="B356" s="117"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="28" t="s">
@@ -22092,10 +22162,10 @@
       <c r="B363" s="28"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="118" t="s">
+      <c r="A364" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B364" s="111"/>
+      <c r="B364" s="117"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="28" t="s">
@@ -22106,10 +22176,10 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="113" t="s">
+      <c r="A368" s="119" t="s">
         <v>1005</v>
       </c>
-      <c r="B368" s="111"/>
+      <c r="B368" s="117"/>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="28" t="s">
@@ -22176,10 +22246,10 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="113" t="s">
+      <c r="A377" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B377" s="111"/>
+      <c r="B377" s="117"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="28" t="s">
@@ -22238,10 +22308,10 @@
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="113" t="s">
+      <c r="A386" s="119" t="s">
         <v>1015</v>
       </c>
-      <c r="B386" s="111"/>
+      <c r="B386" s="117"/>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="28" t="s">
@@ -22308,10 +22378,10 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="113" t="s">
+      <c r="A395" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B395" s="111"/>
+      <c r="B395" s="117"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="28" t="s">
@@ -22370,10 +22440,10 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="113" t="s">
+      <c r="A405" s="119" t="s">
         <v>1023</v>
       </c>
-      <c r="B405" s="111"/>
+      <c r="B405" s="117"/>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="28" t="s">
@@ -22448,10 +22518,10 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="119" t="s">
+      <c r="A415" s="123" t="s">
         <v>1030</v>
       </c>
-      <c r="B415" s="111"/>
+      <c r="B415" s="117"/>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="28" t="s">
@@ -22494,10 +22564,10 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="113" t="s">
+      <c r="A421" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B421" s="111"/>
+      <c r="B421" s="117"/>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="28" t="s">
@@ -22556,10 +22626,10 @@
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="113" t="s">
+      <c r="A431" s="119" t="s">
         <v>1036</v>
       </c>
-      <c r="B431" s="111"/>
+      <c r="B431" s="117"/>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="28" t="s">
@@ -22619,10 +22689,10 @@
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="113" t="s">
+      <c r="A441" s="119" t="s">
         <v>1041</v>
       </c>
-      <c r="B441" s="111"/>
+      <c r="B441" s="117"/>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="28" t="s">
@@ -22689,10 +22759,10 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="113" t="s">
+      <c r="A450" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B450" s="111"/>
+      <c r="B450" s="117"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="28" t="s">
@@ -22751,10 +22821,10 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="118" t="s">
+      <c r="A458" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B458" s="111"/>
+      <c r="B458" s="117"/>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="28" t="s">
@@ -22765,10 +22835,10 @@
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="113" t="s">
+      <c r="A462" s="119" t="s">
         <v>1051</v>
       </c>
-      <c r="B462" s="111"/>
+      <c r="B462" s="117"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="28" t="s">
@@ -22835,10 +22905,10 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="113" t="s">
+      <c r="A471" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B471" s="111"/>
+      <c r="B471" s="117"/>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="28" t="s">
@@ -22897,10 +22967,10 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="118" t="s">
+      <c r="A479" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B479" s="111"/>
+      <c r="B479" s="117"/>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="28" t="s">
@@ -22911,10 +22981,10 @@
       </c>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="113" t="s">
+      <c r="A483" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="B483" s="111"/>
+      <c r="B483" s="117"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="28" t="s">
@@ -22984,10 +23054,10 @@
       </c>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="113" t="s">
+      <c r="A492" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B492" s="111"/>
+      <c r="B492" s="117"/>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="28" t="s">
@@ -23046,10 +23116,10 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="118" t="s">
+      <c r="A500" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B500" s="111"/>
+      <c r="B500" s="117"/>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="28" t="s">
@@ -23060,10 +23130,10 @@
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="113" t="s">
+      <c r="A504" s="119" t="s">
         <v>1069</v>
       </c>
-      <c r="B504" s="111"/>
+      <c r="B504" s="117"/>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="28" t="s">
@@ -23130,10 +23200,10 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="113" t="s">
+      <c r="A513" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B513" s="111"/>
+      <c r="B513" s="117"/>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="28" t="s">
@@ -23184,10 +23254,10 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="118" t="s">
+      <c r="A520" s="125" t="s">
         <v>1002</v>
       </c>
-      <c r="B520" s="111"/>
+      <c r="B520" s="117"/>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="28" t="s">
@@ -23198,10 +23268,10 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="113" t="s">
+      <c r="A522" s="119" t="s">
         <v>1078</v>
       </c>
-      <c r="B522" s="111"/>
+      <c r="B522" s="117"/>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="28" t="s">
@@ -23326,10 +23396,10 @@
       <c r="B541" s="62"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="113" t="s">
+      <c r="A544" s="119" t="s">
         <v>1069</v>
       </c>
-      <c r="B544" s="111"/>
+      <c r="B544" s="117"/>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="28" t="s">
@@ -23388,10 +23458,10 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="113" t="s">
+      <c r="A552" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B552" s="111"/>
+      <c r="B552" s="117"/>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="28" t="s">
@@ -23442,10 +23512,10 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="113" t="s">
+      <c r="A561" s="119" t="s">
         <v>1109</v>
       </c>
-      <c r="B561" s="111"/>
+      <c r="B561" s="117"/>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="28" t="s">
@@ -23512,10 +23582,10 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="113" t="s">
+      <c r="A570" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B570" s="111"/>
+      <c r="B570" s="117"/>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="28" t="s">
@@ -23566,10 +23636,10 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="118" t="s">
+      <c r="A577" s="125" t="s">
         <v>1117</v>
       </c>
-      <c r="B577" s="111"/>
+      <c r="B577" s="117"/>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="28" t="s">
@@ -23664,10 +23734,10 @@
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="113" t="s">
+      <c r="A596" s="119" t="s">
         <v>1132</v>
       </c>
-      <c r="B596" s="111"/>
+      <c r="B596" s="117"/>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="28" t="s">
@@ -23734,10 +23804,10 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="113" t="s">
+      <c r="A605" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B605" s="111"/>
+      <c r="B605" s="117"/>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="28" t="s">
@@ -23788,10 +23858,10 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="118" t="s">
+      <c r="A612" s="125" t="s">
         <v>1140</v>
       </c>
-      <c r="B612" s="111"/>
+      <c r="B612" s="117"/>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="28" t="s">
@@ -23928,10 +23998,10 @@
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="113" t="s">
+      <c r="A638" s="119" t="s">
         <v>1162</v>
       </c>
-      <c r="B638" s="111"/>
+      <c r="B638" s="117"/>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="28" t="s">
@@ -23998,10 +24068,10 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="113" t="s">
+      <c r="A647" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B647" s="111"/>
+      <c r="B647" s="117"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="28" t="s">
@@ -24066,10 +24136,10 @@
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="113" t="s">
+      <c r="A658" s="119" t="s">
         <v>1172</v>
       </c>
-      <c r="B658" s="111"/>
+      <c r="B658" s="117"/>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="28" t="s">
@@ -24136,10 +24206,10 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="113" t="s">
+      <c r="A667" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B667" s="111"/>
+      <c r="B667" s="117"/>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="28" t="s">
@@ -24204,10 +24274,10 @@
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="113" t="s">
+      <c r="A678" s="119" t="s">
         <v>1181</v>
       </c>
-      <c r="B678" s="111"/>
+      <c r="B678" s="117"/>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="28" t="s">
@@ -24274,10 +24344,10 @@
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="113" t="s">
+      <c r="A687" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B687" s="111"/>
+      <c r="B687" s="117"/>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="28" t="s">
@@ -24340,10 +24410,10 @@
       <c r="B695" s="28"/>
     </row>
     <row r="698" spans="1:2">
-      <c r="A698" s="113" t="s">
+      <c r="A698" s="119" t="s">
         <v>1958</v>
       </c>
-      <c r="B698" s="111"/>
+      <c r="B698" s="117"/>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="28" t="s">
@@ -24410,10 +24480,10 @@
       </c>
     </row>
     <row r="707" spans="1:2">
-      <c r="A707" s="113" t="s">
+      <c r="A707" s="119" t="s">
         <v>1962</v>
       </c>
-      <c r="B707" s="111"/>
+      <c r="B707" s="117"/>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="28" t="s">
@@ -24472,10 +24542,10 @@
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="118" t="s">
+      <c r="A715" s="125" t="s">
         <v>1967</v>
       </c>
-      <c r="B715" s="111"/>
+      <c r="B715" s="117"/>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="28" t="s">
@@ -24518,10 +24588,10 @@
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="113" t="s">
+      <c r="A722" s="119" t="s">
         <v>1973</v>
       </c>
-      <c r="B722" s="111"/>
+      <c r="B722" s="117"/>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="28" t="s">
@@ -24588,10 +24658,10 @@
       </c>
     </row>
     <row r="731" spans="1:2">
-      <c r="A731" s="113" t="s">
+      <c r="A731" s="119" t="s">
         <v>1962</v>
       </c>
-      <c r="B731" s="111"/>
+      <c r="B731" s="117"/>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="28" t="s">
@@ -24650,10 +24720,10 @@
       </c>
     </row>
     <row r="739" spans="1:2">
-      <c r="A739" s="118" t="s">
+      <c r="A739" s="125" t="s">
         <v>1967</v>
       </c>
-      <c r="B739" s="111"/>
+      <c r="B739" s="117"/>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="28" t="s">
@@ -24696,10 +24766,10 @@
       </c>
     </row>
     <row r="747" spans="1:2">
-      <c r="A747" s="113" t="s">
+      <c r="A747" s="119" t="s">
         <v>1986</v>
       </c>
-      <c r="B747" s="111"/>
+      <c r="B747" s="117"/>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="28" t="s">
@@ -24750,10 +24820,10 @@
       </c>
     </row>
     <row r="754" spans="1:2">
-      <c r="A754" s="113" t="s">
+      <c r="A754" s="119" t="s">
         <v>1962</v>
       </c>
-      <c r="B754" s="111"/>
+      <c r="B754" s="117"/>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="28" t="s">
@@ -24804,10 +24874,10 @@
       </c>
     </row>
     <row r="763" spans="1:2">
-      <c r="A763" s="113" t="s">
+      <c r="A763" s="119" t="s">
         <v>1994</v>
       </c>
-      <c r="B763" s="111"/>
+      <c r="B763" s="117"/>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="28" t="s">
@@ -24858,10 +24928,10 @@
       </c>
     </row>
     <row r="770" spans="1:2">
-      <c r="A770" s="113" t="s">
+      <c r="A770" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B770" s="111"/>
+      <c r="B770" s="117"/>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="28" t="s">
@@ -24912,10 +24982,10 @@
       </c>
     </row>
     <row r="779" spans="1:2">
-      <c r="A779" s="113" t="s">
+      <c r="A779" s="119" t="s">
         <v>2002</v>
       </c>
-      <c r="B779" s="111"/>
+      <c r="B779" s="117"/>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="28" t="s">
@@ -24966,10 +25036,10 @@
       </c>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="113" t="s">
+      <c r="A786" s="119" t="s">
         <v>975</v>
       </c>
-      <c r="B786" s="111"/>
+      <c r="B786" s="117"/>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="28" t="s">
@@ -25029,13 +25099,72 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A786:B786"/>
-    <mergeCell ref="A739:B739"/>
-    <mergeCell ref="A747:B747"/>
-    <mergeCell ref="A754:B754"/>
-    <mergeCell ref="A763:B763"/>
-    <mergeCell ref="A770:B770"/>
-    <mergeCell ref="A779:B779"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="A596:B596"/>
     <mergeCell ref="A731:B731"/>
     <mergeCell ref="A612:B612"/>
     <mergeCell ref="A638:B638"/>
@@ -25048,72 +25177,13 @@
     <mergeCell ref="A707:B707"/>
     <mergeCell ref="A715:B715"/>
     <mergeCell ref="A722:B722"/>
-    <mergeCell ref="A605:B605"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A786:B786"/>
+    <mergeCell ref="A739:B739"/>
+    <mergeCell ref="A747:B747"/>
+    <mergeCell ref="A754:B754"/>
+    <mergeCell ref="A763:B763"/>
+    <mergeCell ref="A770:B770"/>
+    <mergeCell ref="A779:B779"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="emailLR_7_@gr.com"/>
@@ -25242,12 +25312,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="128" t="s">
         <v>2012</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="91" t="s">
@@ -25288,7 +25358,7 @@
       <c r="B6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="127"/>
+      <c r="C6" s="105"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="91" t="s">
@@ -25307,10 +25377,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>2018</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="127"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="91" t="s">
@@ -25361,10 +25431,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="128" t="s">
         <v>2022</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="127"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="91" t="s">
@@ -25471,10 +25541,10 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="128" t="s">
         <v>2038</v>
       </c>
-      <c r="B33" s="121"/>
+      <c r="B33" s="127"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="91" t="s">
@@ -25565,10 +25635,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="133" t="s">
         <v>2057</v>
       </c>
-      <c r="B46" s="121"/>
+      <c r="B46" s="127"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="91" t="s">
@@ -25606,7 +25676,7 @@
       <c r="A51" s="91" t="s">
         <v>942</v>
       </c>
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="106" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -25614,7 +25684,7 @@
       <c r="A52" s="91" t="s">
         <v>943</v>
       </c>
-      <c r="B52" s="129" t="s">
+      <c r="B52" s="106" t="s">
         <v>2061</v>
       </c>
     </row>
@@ -25643,7 +25713,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="130" t="s">
+      <c r="A56" s="107" t="s">
         <v>1674</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -25709,10 +25779,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="134" t="s">
         <v>2068</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="135"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="91" t="s">
@@ -25856,6 +25926,114 @@
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B15" r:id="rId2"/>
     <hyperlink ref="B16" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="104" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="104" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="104" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="104" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="104" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="104" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="104" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="104" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" style="104" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="104"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="104" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>2100</v>
+      </c>
+      <c r="H1" s="104" t="s">
+        <v>2101</v>
+      </c>
+      <c r="I1" s="136" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1" s="104" t="s">
+        <v>2103</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="37" customFormat="1">
+      <c r="A2" s="37" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F2" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="108"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26043,10 +26221,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
@@ -26069,10 +26247,10 @@
       <c r="B4" s="8"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="111"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -26119,10 +26297,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="111"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
@@ -26149,10 +26327,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="111"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
@@ -26183,10 +26361,10 @@
       <c r="B24" s="8"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="111"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
@@ -26257,14 +26435,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="105"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -26323,14 +26501,14 @@
       <c r="B7" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="105"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
@@ -26401,14 +26579,14 @@
       <c r="B16" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106" t="s">
+      <c r="B18" s="111"/>
+      <c r="C18" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="105"/>
+      <c r="D18" s="111"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
@@ -26471,14 +26649,14 @@
       <c r="B24" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="111"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
@@ -26545,14 +26723,14 @@
       <c r="B32" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="106" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="105"/>
+      <c r="D34" s="111"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
@@ -26619,14 +26797,14 @@
       <c r="B40" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="106" t="s">
+      <c r="B43" s="111"/>
+      <c r="C43" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="111"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
@@ -26709,14 +26887,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="105"/>
-      <c r="C52" s="106" t="s">
+      <c r="B52" s="111"/>
+      <c r="C52" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="105"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="57" customHeight="1">
@@ -26810,14 +26988,14 @@
       <c r="E58" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="105"/>
-      <c r="C60" s="106" t="s">
+      <c r="B60" s="111"/>
+      <c r="C60" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="105"/>
+      <c r="D60" s="111"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
@@ -26910,14 +27088,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="105"/>
-      <c r="C70" s="106" t="s">
+      <c r="B70" s="111"/>
+      <c r="C70" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="105"/>
+      <c r="D70" s="111"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="7" t="s">
@@ -26954,10 +27132,10 @@
       <c r="B73" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="106" t="s">
+      <c r="C73" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="105"/>
+      <c r="D73" s="111"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="7" t="s">
@@ -27000,14 +27178,14 @@
       <c r="D77" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="108" t="s">
+      <c r="A79" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="105"/>
-      <c r="C79" s="106" t="s">
+      <c r="B79" s="111"/>
+      <c r="C79" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="105"/>
+      <c r="D79" s="111"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="7" t="s">
@@ -27044,10 +27222,10 @@
       <c r="B82" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="106" t="s">
+      <c r="C82" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="105"/>
+      <c r="D82" s="111"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="7" t="s">
@@ -27088,14 +27266,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="104" t="s">
+      <c r="B88" s="111"/>
+      <c r="C88" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="105"/>
+      <c r="D88" s="111"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="7" t="s">
@@ -27146,10 +27324,10 @@
       <c r="B92" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="104" t="s">
+      <c r="C92" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="105"/>
+      <c r="D92" s="111"/>
     </row>
     <row r="93" spans="1:4" ht="38.1" customHeight="1">
       <c r="A93" s="7" t="s">
@@ -27188,10 +27366,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="D96" s="105"/>
+      <c r="D96" s="111"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="7"/>
@@ -27234,14 +27412,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="104" t="s">
+      <c r="B103" s="111"/>
+      <c r="C103" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D103" s="105"/>
+      <c r="D103" s="111"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="7" t="s">
@@ -27264,10 +27442,10 @@
       <c r="B105" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="106" t="s">
+      <c r="C105" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="105"/>
+      <c r="D105" s="111"/>
     </row>
     <row r="106" spans="1:4" ht="38.1" customHeight="1">
       <c r="A106" s="7" t="s">
@@ -27382,14 +27560,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="107" t="s">
+      <c r="A118" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="105"/>
-      <c r="C118" s="104" t="s">
+      <c r="B118" s="111"/>
+      <c r="C118" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="D118" s="105"/>
+      <c r="D118" s="111"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
@@ -27472,10 +27650,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="B125" s="105"/>
+      <c r="B125" s="111"/>
       <c r="C125" s="7" t="s">
         <v>52</v>
       </c>
@@ -27522,14 +27700,14 @@
       <c r="D128" s="8"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="107" t="s">
+      <c r="A131" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="B131" s="105"/>
-      <c r="C131" s="104" t="s">
+      <c r="B131" s="111"/>
+      <c r="C131" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="D131" s="105"/>
+      <c r="D131" s="111"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="7" t="s">
@@ -27660,14 +27838,14 @@
       <c r="D141" s="7"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="107" t="s">
+      <c r="A144" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="105"/>
-      <c r="C144" s="104" t="s">
+      <c r="B144" s="111"/>
+      <c r="C144" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="D144" s="105"/>
+      <c r="D144" s="111"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="7" t="s">
@@ -27794,14 +27972,14 @@
       <c r="D154" s="7"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="107" t="s">
+      <c r="A157" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="B157" s="105"/>
-      <c r="C157" s="104" t="s">
+      <c r="B157" s="111"/>
+      <c r="C157" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="D157" s="105"/>
+      <c r="D157" s="111"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="7" t="s">
@@ -27935,6 +28113,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -27945,34 +28151,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27982,7 +28160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -28622,10 +28800,10 @@
       <c r="C60" s="103" t="s">
         <v>2083</v>
       </c>
-      <c r="D60" s="133" t="s">
+      <c r="D60" s="109" t="s">
         <v>2084</v>
       </c>
-      <c r="E60" s="133" t="s">
+      <c r="E60" s="109" t="s">
         <v>2085</v>
       </c>
       <c r="F60" s="103" t="s">
@@ -29227,18 +29405,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="118" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="D1" s="112" t="s">
+      <c r="B1" s="117"/>
+      <c r="D1" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="G1" s="112" t="s">
+      <c r="E1" s="117"/>
+      <c r="G1" s="116" t="s">
         <v>456</v>
       </c>
-      <c r="H1" s="111"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -29307,14 +29485,14 @@
       <c r="B5" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="G5" s="113" t="s">
+      <c r="E5" s="117"/>
+      <c r="G5" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="28" t="s">
@@ -29439,16 +29617,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="116" t="s">
         <v>495</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="117"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="116" t="s">
         <v>496</v>
       </c>
-      <c r="B16" s="111"/>
+      <c r="B16" s="117"/>
       <c r="D16" s="28" t="s">
         <v>459</v>
       </c>
@@ -29491,16 +29669,16 @@
       <c r="B19" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="117"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="117"/>
       <c r="D20" s="28" t="s">
         <v>74</v>
       </c>
@@ -29555,16 +29733,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="119" t="s">
         <v>473</v>
       </c>
-      <c r="E25" s="111"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="116" t="s">
         <v>508</v>
       </c>
-      <c r="B26" s="111"/>
+      <c r="B26" s="117"/>
       <c r="D26" s="28" t="s">
         <v>45</v>
       </c>
@@ -29603,14 +29781,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="D30" s="112" t="s">
+      <c r="B30" s="117"/>
+      <c r="D30" s="116" t="s">
         <v>513</v>
       </c>
-      <c r="E30" s="111"/>
+      <c r="E30" s="117"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="28" t="s">
@@ -29655,16 +29833,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E34" s="111"/>
+      <c r="E34" s="117"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="B35" s="111"/>
+      <c r="B35" s="117"/>
       <c r="D35" s="28" t="s">
         <v>74</v>
       </c>
@@ -29715,10 +29893,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="117"/>
       <c r="D39" s="28" t="s">
         <v>489</v>
       </c>
@@ -29733,10 +29911,10 @@
       <c r="B40" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="D40" s="113" t="s">
+      <c r="D40" s="119" t="s">
         <v>473</v>
       </c>
-      <c r="E40" s="111"/>
+      <c r="E40" s="117"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="28" t="s">
@@ -29775,10 +29953,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="116" t="s">
         <v>529</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="117"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="28" t="s">
@@ -29795,10 +29973,10 @@
       <c r="B46" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="116" t="s">
         <v>532</v>
       </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="117"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="28" t="s">
@@ -29815,10 +29993,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="117"/>
       <c r="D48" s="28" t="s">
         <v>464</v>
       </c>
@@ -29847,10 +30025,10 @@
       <c r="B50" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="D50" s="113" t="s">
+      <c r="D50" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E50" s="111"/>
+      <c r="E50" s="117"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="28" t="s">
@@ -29903,10 +30081,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="116" t="s">
         <v>543</v>
       </c>
-      <c r="B55" s="111"/>
+      <c r="B55" s="117"/>
       <c r="D55" s="28" t="s">
         <v>489</v>
       </c>
@@ -29921,10 +30099,10 @@
       <c r="B56" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="D56" s="113" t="s">
+      <c r="D56" s="119" t="s">
         <v>473</v>
       </c>
-      <c r="E56" s="111"/>
+      <c r="E56" s="117"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="28" t="s">
@@ -29955,10 +30133,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B59" s="111"/>
+      <c r="B59" s="117"/>
       <c r="D59" s="28" t="s">
         <v>114</v>
       </c>
@@ -29989,10 +30167,10 @@
       <c r="B62" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="116" t="s">
         <v>552</v>
       </c>
-      <c r="E62" s="111"/>
+      <c r="E62" s="117"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1">
       <c r="A63" s="28" t="s">
@@ -30079,14 +30257,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="B69" s="111"/>
-      <c r="D69" s="113" t="s">
+      <c r="B69" s="117"/>
+      <c r="D69" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E69" s="111"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="28" t="s">
@@ -30147,10 +30325,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="116" t="s">
         <v>566</v>
       </c>
-      <c r="B75" s="111"/>
+      <c r="B75" s="117"/>
       <c r="D75" s="101" t="s">
         <v>473</v>
       </c>
@@ -30199,10 +30377,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="112" t="s">
+      <c r="A79" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B79" s="111"/>
+      <c r="B79" s="117"/>
       <c r="D79" s="28" t="s">
         <v>574</v>
       </c>
@@ -30233,10 +30411,10 @@
       <c r="B82" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="112" t="s">
+      <c r="D82" s="116" t="s">
         <v>577</v>
       </c>
-      <c r="E82" s="111"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="30" t="s">
         <v>578</v>
       </c>
@@ -30299,10 +30477,10 @@
       <c r="B86" s="28">
         <v>50</v>
       </c>
-      <c r="D86" s="113" t="s">
+      <c r="D86" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E86" s="111"/>
+      <c r="E86" s="117"/>
       <c r="F86" s="31" t="s">
         <v>474</v>
       </c>
@@ -30328,10 +30506,10 @@
       <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="112" t="s">
+      <c r="A89" s="116" t="s">
         <v>588</v>
       </c>
-      <c r="B89" s="111"/>
+      <c r="B89" s="117"/>
       <c r="D89" s="28" t="s">
         <v>80</v>
       </c>
@@ -30381,19 +30559,19 @@
       <c r="B92" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="D92" s="113" t="s">
+      <c r="D92" s="119" t="s">
         <v>473</v>
       </c>
-      <c r="E92" s="111"/>
+      <c r="E92" s="117"/>
       <c r="F92" s="31" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="112" t="s">
+      <c r="A93" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="111"/>
+      <c r="B93" s="117"/>
       <c r="D93" s="28" t="s">
         <v>45</v>
       </c>
@@ -30547,10 +30725,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="118" t="s">
         <v>604</v>
       </c>
-      <c r="B105" s="111"/>
+      <c r="B105" s="117"/>
       <c r="D105" s="28" t="s">
         <v>605</v>
       </c>
@@ -30573,10 +30751,10 @@
       <c r="B107" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="D107" s="112" t="s">
+      <c r="D107" s="116" t="s">
         <v>608</v>
       </c>
-      <c r="E107" s="111"/>
+      <c r="E107" s="117"/>
     </row>
     <row r="108" spans="1:5" ht="30" customHeight="1">
       <c r="A108" s="28" t="s">
@@ -30621,10 +30799,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="110" t="s">
+      <c r="A111" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B111" s="111"/>
+      <c r="B111" s="117"/>
       <c r="D111" s="28" t="s">
         <v>602</v>
       </c>
@@ -30667,10 +30845,10 @@
       <c r="B114" s="28">
         <v>200</v>
       </c>
-      <c r="D114" s="113" t="s">
+      <c r="D114" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E114" s="111"/>
+      <c r="E114" s="117"/>
     </row>
     <row r="115" spans="1:5" ht="30" customHeight="1">
       <c r="A115" s="28" t="s">
@@ -30743,10 +30921,10 @@
       <c r="E120" s="90"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="110" t="s">
+      <c r="A121" s="118" t="s">
         <v>617</v>
       </c>
-      <c r="B121" s="111"/>
+      <c r="B121" s="117"/>
       <c r="D121" s="28" t="s">
         <v>45</v>
       </c>
@@ -30797,10 +30975,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="110" t="s">
+      <c r="A125" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B125" s="111"/>
+      <c r="B125" s="117"/>
       <c r="D125" s="28" t="s">
         <v>572</v>
       </c>
@@ -30845,10 +31023,10 @@
       <c r="B129" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D129" s="112" t="s">
+      <c r="D129" s="116" t="s">
         <v>627</v>
       </c>
-      <c r="E129" s="111"/>
+      <c r="E129" s="117"/>
     </row>
     <row r="130" spans="1:5" ht="30" customHeight="1">
       <c r="D130" s="28" t="s">
@@ -30867,10 +31045,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="110" t="s">
+      <c r="A132" s="118" t="s">
         <v>630</v>
       </c>
-      <c r="B132" s="111"/>
+      <c r="B132" s="117"/>
       <c r="D132" s="28" t="s">
         <v>84</v>
       </c>
@@ -30921,14 +31099,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="110" t="s">
+      <c r="A136" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="111"/>
-      <c r="D136" s="113" t="s">
+      <c r="B136" s="117"/>
+      <c r="D136" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E136" s="111"/>
+      <c r="E136" s="117"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="28" t="s">
@@ -31015,10 +31193,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="110" t="s">
+      <c r="A144" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="B144" s="111"/>
+      <c r="B144" s="117"/>
       <c r="D144" s="28" t="s">
         <v>140</v>
       </c>
@@ -31069,10 +31247,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="110" t="s">
+      <c r="A148" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="111"/>
+      <c r="B148" s="117"/>
       <c r="D148" s="28" t="s">
         <v>572</v>
       </c>
@@ -31117,10 +31295,10 @@
       <c r="B152" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="D152" s="112" t="s">
+      <c r="D152" s="116" t="s">
         <v>647</v>
       </c>
-      <c r="E152" s="111"/>
+      <c r="E152" s="117"/>
     </row>
     <row r="153" spans="1:5" ht="30" customHeight="1">
       <c r="A153" s="28" t="s">
@@ -31213,10 +31391,10 @@
       <c r="B159" s="28">
         <v>60</v>
       </c>
-      <c r="D159" s="113" t="s">
+      <c r="D159" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E159" s="111"/>
+      <c r="E159" s="117"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="28" t="s">
@@ -31235,10 +31413,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="110" t="s">
+      <c r="A162" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="B162" s="111"/>
+      <c r="B162" s="117"/>
       <c r="D162" s="28" t="s">
         <v>80</v>
       </c>
@@ -31315,10 +31493,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" customHeight="1">
-      <c r="A168" s="110" t="s">
+      <c r="A168" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B168" s="111"/>
+      <c r="B168" s="117"/>
       <c r="D168" s="28" t="s">
         <v>528</v>
       </c>
@@ -31443,10 +31621,10 @@
       <c r="B178" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D178" s="112" t="s">
+      <c r="D178" s="116" t="s">
         <v>665</v>
       </c>
-      <c r="E178" s="111"/>
+      <c r="E178" s="117"/>
     </row>
     <row r="179" spans="1:5" ht="30" customHeight="1">
       <c r="A179" s="28" t="s">
@@ -31479,10 +31657,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="110" t="s">
+      <c r="A182" s="118" t="s">
         <v>669</v>
       </c>
-      <c r="B182" s="111"/>
+      <c r="B182" s="117"/>
       <c r="D182" s="28" t="s">
         <v>602</v>
       </c>
@@ -31525,10 +31703,10 @@
       <c r="B185" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="D185" s="113" t="s">
+      <c r="D185" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="E185" s="111"/>
+      <c r="E185" s="117"/>
     </row>
     <row r="186" spans="1:5" ht="30" customHeight="1">
       <c r="A186" s="28" t="s">
@@ -31559,10 +31737,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30" customHeight="1">
-      <c r="A188" s="110" t="s">
+      <c r="A188" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B188" s="111"/>
+      <c r="B188" s="117"/>
       <c r="D188" s="28" t="s">
         <v>80</v>
       </c>
@@ -31689,10 +31867,10 @@
       <c r="B198" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D198" s="112" t="s">
+      <c r="D198" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="E198" s="111"/>
+      <c r="E198" s="117"/>
     </row>
     <row r="199" spans="1:5" ht="30" customHeight="1">
       <c r="A199" s="28" t="s">
@@ -31745,10 +31923,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="110" t="s">
+      <c r="A203" s="118" t="s">
         <v>690</v>
       </c>
-      <c r="B203" s="111"/>
+      <c r="B203" s="117"/>
       <c r="D203" s="101" t="s">
         <v>474</v>
       </c>
@@ -31825,10 +32003,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="110" t="s">
+      <c r="A209" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="111"/>
+      <c r="B209" s="117"/>
       <c r="D209" s="101" t="s">
         <v>473</v>
       </c>
@@ -31927,10 +32105,10 @@
       <c r="B217" s="28">
         <v>200</v>
       </c>
-      <c r="D217" s="112" t="s">
+      <c r="D217" s="116" t="s">
         <v>704</v>
       </c>
-      <c r="E217" s="111"/>
+      <c r="E217" s="117"/>
     </row>
     <row r="218" spans="1:5" ht="30" customHeight="1">
       <c r="A218" s="28" t="s">
@@ -31989,10 +32167,10 @@
       <c r="E222" s="90"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="110" t="s">
+      <c r="A223" s="118" t="s">
         <v>708</v>
       </c>
-      <c r="B223" s="111"/>
+      <c r="B223" s="117"/>
       <c r="D223" s="28" t="s">
         <v>74</v>
       </c>
@@ -32069,10 +32247,10 @@
       <c r="E228" s="90"/>
     </row>
     <row r="229" spans="1:5" ht="30" customHeight="1">
-      <c r="A229" s="110" t="s">
+      <c r="A229" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="B229" s="111"/>
+      <c r="B229" s="117"/>
       <c r="D229" s="28" t="s">
         <v>681</v>
       </c>
@@ -32229,10 +32407,10 @@
       <c r="B241" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D241" s="112" t="s">
+      <c r="D241" s="116" t="s">
         <v>725</v>
       </c>
-      <c r="E241" s="111"/>
+      <c r="E241" s="117"/>
     </row>
     <row r="242" spans="1:5" ht="30" customHeight="1">
       <c r="A242" s="28" t="s">
@@ -32284,10 +32462,10 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="112" t="s">
+      <c r="A247" s="116" t="s">
         <v>730</v>
       </c>
-      <c r="B247" s="111"/>
+      <c r="B247" s="117"/>
       <c r="D247" s="28" t="s">
         <v>731</v>
       </c>
@@ -32610,10 +32788,10 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="112" t="s">
+      <c r="A276" s="116" t="s">
         <v>749</v>
       </c>
-      <c r="B276" s="111"/>
+      <c r="B276" s="117"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="28" t="s">
@@ -32804,10 +32982,10 @@
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1">
-      <c r="A305" s="112" t="s">
+      <c r="A305" s="116" t="s">
         <v>761</v>
       </c>
-      <c r="B305" s="111"/>
+      <c r="B305" s="117"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="28" t="s">
@@ -33015,36 +33193,24 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -33061,24 +33227,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -33479,14 +33657,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="111"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
@@ -33545,14 +33723,14 @@
       <c r="B7" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="117"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
@@ -33623,14 +33801,14 @@
       <c r="B16" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112" t="s">
+      <c r="B18" s="117"/>
+      <c r="C18" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="111"/>
+      <c r="D18" s="117"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="28" t="s">
@@ -33693,14 +33871,14 @@
       <c r="B24" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112" t="s">
+      <c r="B26" s="117"/>
+      <c r="C26" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="111"/>
+      <c r="D26" s="117"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="28" t="s">
@@ -33767,14 +33945,14 @@
       <c r="B32" s="28"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="112" t="s">
+      <c r="B34" s="117"/>
+      <c r="C34" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="111"/>
+      <c r="D34" s="117"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="28" t="s">
@@ -33841,14 +34019,14 @@
       <c r="B40" s="28"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="112" t="s">
+      <c r="B43" s="117"/>
+      <c r="C43" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="111"/>
+      <c r="D43" s="117"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="28" t="s">
@@ -33931,14 +34109,14 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="112" t="s">
+      <c r="B52" s="117"/>
+      <c r="C52" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="111"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1">
@@ -34032,14 +34210,14 @@
       <c r="E58" s="28"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="111"/>
-      <c r="C60" s="112" t="s">
+      <c r="B60" s="117"/>
+      <c r="C60" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="111"/>
+      <c r="D60" s="117"/>
     </row>
     <row r="61" spans="1:5" ht="30">
       <c r="A61" s="28" t="s">
@@ -34132,14 +34310,14 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="114" t="s">
+      <c r="A70" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="111"/>
-      <c r="C70" s="112" t="s">
+      <c r="B70" s="117"/>
+      <c r="C70" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="111"/>
+      <c r="D70" s="117"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="28" t="s">
@@ -34176,10 +34354,10 @@
       <c r="B73" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="112" t="s">
+      <c r="C73" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="111"/>
+      <c r="D73" s="117"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
@@ -34222,14 +34400,14 @@
       <c r="D77" s="28"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="114" t="s">
+      <c r="A79" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="111"/>
-      <c r="C79" s="112" t="s">
+      <c r="B79" s="117"/>
+      <c r="C79" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="111"/>
+      <c r="D79" s="117"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
@@ -34266,10 +34444,10 @@
       <c r="B82" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="112" t="s">
+      <c r="C82" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="111"/>
+      <c r="D82" s="117"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
@@ -34310,14 +34488,14 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="115" t="s">
+      <c r="A88" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="111"/>
-      <c r="C88" s="110" t="s">
+      <c r="B88" s="117"/>
+      <c r="C88" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="111"/>
+      <c r="D88" s="117"/>
     </row>
     <row r="89" spans="1:4" ht="30">
       <c r="A89" s="28" t="s">
@@ -34368,10 +34546,10 @@
       <c r="B92" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="110" t="s">
+      <c r="C92" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="111"/>
+      <c r="D92" s="117"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1">
       <c r="A93" s="28" t="s">
@@ -34410,10 +34588,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="110" t="s">
+      <c r="C96" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="D96" s="111"/>
+      <c r="D96" s="117"/>
     </row>
     <row r="97" spans="1:4" ht="30">
       <c r="A97" s="28"/>
@@ -34456,14 +34634,14 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="115" t="s">
+      <c r="A103" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="111"/>
-      <c r="C103" s="110" t="s">
+      <c r="B103" s="117"/>
+      <c r="C103" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="D103" s="111"/>
+      <c r="D103" s="117"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="28" t="s">
@@ -34486,10 +34664,10 @@
       <c r="B105" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="112" t="s">
+      <c r="C105" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="111"/>
+      <c r="D105" s="117"/>
     </row>
     <row r="106" spans="1:4" ht="30">
       <c r="A106" s="28" t="s">
@@ -34604,14 +34782,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="115" t="s">
+      <c r="A118" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="111"/>
-      <c r="C118" s="110" t="s">
+      <c r="B118" s="117"/>
+      <c r="C118" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="D118" s="111"/>
+      <c r="D118" s="117"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1">
       <c r="A119" s="28" t="s">
@@ -34694,10 +34872,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="116" t="s">
+      <c r="A125" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="B125" s="111"/>
+      <c r="B125" s="117"/>
       <c r="C125" s="28" t="s">
         <v>52</v>
       </c>
@@ -34744,14 +34922,14 @@
       <c r="D128" s="29"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="115" t="s">
+      <c r="A131" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="B131" s="111"/>
-      <c r="C131" s="110" t="s">
+      <c r="B131" s="117"/>
+      <c r="C131" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D131" s="111"/>
+      <c r="D131" s="117"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="28" t="s">
@@ -34882,14 +35060,14 @@
       <c r="D141" s="28"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="115" t="s">
+      <c r="A144" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="111"/>
-      <c r="C144" s="110" t="s">
+      <c r="B144" s="117"/>
+      <c r="C144" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D144" s="111"/>
+      <c r="D144" s="117"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1">
       <c r="A145" s="28" t="s">
@@ -35016,14 +35194,14 @@
       <c r="D154" s="28"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="115" t="s">
+      <c r="A157" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="B157" s="111"/>
-      <c r="C157" s="110" t="s">
+      <c r="B157" s="117"/>
+      <c r="C157" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="D157" s="111"/>
+      <c r="D157" s="117"/>
     </row>
     <row r="158" spans="1:4" ht="30">
       <c r="A158" s="28" t="s">
@@ -35157,6 +35335,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C92:D92"/>
@@ -35171,30 +35373,6 @@
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_Data/TestData.xlsx
+++ b/Test_Data/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="990" firstSheet="7" activeTab="18"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="2113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6185" uniqueCount="2121">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -6339,9 +6339,6 @@
     <t>sandboxsubbs</t>
   </si>
   <si>
-    <t>5ced6ca19d95f4d9113c7f8e2f15f2c398b7722e</t>
-  </si>
-  <si>
     <t>shavinbamboohr25</t>
   </si>
   <si>
@@ -6354,12 +6351,6 @@
     <t>testAPI</t>
   </si>
   <si>
-    <t>shavinbamboohr_104</t>
-  </si>
-  <si>
-    <t>shavinbamboohr_104_@grovo.com</t>
-  </si>
-  <si>
     <t>/Users/automation/Downloads/TeamCity/buildAgent/work/764a857d3ed1a731/Test_Data/test.wmv</t>
   </si>
   <si>
@@ -6373,6 +6364,39 @@
   </si>
   <si>
     <t>/Users/automation/Downloads/TeamCity/buildAgent/work/764a857d3ed1a731/Test_Data/Appiz.pptx</t>
+  </si>
+  <si>
+    <t>882d7384ac8daa5117cae84c12b8a4409933d539</t>
+  </si>
+  <si>
+    <t>shavinbamboohr_114</t>
+  </si>
+  <si>
+    <t>shavinbamboohr_114_@grovo.com</t>
+  </si>
+  <si>
+    <t>View instruction link name</t>
+  </si>
+  <si>
+    <t>authentication error</t>
+  </si>
+  <si>
+    <t>selected_attribute_count</t>
+  </si>
+  <si>
+    <t>suggested_attribute_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expected_connected_status </t>
+  </si>
+  <si>
+    <t>View instructions</t>
+  </si>
+  <si>
+    <t>Error: Internal Server Error</t>
+  </si>
+  <si>
+    <t>Connected</t>
   </si>
 </sst>
 </file>
@@ -7026,13 +7050,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7041,6 +7063,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7053,25 +7076,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7080,11 +7100,14 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7094,13 +7117,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7113,6 +7136,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -8280,10 +8306,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
@@ -8314,10 +8340,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="119"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="28" t="s">
@@ -8367,10 +8393,10 @@
       <c r="B12" s="29"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="120"/>
+      <c r="B14" s="119"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="28" t="s">
@@ -8385,7 +8411,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8397,10 +8423,10 @@
       <c r="B18" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="119"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="28" t="s">
@@ -8415,7 +8441,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -8431,10 +8457,10 @@
       <c r="B24" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="120"/>
+      <c r="B26" s="119"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="28" t="s">
@@ -8449,7 +8475,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8513,19 +8539,19 @@
         <v>247</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="G33" s="62" t="s">
         <v>248</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -9141,7 +9167,7 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="122" t="s">
+      <c r="A325" s="121" t="s">
         <v>966</v>
       </c>
       <c r="B325" s="126"/>
@@ -9195,7 +9221,7 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="122" t="s">
+      <c r="A332" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B332" s="126"/>
@@ -9265,7 +9291,7 @@
       <c r="B341" s="100"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="122" t="s">
+      <c r="A342" s="121" t="s">
         <v>983</v>
       </c>
       <c r="B342" s="126"/>
@@ -9335,7 +9361,7 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="122" t="s">
+      <c r="A351" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B351" s="126"/>
@@ -9455,7 +9481,7 @@
       <c r="B367" s="100"/>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="122" t="s">
+      <c r="A368" s="121" t="s">
         <v>1001</v>
       </c>
       <c r="B368" s="126"/>
@@ -9525,7 +9551,7 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="122" t="s">
+      <c r="A377" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B377" s="126"/>
@@ -9591,7 +9617,7 @@
       <c r="B385" s="100"/>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="122" t="s">
+      <c r="A386" s="121" t="s">
         <v>1011</v>
       </c>
       <c r="B386" s="126"/>
@@ -9661,7 +9687,7 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="122" t="s">
+      <c r="A395" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B395" s="126"/>
@@ -9731,7 +9757,7 @@
       <c r="B404" s="100"/>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="122" t="s">
+      <c r="A405" s="121" t="s">
         <v>1019</v>
       </c>
       <c r="B405" s="126"/>
@@ -9809,7 +9835,7 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="128" t="s">
+      <c r="A415" s="125" t="s">
         <v>1026</v>
       </c>
       <c r="B415" s="126"/>
@@ -9855,7 +9881,7 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="122" t="s">
+      <c r="A421" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B421" s="126"/>
@@ -9925,7 +9951,7 @@
       <c r="B430" s="100"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="122" t="s">
+      <c r="A431" s="121" t="s">
         <v>1032</v>
       </c>
       <c r="B431" s="126"/>
@@ -9995,7 +10021,7 @@
       <c r="B440" s="100"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="122" t="s">
+      <c r="A441" s="121" t="s">
         <v>1037</v>
       </c>
       <c r="B441" s="126"/>
@@ -10065,7 +10091,7 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="122" t="s">
+      <c r="A450" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B450" s="126"/>
@@ -10149,7 +10175,7 @@
       <c r="B461" s="100"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="122" t="s">
+      <c r="A462" s="121" t="s">
         <v>1047</v>
       </c>
       <c r="B462" s="126"/>
@@ -10219,7 +10245,7 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="122" t="s">
+      <c r="A471" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B471" s="126"/>
@@ -10295,7 +10321,7 @@
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="122" t="s">
+      <c r="A483" s="121" t="s">
         <v>1056</v>
       </c>
       <c r="B483" s="126"/>
@@ -10365,7 +10391,7 @@
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="122" t="s">
+      <c r="A492" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B492" s="126"/>
@@ -10449,7 +10475,7 @@
       <c r="B503" s="100"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="122" t="s">
+      <c r="A504" s="121" t="s">
         <v>1065</v>
       </c>
       <c r="B504" s="126"/>
@@ -10519,7 +10545,7 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="122" t="s">
+      <c r="A513" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B513" s="126"/>
@@ -10587,7 +10613,7 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="122" t="s">
+      <c r="A522" s="121" t="s">
         <v>1074</v>
       </c>
       <c r="B522" s="126"/>
@@ -10723,7 +10749,7 @@
       <c r="B543" s="100"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="122" t="s">
+      <c r="A544" s="121" t="s">
         <v>1065</v>
       </c>
       <c r="B544" s="126"/>
@@ -10785,7 +10811,7 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="122" t="s">
+      <c r="A552" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B552" s="126"/>
@@ -10909,7 +10935,7 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="122" t="s">
+      <c r="A570" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B570" s="126"/>
@@ -11073,7 +11099,7 @@
       <c r="B595" s="100"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="122" t="s">
+      <c r="A596" s="121" t="s">
         <v>1128</v>
       </c>
       <c r="B596" s="126"/>
@@ -11143,7 +11169,7 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="122" t="s">
+      <c r="A605" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B605" s="126"/>
@@ -11349,7 +11375,7 @@
       <c r="B637" s="100"/>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="122" t="s">
+      <c r="A638" s="121" t="s">
         <v>1158</v>
       </c>
       <c r="B638" s="126"/>
@@ -11419,7 +11445,7 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="122" t="s">
+      <c r="A647" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B647" s="126"/>
@@ -11495,7 +11521,7 @@
       <c r="B657" s="100"/>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="122" t="s">
+      <c r="A658" s="121" t="s">
         <v>1168</v>
       </c>
       <c r="B658" s="126"/>
@@ -11565,7 +11591,7 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="122" t="s">
+      <c r="A667" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B667" s="126"/>
@@ -11641,7 +11667,7 @@
       <c r="B677" s="100"/>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="122" t="s">
+      <c r="A678" s="121" t="s">
         <v>1177</v>
       </c>
       <c r="B678" s="126"/>
@@ -11711,7 +11737,7 @@
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="122" t="s">
+      <c r="A687" s="121" t="s">
         <v>971</v>
       </c>
       <c r="B687" s="126"/>
@@ -11776,6 +11802,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A647:B647"/>
+    <mergeCell ref="A658:B658"/>
+    <mergeCell ref="A667:B667"/>
+    <mergeCell ref="A678:B678"/>
+    <mergeCell ref="A687:B687"/>
+    <mergeCell ref="A638:B638"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="A596:B596"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="A612:B612"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A500:B500"/>
     <mergeCell ref="A415:B415"/>
     <mergeCell ref="A325:B325"/>
     <mergeCell ref="A332:B332"/>
@@ -11788,35 +11843,6 @@
     <mergeCell ref="A386:B386"/>
     <mergeCell ref="A395:B395"/>
     <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A638:B638"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A605:B605"/>
-    <mergeCell ref="A612:B612"/>
-    <mergeCell ref="A647:B647"/>
-    <mergeCell ref="A658:B658"/>
-    <mergeCell ref="A667:B667"/>
-    <mergeCell ref="A678:B678"/>
-    <mergeCell ref="A687:B687"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -14456,16 +14482,16 @@
       <c r="B164" s="91"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="131" t="s">
+      <c r="A166" s="130" t="s">
         <v>1209</v>
       </c>
-      <c r="B166" s="130"/>
-      <c r="C166" s="130"/>
-      <c r="E166" s="129" t="s">
+      <c r="B166" s="129"/>
+      <c r="C166" s="129"/>
+      <c r="E166" s="128" t="s">
         <v>1210</v>
       </c>
-      <c r="F166" s="130"/>
-      <c r="G166" s="130"/>
+      <c r="F166" s="129"/>
+      <c r="G166" s="129"/>
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1">
       <c r="A167" s="91" t="s">
@@ -14508,18 +14534,18 @@
       <c r="A170" s="91"/>
       <c r="B170" s="91"/>
       <c r="C170" s="91"/>
-      <c r="E170" s="129" t="s">
+      <c r="E170" s="128" t="s">
         <v>1216</v>
       </c>
-      <c r="F170" s="130"/>
-      <c r="G170" s="130"/>
+      <c r="F170" s="129"/>
+      <c r="G170" s="129"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1">
-      <c r="A171" s="131" t="s">
+      <c r="A171" s="130" t="s">
         <v>1217</v>
       </c>
-      <c r="B171" s="130"/>
-      <c r="C171" s="130"/>
+      <c r="B171" s="129"/>
+      <c r="C171" s="129"/>
       <c r="E171" s="91" t="s">
         <v>1211</v>
       </c>
@@ -14559,16 +14585,16 @@
       <c r="C174" s="91"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="129" t="s">
+      <c r="A175" s="128" t="s">
         <v>1221</v>
       </c>
-      <c r="B175" s="130"/>
-      <c r="C175" s="130"/>
-      <c r="E175" s="129" t="s">
+      <c r="B175" s="129"/>
+      <c r="C175" s="129"/>
+      <c r="E175" s="128" t="s">
         <v>1222</v>
       </c>
-      <c r="F175" s="130"/>
-      <c r="G175" s="130"/>
+      <c r="F175" s="129"/>
+      <c r="G175" s="129"/>
     </row>
     <row r="176" spans="1:8" ht="30">
       <c r="A176" s="91" t="s">
@@ -14603,16 +14629,16 @@
       <c r="G177" s="91"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="129" t="s">
+      <c r="A179" s="128" t="s">
         <v>1226</v>
       </c>
-      <c r="B179" s="130"/>
-      <c r="C179" s="130"/>
-      <c r="E179" s="129" t="s">
+      <c r="B179" s="129"/>
+      <c r="C179" s="129"/>
+      <c r="E179" s="128" t="s">
         <v>1227</v>
       </c>
-      <c r="F179" s="130"/>
-      <c r="G179" s="130"/>
+      <c r="F179" s="129"/>
+      <c r="G179" s="129"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="91" t="s">
@@ -14647,16 +14673,16 @@
       <c r="G181" s="91"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="129" t="s">
+      <c r="A183" s="128" t="s">
         <v>1232</v>
       </c>
-      <c r="B183" s="130"/>
-      <c r="C183" s="130"/>
-      <c r="E183" s="129" t="s">
+      <c r="B183" s="129"/>
+      <c r="C183" s="129"/>
+      <c r="E183" s="128" t="s">
         <v>1233</v>
       </c>
-      <c r="F183" s="130"/>
-      <c r="G183" s="130"/>
+      <c r="F183" s="129"/>
+      <c r="G183" s="129"/>
     </row>
     <row r="184" spans="1:7" ht="30" customHeight="1">
       <c r="A184" s="91" t="s">
@@ -14691,16 +14717,16 @@
       <c r="G185" s="91"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="131" t="s">
+      <c r="A187" s="130" t="s">
         <v>1237</v>
       </c>
-      <c r="B187" s="130"/>
-      <c r="C187" s="130"/>
-      <c r="E187" s="129" t="s">
+      <c r="B187" s="129"/>
+      <c r="C187" s="129"/>
+      <c r="E187" s="128" t="s">
         <v>1238</v>
       </c>
-      <c r="F187" s="130"/>
-      <c r="G187" s="130"/>
+      <c r="F187" s="129"/>
+      <c r="G187" s="129"/>
     </row>
     <row r="188" spans="1:7" ht="30" customHeight="1">
       <c r="A188" s="91" t="s">
@@ -14735,16 +14761,16 @@
       <c r="G189" s="91"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="131" t="s">
+      <c r="A191" s="130" t="s">
         <v>1202</v>
       </c>
-      <c r="B191" s="130"/>
-      <c r="C191" s="130"/>
-      <c r="E191" s="129" t="s">
+      <c r="B191" s="129"/>
+      <c r="C191" s="129"/>
+      <c r="E191" s="128" t="s">
         <v>1242</v>
       </c>
-      <c r="F191" s="130"/>
-      <c r="G191" s="130"/>
+      <c r="F191" s="129"/>
+      <c r="G191" s="129"/>
     </row>
     <row r="192" spans="1:7" ht="30" customHeight="1">
       <c r="A192" s="91" t="s">
@@ -14779,16 +14805,16 @@
       <c r="G193" s="91"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="131" t="s">
+      <c r="A196" s="130" t="s">
         <v>1203</v>
       </c>
-      <c r="B196" s="130"/>
-      <c r="C196" s="130"/>
-      <c r="E196" s="129" t="s">
+      <c r="B196" s="129"/>
+      <c r="C196" s="129"/>
+      <c r="E196" s="128" t="s">
         <v>1245</v>
       </c>
-      <c r="F196" s="130"/>
-      <c r="G196" s="130"/>
+      <c r="F196" s="129"/>
+      <c r="G196" s="129"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="91" t="s">
@@ -14823,18 +14849,18 @@
       <c r="G198" s="91"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="E200" s="129" t="s">
+      <c r="E200" s="128" t="s">
         <v>1249</v>
       </c>
-      <c r="F200" s="130"/>
-      <c r="G200" s="130"/>
+      <c r="F200" s="129"/>
+      <c r="G200" s="129"/>
     </row>
     <row r="201" spans="1:7" ht="30" customHeight="1">
-      <c r="A201" s="131" t="s">
+      <c r="A201" s="130" t="s">
         <v>1204</v>
       </c>
-      <c r="B201" s="130"/>
-      <c r="C201" s="130"/>
+      <c r="B201" s="129"/>
+      <c r="C201" s="129"/>
       <c r="E201" s="91" t="s">
         <v>1211</v>
       </c>
@@ -14869,11 +14895,11 @@
       <c r="C203" s="91"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="E204" s="129" t="s">
+      <c r="E204" s="128" t="s">
         <v>1252</v>
       </c>
-      <c r="F204" s="130"/>
-      <c r="G204" s="130"/>
+      <c r="F204" s="129"/>
+      <c r="G204" s="129"/>
     </row>
     <row r="205" spans="1:7">
       <c r="E205" s="91" t="s">
@@ -14885,11 +14911,11 @@
       <c r="G205" s="91"/>
     </row>
     <row r="206" spans="1:7" ht="30" customHeight="1">
-      <c r="A206" s="129" t="s">
+      <c r="A206" s="128" t="s">
         <v>1205</v>
       </c>
-      <c r="B206" s="130"/>
-      <c r="C206" s="130"/>
+      <c r="B206" s="129"/>
+      <c r="C206" s="129"/>
       <c r="E206" s="91" t="s">
         <v>77</v>
       </c>
@@ -14915,11 +14941,11 @@
         <v>1255</v>
       </c>
       <c r="C208" s="91"/>
-      <c r="E208" s="129" t="s">
+      <c r="E208" s="128" t="s">
         <v>1256</v>
       </c>
-      <c r="F208" s="130"/>
-      <c r="G208" s="130"/>
+      <c r="F208" s="129"/>
+      <c r="G208" s="129"/>
     </row>
     <row r="209" spans="1:7">
       <c r="E209" s="91" t="s">
@@ -14931,11 +14957,11 @@
       <c r="G209" s="91"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1">
-      <c r="A210" s="129" t="s">
+      <c r="A210" s="128" t="s">
         <v>1257</v>
       </c>
-      <c r="B210" s="130"/>
-      <c r="C210" s="130"/>
+      <c r="B210" s="129"/>
+      <c r="C210" s="129"/>
       <c r="E210" s="91" t="s">
         <v>77</v>
       </c>
@@ -14961,11 +14987,11 @@
         <v>1260</v>
       </c>
       <c r="C212" s="91"/>
-      <c r="E212" s="129" t="s">
+      <c r="E212" s="128" t="s">
         <v>1261</v>
       </c>
-      <c r="F212" s="130"/>
-      <c r="G212" s="130"/>
+      <c r="F212" s="129"/>
+      <c r="G212" s="129"/>
     </row>
     <row r="213" spans="1:7" ht="30">
       <c r="E213" s="91" t="s">
@@ -14977,11 +15003,11 @@
       <c r="G213" s="91"/>
     </row>
     <row r="214" spans="1:7" ht="45" customHeight="1">
-      <c r="A214" s="129" t="s">
+      <c r="A214" s="128" t="s">
         <v>1262</v>
       </c>
-      <c r="B214" s="130"/>
-      <c r="C214" s="130"/>
+      <c r="B214" s="129"/>
+      <c r="C214" s="129"/>
       <c r="E214" s="91" t="s">
         <v>77</v>
       </c>
@@ -15007,11 +15033,11 @@
         <v>1265</v>
       </c>
       <c r="C216" s="91"/>
-      <c r="E216" s="129" t="s">
+      <c r="E216" s="128" t="s">
         <v>1266</v>
       </c>
-      <c r="F216" s="130"/>
-      <c r="G216" s="130"/>
+      <c r="F216" s="129"/>
+      <c r="G216" s="129"/>
     </row>
     <row r="217" spans="1:7" ht="30" customHeight="1">
       <c r="E217" s="91" t="s">
@@ -15032,11 +15058,11 @@
       <c r="G218" s="91"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="129" t="s">
+      <c r="A219" s="128" t="s">
         <v>1268</v>
       </c>
-      <c r="B219" s="130"/>
-      <c r="C219" s="130"/>
+      <c r="B219" s="129"/>
+      <c r="C219" s="129"/>
     </row>
     <row r="220" spans="1:7" ht="30" customHeight="1">
       <c r="A220" s="91" t="s">
@@ -15046,11 +15072,11 @@
         <v>1269</v>
       </c>
       <c r="C220" s="91"/>
-      <c r="E220" s="129" t="s">
+      <c r="E220" s="128" t="s">
         <v>1270</v>
       </c>
-      <c r="F220" s="130"/>
-      <c r="G220" s="130"/>
+      <c r="F220" s="129"/>
+      <c r="G220" s="129"/>
     </row>
     <row r="221" spans="1:7" ht="45" customHeight="1">
       <c r="A221" s="91" t="s">
@@ -15078,11 +15104,11 @@
       <c r="G222" s="91"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="129" t="s">
+      <c r="A223" s="128" t="s">
         <v>1273</v>
       </c>
-      <c r="B223" s="130"/>
-      <c r="C223" s="130"/>
+      <c r="B223" s="129"/>
+      <c r="C223" s="129"/>
     </row>
     <row r="224" spans="1:7" ht="30" customHeight="1">
       <c r="A224" s="91" t="s">
@@ -15092,11 +15118,11 @@
         <v>1273</v>
       </c>
       <c r="C224" s="91"/>
-      <c r="E224" s="129" t="s">
+      <c r="E224" s="128" t="s">
         <v>1274</v>
       </c>
-      <c r="F224" s="130"/>
-      <c r="G224" s="130"/>
+      <c r="F224" s="129"/>
+      <c r="G224" s="129"/>
     </row>
     <row r="225" spans="1:7" ht="45" customHeight="1">
       <c r="A225" s="91" t="s">
@@ -15124,11 +15150,11 @@
       <c r="G226" s="91"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="129" t="s">
+      <c r="A227" s="128" t="s">
         <v>1277</v>
       </c>
-      <c r="B227" s="130"/>
-      <c r="C227" s="130"/>
+      <c r="B227" s="129"/>
+      <c r="C227" s="129"/>
     </row>
     <row r="228" spans="1:7" ht="30">
       <c r="A228" s="91" t="s">
@@ -15138,11 +15164,11 @@
         <v>1277</v>
       </c>
       <c r="C228" s="91"/>
-      <c r="E228" s="129" t="s">
+      <c r="E228" s="128" t="s">
         <v>1278</v>
       </c>
-      <c r="F228" s="130"/>
-      <c r="G228" s="130"/>
+      <c r="F228" s="129"/>
+      <c r="G228" s="129"/>
     </row>
     <row r="229" spans="1:7" ht="30" customHeight="1">
       <c r="A229" s="91" t="s">
@@ -15170,11 +15196,11 @@
       <c r="G230" s="91"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="129" t="s">
+      <c r="A231" s="128" t="s">
         <v>1281</v>
       </c>
-      <c r="B231" s="130"/>
-      <c r="C231" s="130"/>
+      <c r="B231" s="129"/>
+      <c r="C231" s="129"/>
     </row>
     <row r="232" spans="1:7" ht="30" customHeight="1">
       <c r="A232" s="91" t="s">
@@ -15184,11 +15210,11 @@
         <v>1281</v>
       </c>
       <c r="C232" s="91"/>
-      <c r="E232" s="129" t="s">
+      <c r="E232" s="128" t="s">
         <v>1282</v>
       </c>
-      <c r="F232" s="130"/>
-      <c r="G232" s="130"/>
+      <c r="F232" s="129"/>
+      <c r="G232" s="129"/>
     </row>
     <row r="233" spans="1:7" ht="45" customHeight="1">
       <c r="A233" s="91" t="s">
@@ -15216,11 +15242,11 @@
       <c r="G234" s="91"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="129" t="s">
+      <c r="A235" s="128" t="s">
         <v>1285</v>
       </c>
-      <c r="B235" s="130"/>
-      <c r="C235" s="130"/>
+      <c r="B235" s="129"/>
+      <c r="C235" s="129"/>
     </row>
     <row r="236" spans="1:7" ht="30" customHeight="1">
       <c r="A236" s="91" t="s">
@@ -15230,11 +15256,11 @@
         <v>1285</v>
       </c>
       <c r="C236" s="91"/>
-      <c r="E236" s="129" t="s">
+      <c r="E236" s="128" t="s">
         <v>1286</v>
       </c>
-      <c r="F236" s="130"/>
-      <c r="G236" s="130"/>
+      <c r="F236" s="129"/>
+      <c r="G236" s="129"/>
     </row>
     <row r="237" spans="1:7" ht="45" customHeight="1">
       <c r="A237" s="91" t="s">
@@ -15262,11 +15288,11 @@
       <c r="G238" s="91"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="129" t="s">
+      <c r="A239" s="128" t="s">
         <v>1289</v>
       </c>
-      <c r="B239" s="130"/>
-      <c r="C239" s="130"/>
+      <c r="B239" s="129"/>
+      <c r="C239" s="129"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="91" t="s">
@@ -15276,11 +15302,11 @@
         <v>1289</v>
       </c>
       <c r="C240" s="91"/>
-      <c r="E240" s="129" t="s">
+      <c r="E240" s="128" t="s">
         <v>1290</v>
       </c>
-      <c r="F240" s="130"/>
-      <c r="G240" s="130"/>
+      <c r="F240" s="129"/>
+      <c r="G240" s="129"/>
     </row>
     <row r="241" spans="1:7" ht="30" customHeight="1">
       <c r="A241" s="91" t="s">
@@ -15308,11 +15334,11 @@
       <c r="G242" s="91"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="129" t="s">
+      <c r="A243" s="128" t="s">
         <v>1293</v>
       </c>
-      <c r="B243" s="130"/>
-      <c r="C243" s="130"/>
+      <c r="B243" s="129"/>
+      <c r="C243" s="129"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="91" t="s">
@@ -15322,11 +15348,11 @@
         <v>1293</v>
       </c>
       <c r="C244" s="91"/>
-      <c r="E244" s="129" t="s">
+      <c r="E244" s="128" t="s">
         <v>1294</v>
       </c>
-      <c r="F244" s="130"/>
-      <c r="G244" s="130"/>
+      <c r="F244" s="129"/>
+      <c r="G244" s="129"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1">
       <c r="A245" s="91" t="s">
@@ -15354,11 +15380,11 @@
       <c r="G246" s="91"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="129" t="s">
+      <c r="A247" s="128" t="s">
         <v>1297</v>
       </c>
-      <c r="B247" s="130"/>
-      <c r="C247" s="130"/>
+      <c r="B247" s="129"/>
+      <c r="C247" s="129"/>
     </row>
     <row r="248" spans="1:7" ht="30" customHeight="1">
       <c r="A248" s="91" t="s">
@@ -15368,11 +15394,11 @@
         <v>1297</v>
       </c>
       <c r="C248" s="91"/>
-      <c r="E248" s="129" t="s">
+      <c r="E248" s="128" t="s">
         <v>1298</v>
       </c>
-      <c r="F248" s="130"/>
-      <c r="G248" s="130"/>
+      <c r="F248" s="129"/>
+      <c r="G248" s="129"/>
     </row>
     <row r="249" spans="1:7" ht="45" customHeight="1">
       <c r="A249" s="91" t="s">
@@ -15400,11 +15426,11 @@
       <c r="G250" s="91"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="129" t="s">
+      <c r="A251" s="128" t="s">
         <v>1301</v>
       </c>
-      <c r="B251" s="130"/>
-      <c r="C251" s="130"/>
+      <c r="B251" s="129"/>
+      <c r="C251" s="129"/>
     </row>
     <row r="252" spans="1:7" ht="30" customHeight="1">
       <c r="A252" s="91" t="s">
@@ -15414,11 +15440,11 @@
         <v>1301</v>
       </c>
       <c r="C252" s="91"/>
-      <c r="E252" s="129" t="s">
+      <c r="E252" s="128" t="s">
         <v>1302</v>
       </c>
-      <c r="F252" s="130"/>
-      <c r="G252" s="130"/>
+      <c r="F252" s="129"/>
+      <c r="G252" s="129"/>
     </row>
     <row r="253" spans="1:7" ht="45" customHeight="1">
       <c r="A253" s="91" t="s">
@@ -15446,11 +15472,11 @@
       <c r="G254" s="91"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="129" t="s">
+      <c r="A255" s="128" t="s">
         <v>1305</v>
       </c>
-      <c r="B255" s="130"/>
-      <c r="C255" s="130"/>
+      <c r="B255" s="129"/>
+      <c r="C255" s="129"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="91" t="s">
@@ -15460,11 +15486,11 @@
         <v>1305</v>
       </c>
       <c r="C256" s="91"/>
-      <c r="E256" s="129" t="s">
+      <c r="E256" s="128" t="s">
         <v>1306</v>
       </c>
-      <c r="F256" s="130"/>
-      <c r="G256" s="130"/>
+      <c r="F256" s="129"/>
+      <c r="G256" s="129"/>
     </row>
     <row r="257" spans="1:7" ht="30" customHeight="1">
       <c r="A257" s="91" t="s">
@@ -15492,11 +15518,11 @@
       <c r="G258" s="91"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="129" t="s">
+      <c r="A259" s="128" t="s">
         <v>1309</v>
       </c>
-      <c r="B259" s="130"/>
-      <c r="C259" s="130"/>
+      <c r="B259" s="129"/>
+      <c r="C259" s="129"/>
     </row>
     <row r="260" spans="1:7" ht="30" customHeight="1">
       <c r="A260" s="91" t="s">
@@ -15506,11 +15532,11 @@
         <v>1309</v>
       </c>
       <c r="C260" s="91"/>
-      <c r="E260" s="129" t="s">
+      <c r="E260" s="128" t="s">
         <v>1310</v>
       </c>
-      <c r="F260" s="130"/>
-      <c r="G260" s="130"/>
+      <c r="F260" s="129"/>
+      <c r="G260" s="129"/>
     </row>
     <row r="261" spans="1:7" ht="45" customHeight="1">
       <c r="A261" s="91" t="s">
@@ -15538,11 +15564,11 @@
       <c r="G262" s="91"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="129" t="s">
+      <c r="A263" s="128" t="s">
         <v>1313</v>
       </c>
-      <c r="B263" s="130"/>
-      <c r="C263" s="130"/>
+      <c r="B263" s="129"/>
+      <c r="C263" s="129"/>
     </row>
     <row r="264" spans="1:7" ht="30">
       <c r="A264" s="91" t="s">
@@ -15552,11 +15578,11 @@
         <v>1313</v>
       </c>
       <c r="C264" s="91"/>
-      <c r="E264" s="129" t="s">
+      <c r="E264" s="128" t="s">
         <v>1314</v>
       </c>
-      <c r="F264" s="130"/>
-      <c r="G264" s="130"/>
+      <c r="F264" s="129"/>
+      <c r="G264" s="129"/>
     </row>
     <row r="265" spans="1:7" ht="45" customHeight="1">
       <c r="A265" s="91" t="s">
@@ -15584,11 +15610,11 @@
       <c r="G266" s="91"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="129" t="s">
+      <c r="A267" s="128" t="s">
         <v>1317</v>
       </c>
-      <c r="B267" s="130"/>
-      <c r="C267" s="130"/>
+      <c r="B267" s="129"/>
+      <c r="C267" s="129"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="91" t="s">
@@ -15598,11 +15624,11 @@
         <v>1317</v>
       </c>
       <c r="C268" s="91"/>
-      <c r="E268" s="129" t="s">
+      <c r="E268" s="128" t="s">
         <v>1318</v>
       </c>
-      <c r="F268" s="130"/>
-      <c r="G268" s="130"/>
+      <c r="F268" s="129"/>
+      <c r="G268" s="129"/>
     </row>
     <row r="269" spans="1:7" ht="30" customHeight="1">
       <c r="A269" s="91" t="s">
@@ -15630,11 +15656,11 @@
       <c r="G270" s="91"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="129" t="s">
+      <c r="A271" s="128" t="s">
         <v>1321</v>
       </c>
-      <c r="B271" s="130"/>
-      <c r="C271" s="130"/>
+      <c r="B271" s="129"/>
+      <c r="C271" s="129"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="91" t="s">
@@ -15644,11 +15670,11 @@
         <v>1321</v>
       </c>
       <c r="C272" s="91"/>
-      <c r="E272" s="129" t="s">
+      <c r="E272" s="128" t="s">
         <v>1322</v>
       </c>
-      <c r="F272" s="130"/>
-      <c r="G272" s="130"/>
+      <c r="F272" s="129"/>
+      <c r="G272" s="129"/>
     </row>
     <row r="273" spans="1:7" ht="30" customHeight="1">
       <c r="A273" s="91" t="s">
@@ -15676,11 +15702,11 @@
       <c r="G274" s="91"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="129" t="s">
+      <c r="A275" s="128" t="s">
         <v>1326</v>
       </c>
-      <c r="B275" s="130"/>
-      <c r="C275" s="130"/>
+      <c r="B275" s="129"/>
+      <c r="C275" s="129"/>
     </row>
     <row r="276" spans="1:7" ht="30">
       <c r="A276" s="91" t="s">
@@ -15690,11 +15716,11 @@
         <v>1326</v>
       </c>
       <c r="C276" s="91"/>
-      <c r="E276" s="129" t="s">
+      <c r="E276" s="128" t="s">
         <v>1327</v>
       </c>
-      <c r="F276" s="130"/>
-      <c r="G276" s="130"/>
+      <c r="F276" s="129"/>
+      <c r="G276" s="129"/>
     </row>
     <row r="277" spans="1:7" ht="30" customHeight="1">
       <c r="A277" s="91" t="s">
@@ -15722,11 +15748,11 @@
       <c r="G278" s="91"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="129" t="s">
+      <c r="A279" s="128" t="s">
         <v>1330</v>
       </c>
-      <c r="B279" s="130"/>
-      <c r="C279" s="130"/>
+      <c r="B279" s="129"/>
+      <c r="C279" s="129"/>
     </row>
     <row r="280" spans="1:7" ht="30" customHeight="1">
       <c r="A280" s="91" t="s">
@@ -15736,11 +15762,11 @@
         <v>1330</v>
       </c>
       <c r="C280" s="91"/>
-      <c r="E280" s="129" t="s">
+      <c r="E280" s="128" t="s">
         <v>1331</v>
       </c>
-      <c r="F280" s="130"/>
-      <c r="G280" s="130"/>
+      <c r="F280" s="129"/>
+      <c r="G280" s="129"/>
     </row>
     <row r="281" spans="1:7" ht="45" customHeight="1">
       <c r="A281" s="91" t="s">
@@ -15768,11 +15794,11 @@
       <c r="G282" s="91"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="129" t="s">
+      <c r="A283" s="128" t="s">
         <v>1334</v>
       </c>
-      <c r="B283" s="130"/>
-      <c r="C283" s="130"/>
+      <c r="B283" s="129"/>
+      <c r="C283" s="129"/>
     </row>
     <row r="284" spans="1:7" ht="30">
       <c r="A284" s="91" t="s">
@@ -15782,11 +15808,11 @@
         <v>1334</v>
       </c>
       <c r="C284" s="91"/>
-      <c r="E284" s="129" t="s">
+      <c r="E284" s="128" t="s">
         <v>1335</v>
       </c>
-      <c r="F284" s="130"/>
-      <c r="G284" s="130"/>
+      <c r="F284" s="129"/>
+      <c r="G284" s="129"/>
     </row>
     <row r="285" spans="1:7" ht="45" customHeight="1">
       <c r="A285" s="91" t="s">
@@ -15814,11 +15840,11 @@
       <c r="G286" s="91"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="129" t="s">
+      <c r="A287" s="128" t="s">
         <v>1338</v>
       </c>
-      <c r="B287" s="130"/>
-      <c r="C287" s="130"/>
+      <c r="B287" s="129"/>
+      <c r="C287" s="129"/>
     </row>
     <row r="288" spans="1:7" ht="30" customHeight="1">
       <c r="A288" s="91" t="s">
@@ -15828,11 +15854,11 @@
         <v>1338</v>
       </c>
       <c r="C288" s="91"/>
-      <c r="E288" s="129" t="s">
+      <c r="E288" s="128" t="s">
         <v>1339</v>
       </c>
-      <c r="F288" s="130"/>
-      <c r="G288" s="130"/>
+      <c r="F288" s="129"/>
+      <c r="G288" s="129"/>
     </row>
     <row r="289" spans="1:7" ht="45" customHeight="1">
       <c r="A289" s="91" t="s">
@@ -15860,11 +15886,11 @@
       <c r="G290" s="91"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="129" t="s">
+      <c r="A291" s="128" t="s">
         <v>1342</v>
       </c>
-      <c r="B291" s="130"/>
-      <c r="C291" s="130"/>
+      <c r="B291" s="129"/>
+      <c r="C291" s="129"/>
     </row>
     <row r="292" spans="1:7" ht="30" customHeight="1">
       <c r="A292" s="91" t="s">
@@ -15874,11 +15900,11 @@
         <v>1342</v>
       </c>
       <c r="C292" s="91"/>
-      <c r="E292" s="129" t="s">
+      <c r="E292" s="128" t="s">
         <v>1343</v>
       </c>
-      <c r="F292" s="130"/>
-      <c r="G292" s="130"/>
+      <c r="F292" s="129"/>
+      <c r="G292" s="129"/>
     </row>
     <row r="293" spans="1:7" ht="45" customHeight="1">
       <c r="A293" s="91" t="s">
@@ -15906,11 +15932,11 @@
       <c r="G294" s="91"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="129" t="s">
+      <c r="A295" s="128" t="s">
         <v>1346</v>
       </c>
-      <c r="B295" s="130"/>
-      <c r="C295" s="130"/>
+      <c r="B295" s="129"/>
+      <c r="C295" s="129"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="91" t="s">
@@ -15920,11 +15946,11 @@
         <v>1346</v>
       </c>
       <c r="C296" s="91"/>
-      <c r="E296" s="129" t="s">
+      <c r="E296" s="128" t="s">
         <v>1347</v>
       </c>
-      <c r="F296" s="130"/>
-      <c r="G296" s="130"/>
+      <c r="F296" s="129"/>
+      <c r="G296" s="129"/>
     </row>
     <row r="297" spans="1:7" ht="30" customHeight="1">
       <c r="A297" s="91" t="s">
@@ -15952,11 +15978,11 @@
       <c r="G298" s="91"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="129" t="s">
+      <c r="A299" s="128" t="s">
         <v>1350</v>
       </c>
-      <c r="B299" s="130"/>
-      <c r="C299" s="130"/>
+      <c r="B299" s="129"/>
+      <c r="C299" s="129"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="91" t="s">
@@ -15966,11 +15992,11 @@
         <v>1350</v>
       </c>
       <c r="C300" s="91"/>
-      <c r="E300" s="131" t="s">
+      <c r="E300" s="130" t="s">
         <v>1351</v>
       </c>
-      <c r="F300" s="130"/>
-      <c r="G300" s="130"/>
+      <c r="F300" s="129"/>
+      <c r="G300" s="129"/>
     </row>
     <row r="301" spans="1:7" ht="30" customHeight="1">
       <c r="A301" s="91" t="s">
@@ -15998,11 +16024,11 @@
       <c r="G302" s="91"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="131" t="s">
+      <c r="A303" s="130" t="s">
         <v>1354</v>
       </c>
-      <c r="B303" s="130"/>
-      <c r="C303" s="130"/>
+      <c r="B303" s="129"/>
+      <c r="C303" s="129"/>
     </row>
     <row r="304" spans="1:7" ht="30" customHeight="1">
       <c r="A304" s="91" t="s">
@@ -16012,11 +16038,11 @@
         <v>1354</v>
       </c>
       <c r="C304" s="91"/>
-      <c r="E304" s="131" t="s">
+      <c r="E304" s="130" t="s">
         <v>1355</v>
       </c>
-      <c r="F304" s="130"/>
-      <c r="G304" s="130"/>
+      <c r="F304" s="129"/>
+      <c r="G304" s="129"/>
     </row>
     <row r="305" spans="1:7" ht="45" customHeight="1">
       <c r="A305" s="91" t="s">
@@ -16044,16 +16070,16 @@
       <c r="G306" s="91"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="131" t="s">
+      <c r="A308" s="130" t="s">
         <v>1358</v>
       </c>
-      <c r="B308" s="130"/>
-      <c r="C308" s="130"/>
-      <c r="E308" s="131" t="s">
+      <c r="B308" s="129"/>
+      <c r="C308" s="129"/>
+      <c r="E308" s="130" t="s">
         <v>1359</v>
       </c>
-      <c r="F308" s="130"/>
-      <c r="G308" s="130"/>
+      <c r="F308" s="129"/>
+      <c r="G308" s="129"/>
     </row>
     <row r="309" spans="1:7" ht="30" customHeight="1">
       <c r="A309" s="91" t="s">
@@ -16088,16 +16114,16 @@
       <c r="G310" s="91"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="131" t="s">
+      <c r="A312" s="130" t="s">
         <v>1362</v>
       </c>
-      <c r="B312" s="130"/>
-      <c r="C312" s="130"/>
-      <c r="E312" s="131" t="s">
+      <c r="B312" s="129"/>
+      <c r="C312" s="129"/>
+      <c r="E312" s="130" t="s">
         <v>1363</v>
       </c>
-      <c r="F312" s="130"/>
-      <c r="G312" s="130"/>
+      <c r="F312" s="129"/>
+      <c r="G312" s="129"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="91" t="s">
@@ -16132,16 +16158,16 @@
       <c r="G314" s="91"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="131" t="s">
+      <c r="A316" s="130" t="s">
         <v>1366</v>
       </c>
-      <c r="B316" s="130"/>
-      <c r="C316" s="130"/>
-      <c r="E316" s="131" t="s">
+      <c r="B316" s="129"/>
+      <c r="C316" s="129"/>
+      <c r="E316" s="130" t="s">
         <v>1367</v>
       </c>
-      <c r="F316" s="130"/>
-      <c r="G316" s="130"/>
+      <c r="F316" s="129"/>
+      <c r="G316" s="129"/>
     </row>
     <row r="317" spans="1:7" ht="30" customHeight="1">
       <c r="A317" s="91" t="s">
@@ -16176,16 +16202,16 @@
       <c r="G318" s="91"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="131" t="s">
+      <c r="A320" s="130" t="s">
         <v>1370</v>
       </c>
-      <c r="B320" s="130"/>
-      <c r="C320" s="130"/>
-      <c r="E320" s="131" t="s">
+      <c r="B320" s="129"/>
+      <c r="C320" s="129"/>
+      <c r="E320" s="130" t="s">
         <v>1370</v>
       </c>
-      <c r="F320" s="130"/>
-      <c r="G320" s="130"/>
+      <c r="F320" s="129"/>
+      <c r="G320" s="129"/>
     </row>
     <row r="321" spans="1:7" ht="30" customHeight="1">
       <c r="A321" s="91" t="s">
@@ -16220,16 +16246,16 @@
       <c r="G322" s="91"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="131" t="s">
+      <c r="A324" s="130" t="s">
         <v>1372</v>
       </c>
-      <c r="B324" s="130"/>
-      <c r="C324" s="130"/>
-      <c r="E324" s="131" t="s">
+      <c r="B324" s="129"/>
+      <c r="C324" s="129"/>
+      <c r="E324" s="130" t="s">
         <v>1373</v>
       </c>
-      <c r="F324" s="130"/>
-      <c r="G324" s="130"/>
+      <c r="F324" s="129"/>
+      <c r="G324" s="129"/>
     </row>
     <row r="325" spans="1:7" ht="30">
       <c r="A325" s="91" t="s">
@@ -16264,16 +16290,16 @@
       <c r="G326" s="91"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="131" t="s">
+      <c r="A328" s="130" t="s">
         <v>1376</v>
       </c>
-      <c r="B328" s="130"/>
-      <c r="C328" s="130"/>
-      <c r="E328" s="131" t="s">
+      <c r="B328" s="129"/>
+      <c r="C328" s="129"/>
+      <c r="E328" s="130" t="s">
         <v>1377</v>
       </c>
-      <c r="F328" s="130"/>
-      <c r="G328" s="130"/>
+      <c r="F328" s="129"/>
+      <c r="G328" s="129"/>
     </row>
     <row r="329" spans="1:7" ht="30" customHeight="1">
       <c r="A329" s="91" t="s">
@@ -16308,16 +16334,16 @@
       <c r="G330" s="91"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="131" t="s">
+      <c r="A332" s="130" t="s">
         <v>1380</v>
       </c>
-      <c r="B332" s="130"/>
-      <c r="C332" s="130"/>
-      <c r="E332" s="131" t="s">
+      <c r="B332" s="129"/>
+      <c r="C332" s="129"/>
+      <c r="E332" s="130" t="s">
         <v>1381</v>
       </c>
-      <c r="F332" s="130"/>
-      <c r="G332" s="130"/>
+      <c r="F332" s="129"/>
+      <c r="G332" s="129"/>
     </row>
     <row r="333" spans="1:7" ht="30" customHeight="1">
       <c r="A333" s="91" t="s">
@@ -16352,16 +16378,16 @@
       <c r="G334" s="91"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="131" t="s">
+      <c r="A336" s="130" t="s">
         <v>1383</v>
       </c>
-      <c r="B336" s="130"/>
-      <c r="C336" s="130"/>
-      <c r="E336" s="131" t="s">
+      <c r="B336" s="129"/>
+      <c r="C336" s="129"/>
+      <c r="E336" s="130" t="s">
         <v>1384</v>
       </c>
-      <c r="F336" s="130"/>
-      <c r="G336" s="130"/>
+      <c r="F336" s="129"/>
+      <c r="G336" s="129"/>
     </row>
     <row r="337" spans="1:7" ht="30" customHeight="1">
       <c r="A337" s="91" t="s">
@@ -16396,16 +16422,16 @@
       <c r="G338" s="91"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="131" t="s">
+      <c r="A340" s="130" t="s">
         <v>1387</v>
       </c>
-      <c r="B340" s="130"/>
-      <c r="C340" s="130"/>
-      <c r="E340" s="131" t="s">
+      <c r="B340" s="129"/>
+      <c r="C340" s="129"/>
+      <c r="E340" s="130" t="s">
         <v>1388</v>
       </c>
-      <c r="F340" s="130"/>
-      <c r="G340" s="130"/>
+      <c r="F340" s="129"/>
+      <c r="G340" s="129"/>
     </row>
     <row r="341" spans="1:7" ht="30" customHeight="1">
       <c r="A341" s="91" t="s">
@@ -16440,16 +16466,16 @@
       <c r="G342" s="91"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="131" t="s">
+      <c r="A344" s="130" t="s">
         <v>1391</v>
       </c>
-      <c r="B344" s="130"/>
-      <c r="C344" s="130"/>
-      <c r="E344" s="131" t="s">
+      <c r="B344" s="129"/>
+      <c r="C344" s="129"/>
+      <c r="E344" s="130" t="s">
         <v>1392</v>
       </c>
-      <c r="F344" s="130"/>
-      <c r="G344" s="130"/>
+      <c r="F344" s="129"/>
+      <c r="G344" s="129"/>
     </row>
     <row r="345" spans="1:7" ht="30" customHeight="1">
       <c r="A345" s="91" t="s">
@@ -16484,16 +16510,16 @@
       <c r="G346" s="91"/>
     </row>
     <row r="348" spans="1:7">
-      <c r="A348" s="129" t="s">
+      <c r="A348" s="128" t="s">
         <v>1395</v>
       </c>
-      <c r="B348" s="130"/>
-      <c r="C348" s="130"/>
-      <c r="E348" s="129" t="s">
+      <c r="B348" s="129"/>
+      <c r="C348" s="129"/>
+      <c r="E348" s="128" t="s">
         <v>1396</v>
       </c>
-      <c r="F348" s="130"/>
-      <c r="G348" s="130"/>
+      <c r="F348" s="129"/>
+      <c r="G348" s="129"/>
     </row>
     <row r="349" spans="1:7" ht="30" customHeight="1">
       <c r="A349" s="91" t="s">
@@ -16528,16 +16554,16 @@
       <c r="G350" s="91"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="129" t="s">
+      <c r="A352" s="128" t="s">
         <v>1380</v>
       </c>
-      <c r="B352" s="130"/>
-      <c r="C352" s="130"/>
-      <c r="E352" s="129" t="s">
+      <c r="B352" s="129"/>
+      <c r="C352" s="129"/>
+      <c r="E352" s="128" t="s">
         <v>1399</v>
       </c>
-      <c r="F352" s="130"/>
-      <c r="G352" s="130"/>
+      <c r="F352" s="129"/>
+      <c r="G352" s="129"/>
     </row>
     <row r="353" spans="1:7" ht="30">
       <c r="A353" s="91" t="s">
@@ -16572,16 +16598,16 @@
       <c r="G354" s="91"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="129" t="s">
+      <c r="A356" s="128" t="s">
         <v>1402</v>
       </c>
-      <c r="B356" s="130"/>
-      <c r="C356" s="130"/>
-      <c r="E356" s="129" t="s">
+      <c r="B356" s="129"/>
+      <c r="C356" s="129"/>
+      <c r="E356" s="128" t="s">
         <v>1403</v>
       </c>
-      <c r="F356" s="130"/>
-      <c r="G356" s="130"/>
+      <c r="F356" s="129"/>
+      <c r="G356" s="129"/>
     </row>
     <row r="357" spans="1:7" ht="30">
       <c r="A357" s="91" t="s">
@@ -16616,16 +16642,16 @@
       <c r="G358" s="91"/>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="129" t="s">
+      <c r="A360" s="128" t="s">
         <v>1406</v>
       </c>
-      <c r="B360" s="130"/>
-      <c r="C360" s="130"/>
-      <c r="E360" s="129" t="s">
+      <c r="B360" s="129"/>
+      <c r="C360" s="129"/>
+      <c r="E360" s="128" t="s">
         <v>1407</v>
       </c>
-      <c r="F360" s="130"/>
-      <c r="G360" s="130"/>
+      <c r="F360" s="129"/>
+      <c r="G360" s="129"/>
     </row>
     <row r="361" spans="1:7" ht="30" customHeight="1">
       <c r="A361" s="91" t="s">
@@ -16660,16 +16686,16 @@
       <c r="G362" s="91"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="129" t="s">
+      <c r="A364" s="128" t="s">
         <v>1410</v>
       </c>
-      <c r="B364" s="130"/>
-      <c r="C364" s="130"/>
-      <c r="E364" s="129" t="s">
+      <c r="B364" s="129"/>
+      <c r="C364" s="129"/>
+      <c r="E364" s="128" t="s">
         <v>1411</v>
       </c>
-      <c r="F364" s="130"/>
-      <c r="G364" s="130"/>
+      <c r="F364" s="129"/>
+      <c r="G364" s="129"/>
     </row>
     <row r="365" spans="1:7" ht="30" customHeight="1">
       <c r="A365" s="91" t="s">
@@ -16704,16 +16730,16 @@
       <c r="G366" s="91"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="129" t="s">
+      <c r="A368" s="128" t="s">
         <v>1414</v>
       </c>
-      <c r="B368" s="130"/>
-      <c r="C368" s="130"/>
-      <c r="E368" s="129" t="s">
+      <c r="B368" s="129"/>
+      <c r="C368" s="129"/>
+      <c r="E368" s="128" t="s">
         <v>1415</v>
       </c>
-      <c r="F368" s="130"/>
-      <c r="G368" s="130"/>
+      <c r="F368" s="129"/>
+      <c r="G368" s="129"/>
     </row>
     <row r="369" spans="1:7" ht="30" customHeight="1">
       <c r="A369" s="91" t="s">
@@ -16748,16 +16774,16 @@
       <c r="G370" s="91"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="129" t="s">
+      <c r="A372" s="128" t="s">
         <v>1418</v>
       </c>
-      <c r="B372" s="130"/>
-      <c r="C372" s="130"/>
-      <c r="E372" s="129" t="s">
+      <c r="B372" s="129"/>
+      <c r="C372" s="129"/>
+      <c r="E372" s="128" t="s">
         <v>1419</v>
       </c>
-      <c r="F372" s="130"/>
-      <c r="G372" s="130"/>
+      <c r="F372" s="129"/>
+      <c r="G372" s="129"/>
     </row>
     <row r="373" spans="1:7" ht="30" customHeight="1">
       <c r="A373" s="91" t="s">
@@ -16792,16 +16818,16 @@
       <c r="G374" s="91"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="129" t="s">
+      <c r="A376" s="128" t="s">
         <v>1422</v>
       </c>
-      <c r="B376" s="130"/>
-      <c r="C376" s="130"/>
-      <c r="E376" s="129" t="s">
+      <c r="B376" s="129"/>
+      <c r="C376" s="129"/>
+      <c r="E376" s="128" t="s">
         <v>1423</v>
       </c>
-      <c r="F376" s="130"/>
-      <c r="G376" s="130"/>
+      <c r="F376" s="129"/>
+      <c r="G376" s="129"/>
     </row>
     <row r="377" spans="1:7" ht="30" customHeight="1">
       <c r="A377" s="91" t="s">
@@ -16836,16 +16862,16 @@
       <c r="G378" s="91"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="129" t="s">
+      <c r="A380" s="128" t="s">
         <v>1426</v>
       </c>
-      <c r="B380" s="130"/>
-      <c r="C380" s="130"/>
-      <c r="E380" s="129" t="s">
+      <c r="B380" s="129"/>
+      <c r="C380" s="129"/>
+      <c r="E380" s="128" t="s">
         <v>1427</v>
       </c>
-      <c r="F380" s="130"/>
-      <c r="G380" s="130"/>
+      <c r="F380" s="129"/>
+      <c r="G380" s="129"/>
     </row>
     <row r="381" spans="1:7" ht="30">
       <c r="A381" s="91" t="s">
@@ -16880,16 +16906,16 @@
       <c r="G382" s="91"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="129" t="s">
+      <c r="A384" s="128" t="s">
         <v>1430</v>
       </c>
-      <c r="B384" s="130"/>
-      <c r="C384" s="130"/>
-      <c r="E384" s="129" t="s">
+      <c r="B384" s="129"/>
+      <c r="C384" s="129"/>
+      <c r="E384" s="128" t="s">
         <v>1431</v>
       </c>
-      <c r="F384" s="130"/>
-      <c r="G384" s="130"/>
+      <c r="F384" s="129"/>
+      <c r="G384" s="129"/>
     </row>
     <row r="385" spans="1:7" ht="30" customHeight="1">
       <c r="A385" s="91" t="s">
@@ -16924,16 +16950,16 @@
       <c r="G386" s="91"/>
     </row>
     <row r="388" spans="1:7">
-      <c r="A388" s="129" t="s">
+      <c r="A388" s="128" t="s">
         <v>1434</v>
       </c>
-      <c r="B388" s="130"/>
-      <c r="C388" s="130"/>
-      <c r="E388" s="129" t="s">
+      <c r="B388" s="129"/>
+      <c r="C388" s="129"/>
+      <c r="E388" s="128" t="s">
         <v>1435</v>
       </c>
-      <c r="F388" s="130"/>
-      <c r="G388" s="130"/>
+      <c r="F388" s="129"/>
+      <c r="G388" s="129"/>
     </row>
     <row r="389" spans="1:7" ht="30" customHeight="1">
       <c r="A389" s="91" t="s">
@@ -16968,16 +16994,16 @@
       <c r="G390" s="91"/>
     </row>
     <row r="392" spans="1:7">
-      <c r="A392" s="129" t="s">
+      <c r="A392" s="128" t="s">
         <v>1438</v>
       </c>
-      <c r="B392" s="130"/>
-      <c r="C392" s="130"/>
-      <c r="E392" s="129" t="s">
+      <c r="B392" s="129"/>
+      <c r="C392" s="129"/>
+      <c r="E392" s="128" t="s">
         <v>1439</v>
       </c>
-      <c r="F392" s="130"/>
-      <c r="G392" s="130"/>
+      <c r="F392" s="129"/>
+      <c r="G392" s="129"/>
     </row>
     <row r="393" spans="1:7" ht="30" customHeight="1">
       <c r="A393" s="91" t="s">
@@ -17012,16 +17038,16 @@
       <c r="G394" s="91"/>
     </row>
     <row r="396" spans="1:7">
-      <c r="A396" s="129" t="s">
+      <c r="A396" s="128" t="s">
         <v>1442</v>
       </c>
-      <c r="B396" s="130"/>
-      <c r="C396" s="130"/>
-      <c r="E396" s="129" t="s">
+      <c r="B396" s="129"/>
+      <c r="C396" s="129"/>
+      <c r="E396" s="128" t="s">
         <v>1443</v>
       </c>
-      <c r="F396" s="130"/>
-      <c r="G396" s="130"/>
+      <c r="F396" s="129"/>
+      <c r="G396" s="129"/>
     </row>
     <row r="397" spans="1:7" ht="30" customHeight="1">
       <c r="A397" s="91" t="s">
@@ -17056,16 +17082,16 @@
       <c r="G398" s="91"/>
     </row>
     <row r="400" spans="1:7">
-      <c r="A400" s="129" t="s">
+      <c r="A400" s="128" t="s">
         <v>1446</v>
       </c>
-      <c r="B400" s="130"/>
-      <c r="C400" s="130"/>
-      <c r="E400" s="129" t="s">
+      <c r="B400" s="129"/>
+      <c r="C400" s="129"/>
+      <c r="E400" s="128" t="s">
         <v>1447</v>
       </c>
-      <c r="F400" s="130"/>
-      <c r="G400" s="130"/>
+      <c r="F400" s="129"/>
+      <c r="G400" s="129"/>
     </row>
     <row r="401" spans="1:7" ht="30" customHeight="1">
       <c r="A401" s="91" t="s">
@@ -17100,16 +17126,16 @@
       <c r="G402" s="91"/>
     </row>
     <row r="404" spans="1:7">
-      <c r="A404" s="129" t="s">
+      <c r="A404" s="128" t="s">
         <v>1450</v>
       </c>
-      <c r="B404" s="130"/>
-      <c r="C404" s="130"/>
-      <c r="E404" s="129" t="s">
+      <c r="B404" s="129"/>
+      <c r="C404" s="129"/>
+      <c r="E404" s="128" t="s">
         <v>1451</v>
       </c>
-      <c r="F404" s="130"/>
-      <c r="G404" s="130"/>
+      <c r="F404" s="129"/>
+      <c r="G404" s="129"/>
     </row>
     <row r="405" spans="1:7" ht="30" customHeight="1">
       <c r="A405" s="91" t="s">
@@ -17144,16 +17170,16 @@
       <c r="G406" s="91"/>
     </row>
     <row r="408" spans="1:7">
-      <c r="A408" s="129" t="s">
+      <c r="A408" s="128" t="s">
         <v>1454</v>
       </c>
-      <c r="B408" s="130"/>
-      <c r="C408" s="130"/>
-      <c r="E408" s="129" t="s">
+      <c r="B408" s="129"/>
+      <c r="C408" s="129"/>
+      <c r="E408" s="128" t="s">
         <v>1455</v>
       </c>
-      <c r="F408" s="130"/>
-      <c r="G408" s="130"/>
+      <c r="F408" s="129"/>
+      <c r="G408" s="129"/>
     </row>
     <row r="409" spans="1:7" ht="30">
       <c r="A409" s="91" t="s">
@@ -17188,16 +17214,16 @@
       <c r="G410" s="91"/>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="129" t="s">
+      <c r="A412" s="128" t="s">
         <v>1458</v>
       </c>
-      <c r="B412" s="130"/>
-      <c r="C412" s="130"/>
-      <c r="E412" s="129" t="s">
+      <c r="B412" s="129"/>
+      <c r="C412" s="129"/>
+      <c r="E412" s="128" t="s">
         <v>1459</v>
       </c>
-      <c r="F412" s="130"/>
-      <c r="G412" s="130"/>
+      <c r="F412" s="129"/>
+      <c r="G412" s="129"/>
     </row>
     <row r="413" spans="1:7" ht="30" customHeight="1">
       <c r="A413" s="91" t="s">
@@ -17232,16 +17258,16 @@
       <c r="G414" s="91"/>
     </row>
     <row r="416" spans="1:7">
-      <c r="A416" s="129" t="s">
+      <c r="A416" s="128" t="s">
         <v>1462</v>
       </c>
-      <c r="B416" s="130"/>
-      <c r="C416" s="130"/>
-      <c r="E416" s="129" t="s">
+      <c r="B416" s="129"/>
+      <c r="C416" s="129"/>
+      <c r="E416" s="128" t="s">
         <v>1463</v>
       </c>
-      <c r="F416" s="130"/>
-      <c r="G416" s="130"/>
+      <c r="F416" s="129"/>
+      <c r="G416" s="129"/>
     </row>
     <row r="417" spans="1:7" ht="30" customHeight="1">
       <c r="A417" s="91" t="s">
@@ -17276,16 +17302,16 @@
       <c r="G418" s="91"/>
     </row>
     <row r="420" spans="1:7">
-      <c r="A420" s="129" t="s">
+      <c r="A420" s="128" t="s">
         <v>1466</v>
       </c>
-      <c r="B420" s="130"/>
-      <c r="C420" s="130"/>
-      <c r="E420" s="129" t="s">
+      <c r="B420" s="129"/>
+      <c r="C420" s="129"/>
+      <c r="E420" s="128" t="s">
         <v>1467</v>
       </c>
-      <c r="F420" s="130"/>
-      <c r="G420" s="130"/>
+      <c r="F420" s="129"/>
+      <c r="G420" s="129"/>
     </row>
     <row r="421" spans="1:7" ht="30" customHeight="1">
       <c r="A421" s="91" t="s">
@@ -17320,16 +17346,16 @@
       <c r="G422" s="91"/>
     </row>
     <row r="424" spans="1:7">
-      <c r="A424" s="129" t="s">
+      <c r="A424" s="128" t="s">
         <v>1470</v>
       </c>
-      <c r="B424" s="130"/>
-      <c r="C424" s="130"/>
-      <c r="E424" s="129" t="s">
+      <c r="B424" s="129"/>
+      <c r="C424" s="129"/>
+      <c r="E424" s="128" t="s">
         <v>1471</v>
       </c>
-      <c r="F424" s="130"/>
-      <c r="G424" s="130"/>
+      <c r="F424" s="129"/>
+      <c r="G424" s="129"/>
     </row>
     <row r="425" spans="1:7" ht="30" customHeight="1">
       <c r="A425" s="91" t="s">
@@ -17364,16 +17390,16 @@
       <c r="G426" s="91"/>
     </row>
     <row r="428" spans="1:7">
-      <c r="A428" s="129" t="s">
+      <c r="A428" s="128" t="s">
         <v>1474</v>
       </c>
-      <c r="B428" s="130"/>
-      <c r="C428" s="130"/>
-      <c r="E428" s="129" t="s">
+      <c r="B428" s="129"/>
+      <c r="C428" s="129"/>
+      <c r="E428" s="128" t="s">
         <v>1475</v>
       </c>
-      <c r="F428" s="130"/>
-      <c r="G428" s="130"/>
+      <c r="F428" s="129"/>
+      <c r="G428" s="129"/>
     </row>
     <row r="429" spans="1:7" ht="30" customHeight="1">
       <c r="A429" s="91" t="s">
@@ -17408,16 +17434,16 @@
       <c r="G430" s="91"/>
     </row>
     <row r="432" spans="1:7">
-      <c r="A432" s="129" t="s">
+      <c r="A432" s="128" t="s">
         <v>1478</v>
       </c>
-      <c r="B432" s="130"/>
-      <c r="C432" s="130"/>
-      <c r="E432" s="129" t="s">
+      <c r="B432" s="129"/>
+      <c r="C432" s="129"/>
+      <c r="E432" s="128" t="s">
         <v>1478</v>
       </c>
-      <c r="F432" s="130"/>
-      <c r="G432" s="130"/>
+      <c r="F432" s="129"/>
+      <c r="G432" s="129"/>
     </row>
     <row r="433" spans="1:7" ht="30" customHeight="1">
       <c r="A433" s="91" t="s">
@@ -17452,16 +17478,16 @@
       <c r="G434" s="91"/>
     </row>
     <row r="436" spans="1:7">
-      <c r="A436" s="129" t="s">
+      <c r="A436" s="128" t="s">
         <v>1482</v>
       </c>
-      <c r="B436" s="130"/>
-      <c r="C436" s="130"/>
-      <c r="E436" s="129" t="s">
+      <c r="B436" s="129"/>
+      <c r="C436" s="129"/>
+      <c r="E436" s="128" t="s">
         <v>1483</v>
       </c>
-      <c r="F436" s="130"/>
-      <c r="G436" s="130"/>
+      <c r="F436" s="129"/>
+      <c r="G436" s="129"/>
     </row>
     <row r="437" spans="1:7" ht="30" customHeight="1">
       <c r="A437" s="91" t="s">
@@ -17496,16 +17522,16 @@
       <c r="G438" s="91"/>
     </row>
     <row r="440" spans="1:7">
-      <c r="A440" s="129" t="s">
+      <c r="A440" s="128" t="s">
         <v>1486</v>
       </c>
-      <c r="B440" s="130"/>
-      <c r="C440" s="130"/>
-      <c r="E440" s="129" t="s">
+      <c r="B440" s="129"/>
+      <c r="C440" s="129"/>
+      <c r="E440" s="128" t="s">
         <v>1487</v>
       </c>
-      <c r="F440" s="130"/>
-      <c r="G440" s="130"/>
+      <c r="F440" s="129"/>
+      <c r="G440" s="129"/>
     </row>
     <row r="441" spans="1:7" ht="30" customHeight="1">
       <c r="A441" s="91" t="s">
@@ -17540,16 +17566,16 @@
       <c r="G442" s="91"/>
     </row>
     <row r="444" spans="1:7">
-      <c r="A444" s="129" t="s">
+      <c r="A444" s="128" t="s">
         <v>1490</v>
       </c>
-      <c r="B444" s="130"/>
-      <c r="C444" s="130"/>
-      <c r="E444" s="129" t="s">
+      <c r="B444" s="129"/>
+      <c r="C444" s="129"/>
+      <c r="E444" s="128" t="s">
         <v>1491</v>
       </c>
-      <c r="F444" s="130"/>
-      <c r="G444" s="130"/>
+      <c r="F444" s="129"/>
+      <c r="G444" s="129"/>
     </row>
     <row r="445" spans="1:7" ht="45" customHeight="1">
       <c r="A445" s="91" t="s">
@@ -17584,16 +17610,16 @@
       <c r="G446" s="91"/>
     </row>
     <row r="448" spans="1:7">
-      <c r="A448" s="129" t="s">
+      <c r="A448" s="128" t="s">
         <v>1494</v>
       </c>
-      <c r="B448" s="130"/>
-      <c r="C448" s="130"/>
-      <c r="E448" s="129" t="s">
+      <c r="B448" s="129"/>
+      <c r="C448" s="129"/>
+      <c r="E448" s="128" t="s">
         <v>1495</v>
       </c>
-      <c r="F448" s="130"/>
-      <c r="G448" s="130"/>
+      <c r="F448" s="129"/>
+      <c r="G448" s="129"/>
     </row>
     <row r="449" spans="1:7" ht="45" customHeight="1">
       <c r="A449" s="91" t="s">
@@ -17628,16 +17654,16 @@
       <c r="G450" s="91"/>
     </row>
     <row r="452" spans="1:7">
-      <c r="A452" s="129" t="s">
+      <c r="A452" s="128" t="s">
         <v>1498</v>
       </c>
-      <c r="B452" s="130"/>
-      <c r="C452" s="130"/>
-      <c r="E452" s="129" t="s">
+      <c r="B452" s="129"/>
+      <c r="C452" s="129"/>
+      <c r="E452" s="128" t="s">
         <v>1499</v>
       </c>
-      <c r="F452" s="130"/>
-      <c r="G452" s="130"/>
+      <c r="F452" s="129"/>
+      <c r="G452" s="129"/>
     </row>
     <row r="453" spans="1:7" ht="30" customHeight="1">
       <c r="A453" s="91" t="s">
@@ -17672,16 +17698,16 @@
       <c r="G454" s="91"/>
     </row>
     <row r="456" spans="1:7">
-      <c r="A456" s="129" t="s">
+      <c r="A456" s="128" t="s">
         <v>1502</v>
       </c>
-      <c r="B456" s="130"/>
-      <c r="C456" s="130"/>
-      <c r="E456" s="129" t="s">
+      <c r="B456" s="129"/>
+      <c r="C456" s="129"/>
+      <c r="E456" s="128" t="s">
         <v>1503</v>
       </c>
-      <c r="F456" s="130"/>
-      <c r="G456" s="130"/>
+      <c r="F456" s="129"/>
+      <c r="G456" s="129"/>
     </row>
     <row r="457" spans="1:7" ht="30" customHeight="1">
       <c r="A457" s="91" t="s">
@@ -17716,16 +17742,16 @@
       <c r="G458" s="91"/>
     </row>
     <row r="460" spans="1:7">
-      <c r="A460" s="129" t="s">
+      <c r="A460" s="128" t="s">
         <v>1506</v>
       </c>
-      <c r="B460" s="130"/>
-      <c r="C460" s="130"/>
-      <c r="E460" s="129" t="s">
+      <c r="B460" s="129"/>
+      <c r="C460" s="129"/>
+      <c r="E460" s="128" t="s">
         <v>1507</v>
       </c>
-      <c r="F460" s="130"/>
-      <c r="G460" s="130"/>
+      <c r="F460" s="129"/>
+      <c r="G460" s="129"/>
     </row>
     <row r="461" spans="1:7" ht="30" customHeight="1">
       <c r="A461" s="91" t="s">
@@ -17760,16 +17786,16 @@
       <c r="G462" s="91"/>
     </row>
     <row r="464" spans="1:7">
-      <c r="A464" s="129" t="s">
+      <c r="A464" s="128" t="s">
         <v>1510</v>
       </c>
-      <c r="B464" s="130"/>
-      <c r="C464" s="130"/>
-      <c r="E464" s="129" t="s">
+      <c r="B464" s="129"/>
+      <c r="C464" s="129"/>
+      <c r="E464" s="128" t="s">
         <v>1511</v>
       </c>
-      <c r="F464" s="130"/>
-      <c r="G464" s="130"/>
+      <c r="F464" s="129"/>
+      <c r="G464" s="129"/>
     </row>
     <row r="465" spans="1:7" ht="30" customHeight="1">
       <c r="A465" s="91" t="s">
@@ -17804,16 +17830,16 @@
       <c r="G466" s="91"/>
     </row>
     <row r="468" spans="1:7">
-      <c r="A468" s="129" t="s">
+      <c r="A468" s="128" t="s">
         <v>1514</v>
       </c>
-      <c r="B468" s="130"/>
-      <c r="C468" s="130"/>
-      <c r="E468" s="129" t="s">
+      <c r="B468" s="129"/>
+      <c r="C468" s="129"/>
+      <c r="E468" s="128" t="s">
         <v>1515</v>
       </c>
-      <c r="F468" s="130"/>
-      <c r="G468" s="130"/>
+      <c r="F468" s="129"/>
+      <c r="G468" s="129"/>
     </row>
     <row r="469" spans="1:7" ht="30" customHeight="1">
       <c r="A469" s="91" t="s">
@@ -17848,11 +17874,11 @@
       <c r="G470" s="91"/>
     </row>
     <row r="472" spans="1:7">
-      <c r="A472" s="129" t="s">
+      <c r="A472" s="128" t="s">
         <v>1518</v>
       </c>
-      <c r="B472" s="130"/>
-      <c r="C472" s="130"/>
+      <c r="B472" s="129"/>
+      <c r="C472" s="129"/>
     </row>
     <row r="473" spans="1:7" ht="30" customHeight="1">
       <c r="A473" s="91" t="s">
@@ -17874,107 +17900,33 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="E412:G412"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="E404:G404"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="E408:G408"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="E388:G388"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="E392:G392"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="E396:G396"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="E384:G384"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="E372:G372"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="E352:G352"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="E356:G356"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="E348:G348"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="E328:G328"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E170:G170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="E196:G196"/>
-    <mergeCell ref="E200:G200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="E204:G204"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="E212:G212"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="E228:G228"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="E232:G232"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="E236:G236"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="E244:G244"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="E248:G248"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="E252:G252"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="E256:G256"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="E264:G264"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="E276:G276"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="E280:G280"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="E468:G468"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="E440:G440"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="E444:G444"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="E448:G448"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="E452:G452"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="E420:G420"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="E424:G424"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="E428:G428"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="E436:G436"/>
     <mergeCell ref="E300:G300"/>
     <mergeCell ref="A303:C303"/>
     <mergeCell ref="E288:G288"/>
@@ -17999,33 +17951,107 @@
     <mergeCell ref="E340:G340"/>
     <mergeCell ref="A344:C344"/>
     <mergeCell ref="E344:G344"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="E420:G420"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="E424:G424"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="E428:G428"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="E436:G436"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="E468:G468"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="E440:G440"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="E444:G444"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="E448:G448"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="E452:G452"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="E264:G264"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="E276:G276"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="E280:G280"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="E244:G244"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="E248:G248"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="E256:G256"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="E228:G228"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="E232:G232"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="E236:G236"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E170:G170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="E348:G348"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="E328:G328"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="E372:G372"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="E352:G352"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="E356:G356"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="E388:G388"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="E392:G392"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="E396:G396"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="E384:G384"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="E412:G412"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="E404:G404"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="E408:G408"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18048,10 +18074,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="131" t="s">
         <v>1520</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="129"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="92" t="s">
@@ -18118,10 +18144,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="131" t="s">
         <v>1531</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="129"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="92" t="s">
@@ -18188,10 +18214,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="131" t="s">
         <v>1540</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="129"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="92" t="s">
@@ -18258,10 +18284,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="131" t="s">
         <v>1548</v>
       </c>
-      <c r="B34" s="130"/>
+      <c r="B34" s="129"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="92" t="s">
@@ -18328,10 +18354,10 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="131" t="s">
         <v>1555</v>
       </c>
-      <c r="B44" s="130"/>
+      <c r="B44" s="129"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="92" t="s">
@@ -18398,10 +18424,10 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="131" t="s">
         <v>1564</v>
       </c>
-      <c r="B55" s="130"/>
+      <c r="B55" s="129"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="92" t="s">
@@ -18468,10 +18494,10 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="133" t="s">
+      <c r="A66" s="131" t="s">
         <v>1572</v>
       </c>
-      <c r="B66" s="130"/>
+      <c r="B66" s="129"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="92" t="s">
@@ -18538,10 +18564,10 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="133" t="s">
+      <c r="A77" s="131" t="s">
         <v>1580</v>
       </c>
-      <c r="B77" s="130"/>
+      <c r="B77" s="129"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="92" t="s">
@@ -18608,10 +18634,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="133" t="s">
+      <c r="A88" s="131" t="s">
         <v>1588</v>
       </c>
-      <c r="B88" s="130"/>
+      <c r="B88" s="129"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="92" t="s">
@@ -18726,10 +18752,10 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="133" t="s">
+      <c r="A105" s="131" t="s">
         <v>1606</v>
       </c>
-      <c r="B105" s="130"/>
+      <c r="B105" s="129"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="92" t="s">
@@ -18780,10 +18806,10 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="134" t="s">
+      <c r="A112" s="132" t="s">
         <v>1612</v>
       </c>
-      <c r="B112" s="130"/>
+      <c r="B112" s="129"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="92" t="s">
@@ -18970,10 +18996,10 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="133" t="s">
+      <c r="A138" s="131" t="s">
         <v>1625</v>
       </c>
-      <c r="B138" s="130"/>
+      <c r="B138" s="129"/>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="92" t="s">
@@ -19040,10 +19066,10 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="132" t="s">
+      <c r="A147" s="133" t="s">
         <v>1632</v>
       </c>
-      <c r="B147" s="130"/>
+      <c r="B147" s="129"/>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="92" t="s">
@@ -19102,10 +19128,10 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="133" t="s">
+      <c r="A157" s="131" t="s">
         <v>1638</v>
       </c>
-      <c r="B157" s="130"/>
+      <c r="B157" s="129"/>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="92" t="s">
@@ -19172,10 +19198,10 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="132" t="s">
+      <c r="A166" s="133" t="s">
         <v>1632</v>
       </c>
-      <c r="B166" s="130"/>
+      <c r="B166" s="129"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="92" t="s">
@@ -19234,10 +19260,10 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="133" t="s">
+      <c r="A176" s="131" t="s">
         <v>1651</v>
       </c>
-      <c r="B176" s="130"/>
+      <c r="B176" s="129"/>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="92" t="s">
@@ -19302,10 +19328,10 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="132" t="s">
+      <c r="A185" s="133" t="s">
         <v>1632</v>
       </c>
-      <c r="B185" s="130"/>
+      <c r="B185" s="129"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="92" t="s">
@@ -19413,6 +19439,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A185:B185"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
@@ -19425,11 +19456,6 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A185:B185"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -19641,10 +19667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>1694</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
@@ -19709,10 +19735,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="121" t="s">
         <v>1702</v>
       </c>
-      <c r="B12" s="120"/>
+      <c r="B12" s="119"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="28" t="s">
@@ -19751,7 +19777,7 @@
         <v>119</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
@@ -19759,7 +19785,7 @@
         <v>163</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -19775,7 +19801,7 @@
         <v>227</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1">
@@ -19811,10 +19837,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="121" t="s">
         <v>1706</v>
       </c>
-      <c r="B27" s="120"/>
+      <c r="B27" s="119"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28" t="s">
@@ -19849,10 +19875,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="121" t="s">
         <v>1710</v>
       </c>
-      <c r="B32" s="120"/>
+      <c r="B32" s="119"/>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="28" t="s">
@@ -19867,7 +19893,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1">
@@ -19895,10 +19921,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="121" t="s">
         <v>1717</v>
       </c>
-      <c r="B38" s="120"/>
+      <c r="B38" s="119"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="28" t="s">
@@ -19957,10 +19983,10 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="121" t="s">
         <v>1722</v>
       </c>
-      <c r="B48" s="120"/>
+      <c r="B48" s="119"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="28" t="s">
@@ -20027,7 +20053,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
@@ -20035,7 +20061,7 @@
         <v>163</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20089,7 +20115,7 @@
         <v>119</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45" customHeight="1">
@@ -20179,10 +20205,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1">
-      <c r="A78" s="122" t="s">
+      <c r="A78" s="121" t="s">
         <v>1736</v>
       </c>
-      <c r="B78" s="120"/>
+      <c r="B78" s="119"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="28" t="s">
@@ -20291,7 +20317,7 @@
         <v>119</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30" customHeight="1">
@@ -20389,10 +20415,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="122" t="s">
+      <c r="A108" s="121" t="s">
         <v>1755</v>
       </c>
-      <c r="B108" s="120"/>
+      <c r="B108" s="119"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="28" t="s">
@@ -20519,7 +20545,7 @@
         <v>163</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -20617,10 +20643,10 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="122" t="s">
+      <c r="A139" s="121" t="s">
         <v>1778</v>
       </c>
-      <c r="B139" s="120"/>
+      <c r="B139" s="119"/>
     </row>
     <row r="140" spans="1:2" ht="30" customHeight="1">
       <c r="A140" s="28" t="s">
@@ -20681,7 +20707,7 @@
         <v>119</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" customHeight="1">
@@ -20709,10 +20735,10 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="122" t="s">
+      <c r="A154" s="121" t="s">
         <v>1784</v>
       </c>
-      <c r="B154" s="120"/>
+      <c r="B154" s="119"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="28" t="s">
@@ -20763,10 +20789,10 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="122" t="s">
+      <c r="A161" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B161" s="120"/>
+      <c r="B161" s="119"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="28" t="s">
@@ -20825,10 +20851,10 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="122" t="s">
+      <c r="A171" s="121" t="s">
         <v>1792</v>
       </c>
-      <c r="B171" s="120"/>
+      <c r="B171" s="119"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="28" t="s">
@@ -20879,10 +20905,10 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="122" t="s">
+      <c r="A178" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B178" s="120"/>
+      <c r="B178" s="119"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="28" t="s">
@@ -20941,10 +20967,10 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="122" t="s">
+      <c r="A189" s="121" t="s">
         <v>1800</v>
       </c>
-      <c r="B189" s="120"/>
+      <c r="B189" s="119"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="28" t="s">
@@ -20995,10 +21021,10 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="122" t="s">
+      <c r="A196" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B196" s="120"/>
+      <c r="B196" s="119"/>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="28" t="s">
@@ -21073,10 +21099,10 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="122" t="s">
+      <c r="A208" s="121" t="s">
         <v>1808</v>
       </c>
-      <c r="B208" s="120"/>
+      <c r="B208" s="119"/>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="28" t="s">
@@ -21143,10 +21169,10 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="122" t="s">
+      <c r="A217" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B217" s="120"/>
+      <c r="B217" s="119"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="28" t="s">
@@ -21206,7 +21232,7 @@
       <c r="A225" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B225" s="120"/>
+      <c r="B225" s="119"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="28" t="s">
@@ -21217,10 +21243,10 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="122" t="s">
+      <c r="A230" s="121" t="s">
         <v>1817</v>
       </c>
-      <c r="B230" s="120"/>
+      <c r="B230" s="119"/>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="28" t="s">
@@ -21287,10 +21313,10 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="122" t="s">
+      <c r="A239" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B239" s="120"/>
+      <c r="B239" s="119"/>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="28" t="s">
@@ -21328,7 +21354,7 @@
       <c r="A244" s="127" t="s">
         <v>993</v>
       </c>
-      <c r="B244" s="120"/>
+      <c r="B244" s="119"/>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="28" t="s">
@@ -21390,7 +21416,7 @@
       <c r="A252" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B252" s="120"/>
+      <c r="B252" s="119"/>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="28" t="s">
@@ -21401,10 +21427,10 @@
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="122" t="s">
+      <c r="A256" s="121" t="s">
         <v>1832</v>
       </c>
-      <c r="B256" s="120"/>
+      <c r="B256" s="119"/>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="28" t="s">
@@ -21471,10 +21497,10 @@
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="122" t="s">
+      <c r="A265" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B265" s="120"/>
+      <c r="B265" s="119"/>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="28" t="s">
@@ -21534,7 +21560,7 @@
       <c r="A273" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B273" s="120"/>
+      <c r="B273" s="119"/>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="28" t="s">
@@ -21545,10 +21571,10 @@
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="122" t="s">
+      <c r="A277" s="121" t="s">
         <v>1841</v>
       </c>
-      <c r="B277" s="120"/>
+      <c r="B277" s="119"/>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="28" t="s">
@@ -21615,10 +21641,10 @@
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="122" t="s">
+      <c r="A286" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B286" s="120"/>
+      <c r="B286" s="119"/>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="28" t="s">
@@ -21678,7 +21704,7 @@
       <c r="A294" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B294" s="120"/>
+      <c r="B294" s="119"/>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="28" t="s">
@@ -21689,10 +21715,10 @@
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="122" t="s">
+      <c r="A298" s="121" t="s">
         <v>1850</v>
       </c>
-      <c r="B298" s="120"/>
+      <c r="B298" s="119"/>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="28" t="s">
@@ -21759,10 +21785,10 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="122" t="s">
+      <c r="A307" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B307" s="120"/>
+      <c r="B307" s="119"/>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="28" t="s">
@@ -21797,10 +21823,10 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="135" t="s">
+      <c r="A312" s="134" t="s">
         <v>1858</v>
       </c>
-      <c r="B312" s="120"/>
+      <c r="B312" s="119"/>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="28" t="s">
@@ -21860,7 +21886,7 @@
       <c r="A320" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B320" s="120"/>
+      <c r="B320" s="119"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="28" t="s">
@@ -21879,10 +21905,10 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="122" t="s">
+      <c r="A325" s="121" t="s">
         <v>966</v>
       </c>
-      <c r="B325" s="120"/>
+      <c r="B325" s="119"/>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="28" t="s">
@@ -21933,10 +21959,10 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="122" t="s">
+      <c r="A332" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B332" s="120"/>
+      <c r="B332" s="119"/>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="28" t="s">
@@ -21995,10 +22021,10 @@
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="122" t="s">
+      <c r="A342" s="121" t="s">
         <v>983</v>
       </c>
-      <c r="B342" s="120"/>
+      <c r="B342" s="119"/>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="28" t="s">
@@ -22065,10 +22091,10 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="122" t="s">
+      <c r="A351" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B351" s="120"/>
+      <c r="B351" s="119"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="28" t="s">
@@ -22106,7 +22132,7 @@
       <c r="A356" s="127" t="s">
         <v>993</v>
       </c>
-      <c r="B356" s="120"/>
+      <c r="B356" s="119"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="28" t="s">
@@ -22166,7 +22192,7 @@
       <c r="A364" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B364" s="120"/>
+      <c r="B364" s="119"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="28" t="s">
@@ -22177,10 +22203,10 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="122" t="s">
+      <c r="A368" s="121" t="s">
         <v>1001</v>
       </c>
-      <c r="B368" s="120"/>
+      <c r="B368" s="119"/>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="28" t="s">
@@ -22247,10 +22273,10 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="122" t="s">
+      <c r="A377" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B377" s="120"/>
+      <c r="B377" s="119"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="28" t="s">
@@ -22309,10 +22335,10 @@
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="122" t="s">
+      <c r="A386" s="121" t="s">
         <v>1011</v>
       </c>
-      <c r="B386" s="120"/>
+      <c r="B386" s="119"/>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="28" t="s">
@@ -22379,10 +22405,10 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="122" t="s">
+      <c r="A395" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B395" s="120"/>
+      <c r="B395" s="119"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="28" t="s">
@@ -22441,10 +22467,10 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="122" t="s">
+      <c r="A405" s="121" t="s">
         <v>1019</v>
       </c>
-      <c r="B405" s="120"/>
+      <c r="B405" s="119"/>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="28" t="s">
@@ -22519,10 +22545,10 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="128" t="s">
+      <c r="A415" s="125" t="s">
         <v>1026</v>
       </c>
-      <c r="B415" s="120"/>
+      <c r="B415" s="119"/>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="28" t="s">
@@ -22565,10 +22591,10 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="122" t="s">
+      <c r="A421" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B421" s="120"/>
+      <c r="B421" s="119"/>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="28" t="s">
@@ -22627,10 +22653,10 @@
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="122" t="s">
+      <c r="A431" s="121" t="s">
         <v>1032</v>
       </c>
-      <c r="B431" s="120"/>
+      <c r="B431" s="119"/>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="28" t="s">
@@ -22690,10 +22716,10 @@
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="122" t="s">
+      <c r="A441" s="121" t="s">
         <v>1037</v>
       </c>
-      <c r="B441" s="120"/>
+      <c r="B441" s="119"/>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="28" t="s">
@@ -22760,10 +22786,10 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="122" t="s">
+      <c r="A450" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B450" s="120"/>
+      <c r="B450" s="119"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="28" t="s">
@@ -22825,7 +22851,7 @@
       <c r="A458" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B458" s="120"/>
+      <c r="B458" s="119"/>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="28" t="s">
@@ -22836,10 +22862,10 @@
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="122" t="s">
+      <c r="A462" s="121" t="s">
         <v>1047</v>
       </c>
-      <c r="B462" s="120"/>
+      <c r="B462" s="119"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="28" t="s">
@@ -22906,10 +22932,10 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="122" t="s">
+      <c r="A471" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B471" s="120"/>
+      <c r="B471" s="119"/>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="28" t="s">
@@ -22971,7 +22997,7 @@
       <c r="A479" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B479" s="120"/>
+      <c r="B479" s="119"/>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="28" t="s">
@@ -22982,10 +23008,10 @@
       </c>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="122" t="s">
+      <c r="A483" s="121" t="s">
         <v>1056</v>
       </c>
-      <c r="B483" s="120"/>
+      <c r="B483" s="119"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="28" t="s">
@@ -23055,10 +23081,10 @@
       </c>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="122" t="s">
+      <c r="A492" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B492" s="120"/>
+      <c r="B492" s="119"/>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="28" t="s">
@@ -23120,7 +23146,7 @@
       <c r="A500" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B500" s="120"/>
+      <c r="B500" s="119"/>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="28" t="s">
@@ -23131,10 +23157,10 @@
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="122" t="s">
+      <c r="A504" s="121" t="s">
         <v>1065</v>
       </c>
-      <c r="B504" s="120"/>
+      <c r="B504" s="119"/>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="28" t="s">
@@ -23201,10 +23227,10 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="122" t="s">
+      <c r="A513" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B513" s="120"/>
+      <c r="B513" s="119"/>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="28" t="s">
@@ -23258,7 +23284,7 @@
       <c r="A520" s="127" t="s">
         <v>998</v>
       </c>
-      <c r="B520" s="120"/>
+      <c r="B520" s="119"/>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="28" t="s">
@@ -23269,10 +23295,10 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="122" t="s">
+      <c r="A522" s="121" t="s">
         <v>1074</v>
       </c>
-      <c r="B522" s="120"/>
+      <c r="B522" s="119"/>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="28" t="s">
@@ -23397,10 +23423,10 @@
       <c r="B541" s="62"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="122" t="s">
+      <c r="A544" s="121" t="s">
         <v>1065</v>
       </c>
-      <c r="B544" s="120"/>
+      <c r="B544" s="119"/>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="28" t="s">
@@ -23459,10 +23485,10 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="122" t="s">
+      <c r="A552" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B552" s="120"/>
+      <c r="B552" s="119"/>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="28" t="s">
@@ -23513,10 +23539,10 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="122" t="s">
+      <c r="A561" s="121" t="s">
         <v>1105</v>
       </c>
-      <c r="B561" s="120"/>
+      <c r="B561" s="119"/>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="28" t="s">
@@ -23583,10 +23609,10 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="122" t="s">
+      <c r="A570" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B570" s="120"/>
+      <c r="B570" s="119"/>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="28" t="s">
@@ -23640,7 +23666,7 @@
       <c r="A577" s="127" t="s">
         <v>1113</v>
       </c>
-      <c r="B577" s="120"/>
+      <c r="B577" s="119"/>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="28" t="s">
@@ -23735,10 +23761,10 @@
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="122" t="s">
+      <c r="A596" s="121" t="s">
         <v>1128</v>
       </c>
-      <c r="B596" s="120"/>
+      <c r="B596" s="119"/>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="28" t="s">
@@ -23805,10 +23831,10 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="122" t="s">
+      <c r="A605" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B605" s="120"/>
+      <c r="B605" s="119"/>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="28" t="s">
@@ -23862,7 +23888,7 @@
       <c r="A612" s="127" t="s">
         <v>1136</v>
       </c>
-      <c r="B612" s="120"/>
+      <c r="B612" s="119"/>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="28" t="s">
@@ -23999,10 +24025,10 @@
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="122" t="s">
+      <c r="A638" s="121" t="s">
         <v>1158</v>
       </c>
-      <c r="B638" s="120"/>
+      <c r="B638" s="119"/>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="28" t="s">
@@ -24069,10 +24095,10 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="122" t="s">
+      <c r="A647" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B647" s="120"/>
+      <c r="B647" s="119"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="28" t="s">
@@ -24137,10 +24163,10 @@
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="122" t="s">
+      <c r="A658" s="121" t="s">
         <v>1168</v>
       </c>
-      <c r="B658" s="120"/>
+      <c r="B658" s="119"/>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="28" t="s">
@@ -24207,10 +24233,10 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="122" t="s">
+      <c r="A667" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B667" s="120"/>
+      <c r="B667" s="119"/>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="28" t="s">
@@ -24275,10 +24301,10 @@
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="122" t="s">
+      <c r="A678" s="121" t="s">
         <v>1177</v>
       </c>
-      <c r="B678" s="120"/>
+      <c r="B678" s="119"/>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="28" t="s">
@@ -24345,10 +24371,10 @@
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="122" t="s">
+      <c r="A687" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B687" s="120"/>
+      <c r="B687" s="119"/>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="28" t="s">
@@ -24411,10 +24437,10 @@
       <c r="B695" s="28"/>
     </row>
     <row r="698" spans="1:2">
-      <c r="A698" s="122" t="s">
+      <c r="A698" s="121" t="s">
         <v>1954</v>
       </c>
-      <c r="B698" s="120"/>
+      <c r="B698" s="119"/>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="28" t="s">
@@ -24481,10 +24507,10 @@
       </c>
     </row>
     <row r="707" spans="1:2">
-      <c r="A707" s="122" t="s">
+      <c r="A707" s="121" t="s">
         <v>1958</v>
       </c>
-      <c r="B707" s="120"/>
+      <c r="B707" s="119"/>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="28" t="s">
@@ -24546,7 +24572,7 @@
       <c r="A715" s="127" t="s">
         <v>1963</v>
       </c>
-      <c r="B715" s="120"/>
+      <c r="B715" s="119"/>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="28" t="s">
@@ -24589,10 +24615,10 @@
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="122" t="s">
+      <c r="A722" s="121" t="s">
         <v>1969</v>
       </c>
-      <c r="B722" s="120"/>
+      <c r="B722" s="119"/>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="28" t="s">
@@ -24659,10 +24685,10 @@
       </c>
     </row>
     <row r="731" spans="1:2">
-      <c r="A731" s="122" t="s">
+      <c r="A731" s="121" t="s">
         <v>1958</v>
       </c>
-      <c r="B731" s="120"/>
+      <c r="B731" s="119"/>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="28" t="s">
@@ -24724,7 +24750,7 @@
       <c r="A739" s="127" t="s">
         <v>1963</v>
       </c>
-      <c r="B739" s="120"/>
+      <c r="B739" s="119"/>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="28" t="s">
@@ -24767,10 +24793,10 @@
       </c>
     </row>
     <row r="747" spans="1:2">
-      <c r="A747" s="122" t="s">
+      <c r="A747" s="121" t="s">
         <v>1982</v>
       </c>
-      <c r="B747" s="120"/>
+      <c r="B747" s="119"/>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="28" t="s">
@@ -24821,10 +24847,10 @@
       </c>
     </row>
     <row r="754" spans="1:2">
-      <c r="A754" s="122" t="s">
+      <c r="A754" s="121" t="s">
         <v>1958</v>
       </c>
-      <c r="B754" s="120"/>
+      <c r="B754" s="119"/>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="28" t="s">
@@ -24875,10 +24901,10 @@
       </c>
     </row>
     <row r="763" spans="1:2">
-      <c r="A763" s="122" t="s">
+      <c r="A763" s="121" t="s">
         <v>1990</v>
       </c>
-      <c r="B763" s="120"/>
+      <c r="B763" s="119"/>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="28" t="s">
@@ -24929,10 +24955,10 @@
       </c>
     </row>
     <row r="770" spans="1:2">
-      <c r="A770" s="122" t="s">
+      <c r="A770" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B770" s="120"/>
+      <c r="B770" s="119"/>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="28" t="s">
@@ -24983,10 +25009,10 @@
       </c>
     </row>
     <row r="779" spans="1:2">
-      <c r="A779" s="122" t="s">
+      <c r="A779" s="121" t="s">
         <v>1998</v>
       </c>
-      <c r="B779" s="120"/>
+      <c r="B779" s="119"/>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="28" t="s">
@@ -25037,10 +25063,10 @@
       </c>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="122" t="s">
+      <c r="A786" s="121" t="s">
         <v>971</v>
       </c>
-      <c r="B786" s="120"/>
+      <c r="B786" s="119"/>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="28" t="s">
@@ -25100,13 +25126,72 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A786:B786"/>
-    <mergeCell ref="A739:B739"/>
-    <mergeCell ref="A747:B747"/>
-    <mergeCell ref="A754:B754"/>
-    <mergeCell ref="A763:B763"/>
-    <mergeCell ref="A770:B770"/>
-    <mergeCell ref="A779:B779"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="A596:B596"/>
     <mergeCell ref="A731:B731"/>
     <mergeCell ref="A612:B612"/>
     <mergeCell ref="A638:B638"/>
@@ -25119,72 +25204,13 @@
     <mergeCell ref="A707:B707"/>
     <mergeCell ref="A715:B715"/>
     <mergeCell ref="A722:B722"/>
-    <mergeCell ref="A605:B605"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A786:B786"/>
+    <mergeCell ref="A739:B739"/>
+    <mergeCell ref="A747:B747"/>
+    <mergeCell ref="A754:B754"/>
+    <mergeCell ref="A763:B763"/>
+    <mergeCell ref="A770:B770"/>
+    <mergeCell ref="A779:B779"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="emailLR_7_@gr.com"/>
@@ -25313,12 +25339,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>2008</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="91" t="s">
@@ -25359,7 +25385,7 @@
       <c r="B6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="104"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="91" t="s">
@@ -25378,10 +25404,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="130" t="s">
         <v>2014</v>
       </c>
-      <c r="B10" s="130"/>
+      <c r="B10" s="129"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="91" t="s">
@@ -25432,10 +25458,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="130" t="s">
         <v>2018</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="91" t="s">
@@ -25542,10 +25568,10 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="130" t="s">
         <v>2034</v>
       </c>
-      <c r="B33" s="130"/>
+      <c r="B33" s="129"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="91" t="s">
@@ -25636,10 +25662,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="136" t="s">
+      <c r="A46" s="135" t="s">
         <v>2053</v>
       </c>
-      <c r="B46" s="130"/>
+      <c r="B46" s="129"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="91" t="s">
@@ -25677,7 +25703,7 @@
       <c r="A51" s="91" t="s">
         <v>938</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="105" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -25685,7 +25711,7 @@
       <c r="A52" s="91" t="s">
         <v>939</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="105" t="s">
         <v>2057</v>
       </c>
     </row>
@@ -25714,7 +25740,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="107" t="s">
+      <c r="A56" s="106" t="s">
         <v>1670</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -25780,10 +25806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>2064</v>
       </c>
-      <c r="B1" s="138"/>
+      <c r="B1" s="137"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="91" t="s">
@@ -25934,60 +25960,58 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="104" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="104" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="104" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="104" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="104" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="104" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="104" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" style="104" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="104"/>
+    <col min="1" max="1" width="19.5703125" style="111" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="111" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="111" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="111" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="111" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="111" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="111" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="111" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="111" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="111" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" style="111" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="111" t="s">
         <v>2089</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="111" t="s">
         <v>2090</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="111" t="s">
         <v>2091</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="111" t="s">
         <v>2092</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="111" t="s">
         <v>2093</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="111" t="s">
         <v>2094</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="111" t="s">
         <v>2095</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="111" t="s">
         <v>2096</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="109" t="s">
         <v>2097</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="111" t="s">
         <v>2098</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="111" t="s">
         <v>2099</v>
       </c>
     </row>
@@ -25996,38 +26020,69 @@
         <v>2100</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>2101</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="110" t="s">
         <v>2102</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="E2" s="110" t="s">
         <v>2103</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="F2" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>2104</v>
       </c>
-      <c r="F2" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>2105</v>
-      </c>
       <c r="H2" s="37" t="s">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="J10" s="108"/>
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="111" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="111" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C5" s="37">
+        <v>7</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>2120</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26222,10 +26277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
@@ -26248,10 +26303,10 @@
       <c r="B4" s="8"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="113"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -26298,10 +26353,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="114"/>
+      <c r="B14" s="113"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
@@ -26316,7 +26371,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -26328,10 +26383,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="113"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
@@ -26346,7 +26401,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -26362,10 +26417,10 @@
       <c r="B24" s="8"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="114"/>
+      <c r="B26" s="113"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
@@ -26380,7 +26435,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -26436,14 +26491,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="114"/>
+      <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -26464,7 +26519,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>75</v>
@@ -26502,14 +26557,14 @@
       <c r="B7" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="113"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
@@ -26530,7 +26585,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>86</v>
@@ -26580,14 +26635,14 @@
       <c r="B16" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="114"/>
+      <c r="D18" s="113"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
@@ -26608,13 +26663,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -26650,14 +26705,14 @@
       <c r="B24" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="114"/>
+      <c r="D26" s="113"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
@@ -26678,13 +26733,13 @@
         <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -26724,14 +26779,14 @@
       <c r="B32" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115" t="s">
+      <c r="B34" s="113"/>
+      <c r="C34" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="114"/>
+      <c r="D34" s="113"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
@@ -26752,13 +26807,13 @@
         <v>74</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -26798,14 +26853,14 @@
       <c r="B40" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="115" t="s">
+      <c r="B43" s="113"/>
+      <c r="C43" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="114"/>
+      <c r="D43" s="113"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
@@ -26826,7 +26881,7 @@
         <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>116</v>
@@ -26846,7 +26901,7 @@
         <v>119</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -26888,14 +26943,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="115" t="s">
+      <c r="B52" s="113"/>
+      <c r="C52" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="114"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="57" customHeight="1">
@@ -26920,13 +26975,13 @@
         <v>74</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="E54" s="8">
         <v>200</v>
@@ -26943,7 +26998,7 @@
         <v>132</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E55" s="7"/>
     </row>
@@ -26989,14 +27044,14 @@
       <c r="E58" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="115" t="s">
+      <c r="B60" s="113"/>
+      <c r="C60" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="114"/>
+      <c r="D60" s="113"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
@@ -27017,7 +27072,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>137</v>
@@ -27037,7 +27092,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -27092,11 +27147,11 @@
       <c r="A70" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="115" t="s">
+      <c r="B70" s="113"/>
+      <c r="C70" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="114"/>
+      <c r="D70" s="113"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="7" t="s">
@@ -27117,7 +27172,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>75</v>
@@ -27133,10 +27188,10 @@
       <c r="B73" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="115" t="s">
+      <c r="C73" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="114"/>
+      <c r="D73" s="113"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="7" t="s">
@@ -27163,7 +27218,7 @@
         <v>152</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -27182,11 +27237,11 @@
       <c r="A79" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="115" t="s">
+      <c r="B79" s="113"/>
+      <c r="C79" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="114"/>
+      <c r="D79" s="113"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="7" t="s">
@@ -27207,13 +27262,13 @@
         <v>74</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="37.5">
@@ -27223,10 +27278,10 @@
       <c r="B82" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="115" t="s">
+      <c r="C82" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="114"/>
+      <c r="D82" s="113"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="7" t="s">
@@ -27253,7 +27308,7 @@
         <v>163</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -27267,14 +27322,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="113" t="s">
+      <c r="B88" s="113"/>
+      <c r="C88" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="114"/>
+      <c r="D88" s="113"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="7" t="s">
@@ -27295,13 +27350,13 @@
         <v>74</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="37.5">
@@ -27325,10 +27380,10 @@
       <c r="B92" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="113" t="s">
+      <c r="C92" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="114"/>
+      <c r="D92" s="113"/>
     </row>
     <row r="93" spans="1:4" ht="38.1" customHeight="1">
       <c r="A93" s="7" t="s">
@@ -27351,7 +27406,7 @@
         <v>172</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -27367,10 +27422,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="113" t="s">
+      <c r="C96" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="114"/>
+      <c r="D96" s="113"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="7"/>
@@ -27413,14 +27468,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="116" t="s">
+      <c r="A103" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="B103" s="114"/>
-      <c r="C103" s="113" t="s">
+      <c r="B103" s="113"/>
+      <c r="C103" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="114"/>
+      <c r="D103" s="113"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="7" t="s">
@@ -27441,12 +27496,12 @@
         <v>74</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>2109</v>
-      </c>
-      <c r="C105" s="115" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C105" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="114"/>
+      <c r="D105" s="113"/>
     </row>
     <row r="106" spans="1:4" ht="38.1" customHeight="1">
       <c r="A106" s="7" t="s">
@@ -27497,7 +27552,7 @@
         <v>74</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="38.1" customHeight="1">
@@ -27507,7 +27562,7 @@
         <v>130</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -27527,7 +27582,7 @@
         <v>172</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -27561,14 +27616,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="116" t="s">
+      <c r="A118" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="114"/>
-      <c r="C118" s="113" t="s">
+      <c r="B118" s="113"/>
+      <c r="C118" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="D118" s="114"/>
+      <c r="D118" s="113"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
@@ -27589,7 +27644,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>186</v>
@@ -27609,7 +27664,7 @@
         <v>74</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="38.1" customHeight="1">
@@ -27623,7 +27678,7 @@
         <v>130</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="37.5">
@@ -27647,14 +27702,14 @@
         <v>172</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="118" t="s">
+      <c r="A125" s="116" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="114"/>
+      <c r="B125" s="113"/>
       <c r="C125" s="7" t="s">
         <v>52</v>
       </c>
@@ -27701,14 +27756,14 @@
       <c r="D128" s="8"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="116" t="s">
+      <c r="A131" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="114"/>
-      <c r="C131" s="113" t="s">
+      <c r="B131" s="113"/>
+      <c r="C131" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D131" s="114"/>
+      <c r="D131" s="113"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="7" t="s">
@@ -27729,13 +27784,13 @@
         <v>74</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="38.1" customHeight="1">
@@ -27749,7 +27804,7 @@
         <v>130</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -27777,7 +27832,7 @@
         <v>172</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -27839,14 +27894,14 @@
       <c r="D141" s="7"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="116" t="s">
+      <c r="A144" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="114"/>
-      <c r="C144" s="113" t="s">
+      <c r="B144" s="113"/>
+      <c r="C144" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D144" s="114"/>
+      <c r="D144" s="113"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="7" t="s">
@@ -27867,13 +27922,13 @@
         <v>74</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="38.1" customHeight="1">
@@ -27887,7 +27942,7 @@
         <v>130</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -27973,14 +28028,14 @@
       <c r="D154" s="7"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="116" t="s">
+      <c r="A157" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="B157" s="114"/>
-      <c r="C157" s="113" t="s">
+      <c r="B157" s="113"/>
+      <c r="C157" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D157" s="114"/>
+      <c r="D157" s="113"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="7" t="s">
@@ -28001,13 +28056,13 @@
         <v>74</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="38.1" customHeight="1">
@@ -28021,7 +28076,7 @@
         <v>130</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -28049,7 +28104,7 @@
         <v>227</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -28114,6 +28169,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -28124,34 +28207,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28228,19 +28283,19 @@
         <v>247</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>248</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="I2" s="33" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>2108</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -28777,8 +28832,8 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="110" t="s">
-        <v>2112</v>
+      <c r="A57" s="108" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -28801,10 +28856,10 @@
       <c r="C60" s="103" t="s">
         <v>2079</v>
       </c>
-      <c r="D60" s="109" t="s">
+      <c r="D60" s="107" t="s">
         <v>2080</v>
       </c>
-      <c r="E60" s="109" t="s">
+      <c r="E60" s="107" t="s">
         <v>2081</v>
       </c>
       <c r="F60" s="103" t="s">
@@ -28837,8 +28892,8 @@
       </c>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="110" t="s">
-        <v>2109</v>
+      <c r="D75" s="108" t="s">
+        <v>2106</v>
       </c>
     </row>
   </sheetData>
@@ -29406,18 +29461,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="119"/>
+      <c r="D1" s="118" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="G1" s="121" t="s">
+      <c r="E1" s="119"/>
+      <c r="G1" s="118" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="120"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -29486,14 +29541,14 @@
       <c r="B5" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="G5" s="122" t="s">
+      <c r="E5" s="119"/>
+      <c r="G5" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="28" t="s">
@@ -29532,7 +29587,7 @@
         <v>119</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -29618,16 +29673,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="119"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="118" t="s">
         <v>492</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="119"/>
       <c r="D16" s="28" t="s">
         <v>455</v>
       </c>
@@ -29670,16 +29725,16 @@
       <c r="B19" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="119"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="119"/>
       <c r="D20" s="28" t="s">
         <v>71</v>
       </c>
@@ -29698,7 +29753,7 @@
         <v>119</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
@@ -29706,7 +29761,7 @@
         <v>501</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>77</v>
@@ -29734,16 +29789,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="120"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="118" t="s">
         <v>504</v>
       </c>
-      <c r="B26" s="120"/>
+      <c r="B26" s="119"/>
       <c r="D26" s="28" t="s">
         <v>45</v>
       </c>
@@ -29762,7 +29817,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -29782,14 +29837,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="119"/>
+      <c r="D30" s="118" t="s">
         <v>509</v>
       </c>
-      <c r="E30" s="120"/>
+      <c r="E30" s="119"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="28" t="s">
@@ -29810,7 +29865,7 @@
         <v>512</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>460</v>
@@ -29834,16 +29889,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E34" s="120"/>
+      <c r="E34" s="119"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="118" t="s">
         <v>515</v>
       </c>
-      <c r="B35" s="120"/>
+      <c r="B35" s="119"/>
       <c r="D35" s="28" t="s">
         <v>71</v>
       </c>
@@ -29862,7 +29917,7 @@
         <v>119</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -29894,10 +29949,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B39" s="120"/>
+      <c r="B39" s="119"/>
       <c r="D39" s="28" t="s">
         <v>485</v>
       </c>
@@ -29912,17 +29967,17 @@
       <c r="B40" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="E40" s="120"/>
+      <c r="E40" s="119"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="28" t="s">
         <v>512</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>45</v>
@@ -29942,7 +29997,7 @@
         <v>524</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -29954,10 +30009,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="118" t="s">
         <v>525</v>
       </c>
-      <c r="B44" s="120"/>
+      <c r="B44" s="119"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="28" t="s">
@@ -29974,10 +30029,10 @@
       <c r="B46" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="118" t="s">
         <v>528</v>
       </c>
-      <c r="E46" s="120"/>
+      <c r="E46" s="119"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="28" t="s">
@@ -29994,10 +30049,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B48" s="120"/>
+      <c r="B48" s="119"/>
       <c r="D48" s="28" t="s">
         <v>460</v>
       </c>
@@ -30026,10 +30081,10 @@
       <c r="B50" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="D50" s="122" t="s">
+      <c r="D50" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E50" s="120"/>
+      <c r="E50" s="119"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="28" t="s">
@@ -30056,7 +30111,7 @@
         <v>119</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
@@ -30082,10 +30137,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="118" t="s">
         <v>539</v>
       </c>
-      <c r="B55" s="120"/>
+      <c r="B55" s="119"/>
       <c r="D55" s="28" t="s">
         <v>485</v>
       </c>
@@ -30100,10 +30155,10 @@
       <c r="B56" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D56" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="E56" s="120"/>
+      <c r="E56" s="119"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="28" t="s">
@@ -30130,14 +30185,14 @@
         <v>545</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B59" s="120"/>
+      <c r="B59" s="119"/>
       <c r="D59" s="28" t="s">
         <v>111</v>
       </c>
@@ -30166,19 +30221,19 @@
         <v>152</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D62" s="121" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D62" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="E62" s="120"/>
+      <c r="E62" s="119"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1">
       <c r="A63" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>455</v>
@@ -30206,7 +30261,7 @@
         <v>227</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>81</v>
@@ -30258,14 +30313,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="119" t="s">
+      <c r="A69" s="120" t="s">
         <v>555</v>
       </c>
-      <c r="B69" s="120"/>
-      <c r="D69" s="122" t="s">
+      <c r="B69" s="119"/>
+      <c r="D69" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E69" s="120"/>
+      <c r="E69" s="119"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="28" t="s">
@@ -30292,7 +30347,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1">
@@ -30326,10 +30381,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="121" t="s">
+      <c r="A75" s="118" t="s">
         <v>562</v>
       </c>
-      <c r="B75" s="120"/>
+      <c r="B75" s="119"/>
       <c r="D75" s="101" t="s">
         <v>469</v>
       </c>
@@ -30378,10 +30433,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="121" t="s">
+      <c r="A79" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B79" s="120"/>
+      <c r="B79" s="119"/>
       <c r="D79" s="28" t="s">
         <v>570</v>
       </c>
@@ -30410,12 +30465,12 @@
         <v>152</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D82" s="121" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D82" s="118" t="s">
         <v>573</v>
       </c>
-      <c r="E82" s="120"/>
+      <c r="E82" s="119"/>
       <c r="F82" s="30" t="s">
         <v>574</v>
       </c>
@@ -30478,10 +30533,10 @@
       <c r="B86" s="28">
         <v>50</v>
       </c>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E86" s="120"/>
+      <c r="E86" s="119"/>
       <c r="F86" s="31" t="s">
         <v>470</v>
       </c>
@@ -30502,15 +30557,15 @@
         <v>119</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="121" t="s">
+      <c r="A89" s="118" t="s">
         <v>584</v>
       </c>
-      <c r="B89" s="120"/>
+      <c r="B89" s="119"/>
       <c r="D89" s="28" t="s">
         <v>77</v>
       </c>
@@ -30560,19 +30615,19 @@
       <c r="B92" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="D92" s="122" t="s">
+      <c r="D92" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="E92" s="120"/>
+      <c r="E92" s="119"/>
       <c r="F92" s="31" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="121" t="s">
+      <c r="A93" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="B93" s="120"/>
+      <c r="B93" s="119"/>
       <c r="D93" s="28" t="s">
         <v>45</v>
       </c>
@@ -30608,7 +30663,7 @@
         <v>119</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
@@ -30616,13 +30671,13 @@
         <v>163</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>524</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -30650,7 +30705,7 @@
         <v>545</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -30726,10 +30781,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="119" t="s">
+      <c r="A105" s="120" t="s">
         <v>600</v>
       </c>
-      <c r="B105" s="120"/>
+      <c r="B105" s="119"/>
       <c r="D105" s="28" t="s">
         <v>601</v>
       </c>
@@ -30752,10 +30807,10 @@
       <c r="B107" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="D107" s="121" t="s">
+      <c r="D107" s="118" t="s">
         <v>604</v>
       </c>
-      <c r="E107" s="120"/>
+      <c r="E107" s="119"/>
     </row>
     <row r="108" spans="1:5" ht="30" customHeight="1">
       <c r="A108" s="28" t="s">
@@ -30800,10 +30855,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="119" t="s">
+      <c r="A111" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B111" s="120"/>
+      <c r="B111" s="119"/>
       <c r="D111" s="28" t="s">
         <v>598</v>
       </c>
@@ -30830,7 +30885,7 @@
         <v>163</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D113" s="28" t="s">
         <v>599</v>
@@ -30846,17 +30901,17 @@
       <c r="B114" s="28">
         <v>200</v>
       </c>
-      <c r="D114" s="122" t="s">
+      <c r="D114" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E114" s="120"/>
+      <c r="E114" s="119"/>
     </row>
     <row r="115" spans="1:5" ht="30" customHeight="1">
       <c r="A115" s="28" t="s">
         <v>227</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D115" s="28" t="s">
         <v>71</v>
@@ -30876,7 +30931,7 @@
         <v>119</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" customHeight="1">
@@ -30922,10 +30977,10 @@
       <c r="E120" s="90"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="119" t="s">
+      <c r="A121" s="120" t="s">
         <v>613</v>
       </c>
-      <c r="B121" s="120"/>
+      <c r="B121" s="119"/>
       <c r="D121" s="28" t="s">
         <v>45</v>
       </c>
@@ -30958,7 +31013,7 @@
         <v>119</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" customHeight="1">
@@ -30976,10 +31031,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="119" t="s">
+      <c r="A125" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B125" s="120"/>
+      <c r="B125" s="119"/>
       <c r="D125" s="28" t="s">
         <v>568</v>
       </c>
@@ -31022,12 +31077,12 @@
         <v>152</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D129" s="121" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D129" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="E129" s="120"/>
+      <c r="E129" s="119"/>
     </row>
     <row r="130" spans="1:5" ht="30" customHeight="1">
       <c r="D130" s="28" t="s">
@@ -31046,10 +31101,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="119" t="s">
+      <c r="A132" s="120" t="s">
         <v>626</v>
       </c>
-      <c r="B132" s="120"/>
+      <c r="B132" s="119"/>
       <c r="D132" s="28" t="s">
         <v>81</v>
       </c>
@@ -31100,14 +31155,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="119" t="s">
+      <c r="A136" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B136" s="120"/>
-      <c r="D136" s="122" t="s">
+      <c r="B136" s="119"/>
+      <c r="D136" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E136" s="120"/>
+      <c r="E136" s="119"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="28" t="s">
@@ -31128,13 +31183,13 @@
         <v>186</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D138" s="28" t="s">
         <v>119</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" customHeight="1">
@@ -31156,7 +31211,7 @@
         <v>524</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>376</v>
@@ -31194,10 +31249,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="119" t="s">
+      <c r="A144" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="B144" s="120"/>
+      <c r="B144" s="119"/>
       <c r="D144" s="28" t="s">
         <v>137</v>
       </c>
@@ -31216,7 +31271,7 @@
         <v>524</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -31248,10 +31303,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="119" t="s">
+      <c r="A148" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B148" s="120"/>
+      <c r="B148" s="119"/>
       <c r="D148" s="28" t="s">
         <v>568</v>
       </c>
@@ -31278,7 +31333,7 @@
         <v>524</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -31296,17 +31351,17 @@
       <c r="B152" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="D152" s="121" t="s">
+      <c r="D152" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="E152" s="120"/>
+      <c r="E152" s="119"/>
     </row>
     <row r="153" spans="1:5" ht="30" customHeight="1">
       <c r="A153" s="28" t="s">
         <v>545</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>455</v>
@@ -31392,10 +31447,10 @@
       <c r="B159" s="28">
         <v>60</v>
       </c>
-      <c r="D159" s="122" t="s">
+      <c r="D159" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E159" s="120"/>
+      <c r="E159" s="119"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="28" t="s">
@@ -31410,14 +31465,14 @@
         <v>119</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="119" t="s">
+      <c r="A162" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="B162" s="120"/>
+      <c r="B162" s="119"/>
       <c r="D162" s="28" t="s">
         <v>77</v>
       </c>
@@ -31494,15 +31549,15 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" customHeight="1">
-      <c r="A168" s="119" t="s">
+      <c r="A168" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B168" s="120"/>
+      <c r="B168" s="119"/>
       <c r="D168" s="28" t="s">
         <v>524</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -31530,7 +31585,7 @@
         <v>227</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -31566,7 +31621,7 @@
         <v>119</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>568</v>
@@ -31580,7 +31635,7 @@
         <v>524</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>570</v>
@@ -31604,7 +31659,7 @@
         <v>545</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -31622,10 +31677,10 @@
       <c r="B178" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D178" s="121" t="s">
+      <c r="D178" s="118" t="s">
         <v>661</v>
       </c>
-      <c r="E178" s="120"/>
+      <c r="E178" s="119"/>
     </row>
     <row r="179" spans="1:5" ht="30" customHeight="1">
       <c r="A179" s="28" t="s">
@@ -31658,10 +31713,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="119" t="s">
+      <c r="A182" s="120" t="s">
         <v>665</v>
       </c>
-      <c r="B182" s="120"/>
+      <c r="B182" s="119"/>
       <c r="D182" s="28" t="s">
         <v>598</v>
       </c>
@@ -31704,10 +31759,10 @@
       <c r="B185" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="D185" s="122" t="s">
+      <c r="D185" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="E185" s="120"/>
+      <c r="E185" s="119"/>
     </row>
     <row r="186" spans="1:5" ht="30" customHeight="1">
       <c r="A186" s="28" t="s">
@@ -31734,14 +31789,14 @@
         <v>119</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30" customHeight="1">
-      <c r="A188" s="119" t="s">
+      <c r="A188" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B188" s="120"/>
+      <c r="B188" s="119"/>
       <c r="D188" s="28" t="s">
         <v>77</v>
       </c>
@@ -31822,7 +31877,7 @@
         <v>119</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D194" s="28" t="s">
         <v>621</v>
@@ -31836,13 +31891,13 @@
         <v>524</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D195" s="28" t="s">
         <v>119</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -31858,7 +31913,7 @@
         <v>545</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1">
@@ -31868,10 +31923,10 @@
       <c r="B198" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D198" s="121" t="s">
+      <c r="D198" s="118" t="s">
         <v>681</v>
       </c>
-      <c r="E198" s="120"/>
+      <c r="E198" s="119"/>
     </row>
     <row r="199" spans="1:5" ht="30" customHeight="1">
       <c r="A199" s="28" t="s">
@@ -31924,10 +31979,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="119" t="s">
+      <c r="A203" s="120" t="s">
         <v>686</v>
       </c>
-      <c r="B203" s="120"/>
+      <c r="B203" s="119"/>
       <c r="D203" s="101" t="s">
         <v>470</v>
       </c>
@@ -31958,7 +32013,7 @@
         <v>119</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30" customHeight="1">
@@ -32004,10 +32059,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="119" t="s">
+      <c r="A209" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B209" s="120"/>
+      <c r="B209" s="119"/>
       <c r="D209" s="101" t="s">
         <v>469</v>
       </c>
@@ -32038,7 +32093,7 @@
         <v>119</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30" customHeight="1">
@@ -32066,7 +32121,7 @@
         <v>163</v>
       </c>
       <c r="E213" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -32088,7 +32143,7 @@
         <v>119</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" customHeight="1">
@@ -32096,7 +32151,7 @@
         <v>524</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1">
@@ -32106,10 +32161,10 @@
       <c r="B217" s="28">
         <v>200</v>
       </c>
-      <c r="D217" s="121" t="s">
+      <c r="D217" s="118" t="s">
         <v>700</v>
       </c>
-      <c r="E217" s="120"/>
+      <c r="E217" s="119"/>
     </row>
     <row r="218" spans="1:5" ht="30" customHeight="1">
       <c r="A218" s="28" t="s">
@@ -32168,10 +32223,10 @@
       <c r="E222" s="90"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="119" t="s">
+      <c r="A223" s="120" t="s">
         <v>704</v>
       </c>
-      <c r="B223" s="120"/>
+      <c r="B223" s="119"/>
       <c r="D223" s="28" t="s">
         <v>71</v>
       </c>
@@ -32190,7 +32245,7 @@
         <v>119</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="30" customHeight="1">
@@ -32248,10 +32303,10 @@
       <c r="E228" s="90"/>
     </row>
     <row r="229" spans="1:5" ht="30" customHeight="1">
-      <c r="A229" s="119" t="s">
+      <c r="A229" s="120" t="s">
         <v>469</v>
       </c>
-      <c r="B229" s="120"/>
+      <c r="B229" s="119"/>
       <c r="D229" s="28" t="s">
         <v>677</v>
       </c>
@@ -32270,7 +32325,7 @@
         <v>163</v>
       </c>
       <c r="E230" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="30">
@@ -32312,7 +32367,7 @@
         <v>227</v>
       </c>
       <c r="E233" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -32334,7 +32389,7 @@
         <v>119</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>646</v>
@@ -32348,7 +32403,7 @@
         <v>524</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D236" s="28" t="s">
         <v>52</v>
@@ -32376,7 +32431,7 @@
         <v>545</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>570</v>
@@ -32408,10 +32463,10 @@
       <c r="B241" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D241" s="121" t="s">
+      <c r="D241" s="118" t="s">
         <v>721</v>
       </c>
-      <c r="E241" s="120"/>
+      <c r="E241" s="119"/>
     </row>
     <row r="242" spans="1:5" ht="30" customHeight="1">
       <c r="A242" s="28" t="s">
@@ -32463,10 +32518,10 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="121" t="s">
+      <c r="A247" s="118" t="s">
         <v>726</v>
       </c>
-      <c r="B247" s="120"/>
+      <c r="B247" s="119"/>
       <c r="D247" s="28" t="s">
         <v>727</v>
       </c>
@@ -32511,7 +32566,7 @@
         <v>119</v>
       </c>
       <c r="E250" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="30" customHeight="1">
@@ -32585,7 +32640,7 @@
         <v>119</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>621</v>
@@ -32633,7 +32688,7 @@
         <v>119</v>
       </c>
       <c r="E259" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30" customHeight="1">
@@ -32645,7 +32700,7 @@
         <v>163</v>
       </c>
       <c r="E260" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -32673,7 +32728,7 @@
         <v>227</v>
       </c>
       <c r="E262" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -32723,7 +32778,7 @@
         <v>119</v>
       </c>
       <c r="B266" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D266" s="28" t="s">
         <v>570</v>
@@ -32737,7 +32792,7 @@
         <v>163</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -32753,7 +32808,7 @@
         <v>227</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -32789,10 +32844,10 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="121" t="s">
+      <c r="A276" s="118" t="s">
         <v>745</v>
       </c>
-      <c r="B276" s="120"/>
+      <c r="B276" s="119"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="28" t="s">
@@ -32861,7 +32916,7 @@
         <v>119</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -32939,7 +32994,7 @@
         <v>119</v>
       </c>
       <c r="B295" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30" customHeight="1">
@@ -32947,7 +33002,7 @@
         <v>163</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -32983,10 +33038,10 @@
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1">
-      <c r="A305" s="121" t="s">
+      <c r="A305" s="118" t="s">
         <v>757</v>
       </c>
-      <c r="B305" s="120"/>
+      <c r="B305" s="119"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="28" t="s">
@@ -33055,7 +33110,7 @@
         <v>119</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30" customHeight="1">
@@ -33133,7 +33188,7 @@
         <v>119</v>
       </c>
       <c r="B324" s="28" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="30" customHeight="1">
@@ -33141,7 +33196,7 @@
         <v>163</v>
       </c>
       <c r="B325" s="28" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -33157,7 +33212,7 @@
         <v>227</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -33194,36 +33249,24 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -33240,24 +33283,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -33658,14 +33713,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="120"/>
+      <c r="D1" s="119"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
@@ -33686,7 +33741,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>75</v>
@@ -33724,14 +33779,14 @@
       <c r="B7" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="120"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
@@ -33752,7 +33807,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>86</v>
@@ -33802,14 +33857,14 @@
       <c r="B16" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121" t="s">
+      <c r="B18" s="119"/>
+      <c r="C18" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="120"/>
+      <c r="D18" s="119"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="28" t="s">
@@ -33830,13 +33885,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -33872,14 +33927,14 @@
       <c r="B24" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121" t="s">
+      <c r="B26" s="119"/>
+      <c r="C26" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="120"/>
+      <c r="D26" s="119"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="28" t="s">
@@ -33900,13 +33955,13 @@
         <v>74</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -33946,14 +34001,14 @@
       <c r="B32" s="28"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="121" t="s">
+      <c r="B34" s="119"/>
+      <c r="C34" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="120"/>
+      <c r="D34" s="119"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="28" t="s">
@@ -33974,13 +34029,13 @@
         <v>74</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -34020,14 +34075,14 @@
       <c r="B40" s="28"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="121" t="s">
+      <c r="B43" s="119"/>
+      <c r="C43" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="120"/>
+      <c r="D43" s="119"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="28" t="s">
@@ -34048,7 +34103,7 @@
         <v>74</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>116</v>
@@ -34068,7 +34123,7 @@
         <v>119</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -34110,14 +34165,14 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="121" t="s">
+      <c r="B52" s="119"/>
+      <c r="C52" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="120"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1">
@@ -34142,13 +34197,13 @@
         <v>74</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="E54" s="29">
         <v>200</v>
@@ -34165,7 +34220,7 @@
         <v>132</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E55" s="28"/>
     </row>
@@ -34211,14 +34266,14 @@
       <c r="E58" s="28"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="121" t="s">
+      <c r="B60" s="119"/>
+      <c r="C60" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="120"/>
+      <c r="D60" s="119"/>
     </row>
     <row r="61" spans="1:5" ht="30">
       <c r="A61" s="28" t="s">
@@ -34239,7 +34294,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>137</v>
@@ -34259,7 +34314,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -34311,14 +34366,14 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="120"/>
-      <c r="C70" s="121" t="s">
+      <c r="B70" s="119"/>
+      <c r="C70" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="120"/>
+      <c r="D70" s="119"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="28" t="s">
@@ -34339,7 +34394,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>75</v>
@@ -34355,10 +34410,10 @@
       <c r="B73" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="121" t="s">
+      <c r="C73" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="120"/>
+      <c r="D73" s="119"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
@@ -34385,7 +34440,7 @@
         <v>152</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -34401,14 +34456,14 @@
       <c r="D77" s="28"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="123" t="s">
+      <c r="A79" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="121" t="s">
+      <c r="B79" s="119"/>
+      <c r="C79" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="120"/>
+      <c r="D79" s="119"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
@@ -34429,13 +34484,13 @@
         <v>74</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30">
@@ -34445,10 +34500,10 @@
       <c r="B82" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="121" t="s">
+      <c r="C82" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="120"/>
+      <c r="D82" s="119"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
@@ -34475,7 +34530,7 @@
         <v>163</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -34489,14 +34544,14 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="124" t="s">
+      <c r="A88" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="120"/>
-      <c r="C88" s="119" t="s">
+      <c r="B88" s="119"/>
+      <c r="C88" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="120"/>
+      <c r="D88" s="119"/>
     </row>
     <row r="89" spans="1:4" ht="30">
       <c r="A89" s="28" t="s">
@@ -34517,13 +34572,13 @@
         <v>74</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>163</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30">
@@ -34547,10 +34602,10 @@
       <c r="B92" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="119" t="s">
+      <c r="C92" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="120"/>
+      <c r="D92" s="119"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1">
       <c r="A93" s="28" t="s">
@@ -34573,7 +34628,7 @@
         <v>172</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -34589,10 +34644,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="120"/>
+      <c r="D96" s="119"/>
     </row>
     <row r="97" spans="1:4" ht="30">
       <c r="A97" s="28"/>
@@ -34635,14 +34690,14 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="124" t="s">
+      <c r="A103" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B103" s="120"/>
-      <c r="C103" s="119" t="s">
+      <c r="B103" s="119"/>
+      <c r="C103" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="120"/>
+      <c r="D103" s="119"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="28" t="s">
@@ -34663,12 +34718,12 @@
         <v>74</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>2109</v>
-      </c>
-      <c r="C105" s="121" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C105" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="120"/>
+      <c r="D105" s="119"/>
     </row>
     <row r="106" spans="1:4" ht="30">
       <c r="A106" s="28" t="s">
@@ -34719,7 +34774,7 @@
         <v>74</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1">
@@ -34729,7 +34784,7 @@
         <v>130</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -34749,7 +34804,7 @@
         <v>172</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -34783,14 +34838,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="124" t="s">
+      <c r="A118" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="120"/>
-      <c r="C118" s="119" t="s">
+      <c r="B118" s="119"/>
+      <c r="C118" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="D118" s="120"/>
+      <c r="D118" s="119"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1">
       <c r="A119" s="28" t="s">
@@ -34811,7 +34866,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>186</v>
@@ -34831,7 +34886,7 @@
         <v>74</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1">
@@ -34845,7 +34900,7 @@
         <v>130</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="45" customHeight="1">
@@ -34869,14 +34924,14 @@
         <v>172</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="125" t="s">
+      <c r="A125" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="120"/>
+      <c r="B125" s="119"/>
       <c r="C125" s="28" t="s">
         <v>52</v>
       </c>
@@ -34923,14 +34978,14 @@
       <c r="D128" s="29"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="124" t="s">
+      <c r="A131" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="120"/>
-      <c r="C131" s="119" t="s">
+      <c r="B131" s="119"/>
+      <c r="C131" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="D131" s="120"/>
+      <c r="D131" s="119"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="28" t="s">
@@ -34951,13 +35006,13 @@
         <v>74</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C133" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" customHeight="1">
@@ -34971,7 +35026,7 @@
         <v>130</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -34999,7 +35054,7 @@
         <v>172</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -35061,14 +35116,14 @@
       <c r="D141" s="28"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="124" t="s">
+      <c r="A144" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="120"/>
-      <c r="C144" s="119" t="s">
+      <c r="B144" s="119"/>
+      <c r="C144" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="D144" s="120"/>
+      <c r="D144" s="119"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1">
       <c r="A145" s="28" t="s">
@@ -35089,13 +35144,13 @@
         <v>74</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C146" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="30" customHeight="1">
@@ -35109,7 +35164,7 @@
         <v>130</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -35195,14 +35250,14 @@
       <c r="D154" s="28"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="124" t="s">
+      <c r="A157" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="B157" s="120"/>
-      <c r="C157" s="119" t="s">
+      <c r="B157" s="119"/>
+      <c r="C157" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="D157" s="120"/>
+      <c r="D157" s="119"/>
     </row>
     <row r="158" spans="1:4" ht="30">
       <c r="A158" s="28" t="s">
@@ -35223,13 +35278,13 @@
         <v>74</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C159" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1">
@@ -35243,7 +35298,7 @@
         <v>130</v>
       </c>
       <c r="D160" s="29" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -35271,7 +35326,7 @@
         <v>227</v>
       </c>
       <c r="D162" s="29" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -35336,6 +35391,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C92:D92"/>
@@ -35350,30 +35429,6 @@
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_Data/TestData.xlsx
+++ b/Test_Data/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geethukn\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB3E69F-F4FF-4D22-8223-FF3D73A622F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4425" tabRatio="831" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4425" tabRatio="831" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="2170">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -6376,12 +6370,6 @@
     <t>882d7384ac8daa5117cae84c12b8a4409933d539</t>
   </si>
   <si>
-    <t>shavinbamboohr_114</t>
-  </si>
-  <si>
-    <t>shavinbamboohr_114_@grovo.com</t>
-  </si>
-  <si>
     <t>View instruction link name</t>
   </si>
   <si>
@@ -6552,12 +6540,18 @@
   </si>
   <si>
     <t>FL - Florida</t>
+  </si>
+  <si>
+    <t>shavinbamboohr_128</t>
+  </si>
+  <si>
+    <t>shavinbamboohr_128_@grovo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="34">
     <font>
       <sz val="11"/>
@@ -7236,6 +7230,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7308,23 +7312,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7660,11 +7654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -7673,12 +7667,13 @@
     <col min="2" max="2" width="42.85546875" style="25" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="25" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.85546875" style="25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" style="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="8.85546875" style="25" customWidth="1" collapsed="1"/>
     <col min="1026" max="1028" width="8.85546875" style="25" customWidth="1"/>
     <col min="1029" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7692,7 +7687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
@@ -7700,15 +7695,17 @@
         <v>5</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="117" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
@@ -7718,55 +7715,63 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="117" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="26"/>
       <c r="B6" s="27"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="140" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="114" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="114" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B11" s="115" t="s">
         <v>2121</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="140" t="s">
+      <c r="C11" s="113"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="115" t="s">
         <v>2122</v>
       </c>
-      <c r="B11" s="141" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C11" s="139"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="141" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="115" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7774,7 +7779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7792,14 +7797,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="120"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
@@ -7858,14 +7863,14 @@
       <c r="B7" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="120"/>
+      <c r="D10" s="128"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
@@ -7936,14 +7941,14 @@
       <c r="B16" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="120"/>
+      <c r="D18" s="128"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="28" t="s">
@@ -8006,14 +8011,14 @@
       <c r="B24" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="120"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="28" t="s">
@@ -8080,14 +8085,14 @@
       <c r="B32" s="28"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="121" t="s">
+      <c r="B34" s="128"/>
+      <c r="C34" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="120"/>
+      <c r="D34" s="128"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="28" t="s">
@@ -8154,14 +8159,14 @@
       <c r="B40" s="28"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="121" t="s">
+      <c r="B43" s="128"/>
+      <c r="C43" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="120"/>
+      <c r="D43" s="128"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="28" t="s">
@@ -8244,14 +8249,14 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="121" t="s">
+      <c r="B52" s="128"/>
+      <c r="C52" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="120"/>
+      <c r="D52" s="128"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" ht="45" customHeight="1">
@@ -8345,14 +8350,14 @@
       <c r="E58" s="28"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="121" t="s">
+      <c r="B60" s="128"/>
+      <c r="C60" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="120"/>
+      <c r="D60" s="128"/>
     </row>
     <row r="61" spans="1:5" ht="30">
       <c r="A61" s="28" t="s">
@@ -8445,14 +8450,14 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="120"/>
-      <c r="C70" s="121" t="s">
+      <c r="B70" s="128"/>
+      <c r="C70" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="120"/>
+      <c r="D70" s="128"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="28" t="s">
@@ -8489,10 +8494,10 @@
       <c r="B73" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="121" t="s">
+      <c r="C73" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="120"/>
+      <c r="D73" s="128"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
@@ -8535,14 +8540,14 @@
       <c r="D77" s="28"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="123" t="s">
+      <c r="A79" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="121" t="s">
+      <c r="B79" s="128"/>
+      <c r="C79" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="120"/>
+      <c r="D79" s="128"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="28" t="s">
@@ -8579,10 +8584,10 @@
       <c r="B82" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="121" t="s">
+      <c r="C82" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="120"/>
+      <c r="D82" s="128"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="28" t="s">
@@ -8623,14 +8628,14 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="124" t="s">
+      <c r="A88" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="120"/>
-      <c r="C88" s="119" t="s">
+      <c r="B88" s="128"/>
+      <c r="C88" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="120"/>
+      <c r="D88" s="128"/>
     </row>
     <row r="89" spans="1:4" ht="30">
       <c r="A89" s="28" t="s">
@@ -8681,10 +8686,10 @@
       <c r="B92" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="119" t="s">
+      <c r="C92" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="120"/>
+      <c r="D92" s="128"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1">
       <c r="A93" s="28" t="s">
@@ -8723,10 +8728,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="120"/>
+      <c r="D96" s="128"/>
     </row>
     <row r="97" spans="1:4" ht="30">
       <c r="A97" s="28"/>
@@ -8769,14 +8774,14 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="124" t="s">
+      <c r="A103" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="B103" s="120"/>
-      <c r="C103" s="119" t="s">
+      <c r="B103" s="128"/>
+      <c r="C103" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="120"/>
+      <c r="D103" s="128"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="28" t="s">
@@ -8799,10 +8804,10 @@
       <c r="B105" s="29" t="s">
         <v>2106</v>
       </c>
-      <c r="C105" s="121" t="s">
+      <c r="C105" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="120"/>
+      <c r="D105" s="128"/>
     </row>
     <row r="106" spans="1:4" ht="30">
       <c r="A106" s="28" t="s">
@@ -8917,14 +8922,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="124" t="s">
+      <c r="A118" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="120"/>
-      <c r="C118" s="119" t="s">
+      <c r="B118" s="128"/>
+      <c r="C118" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="D118" s="120"/>
+      <c r="D118" s="128"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1">
       <c r="A119" s="28" t="s">
@@ -9007,10 +9012,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="125" t="s">
+      <c r="A125" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="120"/>
+      <c r="B125" s="128"/>
       <c r="C125" s="28" t="s">
         <v>52</v>
       </c>
@@ -9057,14 +9062,14 @@
       <c r="D128" s="29"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="124" t="s">
+      <c r="A131" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="120"/>
-      <c r="C131" s="119" t="s">
+      <c r="B131" s="128"/>
+      <c r="C131" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="D131" s="120"/>
+      <c r="D131" s="128"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="28" t="s">
@@ -9195,14 +9200,14 @@
       <c r="D141" s="28"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="124" t="s">
+      <c r="A144" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="120"/>
-      <c r="C144" s="119" t="s">
+      <c r="B144" s="128"/>
+      <c r="C144" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="D144" s="120"/>
+      <c r="D144" s="128"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1">
       <c r="A145" s="28" t="s">
@@ -9329,14 +9334,14 @@
       <c r="D154" s="28"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="124" t="s">
+      <c r="A157" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="B157" s="120"/>
-      <c r="C157" s="119" t="s">
+      <c r="B157" s="128"/>
+      <c r="C157" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="D157" s="120"/>
+      <c r="D157" s="128"/>
     </row>
     <row r="158" spans="1:4" ht="30">
       <c r="A158" s="28" t="s">
@@ -9514,7 +9519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -10239,7 +10244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK70"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -10264,10 +10269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="128"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
@@ -10298,10 +10303,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="128"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="28" t="s">
@@ -10351,10 +10356,10 @@
       <c r="B12" s="29"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="120"/>
+      <c r="B14" s="128"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="28" t="s">
@@ -10381,10 +10386,10 @@
       <c r="B18" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="128"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="28" t="s">
@@ -10415,10 +10420,10 @@
       <c r="B24" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="120"/>
+      <c r="B26" s="128"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="28" t="s">
@@ -10955,16 +10960,16 @@
     <mergeCell ref="A26:B26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="newuser2@grovo.com" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" display="new4@grovo.com" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" display="Data@123" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId1" display="newuser2@grovo.com"/>
+    <hyperlink ref="C5" r:id="rId2" display="new4@grovo.com"/>
+    <hyperlink ref="C7" r:id="rId3" display="Data@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11125,10 +11130,10 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="122" t="s">
+      <c r="A325" s="130" t="s">
         <v>966</v>
       </c>
-      <c r="B325" s="126"/>
+      <c r="B325" s="134"/>
     </row>
     <row r="326" spans="1:2" ht="30.95" customHeight="1">
       <c r="A326" s="28" t="s">
@@ -11179,10 +11184,10 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="122" t="s">
+      <c r="A332" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B332" s="126"/>
+      <c r="B332" s="134"/>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="28" t="s">
@@ -11249,10 +11254,10 @@
       <c r="B341" s="100"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="122" t="s">
+      <c r="A342" s="130" t="s">
         <v>983</v>
       </c>
-      <c r="B342" s="126"/>
+      <c r="B342" s="134"/>
     </row>
     <row r="343" spans="1:2" ht="30.95" customHeight="1">
       <c r="A343" s="28" t="s">
@@ -11319,10 +11324,10 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="122" t="s">
+      <c r="A351" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B351" s="126"/>
+      <c r="B351" s="134"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="28" t="s">
@@ -11357,10 +11362,10 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="127" t="s">
+      <c r="A356" s="135" t="s">
         <v>993</v>
       </c>
-      <c r="B356" s="126"/>
+      <c r="B356" s="134"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="28" t="s">
@@ -11417,10 +11422,10 @@
       <c r="B363" s="28"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="127" t="s">
+      <c r="A364" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B364" s="126"/>
+      <c r="B364" s="134"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="28" t="s">
@@ -11439,10 +11444,10 @@
       <c r="B367" s="100"/>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="122" t="s">
+      <c r="A368" s="130" t="s">
         <v>1001</v>
       </c>
-      <c r="B368" s="126"/>
+      <c r="B368" s="134"/>
     </row>
     <row r="369" spans="1:2" ht="30.95" customHeight="1">
       <c r="A369" s="28" t="s">
@@ -11509,10 +11514,10 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="122" t="s">
+      <c r="A377" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B377" s="126"/>
+      <c r="B377" s="134"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="28" t="s">
@@ -11575,10 +11580,10 @@
       <c r="B385" s="100"/>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="122" t="s">
+      <c r="A386" s="130" t="s">
         <v>1011</v>
       </c>
-      <c r="B386" s="126"/>
+      <c r="B386" s="134"/>
     </row>
     <row r="387" spans="1:2" ht="30.95" customHeight="1">
       <c r="A387" s="28" t="s">
@@ -11645,10 +11650,10 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="122" t="s">
+      <c r="A395" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B395" s="126"/>
+      <c r="B395" s="134"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="28" t="s">
@@ -11715,10 +11720,10 @@
       <c r="B404" s="100"/>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="122" t="s">
+      <c r="A405" s="130" t="s">
         <v>1019</v>
       </c>
-      <c r="B405" s="126"/>
+      <c r="B405" s="134"/>
     </row>
     <row r="406" spans="1:2" ht="30.95" customHeight="1">
       <c r="A406" s="28" t="s">
@@ -11793,10 +11798,10 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="128" t="s">
+      <c r="A415" s="136" t="s">
         <v>1026</v>
       </c>
-      <c r="B415" s="126"/>
+      <c r="B415" s="134"/>
     </row>
     <row r="416" spans="1:2" ht="30.95" customHeight="1">
       <c r="A416" s="28" t="s">
@@ -11839,10 +11844,10 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="122" t="s">
+      <c r="A421" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B421" s="126"/>
+      <c r="B421" s="134"/>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="28" t="s">
@@ -11909,10 +11914,10 @@
       <c r="B430" s="100"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="122" t="s">
+      <c r="A431" s="130" t="s">
         <v>1032</v>
       </c>
-      <c r="B431" s="126"/>
+      <c r="B431" s="134"/>
     </row>
     <row r="432" spans="1:2" ht="30.95" customHeight="1">
       <c r="A432" s="28" t="s">
@@ -11979,10 +11984,10 @@
       <c r="B440" s="100"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="122" t="s">
+      <c r="A441" s="130" t="s">
         <v>1037</v>
       </c>
-      <c r="B441" s="126"/>
+      <c r="B441" s="134"/>
     </row>
     <row r="442" spans="1:2" ht="30.95" customHeight="1">
       <c r="A442" s="28" t="s">
@@ -12049,10 +12054,10 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="122" t="s">
+      <c r="A450" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B450" s="126"/>
+      <c r="B450" s="134"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="28" t="s">
@@ -12111,10 +12116,10 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="127" t="s">
+      <c r="A458" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B458" s="126"/>
+      <c r="B458" s="134"/>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="28" t="s">
@@ -12133,10 +12138,10 @@
       <c r="B461" s="100"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="122" t="s">
+      <c r="A462" s="130" t="s">
         <v>1047</v>
       </c>
-      <c r="B462" s="126"/>
+      <c r="B462" s="134"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="28" t="s">
@@ -12203,10 +12208,10 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="122" t="s">
+      <c r="A471" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B471" s="126"/>
+      <c r="B471" s="134"/>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="28" t="s">
@@ -12265,10 +12270,10 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="127" t="s">
+      <c r="A479" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B479" s="126"/>
+      <c r="B479" s="134"/>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="28" t="s">
@@ -12279,10 +12284,10 @@
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="122" t="s">
+      <c r="A483" s="130" t="s">
         <v>1056</v>
       </c>
-      <c r="B483" s="126"/>
+      <c r="B483" s="134"/>
     </row>
     <row r="484" spans="1:2" ht="30.95" customHeight="1">
       <c r="A484" s="28" t="s">
@@ -12349,10 +12354,10 @@
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="122" t="s">
+      <c r="A492" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B492" s="126"/>
+      <c r="B492" s="134"/>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="28" t="s">
@@ -12411,10 +12416,10 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="127" t="s">
+      <c r="A500" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B500" s="126"/>
+      <c r="B500" s="134"/>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="28" t="s">
@@ -12433,10 +12438,10 @@
       <c r="B503" s="100"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="122" t="s">
+      <c r="A504" s="130" t="s">
         <v>1065</v>
       </c>
-      <c r="B504" s="126"/>
+      <c r="B504" s="134"/>
     </row>
     <row r="505" spans="1:2" ht="30.95" customHeight="1">
       <c r="A505" s="28" t="s">
@@ -12503,10 +12508,10 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="122" t="s">
+      <c r="A513" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B513" s="126"/>
+      <c r="B513" s="134"/>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="28" t="s">
@@ -12557,10 +12562,10 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="127" t="s">
+      <c r="A520" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B520" s="126"/>
+      <c r="B520" s="134"/>
     </row>
     <row r="521" spans="1:2" ht="30.75" customHeight="1">
       <c r="A521" s="28" t="s">
@@ -12571,10 +12576,10 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="122" t="s">
+      <c r="A522" s="130" t="s">
         <v>1074</v>
       </c>
-      <c r="B522" s="126"/>
+      <c r="B522" s="134"/>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="28" t="s">
@@ -12707,10 +12712,10 @@
       <c r="B543" s="100"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="122" t="s">
+      <c r="A544" s="130" t="s">
         <v>1065</v>
       </c>
-      <c r="B544" s="126"/>
+      <c r="B544" s="134"/>
     </row>
     <row r="545" spans="1:2" ht="30.95" customHeight="1">
       <c r="A545" s="28" t="s">
@@ -12769,10 +12774,10 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="122" t="s">
+      <c r="A552" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B552" s="126"/>
+      <c r="B552" s="134"/>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="28" t="s">
@@ -12823,10 +12828,10 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="127" t="s">
+      <c r="A561" s="135" t="s">
         <v>1105</v>
       </c>
-      <c r="B561" s="126"/>
+      <c r="B561" s="134"/>
     </row>
     <row r="562" spans="1:2" ht="30.95" customHeight="1">
       <c r="A562" s="28" t="s">
@@ -12893,10 +12898,10 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="122" t="s">
+      <c r="A570" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B570" s="126"/>
+      <c r="B570" s="134"/>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="28" t="s">
@@ -12947,10 +12952,10 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="127" t="s">
+      <c r="A577" s="135" t="s">
         <v>1113</v>
       </c>
-      <c r="B577" s="126"/>
+      <c r="B577" s="134"/>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="28" t="s">
@@ -13057,10 +13062,10 @@
       <c r="B595" s="100"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="122" t="s">
+      <c r="A596" s="130" t="s">
         <v>1128</v>
       </c>
-      <c r="B596" s="126"/>
+      <c r="B596" s="134"/>
     </row>
     <row r="597" spans="1:2" ht="30.95" customHeight="1">
       <c r="A597" s="28" t="s">
@@ -13127,10 +13132,10 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="122" t="s">
+      <c r="A605" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B605" s="126"/>
+      <c r="B605" s="134"/>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="28" t="s">
@@ -13181,10 +13186,10 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="127" t="s">
+      <c r="A612" s="135" t="s">
         <v>1136</v>
       </c>
-      <c r="B612" s="126"/>
+      <c r="B612" s="134"/>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="28" t="s">
@@ -13333,10 +13338,10 @@
       <c r="B637" s="100"/>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="122" t="s">
+      <c r="A638" s="130" t="s">
         <v>1158</v>
       </c>
-      <c r="B638" s="126"/>
+      <c r="B638" s="134"/>
     </row>
     <row r="639" spans="1:2" ht="30.95" customHeight="1">
       <c r="A639" s="28" t="s">
@@ -13403,10 +13408,10 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="122" t="s">
+      <c r="A647" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B647" s="126"/>
+      <c r="B647" s="134"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="28" t="s">
@@ -13479,10 +13484,10 @@
       <c r="B657" s="100"/>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="122" t="s">
+      <c r="A658" s="130" t="s">
         <v>1168</v>
       </c>
-      <c r="B658" s="126"/>
+      <c r="B658" s="134"/>
     </row>
     <row r="659" spans="1:2" ht="30.95" customHeight="1">
       <c r="A659" s="28" t="s">
@@ -13549,10 +13554,10 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="122" t="s">
+      <c r="A667" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B667" s="126"/>
+      <c r="B667" s="134"/>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="28" t="s">
@@ -13625,10 +13630,10 @@
       <c r="B677" s="100"/>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="122" t="s">
+      <c r="A678" s="130" t="s">
         <v>1177</v>
       </c>
-      <c r="B678" s="126"/>
+      <c r="B678" s="134"/>
     </row>
     <row r="679" spans="1:2" ht="30.95" customHeight="1">
       <c r="A679" s="28" t="s">
@@ -13695,10 +13700,10 @@
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="122" t="s">
+      <c r="A687" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B687" s="126"/>
+      <c r="B687" s="134"/>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="28" t="s">
@@ -13803,63 +13808,63 @@
     <mergeCell ref="A687:B687"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="B335" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="B337" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="B338" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="B354" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
-    <hyperlink ref="B359" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B361" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="B362" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="B380" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
-    <hyperlink ref="B382" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="B383" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="B398" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="B400" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="B401" r:id="rId17" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
-    <hyperlink ref="B424" r:id="rId18" display="Data@123" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
-    <hyperlink ref="B426" r:id="rId19" xr:uid="{00000000-0004-0000-0B00-000012000000}"/>
-    <hyperlink ref="B427" r:id="rId20" xr:uid="{00000000-0004-0000-0B00-000013000000}"/>
-    <hyperlink ref="B453" r:id="rId21" xr:uid="{00000000-0004-0000-0B00-000014000000}"/>
-    <hyperlink ref="B455" r:id="rId22" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
-    <hyperlink ref="B456" r:id="rId23" xr:uid="{00000000-0004-0000-0B00-000016000000}"/>
-    <hyperlink ref="B474" r:id="rId24" xr:uid="{00000000-0004-0000-0B00-000017000000}"/>
-    <hyperlink ref="B476" r:id="rId25" xr:uid="{00000000-0004-0000-0B00-000018000000}"/>
-    <hyperlink ref="B477" r:id="rId26" xr:uid="{00000000-0004-0000-0B00-000019000000}"/>
-    <hyperlink ref="B495" r:id="rId27" xr:uid="{00000000-0004-0000-0B00-00001A000000}"/>
-    <hyperlink ref="B497" r:id="rId28" xr:uid="{00000000-0004-0000-0B00-00001B000000}"/>
-    <hyperlink ref="B498" r:id="rId29" xr:uid="{00000000-0004-0000-0B00-00001C000000}"/>
-    <hyperlink ref="B516" r:id="rId30" xr:uid="{00000000-0004-0000-0B00-00001D000000}"/>
-    <hyperlink ref="B518" r:id="rId31" xr:uid="{00000000-0004-0000-0B00-00001E000000}"/>
-    <hyperlink ref="B519" r:id="rId32" xr:uid="{00000000-0004-0000-0B00-00001F000000}"/>
-    <hyperlink ref="B555" r:id="rId33" xr:uid="{00000000-0004-0000-0B00-000020000000}"/>
-    <hyperlink ref="B557" r:id="rId34" xr:uid="{00000000-0004-0000-0B00-000021000000}"/>
-    <hyperlink ref="B558" r:id="rId35" xr:uid="{00000000-0004-0000-0B00-000022000000}"/>
-    <hyperlink ref="B573" r:id="rId36" xr:uid="{00000000-0004-0000-0B00-000023000000}"/>
-    <hyperlink ref="B575" r:id="rId37" xr:uid="{00000000-0004-0000-0B00-000024000000}"/>
-    <hyperlink ref="B576" r:id="rId38" xr:uid="{00000000-0004-0000-0B00-000025000000}"/>
-    <hyperlink ref="B608" r:id="rId39" xr:uid="{00000000-0004-0000-0B00-000026000000}"/>
-    <hyperlink ref="B610" r:id="rId40" xr:uid="{00000000-0004-0000-0B00-000027000000}"/>
-    <hyperlink ref="B611" r:id="rId41" xr:uid="{00000000-0004-0000-0B00-000028000000}"/>
-    <hyperlink ref="B650" r:id="rId42" xr:uid="{00000000-0004-0000-0B00-000029000000}"/>
-    <hyperlink ref="B652" r:id="rId43" xr:uid="{00000000-0004-0000-0B00-00002A000000}"/>
-    <hyperlink ref="B653" r:id="rId44" xr:uid="{00000000-0004-0000-0B00-00002B000000}"/>
-    <hyperlink ref="B670" r:id="rId45" xr:uid="{00000000-0004-0000-0B00-00002C000000}"/>
-    <hyperlink ref="B672" r:id="rId46" xr:uid="{00000000-0004-0000-0B00-00002D000000}"/>
-    <hyperlink ref="B673" r:id="rId47" xr:uid="{00000000-0004-0000-0B00-00002E000000}"/>
-    <hyperlink ref="B690" r:id="rId48" xr:uid="{00000000-0004-0000-0B00-00002F000000}"/>
-    <hyperlink ref="B692" r:id="rId49" xr:uid="{00000000-0004-0000-0B00-000030000000}"/>
-    <hyperlink ref="B693" r:id="rId50" xr:uid="{00000000-0004-0000-0B00-000031000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="B335" r:id="rId5"/>
+    <hyperlink ref="B337" r:id="rId6"/>
+    <hyperlink ref="B338" r:id="rId7"/>
+    <hyperlink ref="B354" r:id="rId8"/>
+    <hyperlink ref="B359" r:id="rId9"/>
+    <hyperlink ref="B361" r:id="rId10"/>
+    <hyperlink ref="B362" r:id="rId11"/>
+    <hyperlink ref="B380" r:id="rId12"/>
+    <hyperlink ref="B382" r:id="rId13"/>
+    <hyperlink ref="B383" r:id="rId14"/>
+    <hyperlink ref="B398" r:id="rId15"/>
+    <hyperlink ref="B400" r:id="rId16"/>
+    <hyperlink ref="B401" r:id="rId17"/>
+    <hyperlink ref="B424" r:id="rId18" display="Data@123"/>
+    <hyperlink ref="B426" r:id="rId19"/>
+    <hyperlink ref="B427" r:id="rId20"/>
+    <hyperlink ref="B453" r:id="rId21"/>
+    <hyperlink ref="B455" r:id="rId22"/>
+    <hyperlink ref="B456" r:id="rId23"/>
+    <hyperlink ref="B474" r:id="rId24"/>
+    <hyperlink ref="B476" r:id="rId25"/>
+    <hyperlink ref="B477" r:id="rId26"/>
+    <hyperlink ref="B495" r:id="rId27"/>
+    <hyperlink ref="B497" r:id="rId28"/>
+    <hyperlink ref="B498" r:id="rId29"/>
+    <hyperlink ref="B516" r:id="rId30"/>
+    <hyperlink ref="B518" r:id="rId31"/>
+    <hyperlink ref="B519" r:id="rId32"/>
+    <hyperlink ref="B555" r:id="rId33"/>
+    <hyperlink ref="B557" r:id="rId34"/>
+    <hyperlink ref="B558" r:id="rId35"/>
+    <hyperlink ref="B573" r:id="rId36"/>
+    <hyperlink ref="B575" r:id="rId37"/>
+    <hyperlink ref="B576" r:id="rId38"/>
+    <hyperlink ref="B608" r:id="rId39"/>
+    <hyperlink ref="B610" r:id="rId40"/>
+    <hyperlink ref="B611" r:id="rId41"/>
+    <hyperlink ref="B650" r:id="rId42"/>
+    <hyperlink ref="B652" r:id="rId43"/>
+    <hyperlink ref="B653" r:id="rId44"/>
+    <hyperlink ref="B670" r:id="rId45"/>
+    <hyperlink ref="B672" r:id="rId46"/>
+    <hyperlink ref="B673" r:id="rId47"/>
+    <hyperlink ref="B690" r:id="rId48"/>
+    <hyperlink ref="B692" r:id="rId49"/>
+    <hyperlink ref="B693" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I474"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -16440,16 +16445,16 @@
       <c r="B164" s="91"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="131" t="s">
+      <c r="A166" s="139" t="s">
         <v>1209</v>
       </c>
-      <c r="B166" s="130"/>
-      <c r="C166" s="130"/>
-      <c r="E166" s="129" t="s">
+      <c r="B166" s="138"/>
+      <c r="C166" s="138"/>
+      <c r="E166" s="137" t="s">
         <v>1210</v>
       </c>
-      <c r="F166" s="130"/>
-      <c r="G166" s="130"/>
+      <c r="F166" s="138"/>
+      <c r="G166" s="138"/>
     </row>
     <row r="167" spans="1:8" ht="30" customHeight="1">
       <c r="A167" s="91" t="s">
@@ -16492,18 +16497,18 @@
       <c r="A170" s="91"/>
       <c r="B170" s="91"/>
       <c r="C170" s="91"/>
-      <c r="E170" s="129" t="s">
+      <c r="E170" s="137" t="s">
         <v>1216</v>
       </c>
-      <c r="F170" s="130"/>
-      <c r="G170" s="130"/>
+      <c r="F170" s="138"/>
+      <c r="G170" s="138"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1">
-      <c r="A171" s="131" t="s">
+      <c r="A171" s="139" t="s">
         <v>1217</v>
       </c>
-      <c r="B171" s="130"/>
-      <c r="C171" s="130"/>
+      <c r="B171" s="138"/>
+      <c r="C171" s="138"/>
       <c r="E171" s="91" t="s">
         <v>1211</v>
       </c>
@@ -16543,16 +16548,16 @@
       <c r="C174" s="91"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="129" t="s">
+      <c r="A175" s="137" t="s">
         <v>1221</v>
       </c>
-      <c r="B175" s="130"/>
-      <c r="C175" s="130"/>
-      <c r="E175" s="129" t="s">
+      <c r="B175" s="138"/>
+      <c r="C175" s="138"/>
+      <c r="E175" s="137" t="s">
         <v>1222</v>
       </c>
-      <c r="F175" s="130"/>
-      <c r="G175" s="130"/>
+      <c r="F175" s="138"/>
+      <c r="G175" s="138"/>
     </row>
     <row r="176" spans="1:8" ht="30">
       <c r="A176" s="91" t="s">
@@ -16587,16 +16592,16 @@
       <c r="G177" s="91"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="129" t="s">
+      <c r="A179" s="137" t="s">
         <v>1226</v>
       </c>
-      <c r="B179" s="130"/>
-      <c r="C179" s="130"/>
-      <c r="E179" s="129" t="s">
+      <c r="B179" s="138"/>
+      <c r="C179" s="138"/>
+      <c r="E179" s="137" t="s">
         <v>1227</v>
       </c>
-      <c r="F179" s="130"/>
-      <c r="G179" s="130"/>
+      <c r="F179" s="138"/>
+      <c r="G179" s="138"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="91" t="s">
@@ -16631,16 +16636,16 @@
       <c r="G181" s="91"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="129" t="s">
+      <c r="A183" s="137" t="s">
         <v>1232</v>
       </c>
-      <c r="B183" s="130"/>
-      <c r="C183" s="130"/>
-      <c r="E183" s="129" t="s">
+      <c r="B183" s="138"/>
+      <c r="C183" s="138"/>
+      <c r="E183" s="137" t="s">
         <v>1233</v>
       </c>
-      <c r="F183" s="130"/>
-      <c r="G183" s="130"/>
+      <c r="F183" s="138"/>
+      <c r="G183" s="138"/>
     </row>
     <row r="184" spans="1:7" ht="30" customHeight="1">
       <c r="A184" s="91" t="s">
@@ -16675,16 +16680,16 @@
       <c r="G185" s="91"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="131" t="s">
+      <c r="A187" s="139" t="s">
         <v>1237</v>
       </c>
-      <c r="B187" s="130"/>
-      <c r="C187" s="130"/>
-      <c r="E187" s="129" t="s">
+      <c r="B187" s="138"/>
+      <c r="C187" s="138"/>
+      <c r="E187" s="137" t="s">
         <v>1238</v>
       </c>
-      <c r="F187" s="130"/>
-      <c r="G187" s="130"/>
+      <c r="F187" s="138"/>
+      <c r="G187" s="138"/>
     </row>
     <row r="188" spans="1:7" ht="30" customHeight="1">
       <c r="A188" s="91" t="s">
@@ -16719,16 +16724,16 @@
       <c r="G189" s="91"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="131" t="s">
+      <c r="A191" s="139" t="s">
         <v>1202</v>
       </c>
-      <c r="B191" s="130"/>
-      <c r="C191" s="130"/>
-      <c r="E191" s="129" t="s">
+      <c r="B191" s="138"/>
+      <c r="C191" s="138"/>
+      <c r="E191" s="137" t="s">
         <v>1242</v>
       </c>
-      <c r="F191" s="130"/>
-      <c r="G191" s="130"/>
+      <c r="F191" s="138"/>
+      <c r="G191" s="138"/>
     </row>
     <row r="192" spans="1:7" ht="30" customHeight="1">
       <c r="A192" s="91" t="s">
@@ -16763,16 +16768,16 @@
       <c r="G193" s="91"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="131" t="s">
+      <c r="A196" s="139" t="s">
         <v>1203</v>
       </c>
-      <c r="B196" s="130"/>
-      <c r="C196" s="130"/>
-      <c r="E196" s="129" t="s">
+      <c r="B196" s="138"/>
+      <c r="C196" s="138"/>
+      <c r="E196" s="137" t="s">
         <v>1245</v>
       </c>
-      <c r="F196" s="130"/>
-      <c r="G196" s="130"/>
+      <c r="F196" s="138"/>
+      <c r="G196" s="138"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="91" t="s">
@@ -16807,18 +16812,18 @@
       <c r="G198" s="91"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="E200" s="129" t="s">
+      <c r="E200" s="137" t="s">
         <v>1249</v>
       </c>
-      <c r="F200" s="130"/>
-      <c r="G200" s="130"/>
+      <c r="F200" s="138"/>
+      <c r="G200" s="138"/>
     </row>
     <row r="201" spans="1:7" ht="30" customHeight="1">
-      <c r="A201" s="131" t="s">
+      <c r="A201" s="139" t="s">
         <v>1204</v>
       </c>
-      <c r="B201" s="130"/>
-      <c r="C201" s="130"/>
+      <c r="B201" s="138"/>
+      <c r="C201" s="138"/>
       <c r="E201" s="91" t="s">
         <v>1211</v>
       </c>
@@ -16853,11 +16858,11 @@
       <c r="C203" s="91"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="E204" s="129" t="s">
+      <c r="E204" s="137" t="s">
         <v>1252</v>
       </c>
-      <c r="F204" s="130"/>
-      <c r="G204" s="130"/>
+      <c r="F204" s="138"/>
+      <c r="G204" s="138"/>
     </row>
     <row r="205" spans="1:7">
       <c r="E205" s="91" t="s">
@@ -16869,11 +16874,11 @@
       <c r="G205" s="91"/>
     </row>
     <row r="206" spans="1:7" ht="30" customHeight="1">
-      <c r="A206" s="129" t="s">
+      <c r="A206" s="137" t="s">
         <v>1205</v>
       </c>
-      <c r="B206" s="130"/>
-      <c r="C206" s="130"/>
+      <c r="B206" s="138"/>
+      <c r="C206" s="138"/>
       <c r="E206" s="91" t="s">
         <v>77</v>
       </c>
@@ -16899,11 +16904,11 @@
         <v>1255</v>
       </c>
       <c r="C208" s="91"/>
-      <c r="E208" s="129" t="s">
+      <c r="E208" s="137" t="s">
         <v>1256</v>
       </c>
-      <c r="F208" s="130"/>
-      <c r="G208" s="130"/>
+      <c r="F208" s="138"/>
+      <c r="G208" s="138"/>
     </row>
     <row r="209" spans="1:7">
       <c r="E209" s="91" t="s">
@@ -16915,11 +16920,11 @@
       <c r="G209" s="91"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1">
-      <c r="A210" s="129" t="s">
+      <c r="A210" s="137" t="s">
         <v>1257</v>
       </c>
-      <c r="B210" s="130"/>
-      <c r="C210" s="130"/>
+      <c r="B210" s="138"/>
+      <c r="C210" s="138"/>
       <c r="E210" s="91" t="s">
         <v>77</v>
       </c>
@@ -16945,11 +16950,11 @@
         <v>1260</v>
       </c>
       <c r="C212" s="91"/>
-      <c r="E212" s="129" t="s">
+      <c r="E212" s="137" t="s">
         <v>1261</v>
       </c>
-      <c r="F212" s="130"/>
-      <c r="G212" s="130"/>
+      <c r="F212" s="138"/>
+      <c r="G212" s="138"/>
     </row>
     <row r="213" spans="1:7" ht="30">
       <c r="E213" s="91" t="s">
@@ -16961,11 +16966,11 @@
       <c r="G213" s="91"/>
     </row>
     <row r="214" spans="1:7" ht="45" customHeight="1">
-      <c r="A214" s="129" t="s">
+      <c r="A214" s="137" t="s">
         <v>1262</v>
       </c>
-      <c r="B214" s="130"/>
-      <c r="C214" s="130"/>
+      <c r="B214" s="138"/>
+      <c r="C214" s="138"/>
       <c r="E214" s="91" t="s">
         <v>77</v>
       </c>
@@ -16991,11 +16996,11 @@
         <v>1265</v>
       </c>
       <c r="C216" s="91"/>
-      <c r="E216" s="129" t="s">
+      <c r="E216" s="137" t="s">
         <v>1266</v>
       </c>
-      <c r="F216" s="130"/>
-      <c r="G216" s="130"/>
+      <c r="F216" s="138"/>
+      <c r="G216" s="138"/>
     </row>
     <row r="217" spans="1:7" ht="30" customHeight="1">
       <c r="E217" s="91" t="s">
@@ -17016,11 +17021,11 @@
       <c r="G218" s="91"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="129" t="s">
+      <c r="A219" s="137" t="s">
         <v>1268</v>
       </c>
-      <c r="B219" s="130"/>
-      <c r="C219" s="130"/>
+      <c r="B219" s="138"/>
+      <c r="C219" s="138"/>
     </row>
     <row r="220" spans="1:7" ht="30" customHeight="1">
       <c r="A220" s="91" t="s">
@@ -17030,11 +17035,11 @@
         <v>1269</v>
       </c>
       <c r="C220" s="91"/>
-      <c r="E220" s="129" t="s">
+      <c r="E220" s="137" t="s">
         <v>1270</v>
       </c>
-      <c r="F220" s="130"/>
-      <c r="G220" s="130"/>
+      <c r="F220" s="138"/>
+      <c r="G220" s="138"/>
     </row>
     <row r="221" spans="1:7" ht="45" customHeight="1">
       <c r="A221" s="91" t="s">
@@ -17062,11 +17067,11 @@
       <c r="G222" s="91"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="129" t="s">
+      <c r="A223" s="137" t="s">
         <v>1273</v>
       </c>
-      <c r="B223" s="130"/>
-      <c r="C223" s="130"/>
+      <c r="B223" s="138"/>
+      <c r="C223" s="138"/>
     </row>
     <row r="224" spans="1:7" ht="30" customHeight="1">
       <c r="A224" s="91" t="s">
@@ -17076,11 +17081,11 @@
         <v>1273</v>
       </c>
       <c r="C224" s="91"/>
-      <c r="E224" s="129" t="s">
+      <c r="E224" s="137" t="s">
         <v>1274</v>
       </c>
-      <c r="F224" s="130"/>
-      <c r="G224" s="130"/>
+      <c r="F224" s="138"/>
+      <c r="G224" s="138"/>
     </row>
     <row r="225" spans="1:7" ht="45" customHeight="1">
       <c r="A225" s="91" t="s">
@@ -17108,11 +17113,11 @@
       <c r="G226" s="91"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="129" t="s">
+      <c r="A227" s="137" t="s">
         <v>1277</v>
       </c>
-      <c r="B227" s="130"/>
-      <c r="C227" s="130"/>
+      <c r="B227" s="138"/>
+      <c r="C227" s="138"/>
     </row>
     <row r="228" spans="1:7" ht="30">
       <c r="A228" s="91" t="s">
@@ -17122,11 +17127,11 @@
         <v>1277</v>
       </c>
       <c r="C228" s="91"/>
-      <c r="E228" s="129" t="s">
+      <c r="E228" s="137" t="s">
         <v>1278</v>
       </c>
-      <c r="F228" s="130"/>
-      <c r="G228" s="130"/>
+      <c r="F228" s="138"/>
+      <c r="G228" s="138"/>
     </row>
     <row r="229" spans="1:7" ht="30" customHeight="1">
       <c r="A229" s="91" t="s">
@@ -17154,11 +17159,11 @@
       <c r="G230" s="91"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="129" t="s">
+      <c r="A231" s="137" t="s">
         <v>1281</v>
       </c>
-      <c r="B231" s="130"/>
-      <c r="C231" s="130"/>
+      <c r="B231" s="138"/>
+      <c r="C231" s="138"/>
     </row>
     <row r="232" spans="1:7" ht="30" customHeight="1">
       <c r="A232" s="91" t="s">
@@ -17168,11 +17173,11 @@
         <v>1281</v>
       </c>
       <c r="C232" s="91"/>
-      <c r="E232" s="129" t="s">
+      <c r="E232" s="137" t="s">
         <v>1282</v>
       </c>
-      <c r="F232" s="130"/>
-      <c r="G232" s="130"/>
+      <c r="F232" s="138"/>
+      <c r="G232" s="138"/>
     </row>
     <row r="233" spans="1:7" ht="45" customHeight="1">
       <c r="A233" s="91" t="s">
@@ -17200,11 +17205,11 @@
       <c r="G234" s="91"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="129" t="s">
+      <c r="A235" s="137" t="s">
         <v>1285</v>
       </c>
-      <c r="B235" s="130"/>
-      <c r="C235" s="130"/>
+      <c r="B235" s="138"/>
+      <c r="C235" s="138"/>
     </row>
     <row r="236" spans="1:7" ht="30" customHeight="1">
       <c r="A236" s="91" t="s">
@@ -17214,11 +17219,11 @@
         <v>1285</v>
       </c>
       <c r="C236" s="91"/>
-      <c r="E236" s="129" t="s">
+      <c r="E236" s="137" t="s">
         <v>1286</v>
       </c>
-      <c r="F236" s="130"/>
-      <c r="G236" s="130"/>
+      <c r="F236" s="138"/>
+      <c r="G236" s="138"/>
     </row>
     <row r="237" spans="1:7" ht="45" customHeight="1">
       <c r="A237" s="91" t="s">
@@ -17246,11 +17251,11 @@
       <c r="G238" s="91"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="129" t="s">
+      <c r="A239" s="137" t="s">
         <v>1289</v>
       </c>
-      <c r="B239" s="130"/>
-      <c r="C239" s="130"/>
+      <c r="B239" s="138"/>
+      <c r="C239" s="138"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="91" t="s">
@@ -17260,11 +17265,11 @@
         <v>1289</v>
       </c>
       <c r="C240" s="91"/>
-      <c r="E240" s="129" t="s">
+      <c r="E240" s="137" t="s">
         <v>1290</v>
       </c>
-      <c r="F240" s="130"/>
-      <c r="G240" s="130"/>
+      <c r="F240" s="138"/>
+      <c r="G240" s="138"/>
     </row>
     <row r="241" spans="1:7" ht="30" customHeight="1">
       <c r="A241" s="91" t="s">
@@ -17292,11 +17297,11 @@
       <c r="G242" s="91"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="129" t="s">
+      <c r="A243" s="137" t="s">
         <v>1293</v>
       </c>
-      <c r="B243" s="130"/>
-      <c r="C243" s="130"/>
+      <c r="B243" s="138"/>
+      <c r="C243" s="138"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="91" t="s">
@@ -17306,11 +17311,11 @@
         <v>1293</v>
       </c>
       <c r="C244" s="91"/>
-      <c r="E244" s="129" t="s">
+      <c r="E244" s="137" t="s">
         <v>1294</v>
       </c>
-      <c r="F244" s="130"/>
-      <c r="G244" s="130"/>
+      <c r="F244" s="138"/>
+      <c r="G244" s="138"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1">
       <c r="A245" s="91" t="s">
@@ -17338,11 +17343,11 @@
       <c r="G246" s="91"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="129" t="s">
+      <c r="A247" s="137" t="s">
         <v>1297</v>
       </c>
-      <c r="B247" s="130"/>
-      <c r="C247" s="130"/>
+      <c r="B247" s="138"/>
+      <c r="C247" s="138"/>
     </row>
     <row r="248" spans="1:7" ht="30" customHeight="1">
       <c r="A248" s="91" t="s">
@@ -17352,11 +17357,11 @@
         <v>1297</v>
       </c>
       <c r="C248" s="91"/>
-      <c r="E248" s="129" t="s">
+      <c r="E248" s="137" t="s">
         <v>1298</v>
       </c>
-      <c r="F248" s="130"/>
-      <c r="G248" s="130"/>
+      <c r="F248" s="138"/>
+      <c r="G248" s="138"/>
     </row>
     <row r="249" spans="1:7" ht="45" customHeight="1">
       <c r="A249" s="91" t="s">
@@ -17384,11 +17389,11 @@
       <c r="G250" s="91"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="129" t="s">
+      <c r="A251" s="137" t="s">
         <v>1301</v>
       </c>
-      <c r="B251" s="130"/>
-      <c r="C251" s="130"/>
+      <c r="B251" s="138"/>
+      <c r="C251" s="138"/>
     </row>
     <row r="252" spans="1:7" ht="30" customHeight="1">
       <c r="A252" s="91" t="s">
@@ -17398,11 +17403,11 @@
         <v>1301</v>
       </c>
       <c r="C252" s="91"/>
-      <c r="E252" s="129" t="s">
+      <c r="E252" s="137" t="s">
         <v>1302</v>
       </c>
-      <c r="F252" s="130"/>
-      <c r="G252" s="130"/>
+      <c r="F252" s="138"/>
+      <c r="G252" s="138"/>
     </row>
     <row r="253" spans="1:7" ht="45" customHeight="1">
       <c r="A253" s="91" t="s">
@@ -17430,11 +17435,11 @@
       <c r="G254" s="91"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="129" t="s">
+      <c r="A255" s="137" t="s">
         <v>1305</v>
       </c>
-      <c r="B255" s="130"/>
-      <c r="C255" s="130"/>
+      <c r="B255" s="138"/>
+      <c r="C255" s="138"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="91" t="s">
@@ -17444,11 +17449,11 @@
         <v>1305</v>
       </c>
       <c r="C256" s="91"/>
-      <c r="E256" s="129" t="s">
+      <c r="E256" s="137" t="s">
         <v>1306</v>
       </c>
-      <c r="F256" s="130"/>
-      <c r="G256" s="130"/>
+      <c r="F256" s="138"/>
+      <c r="G256" s="138"/>
     </row>
     <row r="257" spans="1:7" ht="30" customHeight="1">
       <c r="A257" s="91" t="s">
@@ -17476,11 +17481,11 @@
       <c r="G258" s="91"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="129" t="s">
+      <c r="A259" s="137" t="s">
         <v>1309</v>
       </c>
-      <c r="B259" s="130"/>
-      <c r="C259" s="130"/>
+      <c r="B259" s="138"/>
+      <c r="C259" s="138"/>
     </row>
     <row r="260" spans="1:7" ht="30" customHeight="1">
       <c r="A260" s="91" t="s">
@@ -17490,11 +17495,11 @@
         <v>1309</v>
       </c>
       <c r="C260" s="91"/>
-      <c r="E260" s="129" t="s">
+      <c r="E260" s="137" t="s">
         <v>1310</v>
       </c>
-      <c r="F260" s="130"/>
-      <c r="G260" s="130"/>
+      <c r="F260" s="138"/>
+      <c r="G260" s="138"/>
     </row>
     <row r="261" spans="1:7" ht="45" customHeight="1">
       <c r="A261" s="91" t="s">
@@ -17522,11 +17527,11 @@
       <c r="G262" s="91"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="129" t="s">
+      <c r="A263" s="137" t="s">
         <v>1313</v>
       </c>
-      <c r="B263" s="130"/>
-      <c r="C263" s="130"/>
+      <c r="B263" s="138"/>
+      <c r="C263" s="138"/>
     </row>
     <row r="264" spans="1:7" ht="30">
       <c r="A264" s="91" t="s">
@@ -17536,11 +17541,11 @@
         <v>1313</v>
       </c>
       <c r="C264" s="91"/>
-      <c r="E264" s="129" t="s">
+      <c r="E264" s="137" t="s">
         <v>1314</v>
       </c>
-      <c r="F264" s="130"/>
-      <c r="G264" s="130"/>
+      <c r="F264" s="138"/>
+      <c r="G264" s="138"/>
     </row>
     <row r="265" spans="1:7" ht="45" customHeight="1">
       <c r="A265" s="91" t="s">
@@ -17568,11 +17573,11 @@
       <c r="G266" s="91"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="129" t="s">
+      <c r="A267" s="137" t="s">
         <v>1317</v>
       </c>
-      <c r="B267" s="130"/>
-      <c r="C267" s="130"/>
+      <c r="B267" s="138"/>
+      <c r="C267" s="138"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="91" t="s">
@@ -17582,11 +17587,11 @@
         <v>1317</v>
       </c>
       <c r="C268" s="91"/>
-      <c r="E268" s="129" t="s">
+      <c r="E268" s="137" t="s">
         <v>1318</v>
       </c>
-      <c r="F268" s="130"/>
-      <c r="G268" s="130"/>
+      <c r="F268" s="138"/>
+      <c r="G268" s="138"/>
     </row>
     <row r="269" spans="1:7" ht="30" customHeight="1">
       <c r="A269" s="91" t="s">
@@ -17614,11 +17619,11 @@
       <c r="G270" s="91"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="129" t="s">
+      <c r="A271" s="137" t="s">
         <v>1321</v>
       </c>
-      <c r="B271" s="130"/>
-      <c r="C271" s="130"/>
+      <c r="B271" s="138"/>
+      <c r="C271" s="138"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="91" t="s">
@@ -17628,11 +17633,11 @@
         <v>1321</v>
       </c>
       <c r="C272" s="91"/>
-      <c r="E272" s="129" t="s">
+      <c r="E272" s="137" t="s">
         <v>1322</v>
       </c>
-      <c r="F272" s="130"/>
-      <c r="G272" s="130"/>
+      <c r="F272" s="138"/>
+      <c r="G272" s="138"/>
     </row>
     <row r="273" spans="1:7" ht="30" customHeight="1">
       <c r="A273" s="91" t="s">
@@ -17660,11 +17665,11 @@
       <c r="G274" s="91"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="129" t="s">
+      <c r="A275" s="137" t="s">
         <v>1326</v>
       </c>
-      <c r="B275" s="130"/>
-      <c r="C275" s="130"/>
+      <c r="B275" s="138"/>
+      <c r="C275" s="138"/>
     </row>
     <row r="276" spans="1:7" ht="30">
       <c r="A276" s="91" t="s">
@@ -17674,11 +17679,11 @@
         <v>1326</v>
       </c>
       <c r="C276" s="91"/>
-      <c r="E276" s="129" t="s">
+      <c r="E276" s="137" t="s">
         <v>1327</v>
       </c>
-      <c r="F276" s="130"/>
-      <c r="G276" s="130"/>
+      <c r="F276" s="138"/>
+      <c r="G276" s="138"/>
     </row>
     <row r="277" spans="1:7" ht="30" customHeight="1">
       <c r="A277" s="91" t="s">
@@ -17706,11 +17711,11 @@
       <c r="G278" s="91"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="129" t="s">
+      <c r="A279" s="137" t="s">
         <v>1330</v>
       </c>
-      <c r="B279" s="130"/>
-      <c r="C279" s="130"/>
+      <c r="B279" s="138"/>
+      <c r="C279" s="138"/>
     </row>
     <row r="280" spans="1:7" ht="30" customHeight="1">
       <c r="A280" s="91" t="s">
@@ -17720,11 +17725,11 @@
         <v>1330</v>
       </c>
       <c r="C280" s="91"/>
-      <c r="E280" s="129" t="s">
+      <c r="E280" s="137" t="s">
         <v>1331</v>
       </c>
-      <c r="F280" s="130"/>
-      <c r="G280" s="130"/>
+      <c r="F280" s="138"/>
+      <c r="G280" s="138"/>
     </row>
     <row r="281" spans="1:7" ht="45" customHeight="1">
       <c r="A281" s="91" t="s">
@@ -17752,11 +17757,11 @@
       <c r="G282" s="91"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="129" t="s">
+      <c r="A283" s="137" t="s">
         <v>1334</v>
       </c>
-      <c r="B283" s="130"/>
-      <c r="C283" s="130"/>
+      <c r="B283" s="138"/>
+      <c r="C283" s="138"/>
     </row>
     <row r="284" spans="1:7" ht="30">
       <c r="A284" s="91" t="s">
@@ -17766,11 +17771,11 @@
         <v>1334</v>
       </c>
       <c r="C284" s="91"/>
-      <c r="E284" s="129" t="s">
+      <c r="E284" s="137" t="s">
         <v>1335</v>
       </c>
-      <c r="F284" s="130"/>
-      <c r="G284" s="130"/>
+      <c r="F284" s="138"/>
+      <c r="G284" s="138"/>
     </row>
     <row r="285" spans="1:7" ht="45" customHeight="1">
       <c r="A285" s="91" t="s">
@@ -17798,11 +17803,11 @@
       <c r="G286" s="91"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="129" t="s">
+      <c r="A287" s="137" t="s">
         <v>1338</v>
       </c>
-      <c r="B287" s="130"/>
-      <c r="C287" s="130"/>
+      <c r="B287" s="138"/>
+      <c r="C287" s="138"/>
     </row>
     <row r="288" spans="1:7" ht="30" customHeight="1">
       <c r="A288" s="91" t="s">
@@ -17812,11 +17817,11 @@
         <v>1338</v>
       </c>
       <c r="C288" s="91"/>
-      <c r="E288" s="129" t="s">
+      <c r="E288" s="137" t="s">
         <v>1339</v>
       </c>
-      <c r="F288" s="130"/>
-      <c r="G288" s="130"/>
+      <c r="F288" s="138"/>
+      <c r="G288" s="138"/>
     </row>
     <row r="289" spans="1:7" ht="45" customHeight="1">
       <c r="A289" s="91" t="s">
@@ -17844,11 +17849,11 @@
       <c r="G290" s="91"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="129" t="s">
+      <c r="A291" s="137" t="s">
         <v>1342</v>
       </c>
-      <c r="B291" s="130"/>
-      <c r="C291" s="130"/>
+      <c r="B291" s="138"/>
+      <c r="C291" s="138"/>
     </row>
     <row r="292" spans="1:7" ht="30" customHeight="1">
       <c r="A292" s="91" t="s">
@@ -17858,11 +17863,11 @@
         <v>1342</v>
       </c>
       <c r="C292" s="91"/>
-      <c r="E292" s="129" t="s">
+      <c r="E292" s="137" t="s">
         <v>1343</v>
       </c>
-      <c r="F292" s="130"/>
-      <c r="G292" s="130"/>
+      <c r="F292" s="138"/>
+      <c r="G292" s="138"/>
     </row>
     <row r="293" spans="1:7" ht="45" customHeight="1">
       <c r="A293" s="91" t="s">
@@ -17890,11 +17895,11 @@
       <c r="G294" s="91"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="129" t="s">
+      <c r="A295" s="137" t="s">
         <v>1346</v>
       </c>
-      <c r="B295" s="130"/>
-      <c r="C295" s="130"/>
+      <c r="B295" s="138"/>
+      <c r="C295" s="138"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="91" t="s">
@@ -17904,11 +17909,11 @@
         <v>1346</v>
       </c>
       <c r="C296" s="91"/>
-      <c r="E296" s="129" t="s">
+      <c r="E296" s="137" t="s">
         <v>1347</v>
       </c>
-      <c r="F296" s="130"/>
-      <c r="G296" s="130"/>
+      <c r="F296" s="138"/>
+      <c r="G296" s="138"/>
     </row>
     <row r="297" spans="1:7" ht="30" customHeight="1">
       <c r="A297" s="91" t="s">
@@ -17936,11 +17941,11 @@
       <c r="G298" s="91"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="129" t="s">
+      <c r="A299" s="137" t="s">
         <v>1350</v>
       </c>
-      <c r="B299" s="130"/>
-      <c r="C299" s="130"/>
+      <c r="B299" s="138"/>
+      <c r="C299" s="138"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="91" t="s">
@@ -17950,11 +17955,11 @@
         <v>1350</v>
       </c>
       <c r="C300" s="91"/>
-      <c r="E300" s="131" t="s">
+      <c r="E300" s="139" t="s">
         <v>1351</v>
       </c>
-      <c r="F300" s="130"/>
-      <c r="G300" s="130"/>
+      <c r="F300" s="138"/>
+      <c r="G300" s="138"/>
     </row>
     <row r="301" spans="1:7" ht="30" customHeight="1">
       <c r="A301" s="91" t="s">
@@ -17982,11 +17987,11 @@
       <c r="G302" s="91"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="131" t="s">
+      <c r="A303" s="139" t="s">
         <v>1354</v>
       </c>
-      <c r="B303" s="130"/>
-      <c r="C303" s="130"/>
+      <c r="B303" s="138"/>
+      <c r="C303" s="138"/>
     </row>
     <row r="304" spans="1:7" ht="30" customHeight="1">
       <c r="A304" s="91" t="s">
@@ -17996,11 +18001,11 @@
         <v>1354</v>
       </c>
       <c r="C304" s="91"/>
-      <c r="E304" s="131" t="s">
+      <c r="E304" s="139" t="s">
         <v>1355</v>
       </c>
-      <c r="F304" s="130"/>
-      <c r="G304" s="130"/>
+      <c r="F304" s="138"/>
+      <c r="G304" s="138"/>
     </row>
     <row r="305" spans="1:7" ht="45" customHeight="1">
       <c r="A305" s="91" t="s">
@@ -18028,16 +18033,16 @@
       <c r="G306" s="91"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="131" t="s">
+      <c r="A308" s="139" t="s">
         <v>1358</v>
       </c>
-      <c r="B308" s="130"/>
-      <c r="C308" s="130"/>
-      <c r="E308" s="131" t="s">
+      <c r="B308" s="138"/>
+      <c r="C308" s="138"/>
+      <c r="E308" s="139" t="s">
         <v>1359</v>
       </c>
-      <c r="F308" s="130"/>
-      <c r="G308" s="130"/>
+      <c r="F308" s="138"/>
+      <c r="G308" s="138"/>
     </row>
     <row r="309" spans="1:7" ht="30" customHeight="1">
       <c r="A309" s="91" t="s">
@@ -18072,16 +18077,16 @@
       <c r="G310" s="91"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="131" t="s">
+      <c r="A312" s="139" t="s">
         <v>1362</v>
       </c>
-      <c r="B312" s="130"/>
-      <c r="C312" s="130"/>
-      <c r="E312" s="131" t="s">
+      <c r="B312" s="138"/>
+      <c r="C312" s="138"/>
+      <c r="E312" s="139" t="s">
         <v>1363</v>
       </c>
-      <c r="F312" s="130"/>
-      <c r="G312" s="130"/>
+      <c r="F312" s="138"/>
+      <c r="G312" s="138"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="91" t="s">
@@ -18116,16 +18121,16 @@
       <c r="G314" s="91"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="131" t="s">
+      <c r="A316" s="139" t="s">
         <v>1366</v>
       </c>
-      <c r="B316" s="130"/>
-      <c r="C316" s="130"/>
-      <c r="E316" s="131" t="s">
+      <c r="B316" s="138"/>
+      <c r="C316" s="138"/>
+      <c r="E316" s="139" t="s">
         <v>1367</v>
       </c>
-      <c r="F316" s="130"/>
-      <c r="G316" s="130"/>
+      <c r="F316" s="138"/>
+      <c r="G316" s="138"/>
     </row>
     <row r="317" spans="1:7" ht="30" customHeight="1">
       <c r="A317" s="91" t="s">
@@ -18160,16 +18165,16 @@
       <c r="G318" s="91"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="131" t="s">
+      <c r="A320" s="139" t="s">
         <v>1370</v>
       </c>
-      <c r="B320" s="130"/>
-      <c r="C320" s="130"/>
-      <c r="E320" s="131" t="s">
+      <c r="B320" s="138"/>
+      <c r="C320" s="138"/>
+      <c r="E320" s="139" t="s">
         <v>1370</v>
       </c>
-      <c r="F320" s="130"/>
-      <c r="G320" s="130"/>
+      <c r="F320" s="138"/>
+      <c r="G320" s="138"/>
     </row>
     <row r="321" spans="1:7" ht="30" customHeight="1">
       <c r="A321" s="91" t="s">
@@ -18204,16 +18209,16 @@
       <c r="G322" s="91"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="131" t="s">
+      <c r="A324" s="139" t="s">
         <v>1372</v>
       </c>
-      <c r="B324" s="130"/>
-      <c r="C324" s="130"/>
-      <c r="E324" s="131" t="s">
+      <c r="B324" s="138"/>
+      <c r="C324" s="138"/>
+      <c r="E324" s="139" t="s">
         <v>1373</v>
       </c>
-      <c r="F324" s="130"/>
-      <c r="G324" s="130"/>
+      <c r="F324" s="138"/>
+      <c r="G324" s="138"/>
     </row>
     <row r="325" spans="1:7" ht="30">
       <c r="A325" s="91" t="s">
@@ -18248,16 +18253,16 @@
       <c r="G326" s="91"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="131" t="s">
+      <c r="A328" s="139" t="s">
         <v>1376</v>
       </c>
-      <c r="B328" s="130"/>
-      <c r="C328" s="130"/>
-      <c r="E328" s="131" t="s">
+      <c r="B328" s="138"/>
+      <c r="C328" s="138"/>
+      <c r="E328" s="139" t="s">
         <v>1377</v>
       </c>
-      <c r="F328" s="130"/>
-      <c r="G328" s="130"/>
+      <c r="F328" s="138"/>
+      <c r="G328" s="138"/>
     </row>
     <row r="329" spans="1:7" ht="30" customHeight="1">
       <c r="A329" s="91" t="s">
@@ -18292,16 +18297,16 @@
       <c r="G330" s="91"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="131" t="s">
+      <c r="A332" s="139" t="s">
         <v>1380</v>
       </c>
-      <c r="B332" s="130"/>
-      <c r="C332" s="130"/>
-      <c r="E332" s="131" t="s">
+      <c r="B332" s="138"/>
+      <c r="C332" s="138"/>
+      <c r="E332" s="139" t="s">
         <v>1381</v>
       </c>
-      <c r="F332" s="130"/>
-      <c r="G332" s="130"/>
+      <c r="F332" s="138"/>
+      <c r="G332" s="138"/>
     </row>
     <row r="333" spans="1:7" ht="30" customHeight="1">
       <c r="A333" s="91" t="s">
@@ -18336,16 +18341,16 @@
       <c r="G334" s="91"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="131" t="s">
+      <c r="A336" s="139" t="s">
         <v>1383</v>
       </c>
-      <c r="B336" s="130"/>
-      <c r="C336" s="130"/>
-      <c r="E336" s="131" t="s">
+      <c r="B336" s="138"/>
+      <c r="C336" s="138"/>
+      <c r="E336" s="139" t="s">
         <v>1384</v>
       </c>
-      <c r="F336" s="130"/>
-      <c r="G336" s="130"/>
+      <c r="F336" s="138"/>
+      <c r="G336" s="138"/>
     </row>
     <row r="337" spans="1:7" ht="30" customHeight="1">
       <c r="A337" s="91" t="s">
@@ -18380,16 +18385,16 @@
       <c r="G338" s="91"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="131" t="s">
+      <c r="A340" s="139" t="s">
         <v>1387</v>
       </c>
-      <c r="B340" s="130"/>
-      <c r="C340" s="130"/>
-      <c r="E340" s="131" t="s">
+      <c r="B340" s="138"/>
+      <c r="C340" s="138"/>
+      <c r="E340" s="139" t="s">
         <v>1388</v>
       </c>
-      <c r="F340" s="130"/>
-      <c r="G340" s="130"/>
+      <c r="F340" s="138"/>
+      <c r="G340" s="138"/>
     </row>
     <row r="341" spans="1:7" ht="30" customHeight="1">
       <c r="A341" s="91" t="s">
@@ -18424,16 +18429,16 @@
       <c r="G342" s="91"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="131" t="s">
+      <c r="A344" s="139" t="s">
         <v>1391</v>
       </c>
-      <c r="B344" s="130"/>
-      <c r="C344" s="130"/>
-      <c r="E344" s="131" t="s">
+      <c r="B344" s="138"/>
+      <c r="C344" s="138"/>
+      <c r="E344" s="139" t="s">
         <v>1392</v>
       </c>
-      <c r="F344" s="130"/>
-      <c r="G344" s="130"/>
+      <c r="F344" s="138"/>
+      <c r="G344" s="138"/>
     </row>
     <row r="345" spans="1:7" ht="30" customHeight="1">
       <c r="A345" s="91" t="s">
@@ -18468,16 +18473,16 @@
       <c r="G346" s="91"/>
     </row>
     <row r="348" spans="1:7">
-      <c r="A348" s="129" t="s">
+      <c r="A348" s="137" t="s">
         <v>1395</v>
       </c>
-      <c r="B348" s="130"/>
-      <c r="C348" s="130"/>
-      <c r="E348" s="129" t="s">
+      <c r="B348" s="138"/>
+      <c r="C348" s="138"/>
+      <c r="E348" s="137" t="s">
         <v>1396</v>
       </c>
-      <c r="F348" s="130"/>
-      <c r="G348" s="130"/>
+      <c r="F348" s="138"/>
+      <c r="G348" s="138"/>
     </row>
     <row r="349" spans="1:7" ht="30" customHeight="1">
       <c r="A349" s="91" t="s">
@@ -18512,16 +18517,16 @@
       <c r="G350" s="91"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="129" t="s">
+      <c r="A352" s="137" t="s">
         <v>1380</v>
       </c>
-      <c r="B352" s="130"/>
-      <c r="C352" s="130"/>
-      <c r="E352" s="129" t="s">
+      <c r="B352" s="138"/>
+      <c r="C352" s="138"/>
+      <c r="E352" s="137" t="s">
         <v>1399</v>
       </c>
-      <c r="F352" s="130"/>
-      <c r="G352" s="130"/>
+      <c r="F352" s="138"/>
+      <c r="G352" s="138"/>
     </row>
     <row r="353" spans="1:7" ht="30">
       <c r="A353" s="91" t="s">
@@ -18556,16 +18561,16 @@
       <c r="G354" s="91"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="129" t="s">
+      <c r="A356" s="137" t="s">
         <v>1402</v>
       </c>
-      <c r="B356" s="130"/>
-      <c r="C356" s="130"/>
-      <c r="E356" s="129" t="s">
+      <c r="B356" s="138"/>
+      <c r="C356" s="138"/>
+      <c r="E356" s="137" t="s">
         <v>1403</v>
       </c>
-      <c r="F356" s="130"/>
-      <c r="G356" s="130"/>
+      <c r="F356" s="138"/>
+      <c r="G356" s="138"/>
     </row>
     <row r="357" spans="1:7" ht="30">
       <c r="A357" s="91" t="s">
@@ -18600,16 +18605,16 @@
       <c r="G358" s="91"/>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="129" t="s">
+      <c r="A360" s="137" t="s">
         <v>1406</v>
       </c>
-      <c r="B360" s="130"/>
-      <c r="C360" s="130"/>
-      <c r="E360" s="129" t="s">
+      <c r="B360" s="138"/>
+      <c r="C360" s="138"/>
+      <c r="E360" s="137" t="s">
         <v>1407</v>
       </c>
-      <c r="F360" s="130"/>
-      <c r="G360" s="130"/>
+      <c r="F360" s="138"/>
+      <c r="G360" s="138"/>
     </row>
     <row r="361" spans="1:7" ht="30" customHeight="1">
       <c r="A361" s="91" t="s">
@@ -18644,16 +18649,16 @@
       <c r="G362" s="91"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="129" t="s">
+      <c r="A364" s="137" t="s">
         <v>1410</v>
       </c>
-      <c r="B364" s="130"/>
-      <c r="C364" s="130"/>
-      <c r="E364" s="129" t="s">
+      <c r="B364" s="138"/>
+      <c r="C364" s="138"/>
+      <c r="E364" s="137" t="s">
         <v>1411</v>
       </c>
-      <c r="F364" s="130"/>
-      <c r="G364" s="130"/>
+      <c r="F364" s="138"/>
+      <c r="G364" s="138"/>
     </row>
     <row r="365" spans="1:7" ht="30" customHeight="1">
       <c r="A365" s="91" t="s">
@@ -18688,16 +18693,16 @@
       <c r="G366" s="91"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="129" t="s">
+      <c r="A368" s="137" t="s">
         <v>1414</v>
       </c>
-      <c r="B368" s="130"/>
-      <c r="C368" s="130"/>
-      <c r="E368" s="129" t="s">
+      <c r="B368" s="138"/>
+      <c r="C368" s="138"/>
+      <c r="E368" s="137" t="s">
         <v>1415</v>
       </c>
-      <c r="F368" s="130"/>
-      <c r="G368" s="130"/>
+      <c r="F368" s="138"/>
+      <c r="G368" s="138"/>
     </row>
     <row r="369" spans="1:7" ht="30" customHeight="1">
       <c r="A369" s="91" t="s">
@@ -18732,16 +18737,16 @@
       <c r="G370" s="91"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="129" t="s">
+      <c r="A372" s="137" t="s">
         <v>1418</v>
       </c>
-      <c r="B372" s="130"/>
-      <c r="C372" s="130"/>
-      <c r="E372" s="129" t="s">
+      <c r="B372" s="138"/>
+      <c r="C372" s="138"/>
+      <c r="E372" s="137" t="s">
         <v>1419</v>
       </c>
-      <c r="F372" s="130"/>
-      <c r="G372" s="130"/>
+      <c r="F372" s="138"/>
+      <c r="G372" s="138"/>
     </row>
     <row r="373" spans="1:7" ht="30" customHeight="1">
       <c r="A373" s="91" t="s">
@@ -18776,16 +18781,16 @@
       <c r="G374" s="91"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="129" t="s">
+      <c r="A376" s="137" t="s">
         <v>1422</v>
       </c>
-      <c r="B376" s="130"/>
-      <c r="C376" s="130"/>
-      <c r="E376" s="129" t="s">
+      <c r="B376" s="138"/>
+      <c r="C376" s="138"/>
+      <c r="E376" s="137" t="s">
         <v>1423</v>
       </c>
-      <c r="F376" s="130"/>
-      <c r="G376" s="130"/>
+      <c r="F376" s="138"/>
+      <c r="G376" s="138"/>
     </row>
     <row r="377" spans="1:7" ht="30" customHeight="1">
       <c r="A377" s="91" t="s">
@@ -18820,16 +18825,16 @@
       <c r="G378" s="91"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="129" t="s">
+      <c r="A380" s="137" t="s">
         <v>1426</v>
       </c>
-      <c r="B380" s="130"/>
-      <c r="C380" s="130"/>
-      <c r="E380" s="129" t="s">
+      <c r="B380" s="138"/>
+      <c r="C380" s="138"/>
+      <c r="E380" s="137" t="s">
         <v>1427</v>
       </c>
-      <c r="F380" s="130"/>
-      <c r="G380" s="130"/>
+      <c r="F380" s="138"/>
+      <c r="G380" s="138"/>
     </row>
     <row r="381" spans="1:7" ht="30">
       <c r="A381" s="91" t="s">
@@ -18864,16 +18869,16 @@
       <c r="G382" s="91"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="129" t="s">
+      <c r="A384" s="137" t="s">
         <v>1430</v>
       </c>
-      <c r="B384" s="130"/>
-      <c r="C384" s="130"/>
-      <c r="E384" s="129" t="s">
+      <c r="B384" s="138"/>
+      <c r="C384" s="138"/>
+      <c r="E384" s="137" t="s">
         <v>1431</v>
       </c>
-      <c r="F384" s="130"/>
-      <c r="G384" s="130"/>
+      <c r="F384" s="138"/>
+      <c r="G384" s="138"/>
     </row>
     <row r="385" spans="1:7" ht="30" customHeight="1">
       <c r="A385" s="91" t="s">
@@ -18908,16 +18913,16 @@
       <c r="G386" s="91"/>
     </row>
     <row r="388" spans="1:7">
-      <c r="A388" s="129" t="s">
+      <c r="A388" s="137" t="s">
         <v>1434</v>
       </c>
-      <c r="B388" s="130"/>
-      <c r="C388" s="130"/>
-      <c r="E388" s="129" t="s">
+      <c r="B388" s="138"/>
+      <c r="C388" s="138"/>
+      <c r="E388" s="137" t="s">
         <v>1435</v>
       </c>
-      <c r="F388" s="130"/>
-      <c r="G388" s="130"/>
+      <c r="F388" s="138"/>
+      <c r="G388" s="138"/>
     </row>
     <row r="389" spans="1:7" ht="30" customHeight="1">
       <c r="A389" s="91" t="s">
@@ -18952,16 +18957,16 @@
       <c r="G390" s="91"/>
     </row>
     <row r="392" spans="1:7">
-      <c r="A392" s="129" t="s">
+      <c r="A392" s="137" t="s">
         <v>1438</v>
       </c>
-      <c r="B392" s="130"/>
-      <c r="C392" s="130"/>
-      <c r="E392" s="129" t="s">
+      <c r="B392" s="138"/>
+      <c r="C392" s="138"/>
+      <c r="E392" s="137" t="s">
         <v>1439</v>
       </c>
-      <c r="F392" s="130"/>
-      <c r="G392" s="130"/>
+      <c r="F392" s="138"/>
+      <c r="G392" s="138"/>
     </row>
     <row r="393" spans="1:7" ht="30" customHeight="1">
       <c r="A393" s="91" t="s">
@@ -18996,16 +19001,16 @@
       <c r="G394" s="91"/>
     </row>
     <row r="396" spans="1:7">
-      <c r="A396" s="129" t="s">
+      <c r="A396" s="137" t="s">
         <v>1442</v>
       </c>
-      <c r="B396" s="130"/>
-      <c r="C396" s="130"/>
-      <c r="E396" s="129" t="s">
+      <c r="B396" s="138"/>
+      <c r="C396" s="138"/>
+      <c r="E396" s="137" t="s">
         <v>1443</v>
       </c>
-      <c r="F396" s="130"/>
-      <c r="G396" s="130"/>
+      <c r="F396" s="138"/>
+      <c r="G396" s="138"/>
     </row>
     <row r="397" spans="1:7" ht="30" customHeight="1">
       <c r="A397" s="91" t="s">
@@ -19040,16 +19045,16 @@
       <c r="G398" s="91"/>
     </row>
     <row r="400" spans="1:7">
-      <c r="A400" s="129" t="s">
+      <c r="A400" s="137" t="s">
         <v>1446</v>
       </c>
-      <c r="B400" s="130"/>
-      <c r="C400" s="130"/>
-      <c r="E400" s="129" t="s">
+      <c r="B400" s="138"/>
+      <c r="C400" s="138"/>
+      <c r="E400" s="137" t="s">
         <v>1447</v>
       </c>
-      <c r="F400" s="130"/>
-      <c r="G400" s="130"/>
+      <c r="F400" s="138"/>
+      <c r="G400" s="138"/>
     </row>
     <row r="401" spans="1:7" ht="30" customHeight="1">
       <c r="A401" s="91" t="s">
@@ -19084,16 +19089,16 @@
       <c r="G402" s="91"/>
     </row>
     <row r="404" spans="1:7">
-      <c r="A404" s="129" t="s">
+      <c r="A404" s="137" t="s">
         <v>1450</v>
       </c>
-      <c r="B404" s="130"/>
-      <c r="C404" s="130"/>
-      <c r="E404" s="129" t="s">
+      <c r="B404" s="138"/>
+      <c r="C404" s="138"/>
+      <c r="E404" s="137" t="s">
         <v>1451</v>
       </c>
-      <c r="F404" s="130"/>
-      <c r="G404" s="130"/>
+      <c r="F404" s="138"/>
+      <c r="G404" s="138"/>
     </row>
     <row r="405" spans="1:7" ht="30" customHeight="1">
       <c r="A405" s="91" t="s">
@@ -19128,16 +19133,16 @@
       <c r="G406" s="91"/>
     </row>
     <row r="408" spans="1:7">
-      <c r="A408" s="129" t="s">
+      <c r="A408" s="137" t="s">
         <v>1454</v>
       </c>
-      <c r="B408" s="130"/>
-      <c r="C408" s="130"/>
-      <c r="E408" s="129" t="s">
+      <c r="B408" s="138"/>
+      <c r="C408" s="138"/>
+      <c r="E408" s="137" t="s">
         <v>1455</v>
       </c>
-      <c r="F408" s="130"/>
-      <c r="G408" s="130"/>
+      <c r="F408" s="138"/>
+      <c r="G408" s="138"/>
     </row>
     <row r="409" spans="1:7" ht="30">
       <c r="A409" s="91" t="s">
@@ -19172,16 +19177,16 @@
       <c r="G410" s="91"/>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="129" t="s">
+      <c r="A412" s="137" t="s">
         <v>1458</v>
       </c>
-      <c r="B412" s="130"/>
-      <c r="C412" s="130"/>
-      <c r="E412" s="129" t="s">
+      <c r="B412" s="138"/>
+      <c r="C412" s="138"/>
+      <c r="E412" s="137" t="s">
         <v>1459</v>
       </c>
-      <c r="F412" s="130"/>
-      <c r="G412" s="130"/>
+      <c r="F412" s="138"/>
+      <c r="G412" s="138"/>
     </row>
     <row r="413" spans="1:7" ht="30" customHeight="1">
       <c r="A413" s="91" t="s">
@@ -19216,16 +19221,16 @@
       <c r="G414" s="91"/>
     </row>
     <row r="416" spans="1:7">
-      <c r="A416" s="129" t="s">
+      <c r="A416" s="137" t="s">
         <v>1462</v>
       </c>
-      <c r="B416" s="130"/>
-      <c r="C416" s="130"/>
-      <c r="E416" s="129" t="s">
+      <c r="B416" s="138"/>
+      <c r="C416" s="138"/>
+      <c r="E416" s="137" t="s">
         <v>1463</v>
       </c>
-      <c r="F416" s="130"/>
-      <c r="G416" s="130"/>
+      <c r="F416" s="138"/>
+      <c r="G416" s="138"/>
     </row>
     <row r="417" spans="1:7" ht="30" customHeight="1">
       <c r="A417" s="91" t="s">
@@ -19260,16 +19265,16 @@
       <c r="G418" s="91"/>
     </row>
     <row r="420" spans="1:7">
-      <c r="A420" s="129" t="s">
+      <c r="A420" s="137" t="s">
         <v>1466</v>
       </c>
-      <c r="B420" s="130"/>
-      <c r="C420" s="130"/>
-      <c r="E420" s="129" t="s">
+      <c r="B420" s="138"/>
+      <c r="C420" s="138"/>
+      <c r="E420" s="137" t="s">
         <v>1467</v>
       </c>
-      <c r="F420" s="130"/>
-      <c r="G420" s="130"/>
+      <c r="F420" s="138"/>
+      <c r="G420" s="138"/>
     </row>
     <row r="421" spans="1:7" ht="30" customHeight="1">
       <c r="A421" s="91" t="s">
@@ -19304,16 +19309,16 @@
       <c r="G422" s="91"/>
     </row>
     <row r="424" spans="1:7">
-      <c r="A424" s="129" t="s">
+      <c r="A424" s="137" t="s">
         <v>1470</v>
       </c>
-      <c r="B424" s="130"/>
-      <c r="C424" s="130"/>
-      <c r="E424" s="129" t="s">
+      <c r="B424" s="138"/>
+      <c r="C424" s="138"/>
+      <c r="E424" s="137" t="s">
         <v>1471</v>
       </c>
-      <c r="F424" s="130"/>
-      <c r="G424" s="130"/>
+      <c r="F424" s="138"/>
+      <c r="G424" s="138"/>
     </row>
     <row r="425" spans="1:7" ht="30" customHeight="1">
       <c r="A425" s="91" t="s">
@@ -19348,16 +19353,16 @@
       <c r="G426" s="91"/>
     </row>
     <row r="428" spans="1:7">
-      <c r="A428" s="129" t="s">
+      <c r="A428" s="137" t="s">
         <v>1474</v>
       </c>
-      <c r="B428" s="130"/>
-      <c r="C428" s="130"/>
-      <c r="E428" s="129" t="s">
+      <c r="B428" s="138"/>
+      <c r="C428" s="138"/>
+      <c r="E428" s="137" t="s">
         <v>1475</v>
       </c>
-      <c r="F428" s="130"/>
-      <c r="G428" s="130"/>
+      <c r="F428" s="138"/>
+      <c r="G428" s="138"/>
     </row>
     <row r="429" spans="1:7" ht="30" customHeight="1">
       <c r="A429" s="91" t="s">
@@ -19392,16 +19397,16 @@
       <c r="G430" s="91"/>
     </row>
     <row r="432" spans="1:7">
-      <c r="A432" s="129" t="s">
+      <c r="A432" s="137" t="s">
         <v>1478</v>
       </c>
-      <c r="B432" s="130"/>
-      <c r="C432" s="130"/>
-      <c r="E432" s="129" t="s">
+      <c r="B432" s="138"/>
+      <c r="C432" s="138"/>
+      <c r="E432" s="137" t="s">
         <v>1478</v>
       </c>
-      <c r="F432" s="130"/>
-      <c r="G432" s="130"/>
+      <c r="F432" s="138"/>
+      <c r="G432" s="138"/>
     </row>
     <row r="433" spans="1:7" ht="30" customHeight="1">
       <c r="A433" s="91" t="s">
@@ -19436,16 +19441,16 @@
       <c r="G434" s="91"/>
     </row>
     <row r="436" spans="1:7">
-      <c r="A436" s="129" t="s">
+      <c r="A436" s="137" t="s">
         <v>1482</v>
       </c>
-      <c r="B436" s="130"/>
-      <c r="C436" s="130"/>
-      <c r="E436" s="129" t="s">
+      <c r="B436" s="138"/>
+      <c r="C436" s="138"/>
+      <c r="E436" s="137" t="s">
         <v>1483</v>
       </c>
-      <c r="F436" s="130"/>
-      <c r="G436" s="130"/>
+      <c r="F436" s="138"/>
+      <c r="G436" s="138"/>
     </row>
     <row r="437" spans="1:7" ht="30" customHeight="1">
       <c r="A437" s="91" t="s">
@@ -19480,16 +19485,16 @@
       <c r="G438" s="91"/>
     </row>
     <row r="440" spans="1:7">
-      <c r="A440" s="129" t="s">
+      <c r="A440" s="137" t="s">
         <v>1486</v>
       </c>
-      <c r="B440" s="130"/>
-      <c r="C440" s="130"/>
-      <c r="E440" s="129" t="s">
+      <c r="B440" s="138"/>
+      <c r="C440" s="138"/>
+      <c r="E440" s="137" t="s">
         <v>1487</v>
       </c>
-      <c r="F440" s="130"/>
-      <c r="G440" s="130"/>
+      <c r="F440" s="138"/>
+      <c r="G440" s="138"/>
     </row>
     <row r="441" spans="1:7" ht="30" customHeight="1">
       <c r="A441" s="91" t="s">
@@ -19524,16 +19529,16 @@
       <c r="G442" s="91"/>
     </row>
     <row r="444" spans="1:7">
-      <c r="A444" s="129" t="s">
+      <c r="A444" s="137" t="s">
         <v>1490</v>
       </c>
-      <c r="B444" s="130"/>
-      <c r="C444" s="130"/>
-      <c r="E444" s="129" t="s">
+      <c r="B444" s="138"/>
+      <c r="C444" s="138"/>
+      <c r="E444" s="137" t="s">
         <v>1491</v>
       </c>
-      <c r="F444" s="130"/>
-      <c r="G444" s="130"/>
+      <c r="F444" s="138"/>
+      <c r="G444" s="138"/>
     </row>
     <row r="445" spans="1:7" ht="45" customHeight="1">
       <c r="A445" s="91" t="s">
@@ -19568,16 +19573,16 @@
       <c r="G446" s="91"/>
     </row>
     <row r="448" spans="1:7">
-      <c r="A448" s="129" t="s">
+      <c r="A448" s="137" t="s">
         <v>1494</v>
       </c>
-      <c r="B448" s="130"/>
-      <c r="C448" s="130"/>
-      <c r="E448" s="129" t="s">
+      <c r="B448" s="138"/>
+      <c r="C448" s="138"/>
+      <c r="E448" s="137" t="s">
         <v>1495</v>
       </c>
-      <c r="F448" s="130"/>
-      <c r="G448" s="130"/>
+      <c r="F448" s="138"/>
+      <c r="G448" s="138"/>
     </row>
     <row r="449" spans="1:7" ht="45" customHeight="1">
       <c r="A449" s="91" t="s">
@@ -19612,16 +19617,16 @@
       <c r="G450" s="91"/>
     </row>
     <row r="452" spans="1:7">
-      <c r="A452" s="129" t="s">
+      <c r="A452" s="137" t="s">
         <v>1498</v>
       </c>
-      <c r="B452" s="130"/>
-      <c r="C452" s="130"/>
-      <c r="E452" s="129" t="s">
+      <c r="B452" s="138"/>
+      <c r="C452" s="138"/>
+      <c r="E452" s="137" t="s">
         <v>1499</v>
       </c>
-      <c r="F452" s="130"/>
-      <c r="G452" s="130"/>
+      <c r="F452" s="138"/>
+      <c r="G452" s="138"/>
     </row>
     <row r="453" spans="1:7" ht="30" customHeight="1">
       <c r="A453" s="91" t="s">
@@ -19656,16 +19661,16 @@
       <c r="G454" s="91"/>
     </row>
     <row r="456" spans="1:7">
-      <c r="A456" s="129" t="s">
+      <c r="A456" s="137" t="s">
         <v>1502</v>
       </c>
-      <c r="B456" s="130"/>
-      <c r="C456" s="130"/>
-      <c r="E456" s="129" t="s">
+      <c r="B456" s="138"/>
+      <c r="C456" s="138"/>
+      <c r="E456" s="137" t="s">
         <v>1503</v>
       </c>
-      <c r="F456" s="130"/>
-      <c r="G456" s="130"/>
+      <c r="F456" s="138"/>
+      <c r="G456" s="138"/>
     </row>
     <row r="457" spans="1:7" ht="30" customHeight="1">
       <c r="A457" s="91" t="s">
@@ -19700,16 +19705,16 @@
       <c r="G458" s="91"/>
     </row>
     <row r="460" spans="1:7">
-      <c r="A460" s="129" t="s">
+      <c r="A460" s="137" t="s">
         <v>1506</v>
       </c>
-      <c r="B460" s="130"/>
-      <c r="C460" s="130"/>
-      <c r="E460" s="129" t="s">
+      <c r="B460" s="138"/>
+      <c r="C460" s="138"/>
+      <c r="E460" s="137" t="s">
         <v>1507</v>
       </c>
-      <c r="F460" s="130"/>
-      <c r="G460" s="130"/>
+      <c r="F460" s="138"/>
+      <c r="G460" s="138"/>
     </row>
     <row r="461" spans="1:7" ht="30" customHeight="1">
       <c r="A461" s="91" t="s">
@@ -19744,16 +19749,16 @@
       <c r="G462" s="91"/>
     </row>
     <row r="464" spans="1:7">
-      <c r="A464" s="129" t="s">
+      <c r="A464" s="137" t="s">
         <v>1510</v>
       </c>
-      <c r="B464" s="130"/>
-      <c r="C464" s="130"/>
-      <c r="E464" s="129" t="s">
+      <c r="B464" s="138"/>
+      <c r="C464" s="138"/>
+      <c r="E464" s="137" t="s">
         <v>1511</v>
       </c>
-      <c r="F464" s="130"/>
-      <c r="G464" s="130"/>
+      <c r="F464" s="138"/>
+      <c r="G464" s="138"/>
     </row>
     <row r="465" spans="1:7" ht="30" customHeight="1">
       <c r="A465" s="91" t="s">
@@ -19788,16 +19793,16 @@
       <c r="G466" s="91"/>
     </row>
     <row r="468" spans="1:7">
-      <c r="A468" s="129" t="s">
+      <c r="A468" s="137" t="s">
         <v>1514</v>
       </c>
-      <c r="B468" s="130"/>
-      <c r="C468" s="130"/>
-      <c r="E468" s="129" t="s">
+      <c r="B468" s="138"/>
+      <c r="C468" s="138"/>
+      <c r="E468" s="137" t="s">
         <v>1515</v>
       </c>
-      <c r="F468" s="130"/>
-      <c r="G468" s="130"/>
+      <c r="F468" s="138"/>
+      <c r="G468" s="138"/>
     </row>
     <row r="469" spans="1:7" ht="30" customHeight="1">
       <c r="A469" s="91" t="s">
@@ -19832,11 +19837,11 @@
       <c r="G470" s="91"/>
     </row>
     <row r="472" spans="1:7">
-      <c r="A472" s="129" t="s">
+      <c r="A472" s="137" t="s">
         <v>1518</v>
       </c>
-      <c r="B472" s="130"/>
-      <c r="C472" s="130"/>
+      <c r="B472" s="138"/>
+      <c r="C472" s="138"/>
     </row>
     <row r="473" spans="1:7" ht="30" customHeight="1">
       <c r="A473" s="91" t="s">
@@ -20016,7 +20021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20032,10 +20037,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="141" t="s">
         <v>1520</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="138"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="92" t="s">
@@ -20102,10 +20107,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="141" t="s">
         <v>1531</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="138"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="92" t="s">
@@ -20172,10 +20177,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="141" t="s">
         <v>1540</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="138"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="92" t="s">
@@ -20242,10 +20247,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="141" t="s">
         <v>1548</v>
       </c>
-      <c r="B34" s="130"/>
+      <c r="B34" s="138"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="92" t="s">
@@ -20312,10 +20317,10 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="141" t="s">
         <v>1555</v>
       </c>
-      <c r="B44" s="130"/>
+      <c r="B44" s="138"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="92" t="s">
@@ -20382,10 +20387,10 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="141" t="s">
         <v>1564</v>
       </c>
-      <c r="B55" s="130"/>
+      <c r="B55" s="138"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="92" t="s">
@@ -20452,10 +20457,10 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="133" t="s">
+      <c r="A66" s="141" t="s">
         <v>1572</v>
       </c>
-      <c r="B66" s="130"/>
+      <c r="B66" s="138"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="92" t="s">
@@ -20522,10 +20527,10 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="133" t="s">
+      <c r="A77" s="141" t="s">
         <v>1580</v>
       </c>
-      <c r="B77" s="130"/>
+      <c r="B77" s="138"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="92" t="s">
@@ -20592,10 +20597,10 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="133" t="s">
+      <c r="A88" s="141" t="s">
         <v>1588</v>
       </c>
-      <c r="B88" s="130"/>
+      <c r="B88" s="138"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="92" t="s">
@@ -20710,10 +20715,10 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="133" t="s">
+      <c r="A105" s="141" t="s">
         <v>1606</v>
       </c>
-      <c r="B105" s="130"/>
+      <c r="B105" s="138"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="92" t="s">
@@ -20764,10 +20769,10 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="134" t="s">
+      <c r="A112" s="142" t="s">
         <v>1612</v>
       </c>
-      <c r="B112" s="130"/>
+      <c r="B112" s="138"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="92" t="s">
@@ -20954,10 +20959,10 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="133" t="s">
+      <c r="A138" s="141" t="s">
         <v>1625</v>
       </c>
-      <c r="B138" s="130"/>
+      <c r="B138" s="138"/>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="92" t="s">
@@ -21024,10 +21029,10 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="132" t="s">
+      <c r="A147" s="140" t="s">
         <v>1632</v>
       </c>
-      <c r="B147" s="130"/>
+      <c r="B147" s="138"/>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="92" t="s">
@@ -21086,10 +21091,10 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="133" t="s">
+      <c r="A157" s="141" t="s">
         <v>1638</v>
       </c>
-      <c r="B157" s="130"/>
+      <c r="B157" s="138"/>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="92" t="s">
@@ -21156,10 +21161,10 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="132" t="s">
+      <c r="A166" s="140" t="s">
         <v>1632</v>
       </c>
-      <c r="B166" s="130"/>
+      <c r="B166" s="138"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="92" t="s">
@@ -21218,10 +21223,10 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="133" t="s">
+      <c r="A176" s="141" t="s">
         <v>1651</v>
       </c>
-      <c r="B176" s="130"/>
+      <c r="B176" s="138"/>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="92" t="s">
@@ -21286,10 +21291,10 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="132" t="s">
+      <c r="A185" s="140" t="s">
         <v>1632</v>
       </c>
-      <c r="B185" s="130"/>
+      <c r="B185" s="138"/>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="92" t="s">
@@ -21416,53 +21421,53 @@
     <mergeCell ref="A185:B185"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="B37" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="B39" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="B47" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="B49" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="B58" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="B60" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="B69" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
-    <hyperlink ref="B71" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
-    <hyperlink ref="B80" r:id="rId15" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
-    <hyperlink ref="B82" r:id="rId16" xr:uid="{00000000-0004-0000-0D00-00000F000000}"/>
-    <hyperlink ref="B91" r:id="rId17" xr:uid="{00000000-0004-0000-0D00-000010000000}"/>
-    <hyperlink ref="B93" r:id="rId18" xr:uid="{00000000-0004-0000-0D00-000011000000}"/>
-    <hyperlink ref="B99" r:id="rId19" xr:uid="{00000000-0004-0000-0D00-000012000000}"/>
-    <hyperlink ref="B101" r:id="rId20" xr:uid="{00000000-0004-0000-0D00-000013000000}"/>
-    <hyperlink ref="B102" r:id="rId21" display="Data@123" xr:uid="{00000000-0004-0000-0D00-000014000000}"/>
-    <hyperlink ref="B108" r:id="rId22" xr:uid="{00000000-0004-0000-0D00-000015000000}"/>
-    <hyperlink ref="B110" r:id="rId23" xr:uid="{00000000-0004-0000-0D00-000016000000}"/>
-    <hyperlink ref="B131" r:id="rId24" xr:uid="{00000000-0004-0000-0D00-000017000000}"/>
-    <hyperlink ref="B133" r:id="rId25" xr:uid="{00000000-0004-0000-0D00-000018000000}"/>
-    <hyperlink ref="B134" r:id="rId26" display="Data@123" xr:uid="{00000000-0004-0000-0D00-000019000000}"/>
-    <hyperlink ref="B141" r:id="rId27" xr:uid="{00000000-0004-0000-0D00-00001A000000}"/>
-    <hyperlink ref="B143" r:id="rId28" xr:uid="{00000000-0004-0000-0D00-00001B000000}"/>
-    <hyperlink ref="B150" r:id="rId29" xr:uid="{00000000-0004-0000-0D00-00001C000000}"/>
-    <hyperlink ref="B152" r:id="rId30" xr:uid="{00000000-0004-0000-0D00-00001D000000}"/>
-    <hyperlink ref="B160" r:id="rId31" xr:uid="{00000000-0004-0000-0D00-00001E000000}"/>
-    <hyperlink ref="B162" r:id="rId32" xr:uid="{00000000-0004-0000-0D00-00001F000000}"/>
-    <hyperlink ref="B169" r:id="rId33" xr:uid="{00000000-0004-0000-0D00-000020000000}"/>
-    <hyperlink ref="B171" r:id="rId34" xr:uid="{00000000-0004-0000-0D00-000021000000}"/>
-    <hyperlink ref="B179" r:id="rId35" xr:uid="{00000000-0004-0000-0D00-000022000000}"/>
-    <hyperlink ref="B181" r:id="rId36" xr:uid="{00000000-0004-0000-0D00-000023000000}"/>
-    <hyperlink ref="B188" r:id="rId37" xr:uid="{00000000-0004-0000-0D00-000024000000}"/>
-    <hyperlink ref="B190" r:id="rId38" xr:uid="{00000000-0004-0000-0D00-000025000000}"/>
-    <hyperlink ref="B196" r:id="rId39" xr:uid="{00000000-0004-0000-0D00-000026000000}"/>
-    <hyperlink ref="B197" r:id="rId40" xr:uid="{00000000-0004-0000-0D00-000027000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B37" r:id="rId7"/>
+    <hyperlink ref="B39" r:id="rId8"/>
+    <hyperlink ref="B47" r:id="rId9"/>
+    <hyperlink ref="B49" r:id="rId10"/>
+    <hyperlink ref="B58" r:id="rId11"/>
+    <hyperlink ref="B60" r:id="rId12"/>
+    <hyperlink ref="B69" r:id="rId13"/>
+    <hyperlink ref="B71" r:id="rId14"/>
+    <hyperlink ref="B80" r:id="rId15"/>
+    <hyperlink ref="B82" r:id="rId16"/>
+    <hyperlink ref="B91" r:id="rId17"/>
+    <hyperlink ref="B93" r:id="rId18"/>
+    <hyperlink ref="B99" r:id="rId19"/>
+    <hyperlink ref="B101" r:id="rId20"/>
+    <hyperlink ref="B102" r:id="rId21" display="Data@123"/>
+    <hyperlink ref="B108" r:id="rId22"/>
+    <hyperlink ref="B110" r:id="rId23"/>
+    <hyperlink ref="B131" r:id="rId24"/>
+    <hyperlink ref="B133" r:id="rId25"/>
+    <hyperlink ref="B134" r:id="rId26" display="Data@123"/>
+    <hyperlink ref="B141" r:id="rId27"/>
+    <hyperlink ref="B143" r:id="rId28"/>
+    <hyperlink ref="B150" r:id="rId29"/>
+    <hyperlink ref="B152" r:id="rId30"/>
+    <hyperlink ref="B160" r:id="rId31"/>
+    <hyperlink ref="B162" r:id="rId32"/>
+    <hyperlink ref="B169" r:id="rId33"/>
+    <hyperlink ref="B171" r:id="rId34"/>
+    <hyperlink ref="B179" r:id="rId35"/>
+    <hyperlink ref="B181" r:id="rId36"/>
+    <hyperlink ref="B188" r:id="rId37"/>
+    <hyperlink ref="B190" r:id="rId38"/>
+    <hyperlink ref="B196" r:id="rId39"/>
+    <hyperlink ref="B197" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21591,21 +21596,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId7" display="Data@123" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" display="Data@123" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7" display="Data@123"/>
+    <hyperlink ref="G5" r:id="rId8" display="Data@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E793"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -21625,10 +21630,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>1694</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="128"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
@@ -21693,10 +21698,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="130" t="s">
         <v>1702</v>
       </c>
-      <c r="B12" s="120"/>
+      <c r="B12" s="128"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="28" t="s">
@@ -21795,10 +21800,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="130" t="s">
         <v>1706</v>
       </c>
-      <c r="B27" s="120"/>
+      <c r="B27" s="128"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="28" t="s">
@@ -21833,10 +21838,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="130" t="s">
         <v>1710</v>
       </c>
-      <c r="B32" s="120"/>
+      <c r="B32" s="128"/>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="28" t="s">
@@ -21879,10 +21884,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="130" t="s">
         <v>1717</v>
       </c>
-      <c r="B38" s="120"/>
+      <c r="B38" s="128"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="28" t="s">
@@ -21941,10 +21946,10 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="130" t="s">
         <v>1722</v>
       </c>
-      <c r="B48" s="120"/>
+      <c r="B48" s="128"/>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="28" t="s">
@@ -22163,10 +22168,10 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1">
-      <c r="A78" s="122" t="s">
+      <c r="A78" s="130" t="s">
         <v>1736</v>
       </c>
-      <c r="B78" s="120"/>
+      <c r="B78" s="128"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="28" t="s">
@@ -22373,10 +22378,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="122" t="s">
+      <c r="A108" s="130" t="s">
         <v>1755</v>
       </c>
-      <c r="B108" s="120"/>
+      <c r="B108" s="128"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="28" t="s">
@@ -22601,10 +22606,10 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="122" t="s">
+      <c r="A139" s="130" t="s">
         <v>1778</v>
       </c>
-      <c r="B139" s="120"/>
+      <c r="B139" s="128"/>
     </row>
     <row r="140" spans="1:2" ht="30" customHeight="1">
       <c r="A140" s="28" t="s">
@@ -22693,10 +22698,10 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="122" t="s">
+      <c r="A154" s="130" t="s">
         <v>1784</v>
       </c>
-      <c r="B154" s="120"/>
+      <c r="B154" s="128"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="28" t="s">
@@ -22747,10 +22752,10 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="122" t="s">
+      <c r="A161" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B161" s="120"/>
+      <c r="B161" s="128"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="28" t="s">
@@ -22809,10 +22814,10 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="122" t="s">
+      <c r="A171" s="130" t="s">
         <v>1792</v>
       </c>
-      <c r="B171" s="120"/>
+      <c r="B171" s="128"/>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="28" t="s">
@@ -22863,10 +22868,10 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="122" t="s">
+      <c r="A178" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B178" s="120"/>
+      <c r="B178" s="128"/>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="28" t="s">
@@ -22925,10 +22930,10 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="122" t="s">
+      <c r="A189" s="130" t="s">
         <v>1800</v>
       </c>
-      <c r="B189" s="120"/>
+      <c r="B189" s="128"/>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="28" t="s">
@@ -22979,10 +22984,10 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="122" t="s">
+      <c r="A196" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B196" s="120"/>
+      <c r="B196" s="128"/>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="28" t="s">
@@ -23057,10 +23062,10 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="122" t="s">
+      <c r="A208" s="130" t="s">
         <v>1808</v>
       </c>
-      <c r="B208" s="120"/>
+      <c r="B208" s="128"/>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="28" t="s">
@@ -23127,10 +23132,10 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="122" t="s">
+      <c r="A217" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B217" s="120"/>
+      <c r="B217" s="128"/>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="28" t="s">
@@ -23187,10 +23192,10 @@
       <c r="B224" s="28"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="127" t="s">
+      <c r="A225" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B225" s="120"/>
+      <c r="B225" s="128"/>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="28" t="s">
@@ -23201,10 +23206,10 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="122" t="s">
+      <c r="A230" s="130" t="s">
         <v>1817</v>
       </c>
-      <c r="B230" s="120"/>
+      <c r="B230" s="128"/>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="28" t="s">
@@ -23271,10 +23276,10 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="122" t="s">
+      <c r="A239" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B239" s="120"/>
+      <c r="B239" s="128"/>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="28" t="s">
@@ -23309,10 +23314,10 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="127" t="s">
+      <c r="A244" s="135" t="s">
         <v>993</v>
       </c>
-      <c r="B244" s="120"/>
+      <c r="B244" s="128"/>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="28" t="s">
@@ -23371,10 +23376,10 @@
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="127" t="s">
+      <c r="A252" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B252" s="120"/>
+      <c r="B252" s="128"/>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="28" t="s">
@@ -23385,10 +23390,10 @@
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="122" t="s">
+      <c r="A256" s="130" t="s">
         <v>1832</v>
       </c>
-      <c r="B256" s="120"/>
+      <c r="B256" s="128"/>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="28" t="s">
@@ -23455,10 +23460,10 @@
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="122" t="s">
+      <c r="A265" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B265" s="120"/>
+      <c r="B265" s="128"/>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="28" t="s">
@@ -23515,10 +23520,10 @@
       <c r="B272" s="28"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="127" t="s">
+      <c r="A273" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B273" s="120"/>
+      <c r="B273" s="128"/>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="28" t="s">
@@ -23529,10 +23534,10 @@
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="122" t="s">
+      <c r="A277" s="130" t="s">
         <v>1841</v>
       </c>
-      <c r="B277" s="120"/>
+      <c r="B277" s="128"/>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="28" t="s">
@@ -23599,10 +23604,10 @@
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="122" t="s">
+      <c r="A286" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B286" s="120"/>
+      <c r="B286" s="128"/>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="28" t="s">
@@ -23659,10 +23664,10 @@
       <c r="B293" s="28"/>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="127" t="s">
+      <c r="A294" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B294" s="120"/>
+      <c r="B294" s="128"/>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="28" t="s">
@@ -23673,10 +23678,10 @@
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="122" t="s">
+      <c r="A298" s="130" t="s">
         <v>1850</v>
       </c>
-      <c r="B298" s="120"/>
+      <c r="B298" s="128"/>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="28" t="s">
@@ -23743,10 +23748,10 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="122" t="s">
+      <c r="A307" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B307" s="120"/>
+      <c r="B307" s="128"/>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="28" t="s">
@@ -23781,10 +23786,10 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="135" t="s">
+      <c r="A312" s="143" t="s">
         <v>1858</v>
       </c>
-      <c r="B312" s="120"/>
+      <c r="B312" s="128"/>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="28" t="s">
@@ -23841,10 +23846,10 @@
       <c r="B319" s="28"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="127" t="s">
+      <c r="A320" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B320" s="120"/>
+      <c r="B320" s="128"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="28" t="s">
@@ -23863,10 +23868,10 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="122" t="s">
+      <c r="A325" s="130" t="s">
         <v>966</v>
       </c>
-      <c r="B325" s="120"/>
+      <c r="B325" s="128"/>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="28" t="s">
@@ -23917,10 +23922,10 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="122" t="s">
+      <c r="A332" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B332" s="120"/>
+      <c r="B332" s="128"/>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="28" t="s">
@@ -23979,10 +23984,10 @@
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="122" t="s">
+      <c r="A342" s="130" t="s">
         <v>983</v>
       </c>
-      <c r="B342" s="120"/>
+      <c r="B342" s="128"/>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="28" t="s">
@@ -24049,10 +24054,10 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="122" t="s">
+      <c r="A351" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B351" s="120"/>
+      <c r="B351" s="128"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="28" t="s">
@@ -24087,10 +24092,10 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="127" t="s">
+      <c r="A356" s="135" t="s">
         <v>993</v>
       </c>
-      <c r="B356" s="120"/>
+      <c r="B356" s="128"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="28" t="s">
@@ -24147,10 +24152,10 @@
       <c r="B363" s="28"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="127" t="s">
+      <c r="A364" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B364" s="120"/>
+      <c r="B364" s="128"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="28" t="s">
@@ -24161,10 +24166,10 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="122" t="s">
+      <c r="A368" s="130" t="s">
         <v>1001</v>
       </c>
-      <c r="B368" s="120"/>
+      <c r="B368" s="128"/>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="28" t="s">
@@ -24231,10 +24236,10 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="122" t="s">
+      <c r="A377" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B377" s="120"/>
+      <c r="B377" s="128"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="28" t="s">
@@ -24293,10 +24298,10 @@
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="122" t="s">
+      <c r="A386" s="130" t="s">
         <v>1011</v>
       </c>
-      <c r="B386" s="120"/>
+      <c r="B386" s="128"/>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="28" t="s">
@@ -24363,10 +24368,10 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="122" t="s">
+      <c r="A395" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B395" s="120"/>
+      <c r="B395" s="128"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="28" t="s">
@@ -24425,10 +24430,10 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="122" t="s">
+      <c r="A405" s="130" t="s">
         <v>1019</v>
       </c>
-      <c r="B405" s="120"/>
+      <c r="B405" s="128"/>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="28" t="s">
@@ -24503,10 +24508,10 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="128" t="s">
+      <c r="A415" s="136" t="s">
         <v>1026</v>
       </c>
-      <c r="B415" s="120"/>
+      <c r="B415" s="128"/>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="28" t="s">
@@ -24549,10 +24554,10 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="122" t="s">
+      <c r="A421" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B421" s="120"/>
+      <c r="B421" s="128"/>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="28" t="s">
@@ -24611,10 +24616,10 @@
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="122" t="s">
+      <c r="A431" s="130" t="s">
         <v>1032</v>
       </c>
-      <c r="B431" s="120"/>
+      <c r="B431" s="128"/>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="28" t="s">
@@ -24674,10 +24679,10 @@
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="122" t="s">
+      <c r="A441" s="130" t="s">
         <v>1037</v>
       </c>
-      <c r="B441" s="120"/>
+      <c r="B441" s="128"/>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="28" t="s">
@@ -24744,10 +24749,10 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="122" t="s">
+      <c r="A450" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B450" s="120"/>
+      <c r="B450" s="128"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="28" t="s">
@@ -24806,10 +24811,10 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="127" t="s">
+      <c r="A458" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B458" s="120"/>
+      <c r="B458" s="128"/>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="28" t="s">
@@ -24820,10 +24825,10 @@
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="122" t="s">
+      <c r="A462" s="130" t="s">
         <v>1047</v>
       </c>
-      <c r="B462" s="120"/>
+      <c r="B462" s="128"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="28" t="s">
@@ -24890,10 +24895,10 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="122" t="s">
+      <c r="A471" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B471" s="120"/>
+      <c r="B471" s="128"/>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="28" t="s">
@@ -24952,10 +24957,10 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="127" t="s">
+      <c r="A479" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B479" s="120"/>
+      <c r="B479" s="128"/>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="28" t="s">
@@ -24966,10 +24971,10 @@
       </c>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="122" t="s">
+      <c r="A483" s="130" t="s">
         <v>1056</v>
       </c>
-      <c r="B483" s="120"/>
+      <c r="B483" s="128"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="28" t="s">
@@ -25039,10 +25044,10 @@
       </c>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="122" t="s">
+      <c r="A492" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B492" s="120"/>
+      <c r="B492" s="128"/>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="28" t="s">
@@ -25101,10 +25106,10 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="127" t="s">
+      <c r="A500" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B500" s="120"/>
+      <c r="B500" s="128"/>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="28" t="s">
@@ -25115,10 +25120,10 @@
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="122" t="s">
+      <c r="A504" s="130" t="s">
         <v>1065</v>
       </c>
-      <c r="B504" s="120"/>
+      <c r="B504" s="128"/>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="28" t="s">
@@ -25185,10 +25190,10 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="122" t="s">
+      <c r="A513" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B513" s="120"/>
+      <c r="B513" s="128"/>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="28" t="s">
@@ -25239,10 +25244,10 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="127" t="s">
+      <c r="A520" s="135" t="s">
         <v>998</v>
       </c>
-      <c r="B520" s="120"/>
+      <c r="B520" s="128"/>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="28" t="s">
@@ -25253,10 +25258,10 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="122" t="s">
+      <c r="A522" s="130" t="s">
         <v>1074</v>
       </c>
-      <c r="B522" s="120"/>
+      <c r="B522" s="128"/>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="28" t="s">
@@ -25381,10 +25386,10 @@
       <c r="B541" s="62"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="122" t="s">
+      <c r="A544" s="130" t="s">
         <v>1065</v>
       </c>
-      <c r="B544" s="120"/>
+      <c r="B544" s="128"/>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="28" t="s">
@@ -25443,10 +25448,10 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="122" t="s">
+      <c r="A552" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B552" s="120"/>
+      <c r="B552" s="128"/>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="28" t="s">
@@ -25497,10 +25502,10 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="122" t="s">
+      <c r="A561" s="130" t="s">
         <v>1105</v>
       </c>
-      <c r="B561" s="120"/>
+      <c r="B561" s="128"/>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="28" t="s">
@@ -25567,10 +25572,10 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="122" t="s">
+      <c r="A570" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B570" s="120"/>
+      <c r="B570" s="128"/>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="28" t="s">
@@ -25621,10 +25626,10 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="127" t="s">
+      <c r="A577" s="135" t="s">
         <v>1113</v>
       </c>
-      <c r="B577" s="120"/>
+      <c r="B577" s="128"/>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="28" t="s">
@@ -25719,10 +25724,10 @@
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="122" t="s">
+      <c r="A596" s="130" t="s">
         <v>1128</v>
       </c>
-      <c r="B596" s="120"/>
+      <c r="B596" s="128"/>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="28" t="s">
@@ -25789,10 +25794,10 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="122" t="s">
+      <c r="A605" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B605" s="120"/>
+      <c r="B605" s="128"/>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="28" t="s">
@@ -25843,10 +25848,10 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="127" t="s">
+      <c r="A612" s="135" t="s">
         <v>1136</v>
       </c>
-      <c r="B612" s="120"/>
+      <c r="B612" s="128"/>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="28" t="s">
@@ -25983,10 +25988,10 @@
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="122" t="s">
+      <c r="A638" s="130" t="s">
         <v>1158</v>
       </c>
-      <c r="B638" s="120"/>
+      <c r="B638" s="128"/>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="28" t="s">
@@ -26053,10 +26058,10 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="122" t="s">
+      <c r="A647" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B647" s="120"/>
+      <c r="B647" s="128"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="28" t="s">
@@ -26121,10 +26126,10 @@
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="122" t="s">
+      <c r="A658" s="130" t="s">
         <v>1168</v>
       </c>
-      <c r="B658" s="120"/>
+      <c r="B658" s="128"/>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="28" t="s">
@@ -26191,10 +26196,10 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="122" t="s">
+      <c r="A667" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B667" s="120"/>
+      <c r="B667" s="128"/>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="28" t="s">
@@ -26259,10 +26264,10 @@
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="122" t="s">
+      <c r="A678" s="130" t="s">
         <v>1177</v>
       </c>
-      <c r="B678" s="120"/>
+      <c r="B678" s="128"/>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="28" t="s">
@@ -26329,10 +26334,10 @@
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="122" t="s">
+      <c r="A687" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B687" s="120"/>
+      <c r="B687" s="128"/>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="28" t="s">
@@ -26395,10 +26400,10 @@
       <c r="B695" s="28"/>
     </row>
     <row r="698" spans="1:2">
-      <c r="A698" s="122" t="s">
+      <c r="A698" s="130" t="s">
         <v>1954</v>
       </c>
-      <c r="B698" s="120"/>
+      <c r="B698" s="128"/>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="28" t="s">
@@ -26465,10 +26470,10 @@
       </c>
     </row>
     <row r="707" spans="1:2">
-      <c r="A707" s="122" t="s">
+      <c r="A707" s="130" t="s">
         <v>1958</v>
       </c>
-      <c r="B707" s="120"/>
+      <c r="B707" s="128"/>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="28" t="s">
@@ -26527,10 +26532,10 @@
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="127" t="s">
+      <c r="A715" s="135" t="s">
         <v>1963</v>
       </c>
-      <c r="B715" s="120"/>
+      <c r="B715" s="128"/>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="28" t="s">
@@ -26573,10 +26578,10 @@
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="122" t="s">
+      <c r="A722" s="130" t="s">
         <v>1969</v>
       </c>
-      <c r="B722" s="120"/>
+      <c r="B722" s="128"/>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="28" t="s">
@@ -26643,10 +26648,10 @@
       </c>
     </row>
     <row r="731" spans="1:2">
-      <c r="A731" s="122" t="s">
+      <c r="A731" s="130" t="s">
         <v>1958</v>
       </c>
-      <c r="B731" s="120"/>
+      <c r="B731" s="128"/>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="28" t="s">
@@ -26705,10 +26710,10 @@
       </c>
     </row>
     <row r="739" spans="1:2">
-      <c r="A739" s="127" t="s">
+      <c r="A739" s="135" t="s">
         <v>1963</v>
       </c>
-      <c r="B739" s="120"/>
+      <c r="B739" s="128"/>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="28" t="s">
@@ -26751,10 +26756,10 @@
       </c>
     </row>
     <row r="747" spans="1:2">
-      <c r="A747" s="122" t="s">
+      <c r="A747" s="130" t="s">
         <v>1982</v>
       </c>
-      <c r="B747" s="120"/>
+      <c r="B747" s="128"/>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="28" t="s">
@@ -26805,10 +26810,10 @@
       </c>
     </row>
     <row r="754" spans="1:2">
-      <c r="A754" s="122" t="s">
+      <c r="A754" s="130" t="s">
         <v>1958</v>
       </c>
-      <c r="B754" s="120"/>
+      <c r="B754" s="128"/>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="28" t="s">
@@ -26859,10 +26864,10 @@
       </c>
     </row>
     <row r="763" spans="1:2">
-      <c r="A763" s="122" t="s">
+      <c r="A763" s="130" t="s">
         <v>1990</v>
       </c>
-      <c r="B763" s="120"/>
+      <c r="B763" s="128"/>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="28" t="s">
@@ -26913,10 +26918,10 @@
       </c>
     </row>
     <row r="770" spans="1:2">
-      <c r="A770" s="122" t="s">
+      <c r="A770" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B770" s="120"/>
+      <c r="B770" s="128"/>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="28" t="s">
@@ -26967,10 +26972,10 @@
       </c>
     </row>
     <row r="779" spans="1:2">
-      <c r="A779" s="122" t="s">
+      <c r="A779" s="130" t="s">
         <v>1998</v>
       </c>
-      <c r="B779" s="120"/>
+      <c r="B779" s="128"/>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="28" t="s">
@@ -27021,10 +27026,10 @@
       </c>
     </row>
     <row r="786" spans="1:2">
-      <c r="A786" s="122" t="s">
+      <c r="A786" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B786" s="120"/>
+      <c r="B786" s="128"/>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="28" t="s">
@@ -27171,116 +27176,116 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="emailLR_7_@gr.com" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" display="GrEmpID1_2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="B41" r:id="rId4" display="learner2A_7_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="B43" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="B44" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
-    <hyperlink ref="B71" r:id="rId7" display="learner3_25_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="B73" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="B74" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="B100" r:id="rId10" display="learner41_23_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="B102" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="B103" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="B132" r:id="rId13" display="learner5_19_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="B134" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="B135" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="B164" r:id="rId16" display="Creator1_5_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="B166" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="B167" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="B181" r:id="rId19" display="LA1_4_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
-    <hyperlink ref="B183" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
-    <hyperlink ref="B184" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
-    <hyperlink ref="B199" r:id="rId22" display="master1_9_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
-    <hyperlink ref="B201" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
-    <hyperlink ref="B202" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
-    <hyperlink ref="B220" r:id="rId25" display="mail8_16_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
-    <hyperlink ref="B222" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
-    <hyperlink ref="B223" r:id="rId27" xr:uid="{00000000-0004-0000-0F00-00001A000000}"/>
-    <hyperlink ref="B242" r:id="rId28" display="mail82_28_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00001B000000}"/>
-    <hyperlink ref="B247" r:id="rId29" display="mailnew82_28_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00001C000000}"/>
-    <hyperlink ref="B249" r:id="rId30" xr:uid="{00000000-0004-0000-0F00-00001D000000}"/>
-    <hyperlink ref="B250" r:id="rId31" xr:uid="{00000000-0004-0000-0F00-00001E000000}"/>
-    <hyperlink ref="B268" r:id="rId32" display="mailA_13_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00001F000000}"/>
-    <hyperlink ref="B270" r:id="rId33" xr:uid="{00000000-0004-0000-0F00-000020000000}"/>
-    <hyperlink ref="B271" r:id="rId34" xr:uid="{00000000-0004-0000-0F00-000021000000}"/>
-    <hyperlink ref="B289" r:id="rId35" xr:uid="{00000000-0004-0000-0F00-000022000000}"/>
-    <hyperlink ref="B291" r:id="rId36" xr:uid="{00000000-0004-0000-0F00-000023000000}"/>
-    <hyperlink ref="B292" r:id="rId37" xr:uid="{00000000-0004-0000-0F00-000024000000}"/>
-    <hyperlink ref="B310" r:id="rId38" display="mailC_10_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000025000000}"/>
-    <hyperlink ref="B315" r:id="rId39" display="mailD_10_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000026000000}"/>
-    <hyperlink ref="B317" r:id="rId40" xr:uid="{00000000-0004-0000-0F00-000027000000}"/>
-    <hyperlink ref="B318" r:id="rId41" xr:uid="{00000000-0004-0000-0F00-000028000000}"/>
-    <hyperlink ref="B335" r:id="rId42" display="CancelAssign_19_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000029000000}"/>
-    <hyperlink ref="B337" r:id="rId43" xr:uid="{00000000-0004-0000-0F00-00002A000000}"/>
-    <hyperlink ref="B338" r:id="rId44" xr:uid="{00000000-0004-0000-0F00-00002B000000}"/>
-    <hyperlink ref="B354" r:id="rId45" display="mail15_9_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00002C000000}"/>
-    <hyperlink ref="B359" r:id="rId46" display="mailnew15A_9_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00002D000000}"/>
-    <hyperlink ref="B361" r:id="rId47" xr:uid="{00000000-0004-0000-0F00-00002E000000}"/>
-    <hyperlink ref="B362" r:id="rId48" xr:uid="{00000000-0004-0000-0F00-00002F000000}"/>
-    <hyperlink ref="B380" r:id="rId49" display="enroll1_10_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000030000000}"/>
-    <hyperlink ref="B382" r:id="rId50" xr:uid="{00000000-0004-0000-0F00-000031000000}"/>
-    <hyperlink ref="B383" r:id="rId51" xr:uid="{00000000-0004-0000-0F00-000032000000}"/>
-    <hyperlink ref="B398" r:id="rId52" display="enroll2_14_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000033000000}"/>
-    <hyperlink ref="B400" r:id="rId53" xr:uid="{00000000-0004-0000-0F00-000034000000}"/>
-    <hyperlink ref="B401" r:id="rId54" xr:uid="{00000000-0004-0000-0F00-000035000000}"/>
-    <hyperlink ref="B424" r:id="rId55" display="enroll31_18_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000036000000}"/>
-    <hyperlink ref="B426" r:id="rId56" xr:uid="{00000000-0004-0000-0F00-000037000000}"/>
-    <hyperlink ref="B427" r:id="rId57" xr:uid="{00000000-0004-0000-0F00-000038000000}"/>
-    <hyperlink ref="B453" r:id="rId58" display="mailGrp1_42_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000039000000}"/>
-    <hyperlink ref="B455" r:id="rId59" xr:uid="{00000000-0004-0000-0F00-00003A000000}"/>
-    <hyperlink ref="B456" r:id="rId60" xr:uid="{00000000-0004-0000-0F00-00003B000000}"/>
-    <hyperlink ref="B474" r:id="rId61" display="mailDup_3_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00003C000000}"/>
-    <hyperlink ref="B476" r:id="rId62" xr:uid="{00000000-0004-0000-0F00-00003D000000}"/>
-    <hyperlink ref="B477" r:id="rId63" xr:uid="{00000000-0004-0000-0F00-00003E000000}"/>
-    <hyperlink ref="B495" r:id="rId64" display="mailNoOFGrp1_10_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00003F000000}"/>
-    <hyperlink ref="B497" r:id="rId65" xr:uid="{00000000-0004-0000-0F00-000040000000}"/>
-    <hyperlink ref="B498" r:id="rId66" xr:uid="{00000000-0004-0000-0F00-000041000000}"/>
-    <hyperlink ref="B516" r:id="rId67" display="mailCampDeta_21_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000042000000}"/>
-    <hyperlink ref="B518" r:id="rId68" xr:uid="{00000000-0004-0000-0F00-000043000000}"/>
-    <hyperlink ref="B519" r:id="rId69" xr:uid="{00000000-0004-0000-0F00-000044000000}"/>
-    <hyperlink ref="B555" r:id="rId70" display="mailCampDelL_15_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000045000000}"/>
-    <hyperlink ref="B557" r:id="rId71" xr:uid="{00000000-0004-0000-0F00-000046000000}"/>
-    <hyperlink ref="B558" r:id="rId72" xr:uid="{00000000-0004-0000-0F00-000047000000}"/>
-    <hyperlink ref="B573" r:id="rId73" display="mailManage_2_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000048000000}"/>
-    <hyperlink ref="B575" r:id="rId74" xr:uid="{00000000-0004-0000-0F00-000049000000}"/>
-    <hyperlink ref="B576" r:id="rId75" xr:uid="{00000000-0004-0000-0F00-00004A000000}"/>
-    <hyperlink ref="B608" r:id="rId76" display="mailPlan1_2_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00004B000000}"/>
-    <hyperlink ref="B610" r:id="rId77" xr:uid="{00000000-0004-0000-0F00-00004C000000}"/>
-    <hyperlink ref="B611" r:id="rId78" xr:uid="{00000000-0004-0000-0F00-00004D000000}"/>
-    <hyperlink ref="B650" r:id="rId79" display="mailDueToday_8_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00004E000000}"/>
-    <hyperlink ref="B652" r:id="rId80" xr:uid="{00000000-0004-0000-0F00-00004F000000}"/>
-    <hyperlink ref="B653" r:id="rId81" xr:uid="{00000000-0004-0000-0F00-000050000000}"/>
-    <hyperlink ref="B670" r:id="rId82" display="mailDueSoon_5_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000051000000}"/>
-    <hyperlink ref="B672" r:id="rId83" xr:uid="{00000000-0004-0000-0F00-000052000000}"/>
-    <hyperlink ref="B673" r:id="rId84" xr:uid="{00000000-0004-0000-0F00-000053000000}"/>
-    <hyperlink ref="B690" r:id="rId85" display="mailCompleteAssign5_20_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000054000000}"/>
-    <hyperlink ref="B692" r:id="rId86" xr:uid="{00000000-0004-0000-0F00-000055000000}"/>
-    <hyperlink ref="B693" r:id="rId87" xr:uid="{00000000-0004-0000-0F00-000056000000}"/>
-    <hyperlink ref="B710" r:id="rId88" display="mailToCreatorFrom_9_@gmail.com" xr:uid="{00000000-0004-0000-0F00-000057000000}"/>
-    <hyperlink ref="B712" r:id="rId89" xr:uid="{00000000-0004-0000-0F00-000058000000}"/>
-    <hyperlink ref="B713" r:id="rId90" xr:uid="{00000000-0004-0000-0F00-000059000000}"/>
-    <hyperlink ref="B718" r:id="rId91" display="mailToMAfr_9_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00005A000000}"/>
-    <hyperlink ref="B734" r:id="rId92" display="mailToCreatorFrom2_1_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00005B000000}"/>
-    <hyperlink ref="B736" r:id="rId93" xr:uid="{00000000-0004-0000-0F00-00005C000000}"/>
-    <hyperlink ref="B737" r:id="rId94" xr:uid="{00000000-0004-0000-0F00-00005D000000}"/>
-    <hyperlink ref="B742" r:id="rId95" display="mailToLAfr_1_@gmail.com" xr:uid="{00000000-0004-0000-0F00-00005E000000}"/>
-    <hyperlink ref="B757" r:id="rId96" display="mailForGetLinkA_10_@g.com" xr:uid="{00000000-0004-0000-0F00-00005F000000}"/>
-    <hyperlink ref="B759" r:id="rId97" xr:uid="{00000000-0004-0000-0F00-000060000000}"/>
-    <hyperlink ref="B760" r:id="rId98" xr:uid="{00000000-0004-0000-0F00-000061000000}"/>
-    <hyperlink ref="B775" r:id="rId99" xr:uid="{00000000-0004-0000-0F00-000062000000}"/>
-    <hyperlink ref="B776" r:id="rId100" xr:uid="{00000000-0004-0000-0F00-000063000000}"/>
-    <hyperlink ref="B789" r:id="rId101" display="mailForGetLinkC_4_@g.com" xr:uid="{00000000-0004-0000-0F00-000064000000}"/>
-    <hyperlink ref="B791" r:id="rId102" xr:uid="{00000000-0004-0000-0F00-000065000000}"/>
-    <hyperlink ref="B792" r:id="rId103" xr:uid="{00000000-0004-0000-0F00-000066000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="emailLR_7_@gr.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="GrEmpID1_2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B41" r:id="rId4" display="learner2A_7_@gmail.com"/>
+    <hyperlink ref="B43" r:id="rId5"/>
+    <hyperlink ref="B44" r:id="rId6"/>
+    <hyperlink ref="B71" r:id="rId7" display="learner3_25_@gmail.com"/>
+    <hyperlink ref="B73" r:id="rId8"/>
+    <hyperlink ref="B74" r:id="rId9"/>
+    <hyperlink ref="B100" r:id="rId10" display="learner41_23_@gmail.com"/>
+    <hyperlink ref="B102" r:id="rId11"/>
+    <hyperlink ref="B103" r:id="rId12"/>
+    <hyperlink ref="B132" r:id="rId13" display="learner5_19_@gmail.com"/>
+    <hyperlink ref="B134" r:id="rId14"/>
+    <hyperlink ref="B135" r:id="rId15"/>
+    <hyperlink ref="B164" r:id="rId16" display="Creator1_5_@gmail.com"/>
+    <hyperlink ref="B166" r:id="rId17"/>
+    <hyperlink ref="B167" r:id="rId18"/>
+    <hyperlink ref="B181" r:id="rId19" display="LA1_4_@gmail.com"/>
+    <hyperlink ref="B183" r:id="rId20"/>
+    <hyperlink ref="B184" r:id="rId21"/>
+    <hyperlink ref="B199" r:id="rId22" display="master1_9_@gmail.com"/>
+    <hyperlink ref="B201" r:id="rId23"/>
+    <hyperlink ref="B202" r:id="rId24"/>
+    <hyperlink ref="B220" r:id="rId25" display="mail8_16_@gmail.com"/>
+    <hyperlink ref="B222" r:id="rId26"/>
+    <hyperlink ref="B223" r:id="rId27"/>
+    <hyperlink ref="B242" r:id="rId28" display="mail82_28_@gmail.com"/>
+    <hyperlink ref="B247" r:id="rId29" display="mailnew82_28_@gmail.com"/>
+    <hyperlink ref="B249" r:id="rId30"/>
+    <hyperlink ref="B250" r:id="rId31"/>
+    <hyperlink ref="B268" r:id="rId32" display="mailA_13_@gmail.com"/>
+    <hyperlink ref="B270" r:id="rId33"/>
+    <hyperlink ref="B271" r:id="rId34"/>
+    <hyperlink ref="B289" r:id="rId35"/>
+    <hyperlink ref="B291" r:id="rId36"/>
+    <hyperlink ref="B292" r:id="rId37"/>
+    <hyperlink ref="B310" r:id="rId38" display="mailC_10_@gmail.com"/>
+    <hyperlink ref="B315" r:id="rId39" display="mailD_10_@gmail.com"/>
+    <hyperlink ref="B317" r:id="rId40"/>
+    <hyperlink ref="B318" r:id="rId41"/>
+    <hyperlink ref="B335" r:id="rId42" display="CancelAssign_19_@gmail.com"/>
+    <hyperlink ref="B337" r:id="rId43"/>
+    <hyperlink ref="B338" r:id="rId44"/>
+    <hyperlink ref="B354" r:id="rId45" display="mail15_9_@gmail.com"/>
+    <hyperlink ref="B359" r:id="rId46" display="mailnew15A_9_@gmail.com"/>
+    <hyperlink ref="B361" r:id="rId47"/>
+    <hyperlink ref="B362" r:id="rId48"/>
+    <hyperlink ref="B380" r:id="rId49" display="enroll1_10_@gmail.com"/>
+    <hyperlink ref="B382" r:id="rId50"/>
+    <hyperlink ref="B383" r:id="rId51"/>
+    <hyperlink ref="B398" r:id="rId52" display="enroll2_14_@gmail.com"/>
+    <hyperlink ref="B400" r:id="rId53"/>
+    <hyperlink ref="B401" r:id="rId54"/>
+    <hyperlink ref="B424" r:id="rId55" display="enroll31_18_@gmail.com"/>
+    <hyperlink ref="B426" r:id="rId56"/>
+    <hyperlink ref="B427" r:id="rId57"/>
+    <hyperlink ref="B453" r:id="rId58" display="mailGrp1_42_@gmail.com"/>
+    <hyperlink ref="B455" r:id="rId59"/>
+    <hyperlink ref="B456" r:id="rId60"/>
+    <hyperlink ref="B474" r:id="rId61" display="mailDup_3_@gmail.com"/>
+    <hyperlink ref="B476" r:id="rId62"/>
+    <hyperlink ref="B477" r:id="rId63"/>
+    <hyperlink ref="B495" r:id="rId64" display="mailNoOFGrp1_10_@gmail.com"/>
+    <hyperlink ref="B497" r:id="rId65"/>
+    <hyperlink ref="B498" r:id="rId66"/>
+    <hyperlink ref="B516" r:id="rId67" display="mailCampDeta_21_@gmail.com"/>
+    <hyperlink ref="B518" r:id="rId68"/>
+    <hyperlink ref="B519" r:id="rId69"/>
+    <hyperlink ref="B555" r:id="rId70" display="mailCampDelL_15_@gmail.com"/>
+    <hyperlink ref="B557" r:id="rId71"/>
+    <hyperlink ref="B558" r:id="rId72"/>
+    <hyperlink ref="B573" r:id="rId73" display="mailManage_2_@gmail.com"/>
+    <hyperlink ref="B575" r:id="rId74"/>
+    <hyperlink ref="B576" r:id="rId75"/>
+    <hyperlink ref="B608" r:id="rId76" display="mailPlan1_2_@gmail.com"/>
+    <hyperlink ref="B610" r:id="rId77"/>
+    <hyperlink ref="B611" r:id="rId78"/>
+    <hyperlink ref="B650" r:id="rId79" display="mailDueToday_8_@gmail.com"/>
+    <hyperlink ref="B652" r:id="rId80"/>
+    <hyperlink ref="B653" r:id="rId81"/>
+    <hyperlink ref="B670" r:id="rId82" display="mailDueSoon_5_@gmail.com"/>
+    <hyperlink ref="B672" r:id="rId83"/>
+    <hyperlink ref="B673" r:id="rId84"/>
+    <hyperlink ref="B690" r:id="rId85" display="mailCompleteAssign5_20_@gmail.com"/>
+    <hyperlink ref="B692" r:id="rId86"/>
+    <hyperlink ref="B693" r:id="rId87"/>
+    <hyperlink ref="B710" r:id="rId88" display="mailToCreatorFrom_9_@gmail.com"/>
+    <hyperlink ref="B712" r:id="rId89"/>
+    <hyperlink ref="B713" r:id="rId90"/>
+    <hyperlink ref="B718" r:id="rId91" display="mailToMAfr_9_@gmail.com"/>
+    <hyperlink ref="B734" r:id="rId92" display="mailToCreatorFrom2_1_@gmail.com"/>
+    <hyperlink ref="B736" r:id="rId93"/>
+    <hyperlink ref="B737" r:id="rId94"/>
+    <hyperlink ref="B742" r:id="rId95" display="mailToLAfr_1_@gmail.com"/>
+    <hyperlink ref="B757" r:id="rId96" display="mailForGetLinkA_10_@g.com"/>
+    <hyperlink ref="B759" r:id="rId97"/>
+    <hyperlink ref="B760" r:id="rId98"/>
+    <hyperlink ref="B775" r:id="rId99"/>
+    <hyperlink ref="B776" r:id="rId100"/>
+    <hyperlink ref="B789" r:id="rId101" display="mailForGetLinkC_4_@g.com"/>
+    <hyperlink ref="B791" r:id="rId102"/>
+    <hyperlink ref="B792" r:id="rId103"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27297,10 +27302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>2008</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
     </row>
@@ -27362,10 +27367,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="139" t="s">
         <v>2014</v>
       </c>
-      <c r="B10" s="130"/>
+      <c r="B10" s="138"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="91" t="s">
@@ -27416,10 +27421,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="139" t="s">
         <v>2018</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="138"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="91" t="s">
@@ -27526,10 +27531,10 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="139" t="s">
         <v>2034</v>
       </c>
-      <c r="B33" s="130"/>
+      <c r="B33" s="138"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="91" t="s">
@@ -27620,10 +27625,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="136" t="s">
+      <c r="A46" s="144" t="s">
         <v>2053</v>
       </c>
-      <c r="B46" s="130"/>
+      <c r="B46" s="138"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="91" t="s">
@@ -27730,26 +27735,26 @@
     <mergeCell ref="A46:B46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="B21" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="B23" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="B24" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
-    <hyperlink ref="B53" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
-    <hyperlink ref="B55" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
-    <hyperlink ref="B56" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B21" r:id="rId8"/>
+    <hyperlink ref="B23" r:id="rId9"/>
+    <hyperlink ref="B24" r:id="rId10"/>
+    <hyperlink ref="B53" r:id="rId11"/>
+    <hyperlink ref="B55" r:id="rId12"/>
+    <hyperlink ref="B56" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27764,10 +27769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="145" t="s">
         <v>2064</v>
       </c>
-      <c r="B1" s="138"/>
+      <c r="B1" s="146"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="91" t="s">
@@ -27908,16 +27913,16 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA5B7D5-17DF-4E62-A390-DF8A41BC6138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -27925,182 +27930,187 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="45">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="116" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>2125</v>
       </c>
-      <c r="B1" s="142" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C1" s="142" t="s">
+      <c r="E1" s="116" t="s">
         <v>2126</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="F1" s="116" t="s">
         <v>2127</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="G1" s="116" t="s">
         <v>2128</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="H1" s="116" t="s">
         <v>2129</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="I1" s="116" t="s">
         <v>2130</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="J1" s="116" t="s">
         <v>2131</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="K1" s="116" t="s">
+        <v>938</v>
+      </c>
+      <c r="L1" s="116" t="s">
         <v>2132</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="M1" s="116" t="s">
         <v>2133</v>
       </c>
-      <c r="K1" s="142" t="s">
-        <v>938</v>
-      </c>
-      <c r="L1" s="142" t="s">
+      <c r="N1" s="116" t="s">
         <v>2134</v>
       </c>
-      <c r="M1" s="142" t="s">
+      <c r="O1" s="116" t="s">
         <v>2135</v>
       </c>
-      <c r="N1" s="142" t="s">
+      <c r="P1" s="116" t="s">
         <v>2136</v>
       </c>
-      <c r="O1" s="142" t="s">
+      <c r="Q1" s="116" t="s">
         <v>2137</v>
       </c>
-      <c r="P1" s="142" t="s">
+      <c r="R1" s="116" t="s">
         <v>2138</v>
       </c>
-      <c r="Q1" s="142" t="s">
+      <c r="S1" s="116" t="s">
         <v>2139</v>
       </c>
-      <c r="R1" s="142" t="s">
+      <c r="T1" s="116" t="s">
         <v>2140</v>
       </c>
-      <c r="S1" s="142" t="s">
+      <c r="U1" s="116" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V1" s="116" t="s">
         <v>2141</v>
       </c>
-      <c r="T1" s="142" t="s">
+      <c r="W1" s="116" t="s">
         <v>2142</v>
       </c>
-      <c r="U1" s="142" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V1" s="142" t="s">
+      <c r="X1" s="116" t="s">
         <v>2143</v>
       </c>
-      <c r="W1" s="142" t="s">
+      <c r="Y1" s="119" t="s">
         <v>2144</v>
       </c>
-      <c r="X1" s="142" t="s">
+      <c r="Z1" s="116" t="s">
         <v>2145</v>
       </c>
-      <c r="Y1" s="145" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="117" t="s">
         <v>2146</v>
       </c>
-      <c r="Z1" s="142" t="s">
+      <c r="B2" s="116" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="143" t="s">
+      <c r="C2" s="116" t="s">
         <v>2148</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="D2" s="116" t="s">
         <v>2149</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="E2" s="116" t="s">
         <v>2150</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="F2" s="118" t="s">
         <v>2151</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="G2" s="116" t="s">
         <v>2152</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="H2" s="116" t="s">
         <v>2153</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="I2" s="117" t="s">
         <v>2154</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="J2" s="116" t="s">
         <v>2155</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="K2" s="116" t="s">
         <v>2156</v>
       </c>
-      <c r="J2" s="142" t="s">
+      <c r="L2" s="116" t="s">
         <v>2157</v>
       </c>
-      <c r="K2" s="142" t="s">
+      <c r="M2" s="117" t="s">
         <v>2158</v>
       </c>
-      <c r="L2" s="142" t="s">
+      <c r="N2" s="116" t="s">
         <v>2159</v>
       </c>
-      <c r="M2" s="143" t="s">
+      <c r="O2" s="116" t="s">
         <v>2160</v>
       </c>
-      <c r="N2" s="142" t="s">
+      <c r="P2" s="116" t="s">
         <v>2161</v>
       </c>
-      <c r="O2" s="142" t="s">
+      <c r="Q2" s="116" t="s">
         <v>2162</v>
       </c>
-      <c r="P2" s="142" t="s">
+      <c r="R2" s="116" t="s">
         <v>2163</v>
       </c>
-      <c r="Q2" s="142" t="s">
+      <c r="S2" s="116" t="s">
         <v>2164</v>
       </c>
-      <c r="R2" s="142" t="s">
+      <c r="T2" s="116" t="s">
         <v>2165</v>
       </c>
-      <c r="S2" s="142" t="s">
+      <c r="U2" s="116" t="s">
         <v>2166</v>
       </c>
-      <c r="T2" s="142" t="s">
+      <c r="V2" s="116" t="s">
         <v>2167</v>
       </c>
-      <c r="U2" s="142" t="s">
-        <v>2168</v>
-      </c>
-      <c r="V2" s="142" t="s">
-        <v>2169</v>
-      </c>
-      <c r="W2" s="146">
+      <c r="W2" s="120">
         <v>33472</v>
       </c>
-      <c r="X2" s="142">
+      <c r="X2" s="116">
         <v>11113</v>
       </c>
-      <c r="Y2" s="142">
+      <c r="Y2" s="116">
         <v>67458</v>
       </c>
-      <c r="Z2" s="142">
+      <c r="Z2" s="116">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -28176,41 +28186,41 @@
         <v>2104</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>2111</v>
+        <v>2168</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>2111</v>
+        <v>2168</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>2111</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>2112</v>
+        <v>2168</v>
+      </c>
+      <c r="K2" s="117" t="s">
+        <v>2169</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="111" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C4" s="111" t="s">
         <v>2113</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="D4" s="112" t="s">
         <v>2114</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="E4" s="111" t="s">
         <v>2115</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="111" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="C5" s="37">
         <v>7</v>
@@ -28219,22 +28229,22 @@
         <v>1530</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -28391,14 +28401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -28415,10 +28425,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
@@ -28441,10 +28451,10 @@
       <c r="B4" s="8"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="122"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
@@ -28491,10 +28501,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="114"/>
+      <c r="B14" s="122"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
@@ -28521,10 +28531,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="122"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
@@ -28555,10 +28565,10 @@
       <c r="B24" s="8"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="114"/>
+      <c r="B26" s="122"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
@@ -28609,7 +28619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -28629,14 +28639,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="114"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -28695,14 +28705,14 @@
       <c r="B7" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
@@ -28773,14 +28783,14 @@
       <c r="B16" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="122"/>
+      <c r="C18" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="114"/>
+      <c r="D18" s="122"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
@@ -28843,14 +28853,14 @@
       <c r="B24" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115" t="s">
+      <c r="B26" s="122"/>
+      <c r="C26" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="114"/>
+      <c r="D26" s="122"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
@@ -28917,14 +28927,14 @@
       <c r="B32" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115" t="s">
+      <c r="B34" s="122"/>
+      <c r="C34" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="114"/>
+      <c r="D34" s="122"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
@@ -28991,14 +29001,14 @@
       <c r="B40" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="115" t="s">
+      <c r="B43" s="122"/>
+      <c r="C43" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="114"/>
+      <c r="D43" s="122"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
@@ -29081,14 +29091,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="115" t="s">
+      <c r="B52" s="122"/>
+      <c r="C52" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="114"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="57" customHeight="1">
@@ -29182,14 +29192,14 @@
       <c r="E58" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="115" t="s">
+      <c r="B60" s="122"/>
+      <c r="C60" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="114"/>
+      <c r="D60" s="122"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
@@ -29282,16 +29292,16 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="117" t="s">
+      <c r="A70" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="115" t="s">
+      <c r="B70" s="122"/>
+      <c r="C70" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="114"/>
-    </row>
-    <row r="71" spans="1:4" ht="37.5">
+      <c r="D70" s="122"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -29326,10 +29336,10 @@
       <c r="B73" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="115" t="s">
+      <c r="C73" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="114"/>
+      <c r="D73" s="122"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="7" t="s">
@@ -29372,14 +29382,14 @@
       <c r="D77" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="117" t="s">
+      <c r="A79" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="115" t="s">
+      <c r="B79" s="122"/>
+      <c r="C79" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="114"/>
+      <c r="D79" s="122"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="7" t="s">
@@ -29416,10 +29426,10 @@
       <c r="B82" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="115" t="s">
+      <c r="C82" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="114"/>
+      <c r="D82" s="122"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="7" t="s">
@@ -29460,14 +29470,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="113" t="s">
+      <c r="B88" s="122"/>
+      <c r="C88" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="114"/>
+      <c r="D88" s="122"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="7" t="s">
@@ -29518,10 +29528,10 @@
       <c r="B92" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="113" t="s">
+      <c r="C92" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="114"/>
+      <c r="D92" s="122"/>
     </row>
     <row r="93" spans="1:4" ht="38.1" customHeight="1">
       <c r="A93" s="7" t="s">
@@ -29560,10 +29570,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="113" t="s">
+      <c r="C96" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="114"/>
+      <c r="D96" s="122"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="7"/>
@@ -29606,14 +29616,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="116" t="s">
+      <c r="A103" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B103" s="114"/>
-      <c r="C103" s="113" t="s">
+      <c r="B103" s="122"/>
+      <c r="C103" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="114"/>
+      <c r="D103" s="122"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="7" t="s">
@@ -29636,10 +29646,10 @@
       <c r="B105" s="8" t="s">
         <v>2106</v>
       </c>
-      <c r="C105" s="115" t="s">
+      <c r="C105" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="114"/>
+      <c r="D105" s="122"/>
     </row>
     <row r="106" spans="1:4" ht="38.1" customHeight="1">
       <c r="A106" s="7" t="s">
@@ -29754,14 +29764,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="116" t="s">
+      <c r="A118" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="114"/>
-      <c r="C118" s="113" t="s">
+      <c r="B118" s="122"/>
+      <c r="C118" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="D118" s="114"/>
+      <c r="D118" s="122"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
@@ -29844,10 +29854,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="118" t="s">
+      <c r="A125" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="B125" s="114"/>
+      <c r="B125" s="122"/>
       <c r="C125" s="7" t="s">
         <v>52</v>
       </c>
@@ -29894,14 +29904,14 @@
       <c r="D128" s="8"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="116" t="s">
+      <c r="A131" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="114"/>
-      <c r="C131" s="113" t="s">
+      <c r="B131" s="122"/>
+      <c r="C131" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="D131" s="114"/>
+      <c r="D131" s="122"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="7" t="s">
@@ -30032,14 +30042,14 @@
       <c r="D141" s="7"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="116" t="s">
+      <c r="A144" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="114"/>
-      <c r="C144" s="113" t="s">
+      <c r="B144" s="122"/>
+      <c r="C144" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="D144" s="114"/>
+      <c r="D144" s="122"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="7" t="s">
@@ -30166,14 +30176,14 @@
       <c r="D154" s="7"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="116" t="s">
+      <c r="A157" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="B157" s="114"/>
-      <c r="C157" s="113" t="s">
+      <c r="B157" s="122"/>
+      <c r="C157" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="D157" s="114"/>
+      <c r="D157" s="122"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="7" t="s">
@@ -30351,7 +30361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -31040,7 +31050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31577,7 +31587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
@@ -31599,18 +31609,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="127" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="128"/>
+      <c r="D1" s="129" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="G1" s="121" t="s">
+      <c r="E1" s="128"/>
+      <c r="G1" s="129" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="120"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -31679,14 +31689,14 @@
       <c r="B5" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="G5" s="122" t="s">
+      <c r="E5" s="128"/>
+      <c r="G5" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="128"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="28" t="s">
@@ -31811,16 +31821,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="129" t="s">
         <v>491</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="129" t="s">
         <v>492</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="128"/>
       <c r="D16" s="28" t="s">
         <v>455</v>
       </c>
@@ -31863,16 +31873,16 @@
       <c r="B19" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="128"/>
       <c r="D20" s="28" t="s">
         <v>71</v>
       </c>
@@ -31927,16 +31937,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="130" t="s">
         <v>469</v>
       </c>
-      <c r="E25" s="120"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="129" t="s">
         <v>504</v>
       </c>
-      <c r="B26" s="120"/>
+      <c r="B26" s="128"/>
       <c r="D26" s="28" t="s">
         <v>45</v>
       </c>
@@ -31975,14 +31985,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="128"/>
+      <c r="D30" s="129" t="s">
         <v>509</v>
       </c>
-      <c r="E30" s="120"/>
+      <c r="E30" s="128"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="28" t="s">
@@ -32027,16 +32037,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E34" s="120"/>
+      <c r="E34" s="128"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="129" t="s">
         <v>515</v>
       </c>
-      <c r="B35" s="120"/>
+      <c r="B35" s="128"/>
       <c r="D35" s="28" t="s">
         <v>71</v>
       </c>
@@ -32087,10 +32097,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B39" s="120"/>
+      <c r="B39" s="128"/>
       <c r="D39" s="28" t="s">
         <v>485</v>
       </c>
@@ -32105,10 +32115,10 @@
       <c r="B40" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="130" t="s">
         <v>469</v>
       </c>
-      <c r="E40" s="120"/>
+      <c r="E40" s="128"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
       <c r="A41" s="28" t="s">
@@ -32147,10 +32157,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="129" t="s">
         <v>525</v>
       </c>
-      <c r="B44" s="120"/>
+      <c r="B44" s="128"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="28" t="s">
@@ -32167,10 +32177,10 @@
       <c r="B46" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="129" t="s">
         <v>528</v>
       </c>
-      <c r="E46" s="120"/>
+      <c r="E46" s="128"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" s="28" t="s">
@@ -32187,10 +32197,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B48" s="120"/>
+      <c r="B48" s="128"/>
       <c r="D48" s="28" t="s">
         <v>460</v>
       </c>
@@ -32219,10 +32229,10 @@
       <c r="B50" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="D50" s="122" t="s">
+      <c r="D50" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E50" s="120"/>
+      <c r="E50" s="128"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="28" t="s">
@@ -32275,10 +32285,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="129" t="s">
         <v>539</v>
       </c>
-      <c r="B55" s="120"/>
+      <c r="B55" s="128"/>
       <c r="D55" s="28" t="s">
         <v>485</v>
       </c>
@@ -32293,10 +32303,10 @@
       <c r="B56" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D56" s="130" t="s">
         <v>469</v>
       </c>
-      <c r="E56" s="120"/>
+      <c r="E56" s="128"/>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1">
       <c r="A57" s="28" t="s">
@@ -32327,10 +32337,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B59" s="120"/>
+      <c r="B59" s="128"/>
       <c r="D59" s="28" t="s">
         <v>111</v>
       </c>
@@ -32361,10 +32371,10 @@
       <c r="B62" s="28" t="s">
         <v>2106</v>
       </c>
-      <c r="D62" s="121" t="s">
+      <c r="D62" s="129" t="s">
         <v>548</v>
       </c>
-      <c r="E62" s="120"/>
+      <c r="E62" s="128"/>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1">
       <c r="A63" s="28" t="s">
@@ -32451,14 +32461,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="119" t="s">
+      <c r="A69" s="127" t="s">
         <v>555</v>
       </c>
-      <c r="B69" s="120"/>
-      <c r="D69" s="122" t="s">
+      <c r="B69" s="128"/>
+      <c r="D69" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E69" s="120"/>
+      <c r="E69" s="128"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="28" t="s">
@@ -32519,10 +32529,10 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="121" t="s">
+      <c r="A75" s="129" t="s">
         <v>562</v>
       </c>
-      <c r="B75" s="120"/>
+      <c r="B75" s="128"/>
       <c r="D75" s="101" t="s">
         <v>469</v>
       </c>
@@ -32571,10 +32581,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="121" t="s">
+      <c r="A79" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B79" s="120"/>
+      <c r="B79" s="128"/>
       <c r="D79" s="28" t="s">
         <v>570</v>
       </c>
@@ -32605,10 +32615,10 @@
       <c r="B82" s="28" t="s">
         <v>2106</v>
       </c>
-      <c r="D82" s="121" t="s">
+      <c r="D82" s="129" t="s">
         <v>573</v>
       </c>
-      <c r="E82" s="120"/>
+      <c r="E82" s="128"/>
       <c r="F82" s="30" t="s">
         <v>574</v>
       </c>
@@ -32671,10 +32681,10 @@
       <c r="B86" s="28">
         <v>50</v>
       </c>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E86" s="120"/>
+      <c r="E86" s="128"/>
       <c r="F86" s="31" t="s">
         <v>470</v>
       </c>
@@ -32700,10 +32710,10 @@
       <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="121" t="s">
+      <c r="A89" s="129" t="s">
         <v>584</v>
       </c>
-      <c r="B89" s="120"/>
+      <c r="B89" s="128"/>
       <c r="D89" s="28" t="s">
         <v>77</v>
       </c>
@@ -32753,19 +32763,19 @@
       <c r="B92" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="D92" s="122" t="s">
+      <c r="D92" s="130" t="s">
         <v>469</v>
       </c>
-      <c r="E92" s="120"/>
+      <c r="E92" s="128"/>
       <c r="F92" s="31" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="121" t="s">
+      <c r="A93" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="B93" s="120"/>
+      <c r="B93" s="128"/>
       <c r="D93" s="28" t="s">
         <v>45</v>
       </c>
@@ -32919,10 +32929,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="119" t="s">
+      <c r="A105" s="127" t="s">
         <v>600</v>
       </c>
-      <c r="B105" s="120"/>
+      <c r="B105" s="128"/>
       <c r="D105" s="28" t="s">
         <v>601</v>
       </c>
@@ -32945,10 +32955,10 @@
       <c r="B107" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="D107" s="121" t="s">
+      <c r="D107" s="129" t="s">
         <v>604</v>
       </c>
-      <c r="E107" s="120"/>
+      <c r="E107" s="128"/>
     </row>
     <row r="108" spans="1:5" ht="30" customHeight="1">
       <c r="A108" s="28" t="s">
@@ -32993,10 +33003,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="119" t="s">
+      <c r="A111" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B111" s="120"/>
+      <c r="B111" s="128"/>
       <c r="D111" s="28" t="s">
         <v>598</v>
       </c>
@@ -33039,10 +33049,10 @@
       <c r="B114" s="28">
         <v>200</v>
       </c>
-      <c r="D114" s="122" t="s">
+      <c r="D114" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E114" s="120"/>
+      <c r="E114" s="128"/>
     </row>
     <row r="115" spans="1:5" ht="30" customHeight="1">
       <c r="A115" s="28" t="s">
@@ -33115,10 +33125,10 @@
       <c r="E120" s="90"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="119" t="s">
+      <c r="A121" s="127" t="s">
         <v>613</v>
       </c>
-      <c r="B121" s="120"/>
+      <c r="B121" s="128"/>
       <c r="D121" s="28" t="s">
         <v>45</v>
       </c>
@@ -33169,10 +33179,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="119" t="s">
+      <c r="A125" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B125" s="120"/>
+      <c r="B125" s="128"/>
       <c r="D125" s="28" t="s">
         <v>568</v>
       </c>
@@ -33217,10 +33227,10 @@
       <c r="B129" s="28" t="s">
         <v>2106</v>
       </c>
-      <c r="D129" s="121" t="s">
+      <c r="D129" s="129" t="s">
         <v>623</v>
       </c>
-      <c r="E129" s="120"/>
+      <c r="E129" s="128"/>
     </row>
     <row r="130" spans="1:5" ht="30" customHeight="1">
       <c r="D130" s="28" t="s">
@@ -33239,10 +33249,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="119" t="s">
+      <c r="A132" s="127" t="s">
         <v>626</v>
       </c>
-      <c r="B132" s="120"/>
+      <c r="B132" s="128"/>
       <c r="D132" s="28" t="s">
         <v>81</v>
       </c>
@@ -33293,14 +33303,14 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="119" t="s">
+      <c r="A136" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B136" s="120"/>
-      <c r="D136" s="122" t="s">
+      <c r="B136" s="128"/>
+      <c r="D136" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E136" s="120"/>
+      <c r="E136" s="128"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="28" t="s">
@@ -33387,10 +33397,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="119" t="s">
+      <c r="A144" s="127" t="s">
         <v>637</v>
       </c>
-      <c r="B144" s="120"/>
+      <c r="B144" s="128"/>
       <c r="D144" s="28" t="s">
         <v>137</v>
       </c>
@@ -33441,10 +33451,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="119" t="s">
+      <c r="A148" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B148" s="120"/>
+      <c r="B148" s="128"/>
       <c r="D148" s="28" t="s">
         <v>568</v>
       </c>
@@ -33489,10 +33499,10 @@
       <c r="B152" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="D152" s="121" t="s">
+      <c r="D152" s="129" t="s">
         <v>643</v>
       </c>
-      <c r="E152" s="120"/>
+      <c r="E152" s="128"/>
     </row>
     <row r="153" spans="1:5" ht="30" customHeight="1">
       <c r="A153" s="28" t="s">
@@ -33585,10 +33595,10 @@
       <c r="B159" s="28">
         <v>60</v>
       </c>
-      <c r="D159" s="122" t="s">
+      <c r="D159" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E159" s="120"/>
+      <c r="E159" s="128"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="28" t="s">
@@ -33607,10 +33617,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="119" t="s">
+      <c r="A162" s="127" t="s">
         <v>650</v>
       </c>
-      <c r="B162" s="120"/>
+      <c r="B162" s="128"/>
       <c r="D162" s="28" t="s">
         <v>77</v>
       </c>
@@ -33687,10 +33697,10 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" customHeight="1">
-      <c r="A168" s="119" t="s">
+      <c r="A168" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B168" s="120"/>
+      <c r="B168" s="128"/>
       <c r="D168" s="28" t="s">
         <v>524</v>
       </c>
@@ -33815,10 +33825,10 @@
       <c r="B178" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D178" s="121" t="s">
+      <c r="D178" s="129" t="s">
         <v>661</v>
       </c>
-      <c r="E178" s="120"/>
+      <c r="E178" s="128"/>
     </row>
     <row r="179" spans="1:5" ht="30" customHeight="1">
       <c r="A179" s="28" t="s">
@@ -33851,10 +33861,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="119" t="s">
+      <c r="A182" s="127" t="s">
         <v>665</v>
       </c>
-      <c r="B182" s="120"/>
+      <c r="B182" s="128"/>
       <c r="D182" s="28" t="s">
         <v>598</v>
       </c>
@@ -33897,10 +33907,10 @@
       <c r="B185" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="D185" s="122" t="s">
+      <c r="D185" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="E185" s="120"/>
+      <c r="E185" s="128"/>
     </row>
     <row r="186" spans="1:5" ht="30" customHeight="1">
       <c r="A186" s="28" t="s">
@@ -33931,10 +33941,10 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30" customHeight="1">
-      <c r="A188" s="119" t="s">
+      <c r="A188" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B188" s="120"/>
+      <c r="B188" s="128"/>
       <c r="D188" s="28" t="s">
         <v>77</v>
       </c>
@@ -34061,10 +34071,10 @@
       <c r="B198" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D198" s="121" t="s">
+      <c r="D198" s="129" t="s">
         <v>681</v>
       </c>
-      <c r="E198" s="120"/>
+      <c r="E198" s="128"/>
     </row>
     <row r="199" spans="1:5" ht="30" customHeight="1">
       <c r="A199" s="28" t="s">
@@ -34117,10 +34127,10 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="119" t="s">
+      <c r="A203" s="127" t="s">
         <v>686</v>
       </c>
-      <c r="B203" s="120"/>
+      <c r="B203" s="128"/>
       <c r="D203" s="101" t="s">
         <v>470</v>
       </c>
@@ -34197,10 +34207,10 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="119" t="s">
+      <c r="A209" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B209" s="120"/>
+      <c r="B209" s="128"/>
       <c r="D209" s="101" t="s">
         <v>469</v>
       </c>
@@ -34299,10 +34309,10 @@
       <c r="B217" s="28">
         <v>200</v>
       </c>
-      <c r="D217" s="121" t="s">
+      <c r="D217" s="129" t="s">
         <v>700</v>
       </c>
-      <c r="E217" s="120"/>
+      <c r="E217" s="128"/>
     </row>
     <row r="218" spans="1:5" ht="30" customHeight="1">
       <c r="A218" s="28" t="s">
@@ -34361,10 +34371,10 @@
       <c r="E222" s="90"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="119" t="s">
+      <c r="A223" s="127" t="s">
         <v>704</v>
       </c>
-      <c r="B223" s="120"/>
+      <c r="B223" s="128"/>
       <c r="D223" s="28" t="s">
         <v>71</v>
       </c>
@@ -34441,10 +34451,10 @@
       <c r="E228" s="90"/>
     </row>
     <row r="229" spans="1:5" ht="30" customHeight="1">
-      <c r="A229" s="119" t="s">
+      <c r="A229" s="127" t="s">
         <v>469</v>
       </c>
-      <c r="B229" s="120"/>
+      <c r="B229" s="128"/>
       <c r="D229" s="28" t="s">
         <v>677</v>
       </c>
@@ -34601,10 +34611,10 @@
       <c r="B241" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D241" s="121" t="s">
+      <c r="D241" s="129" t="s">
         <v>721</v>
       </c>
-      <c r="E241" s="120"/>
+      <c r="E241" s="128"/>
     </row>
     <row r="242" spans="1:5" ht="30" customHeight="1">
       <c r="A242" s="28" t="s">
@@ -34656,10 +34666,10 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="121" t="s">
+      <c r="A247" s="129" t="s">
         <v>726</v>
       </c>
-      <c r="B247" s="120"/>
+      <c r="B247" s="128"/>
       <c r="D247" s="28" t="s">
         <v>727</v>
       </c>
@@ -34982,10 +34992,10 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="121" t="s">
+      <c r="A276" s="129" t="s">
         <v>745</v>
       </c>
-      <c r="B276" s="120"/>
+      <c r="B276" s="128"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="28" t="s">
@@ -35176,10 +35186,10 @@
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1">
-      <c r="A305" s="121" t="s">
+      <c r="A305" s="129" t="s">
         <v>757</v>
       </c>
-      <c r="B305" s="120"/>
+      <c r="B305" s="128"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="28" t="s">
@@ -35457,7 +35467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35817,16 +35827,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test_Data/TestData.xlsx
+++ b/Test_Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4425" tabRatio="831" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4425" tabRatio="831" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="2173">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -6546,6 +6546,15 @@
   </si>
   <si>
     <t>shavinbamboohr_128_@grovo.com</t>
+  </si>
+  <si>
+    <t>/Users/automation/Downloads/TeamCity/buildAgent/work/a27c680be862cb8f/Test_Data/test.jpg</t>
+  </si>
+  <si>
+    <t>/Users/automation/Downloads/TeamCity/buildAgent/work/a27c680be862cb8f/Test_Data/test.wmv</t>
+  </si>
+  <si>
+    <t>/Users/automation/Downloads/TeamCity/buildAgent/work/a27c680be862cb8f/Test_Data/test.docx</t>
   </si>
 </sst>
 </file>
@@ -7252,25 +7261,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7279,11 +7285,14 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7293,13 +7302,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7797,11 +7806,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="128"/>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="128"/>
@@ -7863,11 +7872,11 @@
       <c r="B7" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="127" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="128"/>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="128"/>
@@ -7941,11 +7950,11 @@
       <c r="B16" s="28"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="127" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="128"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="128"/>
@@ -8011,11 +8020,11 @@
       <c r="B24" s="28"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="127" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="128"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="128"/>
@@ -8085,11 +8094,11 @@
       <c r="B32" s="28"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="129" t="s">
+      <c r="A34" s="127" t="s">
         <v>106</v>
       </c>
       <c r="B34" s="128"/>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="128"/>
@@ -8159,11 +8168,11 @@
       <c r="B40" s="28"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="129" t="s">
+      <c r="A43" s="127" t="s">
         <v>113</v>
       </c>
       <c r="B43" s="128"/>
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="128"/>
@@ -8249,11 +8258,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="127" t="s">
         <v>126</v>
       </c>
       <c r="B52" s="128"/>
-      <c r="C52" s="129" t="s">
+      <c r="C52" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="128"/>
@@ -8350,11 +8359,11 @@
       <c r="E58" s="28"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B60" s="128"/>
-      <c r="C60" s="129" t="s">
+      <c r="C60" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="128"/>
@@ -8450,11 +8459,11 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="131" t="s">
+      <c r="A70" s="133" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="128"/>
-      <c r="C70" s="129" t="s">
+      <c r="C70" s="127" t="s">
         <v>142</v>
       </c>
       <c r="D70" s="128"/>
@@ -8494,7 +8503,7 @@
       <c r="B73" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="129" t="s">
+      <c r="C73" s="127" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="128"/>
@@ -8540,11 +8549,11 @@
       <c r="D77" s="28"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="131" t="s">
+      <c r="A79" s="133" t="s">
         <v>153</v>
       </c>
       <c r="B79" s="128"/>
-      <c r="C79" s="129" t="s">
+      <c r="C79" s="127" t="s">
         <v>154</v>
       </c>
       <c r="D79" s="128"/>
@@ -8584,7 +8593,7 @@
       <c r="B82" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="129" t="s">
+      <c r="C82" s="127" t="s">
         <v>159</v>
       </c>
       <c r="D82" s="128"/>
@@ -8628,11 +8637,11 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="132" t="s">
+      <c r="A88" s="131" t="s">
         <v>164</v>
       </c>
       <c r="B88" s="128"/>
-      <c r="C88" s="127" t="s">
+      <c r="C88" s="129" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="128"/>
@@ -8686,7 +8695,7 @@
       <c r="B92" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="127" t="s">
+      <c r="C92" s="129" t="s">
         <v>168</v>
       </c>
       <c r="D92" s="128"/>
@@ -8728,7 +8737,7 @@
     <row r="96" spans="1:4">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="127" t="s">
+      <c r="C96" s="129" t="s">
         <v>173</v>
       </c>
       <c r="D96" s="128"/>
@@ -8774,11 +8783,11 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="132" t="s">
+      <c r="A103" s="131" t="s">
         <v>176</v>
       </c>
       <c r="B103" s="128"/>
-      <c r="C103" s="127" t="s">
+      <c r="C103" s="129" t="s">
         <v>177</v>
       </c>
       <c r="D103" s="128"/>
@@ -8804,7 +8813,7 @@
       <c r="B105" s="29" t="s">
         <v>2106</v>
       </c>
-      <c r="C105" s="129" t="s">
+      <c r="C105" s="127" t="s">
         <v>180</v>
       </c>
       <c r="D105" s="128"/>
@@ -8922,11 +8931,11 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="132" t="s">
+      <c r="A118" s="131" t="s">
         <v>188</v>
       </c>
       <c r="B118" s="128"/>
-      <c r="C118" s="127" t="s">
+      <c r="C118" s="129" t="s">
         <v>189</v>
       </c>
       <c r="D118" s="128"/>
@@ -9012,7 +9021,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="133" t="s">
+      <c r="A125" s="132" t="s">
         <v>194</v>
       </c>
       <c r="B125" s="128"/>
@@ -9062,11 +9071,11 @@
       <c r="D128" s="29"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="132" t="s">
+      <c r="A131" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B131" s="128"/>
-      <c r="C131" s="127" t="s">
+      <c r="C131" s="129" t="s">
         <v>200</v>
       </c>
       <c r="D131" s="128"/>
@@ -9200,11 +9209,11 @@
       <c r="D141" s="28"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="132" t="s">
+      <c r="A144" s="131" t="s">
         <v>212</v>
       </c>
       <c r="B144" s="128"/>
-      <c r="C144" s="127" t="s">
+      <c r="C144" s="129" t="s">
         <v>200</v>
       </c>
       <c r="D144" s="128"/>
@@ -9334,11 +9343,11 @@
       <c r="D154" s="28"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="132" t="s">
+      <c r="A157" s="131" t="s">
         <v>223</v>
       </c>
       <c r="B157" s="128"/>
-      <c r="C157" s="127" t="s">
+      <c r="C157" s="129" t="s">
         <v>200</v>
       </c>
       <c r="D157" s="128"/>
@@ -9475,6 +9484,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C92:D92"/>
@@ -9489,30 +9522,6 @@
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10269,7 +10278,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="127" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="128"/>
@@ -10303,7 +10312,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="127" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="128"/>
@@ -10356,7 +10365,7 @@
       <c r="B12" s="29"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="129" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="128"/>
@@ -10386,7 +10395,7 @@
       <c r="B18" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="129" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="128"/>
@@ -10420,7 +10429,7 @@
       <c r="B24" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="129" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="128"/>
@@ -11133,7 +11142,7 @@
       <c r="A325" s="130" t="s">
         <v>966</v>
       </c>
-      <c r="B325" s="134"/>
+      <c r="B325" s="135"/>
     </row>
     <row r="326" spans="1:2" ht="30.95" customHeight="1">
       <c r="A326" s="28" t="s">
@@ -11187,7 +11196,7 @@
       <c r="A332" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B332" s="134"/>
+      <c r="B332" s="135"/>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="28" t="s">
@@ -11257,7 +11266,7 @@
       <c r="A342" s="130" t="s">
         <v>983</v>
       </c>
-      <c r="B342" s="134"/>
+      <c r="B342" s="135"/>
     </row>
     <row r="343" spans="1:2" ht="30.95" customHeight="1">
       <c r="A343" s="28" t="s">
@@ -11327,7 +11336,7 @@
       <c r="A351" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B351" s="134"/>
+      <c r="B351" s="135"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="28" t="s">
@@ -11362,10 +11371,10 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="135" t="s">
+      <c r="A356" s="136" t="s">
         <v>993</v>
       </c>
-      <c r="B356" s="134"/>
+      <c r="B356" s="135"/>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="28" t="s">
@@ -11422,10 +11431,10 @@
       <c r="B363" s="28"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="135" t="s">
+      <c r="A364" s="136" t="s">
         <v>998</v>
       </c>
-      <c r="B364" s="134"/>
+      <c r="B364" s="135"/>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="28" t="s">
@@ -11447,7 +11456,7 @@
       <c r="A368" s="130" t="s">
         <v>1001</v>
       </c>
-      <c r="B368" s="134"/>
+      <c r="B368" s="135"/>
     </row>
     <row r="369" spans="1:2" ht="30.95" customHeight="1">
       <c r="A369" s="28" t="s">
@@ -11517,7 +11526,7 @@
       <c r="A377" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B377" s="134"/>
+      <c r="B377" s="135"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="28" t="s">
@@ -11583,7 +11592,7 @@
       <c r="A386" s="130" t="s">
         <v>1011</v>
       </c>
-      <c r="B386" s="134"/>
+      <c r="B386" s="135"/>
     </row>
     <row r="387" spans="1:2" ht="30.95" customHeight="1">
       <c r="A387" s="28" t="s">
@@ -11653,7 +11662,7 @@
       <c r="A395" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B395" s="134"/>
+      <c r="B395" s="135"/>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="28" t="s">
@@ -11723,7 +11732,7 @@
       <c r="A405" s="130" t="s">
         <v>1019</v>
       </c>
-      <c r="B405" s="134"/>
+      <c r="B405" s="135"/>
     </row>
     <row r="406" spans="1:2" ht="30.95" customHeight="1">
       <c r="A406" s="28" t="s">
@@ -11798,10 +11807,10 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="136" t="s">
+      <c r="A415" s="134" t="s">
         <v>1026</v>
       </c>
-      <c r="B415" s="134"/>
+      <c r="B415" s="135"/>
     </row>
     <row r="416" spans="1:2" ht="30.95" customHeight="1">
       <c r="A416" s="28" t="s">
@@ -11847,7 +11856,7 @@
       <c r="A421" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B421" s="134"/>
+      <c r="B421" s="135"/>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="28" t="s">
@@ -11917,7 +11926,7 @@
       <c r="A431" s="130" t="s">
         <v>1032</v>
       </c>
-      <c r="B431" s="134"/>
+      <c r="B431" s="135"/>
     </row>
     <row r="432" spans="1:2" ht="30.95" customHeight="1">
       <c r="A432" s="28" t="s">
@@ -11987,7 +11996,7 @@
       <c r="A441" s="130" t="s">
         <v>1037</v>
       </c>
-      <c r="B441" s="134"/>
+      <c r="B441" s="135"/>
     </row>
     <row r="442" spans="1:2" ht="30.95" customHeight="1">
       <c r="A442" s="28" t="s">
@@ -12057,7 +12066,7 @@
       <c r="A450" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B450" s="134"/>
+      <c r="B450" s="135"/>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="28" t="s">
@@ -12116,10 +12125,10 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="135" t="s">
+      <c r="A458" s="136" t="s">
         <v>998</v>
       </c>
-      <c r="B458" s="134"/>
+      <c r="B458" s="135"/>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="28" t="s">
@@ -12141,7 +12150,7 @@
       <c r="A462" s="130" t="s">
         <v>1047</v>
       </c>
-      <c r="B462" s="134"/>
+      <c r="B462" s="135"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="28" t="s">
@@ -12211,7 +12220,7 @@
       <c r="A471" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B471" s="134"/>
+      <c r="B471" s="135"/>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="28" t="s">
@@ -12270,10 +12279,10 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="135" t="s">
+      <c r="A479" s="136" t="s">
         <v>998</v>
       </c>
-      <c r="B479" s="134"/>
+      <c r="B479" s="135"/>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="28" t="s">
@@ -12287,7 +12296,7 @@
       <c r="A483" s="130" t="s">
         <v>1056</v>
       </c>
-      <c r="B483" s="134"/>
+      <c r="B483" s="135"/>
     </row>
     <row r="484" spans="1:2" ht="30.95" customHeight="1">
       <c r="A484" s="28" t="s">
@@ -12357,7 +12366,7 @@
       <c r="A492" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B492" s="134"/>
+      <c r="B492" s="135"/>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="28" t="s">
@@ -12416,10 +12425,10 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="135" t="s">
+      <c r="A500" s="136" t="s">
         <v>998</v>
       </c>
-      <c r="B500" s="134"/>
+      <c r="B500" s="135"/>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="28" t="s">
@@ -12441,7 +12450,7 @@
       <c r="A504" s="130" t="s">
         <v>1065</v>
       </c>
-      <c r="B504" s="134"/>
+      <c r="B504" s="135"/>
     </row>
     <row r="505" spans="1:2" ht="30.95" customHeight="1">
       <c r="A505" s="28" t="s">
@@ -12511,7 +12520,7 @@
       <c r="A513" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B513" s="134"/>
+      <c r="B513" s="135"/>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="28" t="s">
@@ -12562,10 +12571,10 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="135" t="s">
+      <c r="A520" s="136" t="s">
         <v>998</v>
       </c>
-      <c r="B520" s="134"/>
+      <c r="B520" s="135"/>
     </row>
     <row r="521" spans="1:2" ht="30.75" customHeight="1">
       <c r="A521" s="28" t="s">
@@ -12579,7 +12588,7 @@
       <c r="A522" s="130" t="s">
         <v>1074</v>
       </c>
-      <c r="B522" s="134"/>
+      <c r="B522" s="135"/>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="28" t="s">
@@ -12715,7 +12724,7 @@
       <c r="A544" s="130" t="s">
         <v>1065</v>
       </c>
-      <c r="B544" s="134"/>
+      <c r="B544" s="135"/>
     </row>
     <row r="545" spans="1:2" ht="30.95" customHeight="1">
       <c r="A545" s="28" t="s">
@@ -12777,7 +12786,7 @@
       <c r="A552" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B552" s="134"/>
+      <c r="B552" s="135"/>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="28" t="s">
@@ -12828,10 +12837,10 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="135" t="s">
+      <c r="A561" s="136" t="s">
         <v>1105</v>
       </c>
-      <c r="B561" s="134"/>
+      <c r="B561" s="135"/>
     </row>
     <row r="562" spans="1:2" ht="30.95" customHeight="1">
       <c r="A562" s="28" t="s">
@@ -12901,7 +12910,7 @@
       <c r="A570" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B570" s="134"/>
+      <c r="B570" s="135"/>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="28" t="s">
@@ -12952,10 +12961,10 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="135" t="s">
+      <c r="A577" s="136" t="s">
         <v>1113</v>
       </c>
-      <c r="B577" s="134"/>
+      <c r="B577" s="135"/>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="28" t="s">
@@ -13065,7 +13074,7 @@
       <c r="A596" s="130" t="s">
         <v>1128</v>
       </c>
-      <c r="B596" s="134"/>
+      <c r="B596" s="135"/>
     </row>
     <row r="597" spans="1:2" ht="30.95" customHeight="1">
       <c r="A597" s="28" t="s">
@@ -13135,7 +13144,7 @@
       <c r="A605" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B605" s="134"/>
+      <c r="B605" s="135"/>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="28" t="s">
@@ -13186,10 +13195,10 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="135" t="s">
+      <c r="A612" s="136" t="s">
         <v>1136</v>
       </c>
-      <c r="B612" s="134"/>
+      <c r="B612" s="135"/>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="28" t="s">
@@ -13341,7 +13350,7 @@
       <c r="A638" s="130" t="s">
         <v>1158</v>
       </c>
-      <c r="B638" s="134"/>
+      <c r="B638" s="135"/>
     </row>
     <row r="639" spans="1:2" ht="30.95" customHeight="1">
       <c r="A639" s="28" t="s">
@@ -13411,7 +13420,7 @@
       <c r="A647" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B647" s="134"/>
+      <c r="B647" s="135"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="28" t="s">
@@ -13487,7 +13496,7 @@
       <c r="A658" s="130" t="s">
         <v>1168</v>
       </c>
-      <c r="B658" s="134"/>
+      <c r="B658" s="135"/>
     </row>
     <row r="659" spans="1:2" ht="30.95" customHeight="1">
       <c r="A659" s="28" t="s">
@@ -13557,7 +13566,7 @@
       <c r="A667" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B667" s="134"/>
+      <c r="B667" s="135"/>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="28" t="s">
@@ -13633,7 +13642,7 @@
       <c r="A678" s="130" t="s">
         <v>1177</v>
       </c>
-      <c r="B678" s="134"/>
+      <c r="B678" s="135"/>
     </row>
     <row r="679" spans="1:2" ht="30.95" customHeight="1">
       <c r="A679" s="28" t="s">
@@ -13703,7 +13712,7 @@
       <c r="A687" s="130" t="s">
         <v>971</v>
       </c>
-      <c r="B687" s="134"/>
+      <c r="B687" s="135"/>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="28" t="s">
@@ -13765,6 +13774,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A647:B647"/>
+    <mergeCell ref="A658:B658"/>
+    <mergeCell ref="A667:B667"/>
+    <mergeCell ref="A678:B678"/>
+    <mergeCell ref="A687:B687"/>
+    <mergeCell ref="A638:B638"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="A596:B596"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="A612:B612"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A500:B500"/>
     <mergeCell ref="A415:B415"/>
     <mergeCell ref="A325:B325"/>
     <mergeCell ref="A332:B332"/>
@@ -13777,35 +13815,6 @@
     <mergeCell ref="A386:B386"/>
     <mergeCell ref="A395:B395"/>
     <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A638:B638"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A605:B605"/>
-    <mergeCell ref="A612:B612"/>
-    <mergeCell ref="A647:B647"/>
-    <mergeCell ref="A658:B658"/>
-    <mergeCell ref="A667:B667"/>
-    <mergeCell ref="A678:B678"/>
-    <mergeCell ref="A687:B687"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -19863,107 +19872,33 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="E412:G412"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="E404:G404"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="E408:G408"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="E388:G388"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="E392:G392"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="E396:G396"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="E384:G384"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="E372:G372"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="E352:G352"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="E356:G356"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="E348:G348"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="E328:G328"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E170:G170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="E196:G196"/>
-    <mergeCell ref="E200:G200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="E204:G204"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="E212:G212"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="E228:G228"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="E232:G232"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="E236:G236"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="E244:G244"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="E248:G248"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="E252:G252"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="E256:G256"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="E264:G264"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="E276:G276"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="E280:G280"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="E468:G468"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="E440:G440"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="E444:G444"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="E448:G448"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="E452:G452"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="E420:G420"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="E424:G424"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="E428:G428"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="E436:G436"/>
     <mergeCell ref="E300:G300"/>
     <mergeCell ref="A303:C303"/>
     <mergeCell ref="E288:G288"/>
@@ -19988,33 +19923,107 @@
     <mergeCell ref="E340:G340"/>
     <mergeCell ref="A344:C344"/>
     <mergeCell ref="E344:G344"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="E420:G420"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="E424:G424"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="E428:G428"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="E436:G436"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="E468:G468"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="E440:G440"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="E444:G444"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="E448:G448"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="E452:G452"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="E264:G264"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="E276:G276"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="E280:G280"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="E244:G244"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="E248:G248"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="E256:G256"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="E228:G228"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="E232:G232"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="E236:G236"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E170:G170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="E348:G348"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="E328:G328"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="E372:G372"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="E352:G352"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="E356:G356"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="E388:G388"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="E392:G392"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="E396:G396"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="E384:G384"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="E412:G412"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="E404:G404"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="E408:G408"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20037,7 +20046,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>1520</v>
       </c>
       <c r="B2" s="138"/>
@@ -20107,7 +20116,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="140" t="s">
         <v>1531</v>
       </c>
       <c r="B12" s="138"/>
@@ -20177,7 +20186,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="140" t="s">
         <v>1540</v>
       </c>
       <c r="B23" s="138"/>
@@ -20247,7 +20256,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="140" t="s">
         <v>1548</v>
       </c>
       <c r="B34" s="138"/>
@@ -20317,7 +20326,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="140" t="s">
         <v>1555</v>
       </c>
       <c r="B44" s="138"/>
@@ -20387,7 +20396,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="140" t="s">
         <v>1564</v>
       </c>
       <c r="B55" s="138"/>
@@ -20457,7 +20466,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="141" t="s">
+      <c r="A66" s="140" t="s">
         <v>1572</v>
       </c>
       <c r="B66" s="138"/>
@@ -20527,7 +20536,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="141" t="s">
+      <c r="A77" s="140" t="s">
         <v>1580</v>
       </c>
       <c r="B77" s="138"/>
@@ -20597,7 +20606,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="140" t="s">
         <v>1588</v>
       </c>
       <c r="B88" s="138"/>
@@ -20715,7 +20724,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="141" t="s">
+      <c r="A105" s="140" t="s">
         <v>1606</v>
       </c>
       <c r="B105" s="138"/>
@@ -20769,7 +20778,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="142" t="s">
+      <c r="A112" s="141" t="s">
         <v>1612</v>
       </c>
       <c r="B112" s="138"/>
@@ -20959,7 +20968,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="141" t="s">
+      <c r="A138" s="140" t="s">
         <v>1625</v>
       </c>
       <c r="B138" s="138"/>
@@ -21029,7 +21038,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="140" t="s">
+      <c r="A147" s="142" t="s">
         <v>1632</v>
       </c>
       <c r="B147" s="138"/>
@@ -21091,7 +21100,7 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="141" t="s">
+      <c r="A157" s="140" t="s">
         <v>1638</v>
       </c>
       <c r="B157" s="138"/>
@@ -21161,7 +21170,7 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="140" t="s">
+      <c r="A166" s="142" t="s">
         <v>1632</v>
       </c>
       <c r="B166" s="138"/>
@@ -21223,7 +21232,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="141" t="s">
+      <c r="A176" s="140" t="s">
         <v>1651</v>
       </c>
       <c r="B176" s="138"/>
@@ -21291,7 +21300,7 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="140" t="s">
+      <c r="A185" s="142" t="s">
         <v>1632</v>
       </c>
       <c r="B185" s="138"/>
@@ -21402,6 +21411,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A185:B185"/>
     <mergeCell ref="A138:B138"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
@@ -21414,11 +21428,6 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A185:B185"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
@@ -23192,7 +23201,7 @@
       <c r="B224" s="28"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="135" t="s">
+      <c r="A225" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B225" s="128"/>
@@ -23314,7 +23323,7 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="135" t="s">
+      <c r="A244" s="136" t="s">
         <v>993</v>
       </c>
       <c r="B244" s="128"/>
@@ -23376,7 +23385,7 @@
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="135" t="s">
+      <c r="A252" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B252" s="128"/>
@@ -23520,7 +23529,7 @@
       <c r="B272" s="28"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="135" t="s">
+      <c r="A273" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B273" s="128"/>
@@ -23664,7 +23673,7 @@
       <c r="B293" s="28"/>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="135" t="s">
+      <c r="A294" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B294" s="128"/>
@@ -23846,7 +23855,7 @@
       <c r="B319" s="28"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="135" t="s">
+      <c r="A320" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B320" s="128"/>
@@ -24092,7 +24101,7 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="135" t="s">
+      <c r="A356" s="136" t="s">
         <v>993</v>
       </c>
       <c r="B356" s="128"/>
@@ -24152,7 +24161,7 @@
       <c r="B363" s="28"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="135" t="s">
+      <c r="A364" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B364" s="128"/>
@@ -24508,7 +24517,7 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="136" t="s">
+      <c r="A415" s="134" t="s">
         <v>1026</v>
       </c>
       <c r="B415" s="128"/>
@@ -24811,7 +24820,7 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="135" t="s">
+      <c r="A458" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B458" s="128"/>
@@ -24957,7 +24966,7 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="135" t="s">
+      <c r="A479" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B479" s="128"/>
@@ -25106,7 +25115,7 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="135" t="s">
+      <c r="A500" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B500" s="128"/>
@@ -25244,7 +25253,7 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="135" t="s">
+      <c r="A520" s="136" t="s">
         <v>998</v>
       </c>
       <c r="B520" s="128"/>
@@ -25626,7 +25635,7 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="135" t="s">
+      <c r="A577" s="136" t="s">
         <v>1113</v>
       </c>
       <c r="B577" s="128"/>
@@ -25848,7 +25857,7 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="135" t="s">
+      <c r="A612" s="136" t="s">
         <v>1136</v>
       </c>
       <c r="B612" s="128"/>
@@ -26532,7 +26541,7 @@
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="135" t="s">
+      <c r="A715" s="136" t="s">
         <v>1963</v>
       </c>
       <c r="B715" s="128"/>
@@ -26710,7 +26719,7 @@
       </c>
     </row>
     <row r="739" spans="1:2">
-      <c r="A739" s="135" t="s">
+      <c r="A739" s="136" t="s">
         <v>1963</v>
       </c>
       <c r="B739" s="128"/>
@@ -27089,13 +27098,72 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A786:B786"/>
-    <mergeCell ref="A739:B739"/>
-    <mergeCell ref="A747:B747"/>
-    <mergeCell ref="A754:B754"/>
-    <mergeCell ref="A763:B763"/>
-    <mergeCell ref="A770:B770"/>
-    <mergeCell ref="A779:B779"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="A596:B596"/>
     <mergeCell ref="A731:B731"/>
     <mergeCell ref="A612:B612"/>
     <mergeCell ref="A638:B638"/>
@@ -27108,72 +27176,13 @@
     <mergeCell ref="A707:B707"/>
     <mergeCell ref="A715:B715"/>
     <mergeCell ref="A722:B722"/>
-    <mergeCell ref="A605:B605"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A786:B786"/>
+    <mergeCell ref="A739:B739"/>
+    <mergeCell ref="A747:B747"/>
+    <mergeCell ref="A754:B754"/>
+    <mergeCell ref="A763:B763"/>
+    <mergeCell ref="A770:B770"/>
+    <mergeCell ref="A779:B779"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="emailLR_7_@gr.com"/>
@@ -27925,7 +27934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -28622,8 +28631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -28667,7 +28676,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>75</v>
@@ -28733,7 +28742,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>86</v>
@@ -28811,13 +28820,13 @@
         <v>74</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -28881,13 +28890,13 @@
         <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -28955,13 +28964,13 @@
         <v>74</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -29029,7 +29038,7 @@
         <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>116</v>
@@ -29049,7 +29058,7 @@
         <v>119</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -29123,13 +29132,13 @@
         <v>74</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="E54" s="8">
         <v>200</v>
@@ -29146,7 +29155,7 @@
         <v>132</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="E55" s="7"/>
     </row>
@@ -29220,7 +29229,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>137</v>
@@ -29240,7 +29249,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -29292,7 +29301,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="126" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="122"/>
@@ -29320,7 +29329,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>75</v>
@@ -29366,7 +29375,7 @@
         <v>152</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -29382,7 +29391,7 @@
       <c r="D77" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="125" t="s">
+      <c r="A79" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B79" s="122"/>
@@ -29410,13 +29419,13 @@
         <v>74</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="37.5">
@@ -29456,7 +29465,7 @@
         <v>163</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -29498,13 +29507,13 @@
         <v>74</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="37.5">
@@ -29554,7 +29563,7 @@
         <v>172</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -29644,7 +29653,7 @@
         <v>74</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C105" s="123" t="s">
         <v>180</v>
@@ -29700,7 +29709,7 @@
         <v>74</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="38.1" customHeight="1">
@@ -29710,7 +29719,7 @@
         <v>130</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -29730,7 +29739,7 @@
         <v>172</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -29792,7 +29801,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>186</v>
@@ -29812,7 +29821,7 @@
         <v>74</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="38.1" customHeight="1">
@@ -29826,7 +29835,7 @@
         <v>130</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="37.5">
@@ -29850,11 +29859,11 @@
         <v>172</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="126" t="s">
+      <c r="A125" s="125" t="s">
         <v>194</v>
       </c>
       <c r="B125" s="122"/>
@@ -29932,13 +29941,13 @@
         <v>74</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="38.1" customHeight="1">
@@ -29952,7 +29961,7 @@
         <v>130</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -29980,7 +29989,7 @@
         <v>172</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -30070,13 +30079,13 @@
         <v>74</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="38.1" customHeight="1">
@@ -30090,7 +30099,7 @@
         <v>130</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -30204,13 +30213,13 @@
         <v>74</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="38.1" customHeight="1">
@@ -30224,7 +30233,7 @@
         <v>130</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -30252,7 +30261,7 @@
         <v>227</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -30317,6 +30326,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -30327,34 +30364,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31590,7 +31599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -31609,15 +31618,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="129" t="s">
         <v>450</v>
       </c>
       <c r="B1" s="128"/>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="127" t="s">
         <v>451</v>
       </c>
       <c r="E1" s="128"/>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="127" t="s">
         <v>452</v>
       </c>
       <c r="H1" s="128"/>
@@ -31689,7 +31698,7 @@
       <c r="B5" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="127" t="s">
         <v>469</v>
       </c>
       <c r="E5" s="128"/>
@@ -31735,7 +31744,7 @@
         <v>119</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -31821,13 +31830,13 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="127" t="s">
         <v>491</v>
       </c>
       <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="127" t="s">
         <v>492</v>
       </c>
       <c r="B16" s="128"/>
@@ -31879,7 +31888,7 @@
       <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B20" s="128"/>
@@ -31901,7 +31910,7 @@
         <v>119</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
@@ -31909,7 +31918,7 @@
         <v>501</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>77</v>
@@ -31943,7 +31952,7 @@
       <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="127" t="s">
         <v>504</v>
       </c>
       <c r="B26" s="128"/>
@@ -31965,7 +31974,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -31985,11 +31994,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B30" s="128"/>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="127" t="s">
         <v>509</v>
       </c>
       <c r="E30" s="128"/>
@@ -32013,7 +32022,7 @@
         <v>512</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>460</v>
@@ -32043,7 +32052,7 @@
       <c r="E34" s="128"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="127" t="s">
         <v>515</v>
       </c>
       <c r="B35" s="128"/>
@@ -32065,7 +32074,7 @@
         <v>119</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -32097,7 +32106,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B39" s="128"/>
@@ -32125,7 +32134,7 @@
         <v>512</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>45</v>
@@ -32145,7 +32154,7 @@
         <v>524</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -32157,7 +32166,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="129" t="s">
+      <c r="A44" s="127" t="s">
         <v>525</v>
       </c>
       <c r="B44" s="128"/>
@@ -32177,7 +32186,7 @@
       <c r="B46" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="D46" s="129" t="s">
+      <c r="D46" s="127" t="s">
         <v>528</v>
       </c>
       <c r="E46" s="128"/>
@@ -32197,7 +32206,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="129" t="s">
+      <c r="A48" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B48" s="128"/>
@@ -32259,7 +32268,7 @@
         <v>119</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
@@ -32285,7 +32294,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="129" t="s">
+      <c r="A55" s="127" t="s">
         <v>539</v>
       </c>
       <c r="B55" s="128"/>
@@ -32333,11 +32342,11 @@
         <v>545</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="129" t="s">
+      <c r="A59" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B59" s="128"/>
@@ -32369,9 +32378,9 @@
         <v>152</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D62" s="129" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D62" s="127" t="s">
         <v>548</v>
       </c>
       <c r="E62" s="128"/>
@@ -32381,7 +32390,7 @@
         <v>163</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>455</v>
@@ -32409,7 +32418,7 @@
         <v>227</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>81</v>
@@ -32461,7 +32470,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="127" t="s">
+      <c r="A69" s="129" t="s">
         <v>555</v>
       </c>
       <c r="B69" s="128"/>
@@ -32495,7 +32504,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1">
@@ -32529,7 +32538,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="127" t="s">
         <v>562</v>
       </c>
       <c r="B75" s="128"/>
@@ -32581,7 +32590,7 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="129" t="s">
+      <c r="A79" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B79" s="128"/>
@@ -32613,9 +32622,9 @@
         <v>152</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D82" s="129" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D82" s="127" t="s">
         <v>573</v>
       </c>
       <c r="E82" s="128"/>
@@ -32705,12 +32714,12 @@
         <v>119</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="129" t="s">
+      <c r="A89" s="127" t="s">
         <v>584</v>
       </c>
       <c r="B89" s="128"/>
@@ -32772,7 +32781,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="129" t="s">
+      <c r="A93" s="127" t="s">
         <v>469</v>
       </c>
       <c r="B93" s="128"/>
@@ -32811,7 +32820,7 @@
         <v>119</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
@@ -32819,13 +32828,13 @@
         <v>163</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>524</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -32853,7 +32862,7 @@
         <v>545</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -32929,7 +32938,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="127" t="s">
+      <c r="A105" s="129" t="s">
         <v>600</v>
       </c>
       <c r="B105" s="128"/>
@@ -32955,7 +32964,7 @@
       <c r="B107" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="D107" s="129" t="s">
+      <c r="D107" s="127" t="s">
         <v>604</v>
       </c>
       <c r="E107" s="128"/>
@@ -33003,7 +33012,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="127" t="s">
+      <c r="A111" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B111" s="128"/>
@@ -33033,7 +33042,7 @@
         <v>163</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D113" s="28" t="s">
         <v>599</v>
@@ -33059,7 +33068,7 @@
         <v>227</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="D115" s="28" t="s">
         <v>71</v>
@@ -33079,7 +33088,7 @@
         <v>119</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" customHeight="1">
@@ -33125,7 +33134,7 @@
       <c r="E120" s="90"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="127" t="s">
+      <c r="A121" s="129" t="s">
         <v>613</v>
       </c>
       <c r="B121" s="128"/>
@@ -33161,7 +33170,7 @@
         <v>119</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" customHeight="1">
@@ -33179,7 +33188,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="127" t="s">
+      <c r="A125" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B125" s="128"/>
@@ -33225,9 +33234,9 @@
         <v>152</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D129" s="129" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D129" s="127" t="s">
         <v>623</v>
       </c>
       <c r="E129" s="128"/>
@@ -33249,7 +33258,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="127" t="s">
+      <c r="A132" s="129" t="s">
         <v>626</v>
       </c>
       <c r="B132" s="128"/>
@@ -33303,7 +33312,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="127" t="s">
+      <c r="A136" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B136" s="128"/>
@@ -33331,13 +33340,13 @@
         <v>186</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D138" s="28" t="s">
         <v>119</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" customHeight="1">
@@ -33359,7 +33368,7 @@
         <v>524</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>376</v>
@@ -33397,7 +33406,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="127" t="s">
+      <c r="A144" s="129" t="s">
         <v>637</v>
       </c>
       <c r="B144" s="128"/>
@@ -33419,7 +33428,7 @@
         <v>524</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -33451,7 +33460,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="127" t="s">
+      <c r="A148" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B148" s="128"/>
@@ -33481,7 +33490,7 @@
         <v>524</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -33499,7 +33508,7 @@
       <c r="B152" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="D152" s="129" t="s">
+      <c r="D152" s="127" t="s">
         <v>643</v>
       </c>
       <c r="E152" s="128"/>
@@ -33509,7 +33518,7 @@
         <v>545</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>455</v>
@@ -33613,11 +33622,11 @@
         <v>119</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="127" t="s">
+      <c r="A162" s="129" t="s">
         <v>650</v>
       </c>
       <c r="B162" s="128"/>
@@ -33697,7 +33706,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" customHeight="1">
-      <c r="A168" s="127" t="s">
+      <c r="A168" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B168" s="128"/>
@@ -33705,7 +33714,7 @@
         <v>524</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -33733,7 +33742,7 @@
         <v>227</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -33769,7 +33778,7 @@
         <v>119</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>568</v>
@@ -33783,7 +33792,7 @@
         <v>524</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>570</v>
@@ -33807,7 +33816,7 @@
         <v>545</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -33825,7 +33834,7 @@
       <c r="B178" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D178" s="129" t="s">
+      <c r="D178" s="127" t="s">
         <v>661</v>
       </c>
       <c r="E178" s="128"/>
@@ -33861,7 +33870,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="127" t="s">
+      <c r="A182" s="129" t="s">
         <v>665</v>
       </c>
       <c r="B182" s="128"/>
@@ -33937,11 +33946,11 @@
         <v>119</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30" customHeight="1">
-      <c r="A188" s="127" t="s">
+      <c r="A188" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B188" s="128"/>
@@ -34025,7 +34034,7 @@
         <v>119</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D194" s="28" t="s">
         <v>621</v>
@@ -34039,13 +34048,13 @@
         <v>524</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D195" s="28" t="s">
         <v>119</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -34061,7 +34070,7 @@
         <v>545</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1">
@@ -34071,7 +34080,7 @@
       <c r="B198" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D198" s="129" t="s">
+      <c r="D198" s="127" t="s">
         <v>681</v>
       </c>
       <c r="E198" s="128"/>
@@ -34127,7 +34136,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="127" t="s">
+      <c r="A203" s="129" t="s">
         <v>686</v>
       </c>
       <c r="B203" s="128"/>
@@ -34161,7 +34170,7 @@
         <v>119</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30" customHeight="1">
@@ -34207,7 +34216,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="127" t="s">
+      <c r="A209" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B209" s="128"/>
@@ -34241,7 +34250,7 @@
         <v>119</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30" customHeight="1">
@@ -34269,7 +34278,7 @@
         <v>163</v>
       </c>
       <c r="E213" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -34291,7 +34300,7 @@
         <v>119</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" customHeight="1">
@@ -34299,7 +34308,7 @@
         <v>524</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1">
@@ -34309,7 +34318,7 @@
       <c r="B217" s="28">
         <v>200</v>
       </c>
-      <c r="D217" s="129" t="s">
+      <c r="D217" s="127" t="s">
         <v>700</v>
       </c>
       <c r="E217" s="128"/>
@@ -34371,7 +34380,7 @@
       <c r="E222" s="90"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="127" t="s">
+      <c r="A223" s="129" t="s">
         <v>704</v>
       </c>
       <c r="B223" s="128"/>
@@ -34393,7 +34402,7 @@
         <v>119</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="30" customHeight="1">
@@ -34451,7 +34460,7 @@
       <c r="E228" s="90"/>
     </row>
     <row r="229" spans="1:5" ht="30" customHeight="1">
-      <c r="A229" s="127" t="s">
+      <c r="A229" s="129" t="s">
         <v>469</v>
       </c>
       <c r="B229" s="128"/>
@@ -34473,7 +34482,7 @@
         <v>163</v>
       </c>
       <c r="E230" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="30">
@@ -34515,7 +34524,7 @@
         <v>227</v>
       </c>
       <c r="E233" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -34537,7 +34546,7 @@
         <v>119</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>646</v>
@@ -34551,7 +34560,7 @@
         <v>524</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
       <c r="D236" s="28" t="s">
         <v>52</v>
@@ -34579,7 +34588,7 @@
         <v>545</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>570</v>
@@ -34611,7 +34620,7 @@
       <c r="B241" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D241" s="129" t="s">
+      <c r="D241" s="127" t="s">
         <v>721</v>
       </c>
       <c r="E241" s="128"/>
@@ -34666,7 +34675,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1">
-      <c r="A247" s="129" t="s">
+      <c r="A247" s="127" t="s">
         <v>726</v>
       </c>
       <c r="B247" s="128"/>
@@ -34714,7 +34723,7 @@
         <v>119</v>
       </c>
       <c r="E250" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="30" customHeight="1">
@@ -34788,7 +34797,7 @@
         <v>119</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>621</v>
@@ -34836,7 +34845,7 @@
         <v>119</v>
       </c>
       <c r="E259" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30" customHeight="1">
@@ -34848,7 +34857,7 @@
         <v>163</v>
       </c>
       <c r="E260" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -34876,7 +34885,7 @@
         <v>227</v>
       </c>
       <c r="E262" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -34926,7 +34935,7 @@
         <v>119</v>
       </c>
       <c r="B266" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
       <c r="D266" s="28" t="s">
         <v>570</v>
@@ -34940,7 +34949,7 @@
         <v>163</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -34956,7 +34965,7 @@
         <v>227</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -34992,7 +35001,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
-      <c r="A276" s="129" t="s">
+      <c r="A276" s="127" t="s">
         <v>745</v>
       </c>
       <c r="B276" s="128"/>
@@ -35064,7 +35073,7 @@
         <v>119</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -35142,7 +35151,7 @@
         <v>119</v>
       </c>
       <c r="B295" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30" customHeight="1">
@@ -35150,7 +35159,7 @@
         <v>163</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -35186,7 +35195,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" ht="15" customHeight="1">
-      <c r="A305" s="129" t="s">
+      <c r="A305" s="127" t="s">
         <v>757</v>
       </c>
       <c r="B305" s="128"/>
@@ -35258,7 +35267,7 @@
         <v>119</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30" customHeight="1">
@@ -35336,7 +35345,7 @@
         <v>119</v>
       </c>
       <c r="B324" s="28" t="s">
-        <v>2106</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="30" customHeight="1">
@@ -35344,7 +35353,7 @@
         <v>163</v>
       </c>
       <c r="B325" s="28" t="s">
-        <v>2105</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -35360,7 +35369,7 @@
         <v>227</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -35397,36 +35406,24 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -35443,24 +35440,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
